--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="3285" windowWidth="25125" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="3285" windowWidth="25125" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="225">
   <si>
     <t>No</t>
   </si>
@@ -929,12 +929,111 @@
     <t>杨斌</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>集中式房态图，“房间无照片”筛选项改为“房型无照片”，筛选逻辑相应调整</t>
+  </si>
+  <si>
+    <t>房东PC</t>
+  </si>
+  <si>
+    <t>韩淑芳、徐文瑞</t>
+  </si>
+  <si>
+    <t>马丁组</t>
+  </si>
+  <si>
+    <t>分散式/集中式房态图，新增“其他账单欠费”筛选项</t>
+  </si>
+  <si>
+    <t>分散式/集中式房态图，新增“账务详情”栏</t>
+  </si>
+  <si>
+    <t>韩淑芳</t>
+  </si>
+  <si>
+    <t>分散式/集中式房态图，“官网展示”功能优化</t>
+  </si>
+  <si>
+    <t>分散式房态图，合租的房源，在信息页内新增“朝向”字段</t>
+  </si>
+  <si>
+    <t>分散式/集中式房态图，在信息页新增“面积”显示字段</t>
+  </si>
+  <si>
+    <t>分散式/集中式房态图，各种销售状态时，对应的常用操作按钮用醒目颜色区分</t>
+  </si>
+  <si>
+    <t>分散式/集中式房态图，“需退房”筛选项文字改为“租客发起退房”并做图标，图标文字显示“退”</t>
+  </si>
+  <si>
+    <t>分散式/集中式房态图，新增“退房结账”操作按钮</t>
+  </si>
+  <si>
+    <t>分散式/集中式房态图，“临时锁定”的房源，在房源图标上有标示</t>
+  </si>
+  <si>
+    <t>分散式/集中式房态图，调整筛选栏整体样式和布局，确保一屏完整展示</t>
+  </si>
+  <si>
+    <t>分散式/集中式房态图，调整房源图标大小，提升低分辨率下的用户体验</t>
+  </si>
+  <si>
+    <t>分散式/集中式房态图，搜房框，搜索订单编号字段调整，改成新样式</t>
+  </si>
+  <si>
+    <t>分散式/集中式房态图，更改备注之后，页面不应该刷新</t>
+  </si>
+  <si>
+    <t>分散式/集中式房态图，当天到期的房源，需显示“快到期0天”</t>
+  </si>
+  <si>
+    <t>分散式/集中式房态图、添加分散式/集中式四个操作按钮的窗口打开逻辑修正</t>
+  </si>
+  <si>
+    <t>房源录入按钮，放到快捷菜单中，文字“添加分散式”“添加集中式”；房态图按钮，放到快捷菜单中，文字“分散式房态图”“集中式房态图”；</t>
+  </si>
+  <si>
+    <t>贾金朋</t>
+  </si>
+  <si>
+    <t>户型为0卫的房源，取消“独卫”配置字段</t>
+  </si>
+  <si>
+    <t>安栋</t>
+  </si>
+  <si>
+    <t>分散式合租录入时，总面积与房间面积总和加判断</t>
+  </si>
+  <si>
+    <t>集中式的房型录入/编辑页面中，“照片”字段改为“房型照片”</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复（28项）</t>
+  </si>
+  <si>
+    <t>房东APP</t>
+  </si>
+  <si>
+    <t>徐文瑞、张飞</t>
+  </si>
+  <si>
+    <t>房源相关日志埋点优化解决重复数据问题</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>张飞</t>
+  </si>
+  <si>
+    <t>房态图统计慢SQL优化</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1050,6 +1149,29 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1077,7 +1199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1183,6 +1305,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1210,7 +1358,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1313,18 +1461,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1379,6 +1515,24 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1391,11 +1545,35 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1822,11 +2000,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K45" sqref="K45"/>
+      <selection pane="bottomRight" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2655,17 +2833,17 @@
       <c r="S16" s="13"/>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" spans="1:20" s="41" customFormat="1" ht="16.5">
+    <row r="17" spans="1:20" s="37" customFormat="1" ht="16.5">
       <c r="A17" s="16">
         <v>16</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="34" t="s">
         <v>80</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="35" t="s">
         <v>82</v>
       </c>
       <c r="E17" s="10" t="s">
@@ -2703,13 +2881,13 @@
       <c r="Q17" s="30"/>
       <c r="R17" s="30"/>
       <c r="S17" s="12"/>
-      <c r="T17" s="40"/>
+      <c r="T17" s="36"/>
     </row>
     <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A18" s="16">
         <v>17</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="34" t="s">
         <v>88</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -2759,13 +2937,13 @@
       <c r="A19" s="16">
         <v>18</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="34" t="s">
         <v>90</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="35" t="s">
         <v>82</v>
       </c>
       <c r="E19" s="10" t="s">
@@ -2809,13 +2987,13 @@
       <c r="A20" s="16">
         <v>19</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="34" t="s">
         <v>91</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="35" t="s">
         <v>82</v>
       </c>
       <c r="E20" s="10" t="s">
@@ -2859,7 +3037,7 @@
       <c r="A21" s="16">
         <v>20</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="34" t="s">
         <v>93</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -2909,7 +3087,7 @@
       <c r="A22" s="16">
         <v>21</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="34" t="s">
         <v>96</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -2949,38 +3127,38 @@
       <c r="O22" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
       <c r="S22" s="13"/>
       <c r="T22" s="8"/>
     </row>
-    <row r="23" spans="1:20" s="47" customFormat="1" ht="16.5">
+    <row r="23" spans="1:20" s="43" customFormat="1" ht="16.5">
       <c r="A23" s="16">
         <v>22</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="34" t="s">
         <v>97</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="35" t="s">
         <v>34</v>
       </c>
       <c r="F23" s="11">
         <v>42625</v>
       </c>
-      <c r="G23" s="43" t="s">
+      <c r="G23" s="39" t="s">
         <v>34</v>
       </c>
       <c r="H23" s="11">
         <v>42625</v>
       </c>
-      <c r="I23" s="39"/>
+      <c r="I23" s="35"/>
       <c r="J23" s="12" t="s">
         <v>83</v>
       </c>
@@ -2999,39 +3177,39 @@
       <c r="O23" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="46"/>
-    </row>
-    <row r="24" spans="1:20" s="47" customFormat="1" ht="16.5">
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="42"/>
+    </row>
+    <row r="24" spans="1:20" s="43" customFormat="1" ht="16.5">
       <c r="A24" s="16">
         <v>23</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="34" t="s">
         <v>99</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="35" t="s">
         <v>34</v>
       </c>
       <c r="F24" s="11">
         <v>42625</v>
       </c>
-      <c r="G24" s="43" t="s">
+      <c r="G24" s="39" t="s">
         <v>34</v>
       </c>
       <c r="H24" s="11">
         <v>42625</v>
       </c>
-      <c r="I24" s="39"/>
-      <c r="J24" s="48" t="s">
+      <c r="I24" s="35"/>
+      <c r="J24" s="44" t="s">
         <v>101</v>
       </c>
       <c r="K24" s="10" t="s">
@@ -3049,39 +3227,39 @@
       <c r="O24" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="46"/>
-    </row>
-    <row r="25" spans="1:20" s="47" customFormat="1" ht="16.5">
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="42"/>
+    </row>
+    <row r="25" spans="1:20" s="43" customFormat="1" ht="16.5">
       <c r="A25" s="16">
         <v>24</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="34" t="s">
         <v>102</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="43">
+      <c r="F25" s="39">
         <v>42627</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="43">
+      <c r="H25" s="39">
         <v>42627</v>
       </c>
-      <c r="I25" s="39"/>
-      <c r="J25" s="48" t="s">
+      <c r="I25" s="35"/>
+      <c r="J25" s="44" t="s">
         <v>101</v>
       </c>
       <c r="K25" s="10" t="s">
@@ -3099,39 +3277,39 @@
       <c r="O25" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="46"/>
-    </row>
-    <row r="26" spans="1:20" s="47" customFormat="1" ht="16.5">
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="42"/>
+    </row>
+    <row r="26" spans="1:20" s="43" customFormat="1" ht="16.5">
       <c r="A26" s="16">
         <v>25</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="34" t="s">
         <v>103</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="43">
+      <c r="F26" s="39">
         <v>42627</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="G26" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="43">
+      <c r="H26" s="39">
         <v>42627</v>
       </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="48" t="s">
+      <c r="I26" s="35"/>
+      <c r="J26" s="44" t="s">
         <v>101</v>
       </c>
       <c r="K26" s="10" t="s">
@@ -3149,17 +3327,17 @@
       <c r="O26" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="46"/>
-    </row>
-    <row r="27" spans="1:20" s="47" customFormat="1" ht="16.5">
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="42"/>
+    </row>
+    <row r="27" spans="1:20" s="43" customFormat="1" ht="16.5">
       <c r="A27" s="16">
         <v>26</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="34" t="s">
         <v>104</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -3168,20 +3346,20 @@
       <c r="D27" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="43">
+      <c r="F27" s="39">
         <v>42627</v>
       </c>
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="43">
+      <c r="H27" s="39">
         <v>42627</v>
       </c>
-      <c r="I27" s="39"/>
-      <c r="J27" s="48" t="s">
+      <c r="I27" s="35"/>
+      <c r="J27" s="44" t="s">
         <v>106</v>
       </c>
       <c r="K27" s="10" t="s">
@@ -3199,42 +3377,42 @@
       <c r="O27" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="46"/>
-    </row>
-    <row r="28" spans="1:20" s="47" customFormat="1" ht="18.75" customHeight="1">
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="42"/>
+    </row>
+    <row r="28" spans="1:20" s="43" customFormat="1" ht="18.75" customHeight="1">
       <c r="A28" s="16">
         <v>27</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="46" t="s">
         <v>107</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="43">
+      <c r="F28" s="39">
         <v>42633</v>
       </c>
-      <c r="G28" s="43" t="s">
+      <c r="G28" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="43">
+      <c r="H28" s="39">
         <v>42633</v>
       </c>
-      <c r="I28" s="39"/>
-      <c r="J28" s="48" t="s">
+      <c r="I28" s="35"/>
+      <c r="J28" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="K28" s="39" t="s">
+      <c r="K28" s="35" t="s">
         <v>84</v>
       </c>
       <c r="L28" s="10" t="s">
@@ -3249,42 +3427,42 @@
       <c r="O28" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="46"/>
-    </row>
-    <row r="29" spans="1:20" s="47" customFormat="1" ht="16.5">
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="42"/>
+    </row>
+    <row r="29" spans="1:20" s="43" customFormat="1" ht="16.5">
       <c r="A29" s="16">
         <v>28</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="46" t="s">
         <v>110</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="43">
+      <c r="F29" s="39">
         <v>42627</v>
       </c>
-      <c r="G29" s="43" t="s">
+      <c r="G29" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="43">
+      <c r="H29" s="39">
         <v>42627</v>
       </c>
-      <c r="I29" s="39"/>
-      <c r="J29" s="48" t="s">
+      <c r="I29" s="35"/>
+      <c r="J29" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="K29" s="39" t="s">
+      <c r="K29" s="35" t="s">
         <v>84</v>
       </c>
       <c r="L29" s="10" t="s">
@@ -3299,42 +3477,42 @@
       <c r="O29" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="46"/>
-    </row>
-    <row r="30" spans="1:20" s="47" customFormat="1" ht="33">
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="42"/>
+    </row>
+    <row r="30" spans="1:20" s="43" customFormat="1" ht="33">
       <c r="A30" s="16">
         <v>29</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="46" t="s">
         <v>113</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="43">
+      <c r="F30" s="39">
         <v>42633</v>
       </c>
-      <c r="G30" s="43" t="s">
+      <c r="G30" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H30" s="43">
+      <c r="H30" s="39">
         <v>42633</v>
       </c>
-      <c r="I30" s="39"/>
-      <c r="J30" s="48" t="s">
+      <c r="I30" s="35"/>
+      <c r="J30" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="K30" s="39" t="s">
+      <c r="K30" s="35" t="s">
         <v>84</v>
       </c>
       <c r="L30" s="10" t="s">
@@ -3349,11 +3527,11 @@
       <c r="O30" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="46"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="42"/>
     </row>
     <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A31" s="16">
@@ -3795,7 +3973,7 @@
       <c r="S40" s="13"/>
       <c r="T40" s="8"/>
     </row>
-    <row r="41" spans="1:20" s="41" customFormat="1" ht="20.25" customHeight="1">
+    <row r="41" spans="1:20" s="37" customFormat="1" ht="20.25" customHeight="1">
       <c r="A41" s="16">
         <v>40</v>
       </c>
@@ -3834,10 +4012,10 @@
       <c r="P41" s="30"/>
       <c r="Q41" s="30"/>
       <c r="R41" s="30"/>
-      <c r="S41" s="51" t="s">
+      <c r="S41" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="T41" s="40"/>
+      <c r="T41" s="36"/>
     </row>
     <row r="42" spans="1:20" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A42" s="16">
@@ -3878,495 +4056,1024 @@
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
-      <c r="S42" s="51" t="s">
+      <c r="S42" s="47" t="s">
         <v>138</v>
       </c>
       <c r="T42" s="8"/>
     </row>
-    <row r="43" spans="1:20" ht="16.5">
-      <c r="A43" s="7"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="4"/>
-    </row>
-    <row r="44" spans="1:20" ht="16.5">
-      <c r="A44" s="7"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="4"/>
-    </row>
-    <row r="45" spans="1:20" ht="16.5">
-      <c r="A45" s="7"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="4"/>
-    </row>
-    <row r="46" spans="1:20" ht="16.5">
-      <c r="A46" s="7"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="4"/>
-    </row>
-    <row r="47" spans="1:20" ht="16.5">
-      <c r="A47" s="7"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="4"/>
-    </row>
-    <row r="48" spans="1:20" ht="16.5">
-      <c r="A48" s="7"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="4"/>
-    </row>
-    <row r="49" spans="1:19" ht="16.5">
-      <c r="A49" s="7"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="4"/>
-    </row>
-    <row r="50" spans="1:19" ht="16.5">
-      <c r="A50" s="7"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="4"/>
-    </row>
-    <row r="51" spans="1:19" ht="16.5">
-      <c r="A51" s="7"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="4"/>
-    </row>
-    <row r="52" spans="1:19" ht="16.5">
-      <c r="A52" s="7"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="4"/>
+    <row r="43" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A43" s="16">
+        <v>42</v>
+      </c>
+      <c r="B43" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="11">
+        <v>42627</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" s="11">
+        <v>42627</v>
+      </c>
+      <c r="I43" s="10"/>
+      <c r="J43" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="L43" s="10"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="63"/>
+      <c r="R43" s="63"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="8"/>
+    </row>
+    <row r="44" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A44" s="16">
+        <v>43</v>
+      </c>
+      <c r="B44" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="11">
+        <v>42627</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H44" s="11">
+        <v>42627</v>
+      </c>
+      <c r="I44" s="10"/>
+      <c r="J44" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="L44" s="10"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P44" s="63"/>
+      <c r="Q44" s="63"/>
+      <c r="R44" s="63"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="8"/>
+    </row>
+    <row r="45" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A45" s="16">
+        <v>44</v>
+      </c>
+      <c r="B45" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="11">
+        <v>42627</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H45" s="11">
+        <v>42627</v>
+      </c>
+      <c r="I45" s="10"/>
+      <c r="J45" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="L45" s="10"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P45" s="63"/>
+      <c r="Q45" s="63"/>
+      <c r="R45" s="63"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="8"/>
+    </row>
+    <row r="46" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A46" s="16">
+        <v>45</v>
+      </c>
+      <c r="B46" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="11">
+        <v>42627</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" s="11">
+        <v>42627</v>
+      </c>
+      <c r="I46" s="10"/>
+      <c r="J46" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="L46" s="10"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P46" s="63"/>
+      <c r="Q46" s="63"/>
+      <c r="R46" s="63"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="8"/>
+    </row>
+    <row r="47" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A47" s="16">
+        <v>46</v>
+      </c>
+      <c r="B47" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="11">
+        <v>42627</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" s="11">
+        <v>42627</v>
+      </c>
+      <c r="I47" s="10"/>
+      <c r="J47" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="L47" s="10"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P47" s="63"/>
+      <c r="Q47" s="63"/>
+      <c r="R47" s="63"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="8"/>
+    </row>
+    <row r="48" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A48" s="16">
+        <v>47</v>
+      </c>
+      <c r="B48" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="11">
+        <v>42627</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" s="11">
+        <v>42627</v>
+      </c>
+      <c r="I48" s="10"/>
+      <c r="J48" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="L48" s="10"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P48" s="63"/>
+      <c r="Q48" s="63"/>
+      <c r="R48" s="63"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="8"/>
+    </row>
+    <row r="49" spans="1:20" s="9" customFormat="1" ht="24">
+      <c r="A49" s="16">
+        <v>48</v>
+      </c>
+      <c r="B49" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="11">
+        <v>42627</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" s="11">
+        <v>42627</v>
+      </c>
+      <c r="I49" s="10"/>
+      <c r="J49" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="L49" s="10"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="63"/>
+      <c r="R49" s="63"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="8"/>
+    </row>
+    <row r="50" spans="1:20" s="9" customFormat="1" ht="24">
+      <c r="A50" s="16">
+        <v>49</v>
+      </c>
+      <c r="B50" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="11">
+        <v>42627</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" s="11">
+        <v>42627</v>
+      </c>
+      <c r="I50" s="10"/>
+      <c r="J50" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="L50" s="10"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P50" s="63"/>
+      <c r="Q50" s="63"/>
+      <c r="R50" s="63"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="8"/>
+    </row>
+    <row r="51" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A51" s="16">
+        <v>50</v>
+      </c>
+      <c r="B51" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="11">
+        <v>42627</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H51" s="11">
+        <v>42627</v>
+      </c>
+      <c r="I51" s="10"/>
+      <c r="J51" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="L51" s="10"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P51" s="63"/>
+      <c r="Q51" s="63"/>
+      <c r="R51" s="63"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="8"/>
+    </row>
+    <row r="52" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A52" s="16">
+        <v>51</v>
+      </c>
+      <c r="B52" s="66" t="s">
+        <v>205</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="11">
+        <v>42627</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H52" s="11">
+        <v>42627</v>
+      </c>
+      <c r="I52" s="10"/>
+      <c r="J52" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="L52" s="10"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="4"/>
-    </row>
-    <row r="53" spans="1:19" ht="16.5">
-      <c r="A53" s="7"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="4"/>
+      <c r="R52" s="63"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="8"/>
+    </row>
+    <row r="53" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A53" s="16">
+        <v>52</v>
+      </c>
+      <c r="B53" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="11">
+        <v>42627</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53" s="11">
+        <v>42627</v>
+      </c>
+      <c r="I53" s="10"/>
+      <c r="J53" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="L53" s="10"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
-      <c r="S53" s="4"/>
-    </row>
-    <row r="54" spans="1:19" ht="16.5">
-      <c r="A54" s="7"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="4"/>
+      <c r="R53" s="63"/>
+      <c r="S53" s="13"/>
+      <c r="T53" s="8"/>
+    </row>
+    <row r="54" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A54" s="16">
+        <v>53</v>
+      </c>
+      <c r="B54" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="11">
+        <v>42627</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H54" s="11">
+        <v>42627</v>
+      </c>
+      <c r="I54" s="10"/>
+      <c r="J54" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="L54" s="10"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
-      <c r="S54" s="4"/>
-    </row>
-    <row r="55" spans="1:19" ht="16.5">
-      <c r="A55" s="7"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="4"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="8"/>
+    </row>
+    <row r="55" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A55" s="16">
+        <v>54</v>
+      </c>
+      <c r="B55" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="11">
+        <v>42627</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H55" s="11">
+        <v>42627</v>
+      </c>
+      <c r="I55" s="10"/>
+      <c r="J55" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="L55" s="10"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
-      <c r="S55" s="4"/>
-    </row>
-    <row r="56" spans="1:19" ht="16.5">
-      <c r="A56" s="7"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="4"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="8"/>
+    </row>
+    <row r="56" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A56" s="16">
+        <v>55</v>
+      </c>
+      <c r="B56" s="69" t="s">
+        <v>209</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" s="11">
+        <v>42627</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H56" s="11">
+        <v>42627</v>
+      </c>
+      <c r="I56" s="10"/>
+      <c r="J56" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="L56" s="10"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
-      <c r="S56" s="4"/>
-    </row>
-    <row r="57" spans="1:19">
-      <c r="A57" s="7"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="4"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="8"/>
+    </row>
+    <row r="57" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A57" s="16">
+        <v>56</v>
+      </c>
+      <c r="B57" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" s="11">
+        <v>42627</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H57" s="11">
+        <v>42627</v>
+      </c>
+      <c r="I57" s="10"/>
+      <c r="J57" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="L57" s="10"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="4"/>
-    </row>
-    <row r="58" spans="1:19">
-      <c r="A58" s="7"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="4"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="8"/>
+    </row>
+    <row r="58" spans="1:20" s="9" customFormat="1" ht="24">
+      <c r="A58" s="16">
+        <v>57</v>
+      </c>
+      <c r="B58" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58" s="11">
+        <v>42627</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H58" s="11">
+        <v>42627</v>
+      </c>
+      <c r="I58" s="10"/>
+      <c r="J58" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="L58" s="10"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
-      <c r="S58" s="4"/>
-    </row>
-    <row r="59" spans="1:19">
-      <c r="A59" s="7"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="4"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="8"/>
+    </row>
+    <row r="59" spans="1:20" s="9" customFormat="1" ht="36">
+      <c r="A59" s="16">
+        <v>58</v>
+      </c>
+      <c r="B59" s="71" t="s">
+        <v>212</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" s="11">
+        <v>42627</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H59" s="11">
+        <v>42627</v>
+      </c>
+      <c r="I59" s="10"/>
+      <c r="J59" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="L59" s="10"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="4"/>
-    </row>
-    <row r="60" spans="1:19">
-      <c r="A60" s="7"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="4"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="8"/>
+    </row>
+    <row r="60" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A60" s="16">
+        <v>59</v>
+      </c>
+      <c r="B60" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="11">
+        <v>42633</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H60" s="11">
+        <v>42633</v>
+      </c>
+      <c r="I60" s="10"/>
+      <c r="J60" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="L60" s="10"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="4"/>
-    </row>
-    <row r="61" spans="1:19">
-      <c r="A61" s="7"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="4"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="8"/>
+    </row>
+    <row r="61" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A61" s="16">
+        <v>60</v>
+      </c>
+      <c r="B61" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" s="11">
+        <v>42633</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H61" s="11">
+        <v>42633</v>
+      </c>
+      <c r="I61" s="10"/>
+      <c r="J61" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="K61" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="L61" s="10"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
-      <c r="S61" s="4"/>
-    </row>
-    <row r="62" spans="1:19">
-      <c r="A62" s="7"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="4"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="8"/>
+    </row>
+    <row r="62" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A62" s="16">
+        <v>61</v>
+      </c>
+      <c r="B62" s="68" t="s">
+        <v>217</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" s="11">
+        <v>42634</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H62" s="11">
+        <v>42634</v>
+      </c>
+      <c r="I62" s="10"/>
+      <c r="J62" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="L62" s="10"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="4"/>
-    </row>
-    <row r="63" spans="1:19">
-      <c r="A63" s="7"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="4"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="8"/>
+    </row>
+    <row r="63" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A63" s="16">
+        <v>62</v>
+      </c>
+      <c r="B63" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" s="11">
+        <v>42634</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H63" s="11">
+        <v>42634</v>
+      </c>
+      <c r="I63" s="10"/>
+      <c r="J63" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="L63" s="10"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
-      <c r="S63" s="4"/>
-    </row>
-    <row r="64" spans="1:19">
-      <c r="A64" s="7"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="4"/>
+      <c r="S63" s="13"/>
+      <c r="T63" s="8"/>
+    </row>
+    <row r="64" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A64" s="16">
+        <v>63</v>
+      </c>
+      <c r="B64" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" s="11">
+        <v>42625</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H64" s="11">
+        <v>42625</v>
+      </c>
+      <c r="I64" s="10"/>
+      <c r="J64" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="L64" s="10"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
-      <c r="S64" s="4"/>
-    </row>
-    <row r="65" spans="1:19">
-      <c r="A65" s="7"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="4"/>
+      <c r="S64" s="13"/>
+      <c r="T64" s="8"/>
+    </row>
+    <row r="65" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A65" s="16">
+        <v>64</v>
+      </c>
+      <c r="B65" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" s="11">
+        <v>42625</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H65" s="11">
+        <v>42625</v>
+      </c>
+      <c r="I65" s="10"/>
+      <c r="J65" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="L65" s="10"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="4"/>
-    </row>
-    <row r="66" spans="1:19">
+      <c r="S65" s="13"/>
+      <c r="T65" s="8"/>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" s="7"/>
       <c r="B66" s="4"/>
       <c r="C66" s="7"/>
@@ -4387,7 +5094,7 @@
       <c r="R66" s="7"/>
       <c r="S66" s="4"/>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:20">
       <c r="A67" s="7"/>
       <c r="B67" s="4"/>
       <c r="C67" s="7"/>
@@ -4408,7 +5115,7 @@
       <c r="R67" s="7"/>
       <c r="S67" s="4"/>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:20">
       <c r="A68" s="7"/>
       <c r="B68" s="4"/>
       <c r="C68" s="7"/>
@@ -4429,7 +5136,7 @@
       <c r="R68" s="7"/>
       <c r="S68" s="4"/>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:20">
       <c r="A69" s="7"/>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -4450,7 +5157,7 @@
       <c r="R69" s="7"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:20">
       <c r="A70" s="7"/>
       <c r="B70" s="4"/>
       <c r="C70" s="7"/>
@@ -4471,7 +5178,7 @@
       <c r="R70" s="7"/>
       <c r="S70" s="4"/>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:20">
       <c r="A71" s="7"/>
       <c r="B71" s="4"/>
       <c r="C71" s="7"/>
@@ -4492,7 +5199,7 @@
       <c r="R71" s="7"/>
       <c r="S71" s="4"/>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:20">
       <c r="A72" s="7"/>
       <c r="B72" s="4"/>
       <c r="C72" s="7"/>
@@ -4513,7 +5220,7 @@
       <c r="R72" s="7"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:20">
       <c r="A73" s="7"/>
       <c r="B73" s="4"/>
       <c r="C73" s="7"/>
@@ -4534,7 +5241,7 @@
       <c r="R73" s="7"/>
       <c r="S73" s="4"/>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:20">
       <c r="A74" s="7"/>
       <c r="B74" s="4"/>
       <c r="C74" s="7"/>
@@ -4555,7 +5262,7 @@
       <c r="R74" s="7"/>
       <c r="S74" s="4"/>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:20">
       <c r="A75" s="7"/>
       <c r="B75" s="4"/>
       <c r="C75" s="7"/>
@@ -4576,7 +5283,7 @@
       <c r="R75" s="7"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:20">
       <c r="A76" s="7"/>
       <c r="B76" s="4"/>
       <c r="C76" s="7"/>
@@ -4597,7 +5304,7 @@
       <c r="R76" s="7"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:20">
       <c r="A77" s="7"/>
       <c r="B77" s="4"/>
       <c r="C77" s="7"/>
@@ -4618,7 +5325,7 @@
       <c r="R77" s="7"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:20">
       <c r="A78" s="7"/>
       <c r="B78" s="4"/>
       <c r="C78" s="7"/>
@@ -4639,7 +5346,7 @@
       <c r="R78" s="7"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" spans="1:20">
       <c r="A79" s="7"/>
       <c r="B79" s="4"/>
       <c r="C79" s="7"/>
@@ -4660,7 +5367,7 @@
       <c r="R79" s="7"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:20">
       <c r="A80" s="7"/>
       <c r="B80" s="4"/>
       <c r="C80" s="7"/>
@@ -6091,36 +6798,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="55"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A3" s="18" t="s">
@@ -6141,10 +6848,10 @@
       <c r="F3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="51" t="s">
         <v>28</v>
       </c>
       <c r="I3" s="18" t="s">
@@ -6226,8 +6933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7067,36 +7774,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="55"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A3" s="18" t="s">
@@ -8170,36 +8877,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="55"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A3" s="18" t="s">
@@ -8457,95 +9164,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="61"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="M3" s="61" t="s">
+      <c r="M3" s="53" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="97.5" customHeight="1">
-      <c r="A4" s="52">
+      <c r="A4" s="48">
         <v>1</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="48" t="s">
         <v>145</v>
       </c>
       <c r="G4" s="29" t="s">
@@ -8554,77 +9261,77 @@
       <c r="H4" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="K4" s="52" t="s">
+      <c r="K4" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="L4" s="52" t="s">
+      <c r="L4" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="M4" s="52" t="s">
+      <c r="M4" s="48" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="168.75" customHeight="1">
-      <c r="A5" s="52">
+      <c r="A5" s="48">
         <v>2</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="J5" s="52" t="s">
+      <c r="J5" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="K5" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="M5" s="53" t="s">
+      <c r="M5" s="49" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="23.25" customHeight="1">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.0.2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="3285" windowWidth="25125" windowHeight="11760"/>
   </bookViews>
@@ -13,7 +18,7 @@
     <sheet name="(公测)需要修改的配置文件" sheetId="6" r:id="rId4"/>
     <sheet name="(测试)需要修改的配置文件" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="232">
   <si>
     <t>No</t>
   </si>
@@ -143,10 +148,6 @@
   </si>
   <si>
     <t>生产环境</t>
-  </si>
-  <si>
-    <t>张浩</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SQL优化一期，【SLOW-20160824013】</t>
@@ -687,22 +688,334 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>张浩、傅其亮</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>磐石组</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>BS功能新增、变更</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>王祥毅</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷豹组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0.2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
     <t xml:space="preserve">
-400电话导出优化
+sysconfig.weixin.weixinhuoBanAppID=wx730bca9476310d91
+sysconfig.weixin.weixinhuoBanAppSecret=d4624c36b6795d1d99dcf0547af5443d</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">蘑菇伙伴微信公众号
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试环境</t>
+  </si>
+  <si>
+    <t>张浩</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>王岩</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppID、AppSecret需要运维配置</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc-dev.properties</t>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc.driverClassName_repo=com.mysql.jdbc.Driver
+jdbc.url_repo=jdbc\:mysql\://192.168.12.188\:3306/mogo_dev?useUnicode\=true&amp;amp;characterEncoding\=UTF-8
+jdbc.username_repo=EC985EB3E9D6A6CCBB537518ECDCD57C
+jdbc.password_repo=DDA989A60555874C2D40B52948A38959</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs添加报表查询专用数据源</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试环境</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱文博</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库相关配置值需要各环境指定</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0.2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nginx</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>#nginx server配置增加如下参数
+proxy_set_header   Host             $host;
+proxy_set_header   X-Real-IP        $remote_addr;
+proxy_set_header   X-Forwarded-For  $proxy_add_x_forwarded_for;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>不拦截真实的用户IP，以便让程序可以获取到</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱彤</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术经理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>预发布环境</t>
+  </si>
+  <si>
+    <t>公测环境</t>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0.2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>请将“配置文件\合同模板”下的两个模板文件替换目录  /var/lib/docker/contract/template/ 下的原文件</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置汇总</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置所属系统</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置文件名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置的详细内容</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目经理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇宝合同模板修改</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有应用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅寰寰</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨斌</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中式房态图，“房间无照片”筛选项改为“房型无照片”，筛选逻辑相应调整</t>
+  </si>
+  <si>
+    <t>房东PC</t>
+  </si>
+  <si>
+    <t>韩淑芳、徐文瑞</t>
+  </si>
+  <si>
+    <t>马丁组</t>
+  </si>
+  <si>
+    <t>分散式/集中式房态图，新增“其他账单欠费”筛选项</t>
+  </si>
+  <si>
+    <t>分散式/集中式房态图，新增“账务详情”栏</t>
+  </si>
+  <si>
+    <t>韩淑芳</t>
+  </si>
+  <si>
+    <t>分散式/集中式房态图，“官网展示”功能优化</t>
+  </si>
+  <si>
+    <t>分散式房态图，合租的房源，在信息页内新增“朝向”字段</t>
+  </si>
+  <si>
+    <t>分散式/集中式房态图，在信息页新增“面积”显示字段</t>
+  </si>
+  <si>
+    <t>分散式/集中式房态图，各种销售状态时，对应的常用操作按钮用醒目颜色区分</t>
+  </si>
+  <si>
+    <t>分散式/集中式房态图，“需退房”筛选项文字改为“租客发起退房”并做图标，图标文字显示“退”</t>
+  </si>
+  <si>
+    <t>分散式/集中式房态图，新增“退房结账”操作按钮</t>
+  </si>
+  <si>
+    <t>分散式/集中式房态图，“临时锁定”的房源，在房源图标上有标示</t>
+  </si>
+  <si>
+    <t>分散式/集中式房态图，调整筛选栏整体样式和布局，确保一屏完整展示</t>
+  </si>
+  <si>
+    <t>分散式/集中式房态图，调整房源图标大小，提升低分辨率下的用户体验</t>
+  </si>
+  <si>
+    <t>分散式/集中式房态图，搜房框，搜索订单编号字段调整，改成新样式</t>
+  </si>
+  <si>
+    <t>分散式/集中式房态图，更改备注之后，页面不应该刷新</t>
+  </si>
+  <si>
+    <t>分散式/集中式房态图，当天到期的房源，需显示“快到期0天”</t>
+  </si>
+  <si>
+    <t>分散式/集中式房态图、添加分散式/集中式四个操作按钮的窗口打开逻辑修正</t>
+  </si>
+  <si>
+    <t>房源录入按钮，放到快捷菜单中，文字“添加分散式”“添加集中式”；房态图按钮，放到快捷菜单中，文字“分散式房态图”“集中式房态图”；</t>
+  </si>
+  <si>
+    <t>贾金朋</t>
+  </si>
+  <si>
+    <t>户型为0卫的房源，取消“独卫”配置字段</t>
+  </si>
+  <si>
+    <t>安栋</t>
+  </si>
+  <si>
+    <t>分散式合租录入时，总面积与房间面积总和加判断</t>
+  </si>
+  <si>
+    <t>集中式的房型录入/编辑页面中，“照片”字段改为“房型照片”</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复（28项）</t>
+  </si>
+  <si>
+    <t>房东APP</t>
+  </si>
+  <si>
+    <t>徐文瑞、张飞</t>
+  </si>
+  <si>
+    <t>房源相关日志埋点优化解决重复数据问题</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>张飞</t>
+  </si>
+  <si>
+    <t>房态图统计慢SQL优化</t>
+  </si>
+  <si>
+    <t>400电话导出优化
 BS系统所有查询切换到从库
-签约单列表查询优化</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS功能新增、变更</t>
+签约单列表查询优化
+拓展日报需求变更及优化
+房源管理 公寓图片审核时，无法审核整租房源图片的问题</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -710,67 +1023,40 @@
 BS预约单、预定单增加项目
 分散式&amp;集中公寓-公寓详情-中增加日志tab
 BS分散式公寓，集中式房间增加描述的需求
-房东录入时候要判断伙伴账号、联系人手机号不能重复</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>王祥毅</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>捷豹组</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>磐石组</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.0.2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemconfig.properties</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-sysconfig.weixin.weixinhuoBanAppID=wx730bca9476310d91
+房东录入时候要判断伙伴账号、联系人手机号不能重复
+城市列表详情页 编辑商圈时需同步更新商圈下的小区
+微信公众号配置</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩、傅其亮、钱文博</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>王云飞
+王健</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>王云飞
+王健</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppID、AppSecret需要运维配置</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysconfig.weixin.weixinhuoBanAppID=wx730bca9476310d91
 sysconfig.weixin.weixinhuoBanAppSecret=d4624c36b6795d1d99dcf0547af5443d</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">蘑菇伙伴微信公众号
-</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试环境</t>
-  </si>
-  <si>
-    <t>张浩</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>王岩</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppID、AppSecret需要运维配置</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>jdbc-dev.properties</t>
-  </si>
-  <si>
-    <t>新增</t>
+    <t>蘑菇伙伴微信公众号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc.properties</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -781,259 +1067,15 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>bs添加报表查询专用数据源</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试环境</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱文博</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库相关配置值需要各环境指定</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQ组</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.0.2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>nginx</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>#nginx server配置增加如下参数
-proxy_set_header   Host             $host;
-proxy_set_header   X-Real-IP        $remote_addr;
-proxy_set_header   X-Forwarded-For  $proxy_add_x_forwarded_for;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>不拦截真实的用户IP，以便让程序可以获取到</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱彤</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>史欣欣</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术经理</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>预发布环境</t>
-  </si>
-  <si>
-    <t>公测环境</t>
-  </si>
-  <si>
-    <t>修改</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>极光组</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.0.2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>请将“配置文件\合同模板”下的两个模板文件替换目录  /var/lib/docker/contract/template/ 下的原文件</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置汇总</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目组</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置所属系统</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置文件名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置的详细内容</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>用途</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发人</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>责任人</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目经理</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘑菇宝合同模板修改</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有应用</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>茅寰寰</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨斌</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>集中式房态图，“房间无照片”筛选项改为“房型无照片”，筛选逻辑相应调整</t>
-  </si>
-  <si>
-    <t>房东PC</t>
-  </si>
-  <si>
-    <t>韩淑芳、徐文瑞</t>
-  </si>
-  <si>
-    <t>马丁组</t>
-  </si>
-  <si>
-    <t>分散式/集中式房态图，新增“其他账单欠费”筛选项</t>
-  </si>
-  <si>
-    <t>分散式/集中式房态图，新增“账务详情”栏</t>
-  </si>
-  <si>
-    <t>韩淑芳</t>
-  </si>
-  <si>
-    <t>分散式/集中式房态图，“官网展示”功能优化</t>
-  </si>
-  <si>
-    <t>分散式房态图，合租的房源，在信息页内新增“朝向”字段</t>
-  </si>
-  <si>
-    <t>分散式/集中式房态图，在信息页新增“面积”显示字段</t>
-  </si>
-  <si>
-    <t>分散式/集中式房态图，各种销售状态时，对应的常用操作按钮用醒目颜色区分</t>
-  </si>
-  <si>
-    <t>分散式/集中式房态图，“需退房”筛选项文字改为“租客发起退房”并做图标，图标文字显示“退”</t>
-  </si>
-  <si>
-    <t>分散式/集中式房态图，新增“退房结账”操作按钮</t>
-  </si>
-  <si>
-    <t>分散式/集中式房态图，“临时锁定”的房源，在房源图标上有标示</t>
-  </si>
-  <si>
-    <t>分散式/集中式房态图，调整筛选栏整体样式和布局，确保一屏完整展示</t>
-  </si>
-  <si>
-    <t>分散式/集中式房态图，调整房源图标大小，提升低分辨率下的用户体验</t>
-  </si>
-  <si>
-    <t>分散式/集中式房态图，搜房框，搜索订单编号字段调整，改成新样式</t>
-  </si>
-  <si>
-    <t>分散式/集中式房态图，更改备注之后，页面不应该刷新</t>
-  </si>
-  <si>
-    <t>分散式/集中式房态图，当天到期的房源，需显示“快到期0天”</t>
-  </si>
-  <si>
-    <t>分散式/集中式房态图、添加分散式/集中式四个操作按钮的窗口打开逻辑修正</t>
-  </si>
-  <si>
-    <t>房源录入按钮，放到快捷菜单中，文字“添加分散式”“添加集中式”；房态图按钮，放到快捷菜单中，文字“分散式房态图”“集中式房态图”；</t>
-  </si>
-  <si>
-    <t>贾金朋</t>
-  </si>
-  <si>
-    <t>户型为0卫的房源，取消“独卫”配置字段</t>
-  </si>
-  <si>
-    <t>安栋</t>
-  </si>
-  <si>
-    <t>分散式合租录入时，总面积与房间面积总和加判断</t>
-  </si>
-  <si>
-    <t>集中式的房型录入/编辑页面中，“照片”字段改为“房型照片”</t>
-  </si>
-  <si>
-    <t>APP房源录入恢复（28项）</t>
-  </si>
-  <si>
-    <t>房东APP</t>
-  </si>
-  <si>
-    <t>徐文瑞、张飞</t>
-  </si>
-  <si>
-    <t>房源相关日志埋点优化解决重复数据问题</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>张飞</t>
-  </si>
-  <si>
-    <t>房态图统计慢SQL优化</t>
+    <t>jdbc.properties</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1521,30 +1563,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1575,6 +1593,30 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1590,74 +1632,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1677,7 +1651,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1997,17 +1971,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B64" sqref="B64"/>
+      <selection pane="bottomRight" activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="14" customWidth="1"/>
     <col min="2" max="2" width="52.875" style="15" customWidth="1"/>
@@ -2027,12 +2001,12 @@
     <col min="16" max="16" width="12" style="17" customWidth="1"/>
     <col min="17" max="17" width="17" style="17" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34.375" style="15" customWidth="1"/>
     <col min="20" max="20" width="8.875" customWidth="1"/>
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2091,49 +2065,49 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="19.5" customHeight="1">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="F2" s="11">
         <v>42633</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="11">
         <v>42633</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="N2" s="11">
         <v>42633</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P2" s="30"/>
       <c r="Q2" s="30"/>
@@ -2141,441 +2115,441 @@
       <c r="S2" s="13"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="1:20" ht="16.5">
+    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="11">
         <v>42633</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="11">
         <v>42633</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>49</v>
-      </c>
       <c r="M3" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3" s="11">
         <v>42634</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:20" ht="24" customHeight="1">
+    <row r="4" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="F4" s="11">
         <v>42633</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="11">
         <v>42633</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="M4" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N4" s="11">
         <v>42633</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="49.5">
+    <row r="5" spans="1:20" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="F5" s="11">
         <v>42633</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="11">
         <v>42633</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="L5" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N5" s="11">
         <v>42633</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="19.5" customHeight="1">
+    <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>55</v>
-      </c>
       <c r="D6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="F6" s="11">
         <v>42633</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" s="11">
         <v>42633</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N6" s="11">
         <v>42633</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="33">
+    <row r="7" spans="1:20" ht="33" x14ac:dyDescent="0.15">
       <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="11">
         <v>42633</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="11">
         <v>42633</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="L7" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N7" s="11">
         <v>42633</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:20" ht="49.5">
+    <row r="8" spans="1:20" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>7</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="F8" s="11">
         <v>42633</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="11">
         <v>42633</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="L8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="M8" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="N8" s="11">
         <v>42633</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:20" ht="33">
+    <row r="9" spans="1:20" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
         <v>8</v>
       </c>
       <c r="B9" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="E9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="11">
         <v>42633</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="11">
         <v>42633</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="L9" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N9" s="11">
         <v>42633</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:20" ht="21" customHeight="1">
+    <row r="10" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16">
         <v>9</v>
       </c>
       <c r="B10" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="E10" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="11">
         <v>42633</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="11">
         <v>42633</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="M10" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="N10" s="11">
         <v>42634</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="16">
         <v>10</v>
       </c>
       <c r="B11" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="F11" s="11">
         <v>42627</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" s="11">
         <v>42627</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="L11" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="M11" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="N11" s="11">
         <v>42634</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -2583,49 +2557,49 @@
       <c r="S11" s="13"/>
       <c r="T11" s="8"/>
     </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="16">
         <v>11</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="E12" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="F12" s="11">
         <v>42627</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" s="11">
         <v>42627</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="L12" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="M12" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="N12" s="11">
         <v>42634</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
@@ -2633,49 +2607,49 @@
       <c r="S12" s="13"/>
       <c r="T12" s="8"/>
     </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="16">
         <v>12</v>
       </c>
       <c r="B13" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>74</v>
-      </c>
       <c r="E13" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13" s="11">
         <v>42626</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" s="11">
         <v>42626</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="M13" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="N13" s="11">
         <v>42634</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -2683,49 +2657,49 @@
       <c r="S13" s="13"/>
       <c r="T13" s="8"/>
     </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="16">
         <v>13</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="E14" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="F14" s="11">
         <v>42631</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H14" s="11">
         <v>42631</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="L14" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="M14" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="N14" s="11">
         <v>42634</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -2733,49 +2707,49 @@
       <c r="S14" s="13"/>
       <c r="T14" s="8"/>
     </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="16">
         <v>14</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="F15" s="11">
         <v>42631</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H15" s="11">
         <v>42631</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="M15" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="N15" s="11">
         <v>42634</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -2783,49 +2757,49 @@
       <c r="S15" s="13"/>
       <c r="T15" s="8"/>
     </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="16">
         <v>15</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="E16" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="F16" s="11">
         <v>42631</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="11">
         <v>42631</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="L16" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="M16" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="N16" s="11">
         <v>42634</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -2833,18 +2807,18 @@
       <c r="S16" s="13"/>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" spans="1:20" s="37" customFormat="1" ht="16.5">
+    <row r="17" spans="1:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="16">
         <v>16</v>
       </c>
       <c r="B17" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="D17" s="35" t="s">
         <v>81</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>82</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>34</v>
@@ -2860,22 +2834,22 @@
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="L17" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="M17" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="N17" s="11">
         <v>42634</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
@@ -2883,18 +2857,18 @@
       <c r="S17" s="12"/>
       <c r="T17" s="36"/>
     </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="16">
         <v>17</v>
       </c>
       <c r="B18" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>89</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>34</v>
@@ -2910,22 +2884,22 @@
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="L18" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="M18" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="N18" s="11">
         <v>42634</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
@@ -2933,18 +2907,18 @@
       <c r="S18" s="13"/>
       <c r="T18" s="8"/>
     </row>
-    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="16">
         <v>18</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="35" t="s">
         <v>81</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>82</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>34</v>
@@ -2960,22 +2934,22 @@
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="L19" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="M19" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="N19" s="11">
         <v>42634</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
@@ -2983,18 +2957,18 @@
       <c r="S19" s="13"/>
       <c r="T19" s="8"/>
     </row>
-    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="16">
         <v>19</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="35" t="s">
         <v>81</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>82</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>34</v>
@@ -3010,22 +2984,22 @@
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K20" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="K20" s="10" t="s">
-        <v>84</v>
-      </c>
       <c r="L20" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N20" s="11">
         <v>42634</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
@@ -3033,18 +3007,18 @@
       <c r="S20" s="13"/>
       <c r="T20" s="8"/>
     </row>
-    <row r="21" spans="1:20" s="9" customFormat="1" ht="17.25" customHeight="1">
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="16">
         <v>20</v>
       </c>
       <c r="B21" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>34</v>
@@ -3060,22 +3034,22 @@
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K21" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="L21" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="M21" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="N21" s="11">
         <v>42634</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
@@ -3083,18 +3057,18 @@
       <c r="S21" s="13"/>
       <c r="T21" s="8"/>
     </row>
-    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="16">
         <v>21</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>34</v>
@@ -3110,22 +3084,22 @@
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="L22" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="M22" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="N22" s="11">
         <v>42634</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P22" s="38"/>
       <c r="Q22" s="38"/>
@@ -3133,18 +3107,18 @@
       <c r="S22" s="13"/>
       <c r="T22" s="8"/>
     </row>
-    <row r="23" spans="1:20" s="43" customFormat="1" ht="16.5">
+    <row r="23" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="16">
         <v>22</v>
       </c>
       <c r="B23" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>98</v>
-      </c>
       <c r="D23" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23" s="35" t="s">
         <v>34</v>
@@ -3160,22 +3134,22 @@
       </c>
       <c r="I23" s="35"/>
       <c r="J23" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K23" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="L23" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="M23" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="N23" s="11">
         <v>42634</v>
       </c>
       <c r="O23" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P23" s="40"/>
       <c r="Q23" s="40"/>
@@ -3183,18 +3157,18 @@
       <c r="S23" s="41"/>
       <c r="T23" s="42"/>
     </row>
-    <row r="24" spans="1:20" s="43" customFormat="1" ht="16.5">
+    <row r="24" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="16">
         <v>23</v>
       </c>
       <c r="B24" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>100</v>
-      </c>
       <c r="D24" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" s="35" t="s">
         <v>34</v>
@@ -3210,22 +3184,22 @@
       </c>
       <c r="I24" s="35"/>
       <c r="J24" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N24" s="11">
         <v>42634</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P24" s="45"/>
       <c r="Q24" s="45"/>
@@ -3233,18 +3207,18 @@
       <c r="S24" s="41"/>
       <c r="T24" s="42"/>
     </row>
-    <row r="25" spans="1:20" s="43" customFormat="1" ht="16.5">
+    <row r="25" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="16">
         <v>24</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E25" s="35" t="s">
         <v>34</v>
@@ -3260,22 +3234,22 @@
       </c>
       <c r="I25" s="35"/>
       <c r="J25" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K25" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="L25" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="M25" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="N25" s="11">
         <v>42634</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P25" s="45"/>
       <c r="Q25" s="45"/>
@@ -3283,18 +3257,18 @@
       <c r="S25" s="41"/>
       <c r="T25" s="42"/>
     </row>
-    <row r="26" spans="1:20" s="43" customFormat="1" ht="16.5">
+    <row r="26" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="16">
         <v>25</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" s="35" t="s">
         <v>34</v>
@@ -3310,22 +3284,22 @@
       </c>
       <c r="I26" s="35"/>
       <c r="J26" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K26" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="L26" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="M26" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="N26" s="11">
         <v>42634</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P26" s="45"/>
       <c r="Q26" s="45"/>
@@ -3333,18 +3307,18 @@
       <c r="S26" s="41"/>
       <c r="T26" s="42"/>
     </row>
-    <row r="27" spans="1:20" s="43" customFormat="1" ht="16.5">
+    <row r="27" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="16">
         <v>26</v>
       </c>
       <c r="B27" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="E27" s="35" t="s">
         <v>34</v>
@@ -3360,22 +3334,22 @@
       </c>
       <c r="I27" s="35"/>
       <c r="J27" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N27" s="11">
         <v>42634</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P27" s="45"/>
       <c r="Q27" s="45"/>
@@ -3383,18 +3357,18 @@
       <c r="S27" s="41"/>
       <c r="T27" s="42"/>
     </row>
-    <row r="28" spans="1:20" s="43" customFormat="1" ht="18.75" customHeight="1">
+    <row r="28" spans="1:20" s="43" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="16">
         <v>27</v>
       </c>
       <c r="B28" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="35" t="s">
         <v>107</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>108</v>
       </c>
       <c r="E28" s="35" t="s">
         <v>34</v>
@@ -3410,22 +3384,22 @@
       </c>
       <c r="I28" s="35"/>
       <c r="J28" s="44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K28" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="L28" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="L28" s="10" t="s">
+      <c r="M28" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="N28" s="11">
         <v>42634</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P28" s="45"/>
       <c r="Q28" s="45"/>
@@ -3433,18 +3407,18 @@
       <c r="S28" s="41"/>
       <c r="T28" s="42"/>
     </row>
-    <row r="29" spans="1:20" s="43" customFormat="1" ht="16.5">
+    <row r="29" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="16">
         <v>28</v>
       </c>
       <c r="B29" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="35" t="s">
         <v>110</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>111</v>
       </c>
       <c r="E29" s="35" t="s">
         <v>34</v>
@@ -3460,22 +3434,22 @@
       </c>
       <c r="I29" s="35"/>
       <c r="J29" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K29" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="L29" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="L29" s="10" t="s">
+      <c r="M29" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="N29" s="11">
         <v>42634</v>
       </c>
       <c r="O29" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P29" s="45"/>
       <c r="Q29" s="45"/>
@@ -3483,18 +3457,18 @@
       <c r="S29" s="41"/>
       <c r="T29" s="42"/>
     </row>
-    <row r="30" spans="1:20" s="43" customFormat="1" ht="33">
+    <row r="30" spans="1:20" s="43" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A30" s="16">
         <v>29</v>
       </c>
       <c r="B30" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="D30" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E30" s="35" t="s">
         <v>34</v>
@@ -3510,22 +3484,22 @@
       </c>
       <c r="I30" s="35"/>
       <c r="J30" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="K30" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="K30" s="35" t="s">
+      <c r="L30" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="L30" s="10" t="s">
+      <c r="M30" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="N30" s="11">
         <v>42634</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P30" s="45"/>
       <c r="Q30" s="45"/>
@@ -3533,40 +3507,40 @@
       <c r="S30" s="41"/>
       <c r="T30" s="42"/>
     </row>
-    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="16">
         <v>30</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C31" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="E31" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="F31" s="11">
         <v>42627</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H31" s="11">
         <v>42627</v>
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K31" s="10" t="s">
         <v>33</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M31" s="12"/>
       <c r="N31" s="11"/>
@@ -3577,40 +3551,40 @@
       <c r="S31" s="13"/>
       <c r="T31" s="8"/>
     </row>
-    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="16">
         <v>31</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C32" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="E32" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="F32" s="11">
         <v>42627</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H32" s="11">
         <v>42627</v>
       </c>
       <c r="I32" s="10"/>
       <c r="J32" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K32" s="10" t="s">
         <v>33</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M32" s="12"/>
       <c r="N32" s="11"/>
@@ -3621,40 +3595,40 @@
       <c r="S32" s="13"/>
       <c r="T32" s="8"/>
     </row>
-    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="16">
         <v>32</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C33" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="E33" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="F33" s="11">
         <v>42627</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H33" s="11">
         <v>42627</v>
       </c>
       <c r="I33" s="10"/>
       <c r="J33" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K33" s="10" t="s">
         <v>33</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M33" s="12"/>
       <c r="N33" s="11"/>
@@ -3665,40 +3639,40 @@
       <c r="S33" s="13"/>
       <c r="T33" s="8"/>
     </row>
-    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="16">
         <v>33</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C34" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="E34" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="F34" s="11">
         <v>42627</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H34" s="11">
         <v>42627</v>
       </c>
       <c r="I34" s="10"/>
       <c r="J34" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>33</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M34" s="12"/>
       <c r="N34" s="11"/>
@@ -3709,40 +3683,40 @@
       <c r="S34" s="13"/>
       <c r="T34" s="8"/>
     </row>
-    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="16">
         <v>34</v>
       </c>
       <c r="B35" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>123</v>
-      </c>
       <c r="E35" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F35" s="11">
         <v>42627</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H35" s="11">
         <v>42627</v>
       </c>
       <c r="I35" s="10"/>
       <c r="J35" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K35" s="10" t="s">
         <v>33</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M35" s="12"/>
       <c r="N35" s="11"/>
@@ -3753,40 +3727,40 @@
       <c r="S35" s="13"/>
       <c r="T35" s="8"/>
     </row>
-    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="16">
         <v>35</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C36" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="E36" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="F36" s="11">
         <v>42631</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H36" s="11">
         <v>42631</v>
       </c>
       <c r="I36" s="10"/>
       <c r="J36" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K36" s="10" t="s">
         <v>33</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M36" s="12"/>
       <c r="N36" s="11"/>
@@ -3797,40 +3771,40 @@
       <c r="S36" s="13"/>
       <c r="T36" s="8"/>
     </row>
-    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="16">
         <v>36</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C37" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="E37" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="F37" s="11">
         <v>42627</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H37" s="11">
         <v>42627</v>
       </c>
       <c r="I37" s="10"/>
       <c r="J37" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K37" s="10" t="s">
         <v>33</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M37" s="12"/>
       <c r="N37" s="11"/>
@@ -3841,40 +3815,40 @@
       <c r="S37" s="13"/>
       <c r="T37" s="8"/>
     </row>
-    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="16">
         <v>37</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C38" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="E38" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="F38" s="11">
         <v>42627</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H38" s="11">
         <v>42627</v>
       </c>
       <c r="I38" s="10"/>
       <c r="J38" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M38" s="12"/>
       <c r="N38" s="11"/>
@@ -3885,18 +3859,18 @@
       <c r="S38" s="13"/>
       <c r="T38" s="8"/>
     </row>
-    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="16">
         <v>38</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C39" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>32</v>
@@ -3905,20 +3879,20 @@
         <v>42633</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H39" s="11">
         <v>42633</v>
       </c>
       <c r="I39" s="10"/>
       <c r="J39" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>33</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M39" s="12"/>
       <c r="N39" s="11"/>
@@ -3929,18 +3903,18 @@
       <c r="S39" s="13"/>
       <c r="T39" s="8"/>
     </row>
-    <row r="40" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="40" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="16">
         <v>39</v>
       </c>
       <c r="B40" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>130</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>32</v>
@@ -3949,20 +3923,20 @@
         <v>42633</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H40" s="11">
         <v>42633</v>
       </c>
       <c r="I40" s="10"/>
       <c r="J40" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K40" s="10" t="s">
         <v>33</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M40" s="12"/>
       <c r="N40" s="11"/>
@@ -3973,106 +3947,122 @@
       <c r="S40" s="13"/>
       <c r="T40" s="8"/>
     </row>
-    <row r="41" spans="1:20" s="37" customFormat="1" ht="20.25" customHeight="1">
+    <row r="41" spans="1:20" s="37" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16">
         <v>40</v>
       </c>
       <c r="B41" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="D41" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>133</v>
-      </c>
       <c r="E41" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F41" s="11">
         <v>42625</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H41" s="11">
-        <v>42625</v>
+        <v>42633</v>
       </c>
       <c r="I41" s="10"/>
       <c r="J41" s="12" t="s">
-        <v>134</v>
+        <v>223</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="L41" s="10"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="12"/>
+        <v>133</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N41" s="11">
+        <v>42634</v>
+      </c>
+      <c r="O41" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="P41" s="30"/>
       <c r="Q41" s="30"/>
       <c r="R41" s="30"/>
       <c r="S41" s="47" t="s">
-        <v>136</v>
+        <v>221</v>
       </c>
       <c r="T41" s="36"/>
     </row>
-    <row r="42" spans="1:20" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="42" spans="1:20" s="9" customFormat="1" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="16">
         <v>41</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C42" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>133</v>
-      </c>
       <c r="E42" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F42" s="11">
         <v>42625</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H42" s="11">
-        <v>42625</v>
+        <v>42633</v>
       </c>
       <c r="I42" s="10"/>
       <c r="J42" s="12" t="s">
-        <v>36</v>
+        <v>223</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="12"/>
+        <v>133</v>
+      </c>
+      <c r="L42" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="M42" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N42" s="11">
+        <v>42634</v>
+      </c>
+      <c r="O42" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
       <c r="S42" s="47" t="s">
-        <v>138</v>
+        <v>222</v>
       </c>
       <c r="T42" s="8"/>
     </row>
-    <row r="43" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="43" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="16">
         <v>42</v>
       </c>
-      <c r="B43" s="62" t="s">
-        <v>192</v>
+      <c r="B43" s="54" t="s">
+        <v>188</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>34</v>
@@ -4088,35 +4078,35 @@
       </c>
       <c r="I43" s="10"/>
       <c r="J43" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="12"/>
       <c r="N43" s="11"/>
       <c r="O43" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="P43" s="63"/>
-      <c r="Q43" s="63"/>
-      <c r="R43" s="63"/>
+        <v>86</v>
+      </c>
+      <c r="P43" s="55"/>
+      <c r="Q43" s="55"/>
+      <c r="R43" s="55"/>
       <c r="S43" s="13"/>
       <c r="T43" s="8"/>
     </row>
-    <row r="44" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="44" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="16">
         <v>43</v>
       </c>
-      <c r="B44" s="62" t="s">
-        <v>196</v>
+      <c r="B44" s="54" t="s">
+        <v>192</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>34</v>
@@ -4132,35 +4122,35 @@
       </c>
       <c r="I44" s="10"/>
       <c r="J44" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="12"/>
       <c r="N44" s="11"/>
       <c r="O44" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="P44" s="63"/>
-      <c r="Q44" s="63"/>
-      <c r="R44" s="63"/>
+        <v>86</v>
+      </c>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="55"/>
+      <c r="R44" s="55"/>
       <c r="S44" s="13"/>
       <c r="T44" s="8"/>
     </row>
-    <row r="45" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="45" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="16">
         <v>44</v>
       </c>
-      <c r="B45" s="62" t="s">
-        <v>197</v>
+      <c r="B45" s="54" t="s">
+        <v>193</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>34</v>
@@ -4176,35 +4166,35 @@
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="12"/>
       <c r="N45" s="11"/>
       <c r="O45" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="P45" s="63"/>
-      <c r="Q45" s="63"/>
-      <c r="R45" s="63"/>
+        <v>86</v>
+      </c>
+      <c r="P45" s="55"/>
+      <c r="Q45" s="55"/>
+      <c r="R45" s="55"/>
       <c r="S45" s="13"/>
       <c r="T45" s="8"/>
     </row>
-    <row r="46" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="46" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="16">
         <v>45</v>
       </c>
-      <c r="B46" s="62" t="s">
-        <v>199</v>
+      <c r="B46" s="54" t="s">
+        <v>195</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>34</v>
@@ -4220,35 +4210,35 @@
       </c>
       <c r="I46" s="10"/>
       <c r="J46" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L46" s="10"/>
       <c r="M46" s="12"/>
       <c r="N46" s="11"/>
       <c r="O46" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="P46" s="63"/>
-      <c r="Q46" s="63"/>
-      <c r="R46" s="63"/>
+        <v>86</v>
+      </c>
+      <c r="P46" s="55"/>
+      <c r="Q46" s="55"/>
+      <c r="R46" s="55"/>
       <c r="S46" s="13"/>
       <c r="T46" s="8"/>
     </row>
-    <row r="47" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="47" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="16">
         <v>46</v>
       </c>
-      <c r="B47" s="64" t="s">
-        <v>200</v>
+      <c r="B47" s="56" t="s">
+        <v>196</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>34</v>
@@ -4264,35 +4254,35 @@
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="12"/>
       <c r="N47" s="11"/>
       <c r="O47" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="P47" s="63"/>
-      <c r="Q47" s="63"/>
-      <c r="R47" s="63"/>
+        <v>86</v>
+      </c>
+      <c r="P47" s="55"/>
+      <c r="Q47" s="55"/>
+      <c r="R47" s="55"/>
       <c r="S47" s="13"/>
       <c r="T47" s="8"/>
     </row>
-    <row r="48" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="48" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="16">
         <v>47</v>
       </c>
-      <c r="B48" s="64" t="s">
-        <v>201</v>
+      <c r="B48" s="56" t="s">
+        <v>197</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>34</v>
@@ -4308,35 +4298,35 @@
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="12"/>
       <c r="N48" s="11"/>
       <c r="O48" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="P48" s="63"/>
-      <c r="Q48" s="63"/>
-      <c r="R48" s="63"/>
+        <v>86</v>
+      </c>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
       <c r="S48" s="13"/>
       <c r="T48" s="8"/>
     </row>
-    <row r="49" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="49" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A49" s="16">
         <v>48</v>
       </c>
-      <c r="B49" s="65" t="s">
-        <v>202</v>
+      <c r="B49" s="57" t="s">
+        <v>198</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>34</v>
@@ -4352,35 +4342,35 @@
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49" s="12"/>
       <c r="N49" s="11"/>
       <c r="O49" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="P49" s="63"/>
-      <c r="Q49" s="63"/>
-      <c r="R49" s="63"/>
+        <v>86</v>
+      </c>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="55"/>
+      <c r="R49" s="55"/>
       <c r="S49" s="13"/>
       <c r="T49" s="8"/>
     </row>
-    <row r="50" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="50" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A50" s="16">
         <v>49</v>
       </c>
-      <c r="B50" s="65" t="s">
-        <v>203</v>
+      <c r="B50" s="57" t="s">
+        <v>199</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>34</v>
@@ -4396,35 +4386,35 @@
       </c>
       <c r="I50" s="10"/>
       <c r="J50" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50" s="12"/>
       <c r="N50" s="11"/>
       <c r="O50" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="P50" s="63"/>
-      <c r="Q50" s="63"/>
-      <c r="R50" s="63"/>
+        <v>86</v>
+      </c>
+      <c r="P50" s="55"/>
+      <c r="Q50" s="55"/>
+      <c r="R50" s="55"/>
       <c r="S50" s="13"/>
       <c r="T50" s="8"/>
     </row>
-    <row r="51" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="51" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="16">
         <v>50</v>
       </c>
-      <c r="B51" s="65" t="s">
-        <v>204</v>
+      <c r="B51" s="57" t="s">
+        <v>200</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>34</v>
@@ -4440,35 +4430,35 @@
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L51" s="10"/>
       <c r="M51" s="12"/>
       <c r="N51" s="11"/>
       <c r="O51" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="P51" s="63"/>
-      <c r="Q51" s="63"/>
-      <c r="R51" s="63"/>
+        <v>86</v>
+      </c>
+      <c r="P51" s="55"/>
+      <c r="Q51" s="55"/>
+      <c r="R51" s="55"/>
       <c r="S51" s="13"/>
       <c r="T51" s="8"/>
     </row>
-    <row r="52" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="52" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="16">
         <v>51</v>
       </c>
-      <c r="B52" s="66" t="s">
-        <v>205</v>
+      <c r="B52" s="58" t="s">
+        <v>201</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>34</v>
@@ -4484,35 +4474,35 @@
       </c>
       <c r="I52" s="10"/>
       <c r="J52" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L52" s="10"/>
       <c r="M52" s="12"/>
       <c r="N52" s="11"/>
       <c r="O52" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
-      <c r="R52" s="63"/>
+      <c r="R52" s="55"/>
       <c r="S52" s="13"/>
       <c r="T52" s="8"/>
     </row>
-    <row r="53" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="53" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="16">
         <v>52</v>
       </c>
-      <c r="B53" s="67" t="s">
-        <v>206</v>
+      <c r="B53" s="59" t="s">
+        <v>202</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>34</v>
@@ -4528,35 +4518,35 @@
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L53" s="10"/>
       <c r="M53" s="12"/>
       <c r="N53" s="11"/>
       <c r="O53" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
-      <c r="R53" s="63"/>
+      <c r="R53" s="55"/>
       <c r="S53" s="13"/>
       <c r="T53" s="8"/>
     </row>
-    <row r="54" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="54" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="16">
         <v>53</v>
       </c>
-      <c r="B54" s="68" t="s">
-        <v>207</v>
+      <c r="B54" s="60" t="s">
+        <v>203</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>34</v>
@@ -4572,16 +4562,16 @@
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="12"/>
       <c r="N54" s="11"/>
       <c r="O54" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
@@ -4589,18 +4579,18 @@
       <c r="S54" s="13"/>
       <c r="T54" s="8"/>
     </row>
-    <row r="55" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="55" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="16">
         <v>54</v>
       </c>
-      <c r="B55" s="69" t="s">
-        <v>208</v>
+      <c r="B55" s="61" t="s">
+        <v>204</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>34</v>
@@ -4616,16 +4606,16 @@
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L55" s="10"/>
       <c r="M55" s="12"/>
       <c r="N55" s="11"/>
       <c r="O55" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
@@ -4633,18 +4623,18 @@
       <c r="S55" s="13"/>
       <c r="T55" s="8"/>
     </row>
-    <row r="56" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="56" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="16">
         <v>55</v>
       </c>
-      <c r="B56" s="69" t="s">
-        <v>209</v>
+      <c r="B56" s="61" t="s">
+        <v>205</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>34</v>
@@ -4660,16 +4650,16 @@
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L56" s="10"/>
       <c r="M56" s="12"/>
       <c r="N56" s="11"/>
       <c r="O56" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
@@ -4677,18 +4667,18 @@
       <c r="S56" s="13"/>
       <c r="T56" s="8"/>
     </row>
-    <row r="57" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="57" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="16">
         <v>56</v>
       </c>
-      <c r="B57" s="70" t="s">
-        <v>210</v>
+      <c r="B57" s="62" t="s">
+        <v>206</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>34</v>
@@ -4704,16 +4694,16 @@
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="12"/>
       <c r="N57" s="11"/>
       <c r="O57" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
@@ -4721,18 +4711,18 @@
       <c r="S57" s="13"/>
       <c r="T57" s="8"/>
     </row>
-    <row r="58" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="58" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A58" s="16">
         <v>57</v>
       </c>
-      <c r="B58" s="68" t="s">
-        <v>211</v>
+      <c r="B58" s="60" t="s">
+        <v>207</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>34</v>
@@ -4748,16 +4738,16 @@
       </c>
       <c r="I58" s="10"/>
       <c r="J58" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L58" s="10"/>
       <c r="M58" s="12"/>
       <c r="N58" s="11"/>
       <c r="O58" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
@@ -4765,18 +4755,18 @@
       <c r="S58" s="13"/>
       <c r="T58" s="8"/>
     </row>
-    <row r="59" spans="1:20" s="9" customFormat="1" ht="36">
+    <row r="59" spans="1:20" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A59" s="16">
         <v>58</v>
       </c>
-      <c r="B59" s="71" t="s">
-        <v>212</v>
+      <c r="B59" s="63" t="s">
+        <v>208</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>34</v>
@@ -4792,16 +4782,16 @@
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="12" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L59" s="10"/>
       <c r="M59" s="12"/>
       <c r="N59" s="11"/>
       <c r="O59" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
@@ -4809,18 +4799,18 @@
       <c r="S59" s="13"/>
       <c r="T59" s="8"/>
     </row>
-    <row r="60" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="60" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="16">
         <v>59</v>
       </c>
-      <c r="B60" s="70" t="s">
-        <v>214</v>
+      <c r="B60" s="62" t="s">
+        <v>210</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>34</v>
@@ -4836,16 +4826,16 @@
       </c>
       <c r="I60" s="10"/>
       <c r="J60" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L60" s="10"/>
       <c r="M60" s="12"/>
       <c r="N60" s="11"/>
       <c r="O60" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
@@ -4853,18 +4843,18 @@
       <c r="S60" s="13"/>
       <c r="T60" s="8"/>
     </row>
-    <row r="61" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="61" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="16">
         <v>60</v>
       </c>
-      <c r="B61" s="68" t="s">
-        <v>216</v>
+      <c r="B61" s="60" t="s">
+        <v>212</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>34</v>
@@ -4880,16 +4870,16 @@
       </c>
       <c r="I61" s="10"/>
       <c r="J61" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L61" s="10"/>
       <c r="M61" s="12"/>
       <c r="N61" s="11"/>
       <c r="O61" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
@@ -4897,18 +4887,18 @@
       <c r="S61" s="13"/>
       <c r="T61" s="8"/>
     </row>
-    <row r="62" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="62" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="16">
         <v>61</v>
       </c>
-      <c r="B62" s="68" t="s">
-        <v>217</v>
+      <c r="B62" s="60" t="s">
+        <v>213</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>34</v>
@@ -4924,16 +4914,16 @@
       </c>
       <c r="I62" s="10"/>
       <c r="J62" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L62" s="10"/>
       <c r="M62" s="12"/>
       <c r="N62" s="11"/>
       <c r="O62" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
@@ -4941,18 +4931,18 @@
       <c r="S62" s="13"/>
       <c r="T62" s="8"/>
     </row>
-    <row r="63" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="63" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="16">
         <v>62</v>
       </c>
-      <c r="B63" s="68" t="s">
-        <v>218</v>
+      <c r="B63" s="60" t="s">
+        <v>214</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>34</v>
@@ -4968,16 +4958,16 @@
       </c>
       <c r="I63" s="10"/>
       <c r="J63" s="12" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L63" s="10"/>
       <c r="M63" s="12"/>
       <c r="N63" s="11"/>
       <c r="O63" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
@@ -4985,18 +4975,18 @@
       <c r="S63" s="13"/>
       <c r="T63" s="8"/>
     </row>
-    <row r="64" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="64" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="16">
         <v>63</v>
       </c>
-      <c r="B64" s="68" t="s">
-        <v>221</v>
+      <c r="B64" s="60" t="s">
+        <v>217</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>34</v>
@@ -5012,16 +5002,16 @@
       </c>
       <c r="I64" s="10"/>
       <c r="J64" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L64" s="10"/>
       <c r="M64" s="12"/>
       <c r="N64" s="11"/>
       <c r="O64" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
@@ -5029,18 +5019,18 @@
       <c r="S64" s="13"/>
       <c r="T64" s="8"/>
     </row>
-    <row r="65" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="65" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="16">
         <v>64</v>
       </c>
-      <c r="B65" s="68" t="s">
-        <v>224</v>
+      <c r="B65" s="60" t="s">
+        <v>220</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>34</v>
@@ -5056,16 +5046,16 @@
       </c>
       <c r="I65" s="10"/>
       <c r="J65" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L65" s="10"/>
       <c r="M65" s="12"/>
       <c r="N65" s="11"/>
       <c r="O65" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
@@ -5073,7 +5063,7 @@
       <c r="S65" s="13"/>
       <c r="T65" s="8"/>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
       <c r="B66" s="4"/>
       <c r="C66" s="7"/>
@@ -5094,7 +5084,7 @@
       <c r="R66" s="7"/>
       <c r="S66" s="4"/>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
       <c r="B67" s="4"/>
       <c r="C67" s="7"/>
@@ -5115,7 +5105,7 @@
       <c r="R67" s="7"/>
       <c r="S67" s="4"/>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
       <c r="B68" s="4"/>
       <c r="C68" s="7"/>
@@ -5136,7 +5126,7 @@
       <c r="R68" s="7"/>
       <c r="S68" s="4"/>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -5157,7 +5147,7 @@
       <c r="R69" s="7"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
       <c r="B70" s="4"/>
       <c r="C70" s="7"/>
@@ -5178,7 +5168,7 @@
       <c r="R70" s="7"/>
       <c r="S70" s="4"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
       <c r="B71" s="4"/>
       <c r="C71" s="7"/>
@@ -5199,7 +5189,7 @@
       <c r="R71" s="7"/>
       <c r="S71" s="4"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
       <c r="B72" s="4"/>
       <c r="C72" s="7"/>
@@ -5220,7 +5210,7 @@
       <c r="R72" s="7"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A73" s="7"/>
       <c r="B73" s="4"/>
       <c r="C73" s="7"/>
@@ -5241,7 +5231,7 @@
       <c r="R73" s="7"/>
       <c r="S73" s="4"/>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A74" s="7"/>
       <c r="B74" s="4"/>
       <c r="C74" s="7"/>
@@ -5262,7 +5252,7 @@
       <c r="R74" s="7"/>
       <c r="S74" s="4"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A75" s="7"/>
       <c r="B75" s="4"/>
       <c r="C75" s="7"/>
@@ -5283,7 +5273,7 @@
       <c r="R75" s="7"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A76" s="7"/>
       <c r="B76" s="4"/>
       <c r="C76" s="7"/>
@@ -5304,7 +5294,7 @@
       <c r="R76" s="7"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A77" s="7"/>
       <c r="B77" s="4"/>
       <c r="C77" s="7"/>
@@ -5325,7 +5315,7 @@
       <c r="R77" s="7"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A78" s="7"/>
       <c r="B78" s="4"/>
       <c r="C78" s="7"/>
@@ -5346,7 +5336,7 @@
       <c r="R78" s="7"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A79" s="7"/>
       <c r="B79" s="4"/>
       <c r="C79" s="7"/>
@@ -5367,7 +5357,7 @@
       <c r="R79" s="7"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A80" s="7"/>
       <c r="B80" s="4"/>
       <c r="C80" s="7"/>
@@ -5388,7 +5378,7 @@
       <c r="R80" s="7"/>
       <c r="S80" s="4"/>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A81" s="7"/>
       <c r="B81" s="4"/>
       <c r="C81" s="7"/>
@@ -5409,7 +5399,7 @@
       <c r="R81" s="7"/>
       <c r="S81" s="4"/>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A82" s="7"/>
       <c r="B82" s="4"/>
       <c r="C82" s="7"/>
@@ -5430,7 +5420,7 @@
       <c r="R82" s="7"/>
       <c r="S82" s="4"/>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A83" s="7"/>
       <c r="B83" s="4"/>
       <c r="C83" s="7"/>
@@ -5451,7 +5441,7 @@
       <c r="R83" s="7"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A84" s="7"/>
       <c r="B84" s="4"/>
       <c r="C84" s="7"/>
@@ -5472,7 +5462,7 @@
       <c r="R84" s="7"/>
       <c r="S84" s="4"/>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A85" s="7"/>
       <c r="B85" s="4"/>
       <c r="C85" s="7"/>
@@ -5493,7 +5483,7 @@
       <c r="R85" s="7"/>
       <c r="S85" s="4"/>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A86" s="7"/>
       <c r="B86" s="4"/>
       <c r="C86" s="7"/>
@@ -5514,7 +5504,7 @@
       <c r="R86" s="7"/>
       <c r="S86" s="4"/>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A87" s="7"/>
       <c r="B87" s="4"/>
       <c r="C87" s="7"/>
@@ -5535,7 +5525,7 @@
       <c r="R87" s="7"/>
       <c r="S87" s="4"/>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A88" s="7"/>
       <c r="B88" s="4"/>
       <c r="C88" s="7"/>
@@ -5556,7 +5546,7 @@
       <c r="R88" s="7"/>
       <c r="S88" s="4"/>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A89" s="7"/>
       <c r="B89" s="4"/>
       <c r="C89" s="7"/>
@@ -5577,7 +5567,7 @@
       <c r="R89" s="7"/>
       <c r="S89" s="4"/>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A90" s="7"/>
       <c r="B90" s="4"/>
       <c r="C90" s="7"/>
@@ -5598,7 +5588,7 @@
       <c r="R90" s="7"/>
       <c r="S90" s="4"/>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A91" s="7"/>
       <c r="B91" s="4"/>
       <c r="C91" s="7"/>
@@ -5619,7 +5609,7 @@
       <c r="R91" s="7"/>
       <c r="S91" s="4"/>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A92" s="7"/>
       <c r="B92" s="4"/>
       <c r="C92" s="7"/>
@@ -5640,7 +5630,7 @@
       <c r="R92" s="7"/>
       <c r="S92" s="4"/>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A93" s="7"/>
       <c r="B93" s="4"/>
       <c r="C93" s="7"/>
@@ -5661,7 +5651,7 @@
       <c r="R93" s="7"/>
       <c r="S93" s="4"/>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A94" s="7"/>
       <c r="B94" s="4"/>
       <c r="C94" s="7"/>
@@ -5682,7 +5672,7 @@
       <c r="R94" s="7"/>
       <c r="S94" s="4"/>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A95" s="7"/>
       <c r="B95" s="4"/>
       <c r="C95" s="7"/>
@@ -5703,7 +5693,7 @@
       <c r="R95" s="7"/>
       <c r="S95" s="4"/>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A96" s="7"/>
       <c r="B96" s="4"/>
       <c r="C96" s="7"/>
@@ -5724,7 +5714,7 @@
       <c r="R96" s="7"/>
       <c r="S96" s="4"/>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A97" s="7"/>
       <c r="B97" s="4"/>
       <c r="C97" s="7"/>
@@ -5745,7 +5735,7 @@
       <c r="R97" s="7"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A98" s="7"/>
       <c r="B98" s="4"/>
       <c r="C98" s="7"/>
@@ -5766,7 +5756,7 @@
       <c r="R98" s="7"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A99" s="7"/>
       <c r="B99" s="4"/>
       <c r="C99" s="7"/>
@@ -5787,7 +5777,7 @@
       <c r="R99" s="7"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A100" s="7"/>
       <c r="B100" s="4"/>
       <c r="C100" s="7"/>
@@ -5808,7 +5798,7 @@
       <c r="R100" s="7"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A101" s="7"/>
       <c r="B101" s="4"/>
       <c r="C101" s="7"/>
@@ -5829,7 +5819,7 @@
       <c r="R101" s="7"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A102" s="7"/>
       <c r="B102" s="4"/>
       <c r="C102" s="7"/>
@@ -5850,7 +5840,7 @@
       <c r="R102" s="7"/>
       <c r="S102" s="4"/>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A103" s="7"/>
       <c r="B103" s="4"/>
       <c r="C103" s="7"/>
@@ -5871,7 +5861,7 @@
       <c r="R103" s="7"/>
       <c r="S103" s="4"/>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A104" s="7"/>
       <c r="B104" s="4"/>
       <c r="C104" s="7"/>
@@ -5892,7 +5882,7 @@
       <c r="R104" s="7"/>
       <c r="S104" s="4"/>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A105" s="7"/>
       <c r="B105" s="4"/>
       <c r="C105" s="7"/>
@@ -5913,7 +5903,7 @@
       <c r="R105" s="7"/>
       <c r="S105" s="4"/>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A106" s="7"/>
       <c r="B106" s="4"/>
       <c r="C106" s="7"/>
@@ -5934,7 +5924,7 @@
       <c r="R106" s="7"/>
       <c r="S106" s="4"/>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A107" s="7"/>
       <c r="B107" s="4"/>
       <c r="C107" s="7"/>
@@ -5955,7 +5945,7 @@
       <c r="R107" s="7"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A108" s="7"/>
       <c r="B108" s="4"/>
       <c r="C108" s="7"/>
@@ -5976,7 +5966,7 @@
       <c r="R108" s="7"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A109" s="7"/>
       <c r="B109" s="4"/>
       <c r="C109" s="7"/>
@@ -5997,7 +5987,7 @@
       <c r="R109" s="7"/>
       <c r="S109" s="4"/>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A110" s="7"/>
       <c r="B110" s="4"/>
       <c r="C110" s="7"/>
@@ -6018,7 +6008,7 @@
       <c r="R110" s="7"/>
       <c r="S110" s="4"/>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A111" s="7"/>
       <c r="B111" s="4"/>
       <c r="C111" s="7"/>
@@ -6039,7 +6029,7 @@
       <c r="R111" s="7"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A112" s="7"/>
       <c r="B112" s="4"/>
       <c r="C112" s="7"/>
@@ -6060,7 +6050,7 @@
       <c r="R112" s="7"/>
       <c r="S112" s="4"/>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A113" s="7"/>
       <c r="B113" s="4"/>
       <c r="C113" s="7"/>
@@ -6081,7 +6071,7 @@
       <c r="R113" s="7"/>
       <c r="S113" s="4"/>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A114" s="7"/>
       <c r="B114" s="4"/>
       <c r="C114" s="7"/>
@@ -6102,7 +6092,7 @@
       <c r="R114" s="7"/>
       <c r="S114" s="4"/>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A115" s="7"/>
       <c r="B115" s="4"/>
       <c r="C115" s="7"/>
@@ -6123,7 +6113,7 @@
       <c r="R115" s="7"/>
       <c r="S115" s="4"/>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A116" s="7"/>
       <c r="B116" s="4"/>
       <c r="C116" s="7"/>
@@ -6144,7 +6134,7 @@
       <c r="R116" s="7"/>
       <c r="S116" s="4"/>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A117" s="7"/>
       <c r="B117" s="4"/>
       <c r="C117" s="7"/>
@@ -6162,7 +6152,7 @@
       <c r="O117" s="4"/>
       <c r="S117" s="4"/>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A118" s="7"/>
       <c r="B118" s="4"/>
       <c r="C118" s="7"/>
@@ -6180,7 +6170,7 @@
       <c r="O118" s="4"/>
       <c r="S118" s="4"/>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A119" s="7"/>
       <c r="B119" s="4"/>
       <c r="C119" s="7"/>
@@ -6198,7 +6188,7 @@
       <c r="O119" s="4"/>
       <c r="S119" s="4"/>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A120" s="7"/>
       <c r="B120" s="4"/>
       <c r="C120" s="7"/>
@@ -6216,7 +6206,7 @@
       <c r="O120" s="4"/>
       <c r="S120" s="4"/>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A121" s="7"/>
       <c r="B121" s="4"/>
       <c r="C121" s="7"/>
@@ -6234,7 +6224,7 @@
       <c r="O121" s="4"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A122" s="7"/>
       <c r="B122" s="4"/>
       <c r="C122" s="7"/>
@@ -6252,7 +6242,7 @@
       <c r="O122" s="4"/>
       <c r="S122" s="4"/>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A123" s="7"/>
       <c r="B123" s="4"/>
       <c r="C123" s="7"/>
@@ -6270,7 +6260,7 @@
       <c r="O123" s="4"/>
       <c r="S123" s="4"/>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A124" s="7"/>
       <c r="B124" s="4"/>
       <c r="C124" s="7"/>
@@ -6288,7 +6278,7 @@
       <c r="O124" s="4"/>
       <c r="S124" s="4"/>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A125" s="7"/>
       <c r="B125" s="4"/>
       <c r="C125" s="7"/>
@@ -6306,7 +6296,7 @@
       <c r="O125" s="4"/>
       <c r="S125" s="4"/>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A126" s="7"/>
       <c r="B126" s="4"/>
       <c r="C126" s="7"/>
@@ -6324,7 +6314,7 @@
       <c r="O126" s="4"/>
       <c r="S126" s="4"/>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A127" s="7"/>
       <c r="B127" s="4"/>
       <c r="C127" s="7"/>
@@ -6342,7 +6332,7 @@
       <c r="O127" s="4"/>
       <c r="S127" s="4"/>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A128" s="7"/>
       <c r="B128" s="4"/>
       <c r="C128" s="7"/>
@@ -6360,7 +6350,7 @@
       <c r="O128" s="4"/>
       <c r="S128" s="4"/>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A129" s="7"/>
       <c r="B129" s="4"/>
       <c r="C129" s="7"/>
@@ -6378,7 +6368,7 @@
       <c r="O129" s="4"/>
       <c r="S129" s="4"/>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A130" s="7"/>
       <c r="B130" s="4"/>
       <c r="C130" s="7"/>
@@ -6396,7 +6386,7 @@
       <c r="O130" s="4"/>
       <c r="S130" s="4"/>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A131" s="7"/>
       <c r="B131" s="4"/>
       <c r="C131" s="7"/>
@@ -6414,7 +6404,7 @@
       <c r="O131" s="4"/>
       <c r="S131" s="4"/>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A132" s="7"/>
       <c r="B132" s="4"/>
       <c r="C132" s="7"/>
@@ -6432,7 +6422,7 @@
       <c r="O132" s="4"/>
       <c r="S132" s="4"/>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A133" s="7"/>
       <c r="B133" s="4"/>
       <c r="C133" s="7"/>
@@ -6450,7 +6440,7 @@
       <c r="O133" s="4"/>
       <c r="S133" s="4"/>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A134" s="7"/>
       <c r="B134" s="4"/>
       <c r="C134" s="7"/>
@@ -6468,7 +6458,7 @@
       <c r="O134" s="4"/>
       <c r="S134" s="4"/>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A135" s="7"/>
       <c r="B135" s="4"/>
       <c r="C135" s="7"/>
@@ -6486,7 +6476,7 @@
       <c r="O135" s="4"/>
       <c r="S135" s="4"/>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A136" s="7"/>
       <c r="B136" s="4"/>
       <c r="C136" s="7"/>
@@ -6504,7 +6494,7 @@
       <c r="O136" s="4"/>
       <c r="S136" s="4"/>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A137" s="7"/>
       <c r="B137" s="4"/>
       <c r="C137" s="7"/>
@@ -6522,7 +6512,7 @@
       <c r="O137" s="4"/>
       <c r="S137" s="4"/>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A138" s="7"/>
       <c r="B138" s="4"/>
       <c r="C138" s="7"/>
@@ -6540,7 +6530,7 @@
       <c r="O138" s="4"/>
       <c r="S138" s="4"/>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A139" s="7"/>
       <c r="B139" s="4"/>
       <c r="C139" s="7"/>
@@ -6558,7 +6548,7 @@
       <c r="O139" s="4"/>
       <c r="S139" s="4"/>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A140" s="7"/>
       <c r="B140" s="4"/>
       <c r="C140" s="7"/>
@@ -6576,7 +6566,7 @@
       <c r="O140" s="4"/>
       <c r="S140" s="4"/>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A141" s="7"/>
       <c r="B141" s="4"/>
       <c r="C141" s="7"/>
@@ -6594,7 +6584,7 @@
       <c r="O141" s="4"/>
       <c r="S141" s="4"/>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A142" s="7"/>
       <c r="B142" s="4"/>
       <c r="C142" s="7"/>
@@ -6612,7 +6602,7 @@
       <c r="O142" s="4"/>
       <c r="S142" s="4"/>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A143" s="7"/>
       <c r="B143" s="4"/>
       <c r="C143" s="7"/>
@@ -6630,7 +6620,7 @@
       <c r="O143" s="4"/>
       <c r="S143" s="4"/>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A144" s="7"/>
       <c r="B144" s="4"/>
       <c r="C144" s="7"/>
@@ -6648,7 +6638,7 @@
       <c r="O144" s="4"/>
       <c r="S144" s="4"/>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A145" s="7"/>
       <c r="B145" s="4"/>
       <c r="C145" s="7"/>
@@ -6666,7 +6656,7 @@
       <c r="O145" s="4"/>
       <c r="S145" s="4"/>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A146" s="7"/>
       <c r="B146" s="4"/>
       <c r="C146" s="7"/>
@@ -6684,7 +6674,7 @@
       <c r="O146" s="4"/>
       <c r="S146" s="4"/>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A147" s="7"/>
       <c r="B147" s="4"/>
       <c r="C147" s="7"/>
@@ -6702,7 +6692,7 @@
       <c r="O147" s="4"/>
       <c r="S147" s="4"/>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A148" s="7"/>
       <c r="B148" s="4"/>
       <c r="C148" s="7"/>
@@ -6720,7 +6710,7 @@
       <c r="O148" s="4"/>
       <c r="S148" s="4"/>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A149" s="7"/>
       <c r="B149" s="4"/>
       <c r="C149" s="7"/>
@@ -6738,7 +6728,7 @@
       <c r="O149" s="4"/>
       <c r="S149" s="4"/>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A150" s="7"/>
       <c r="B150" s="4"/>
       <c r="C150" s="7"/>
@@ -6756,7 +6746,7 @@
       <c r="O150" s="4"/>
       <c r="S150" s="4"/>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A151" s="7"/>
       <c r="B151" s="4"/>
       <c r="C151" s="7"/>
@@ -6782,14 +6772,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
@@ -6797,39 +6787,39 @@
     <col min="4" max="13" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="55"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="57"/>
-    </row>
-    <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="65"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
+    </row>
+    <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
@@ -6864,50 +6854,132 @@
         <v>31</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="20" customFormat="1" ht="68.25" customHeight="1">
+    <row r="4" spans="1:13" s="20" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22">
         <v>1</v>
       </c>
       <c r="B4" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="H4" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="I4" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="J4" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="K4" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="L4" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="M4" s="24"/>
+    </row>
+    <row r="5" spans="1:13" s="20" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A5" s="22">
+        <v>2</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="J5" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="G4" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="M4" s="24"/>
+      <c r="K5" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="M5" s="48" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="20" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+      <c r="A6" s="22">
+        <v>3</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="M6" s="49" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6918,10 +6990,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JE1:JE4 WVQ1:WVQ4 WLU1:WLU4 WBY1:WBY4 VSC1:VSC4 VIG1:VIG4 UYK1:UYK4 UOO1:UOO4 UES1:UES4 TUW1:TUW4 TLA1:TLA4 TBE1:TBE4 SRI1:SRI4 SHM1:SHM4 RXQ1:RXQ4 RNU1:RNU4 RDY1:RDY4 QUC1:QUC4 QKG1:QKG4 QAK1:QAK4 PQO1:PQO4 PGS1:PGS4 OWW1:OWW4 ONA1:ONA4 ODE1:ODE4 NTI1:NTI4 NJM1:NJM4 MZQ1:MZQ4 MPU1:MPU4 MFY1:MFY4 LWC1:LWC4 LMG1:LMG4 LCK1:LCK4 KSO1:KSO4 KIS1:KIS4 JYW1:JYW4 JPA1:JPA4 JFE1:JFE4 IVI1:IVI4 ILM1:ILM4 IBQ1:IBQ4 HRU1:HRU4 HHY1:HHY4 GYC1:GYC4 GOG1:GOG4 GEK1:GEK4 FUO1:FUO4 FKS1:FKS4 FAW1:FAW4 ERA1:ERA4 EHE1:EHE4 DXI1:DXI4 DNM1:DNM4 DDQ1:DDQ4 CTU1:CTU4 CJY1:CJY4 CAC1:CAC4 BQG1:BQG4 BGK1:BGK4 AWO1:AWO4 AMS1:AMS4 ACW1:ACW4 TA1:TA4 I1:I3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JE1:JE6 WVQ1:WVQ6 WLU1:WLU6 WBY1:WBY6 VSC1:VSC6 VIG1:VIG6 UYK1:UYK6 UOO1:UOO6 UES1:UES6 TUW1:TUW6 TLA1:TLA6 TBE1:TBE6 SRI1:SRI6 SHM1:SHM6 RXQ1:RXQ6 RNU1:RNU6 RDY1:RDY6 QUC1:QUC6 QKG1:QKG6 QAK1:QAK6 PQO1:PQO6 PGS1:PGS6 OWW1:OWW6 ONA1:ONA6 ODE1:ODE6 NTI1:NTI6 NJM1:NJM6 MZQ1:MZQ6 MPU1:MPU6 MFY1:MFY6 LWC1:LWC6 LMG1:LMG6 LCK1:LCK6 KSO1:KSO6 KIS1:KIS6 JYW1:JYW6 JPA1:JPA6 JFE1:JFE6 IVI1:IVI6 ILM1:ILM6 IBQ1:IBQ6 HRU1:HRU6 HHY1:HHY6 GYC1:GYC6 GOG1:GOG6 GEK1:GEK6 FUO1:FUO6 FKS1:FKS6 FAW1:FAW6 ERA1:ERA6 EHE1:EHE6 DXI1:DXI6 DNM1:DNM6 DDQ1:DDQ6 CTU1:CTU6 CJY1:CJY6 CAC1:CAC6 BQG1:BQG6 BGK1:BGK6 AWO1:AWO6 AMS1:AMS6 ACW1:ACW6 TA1:TA6 I1:I3 I5:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 JB4 SX4 ACT4 AMP4 AWL4 BGH4 BQD4 BZZ4 CJV4 CTR4 DDN4 DNJ4 DXF4 EHB4 EQX4 FAT4 FKP4 FUL4 GEH4 GOD4 GXZ4 HHV4 HRR4 IBN4 ILJ4 IVF4 JFB4 JOX4 JYT4 KIP4 KSL4 LCH4 LMD4 LVZ4 MFV4 MPR4 MZN4 NJJ4 NTF4 ODB4 OMX4 OWT4 PGP4 PQL4 QAH4 QKD4 QTZ4 RDV4 RNR4 RXN4 SHJ4 SRF4 TBB4 TKX4 TUT4 UEP4 UOL4 UYH4 VID4 VRZ4 WBV4 WLR4 WVN4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F6 JB4:JB6 SX4:SX6 ACT4:ACT6 AMP4:AMP6 AWL4:AWL6 BGH4:BGH6 BQD4:BQD6 BZZ4:BZZ6 CJV4:CJV6 CTR4:CTR6 DDN4:DDN6 DNJ4:DNJ6 DXF4:DXF6 EHB4:EHB6 EQX4:EQX6 FAT4:FAT6 FKP4:FKP6 FUL4:FUL6 GEH4:GEH6 GOD4:GOD6 GXZ4:GXZ6 HHV4:HHV6 HRR4:HRR6 IBN4:IBN6 ILJ4:ILJ6 IVF4:IVF6 JFB4:JFB6 JOX4:JOX6 JYT4:JYT6 KIP4:KIP6 KSL4:KSL6 LCH4:LCH6 LMD4:LMD6 LVZ4:LVZ6 MFV4:MFV6 MPR4:MPR6 MZN4:MZN6 NJJ4:NJJ6 NTF4:NTF6 ODB4:ODB6 OMX4:OMX6 OWT4:OWT6 PGP4:PGP6 PQL4:PQL6 QAH4:QAH6 QKD4:QKD6 QTZ4:QTZ6 RDV4:RDV6 RNR4:RNR6 RXN4:RXN6 SHJ4:SHJ6 SRF4:SRF6 TBB4:TBB6 TKX4:TKX6 TUT4:TUT6 UEP4:UEP6 UOL4:UOL6 UYH4:UYH6 VID4:VID6 VRZ4:VRZ6 WBV4:WBV6 WLR4:WLR6 WVN4:WVN6">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6930,14 +7002,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="8.125" style="26" customWidth="1"/>
@@ -7773,39 +7845,39 @@
     <col min="16141" max="16141" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="55"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="57"/>
-    </row>
-    <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="65"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
+    </row>
+    <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
@@ -7846,113 +7918,165 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="20" customFormat="1" ht="68.25" customHeight="1">
+    <row r="4" spans="1:13" s="20" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22">
         <v>1</v>
       </c>
       <c r="B4" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="H4" s="29" t="s">
         <v>160</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>164</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>35</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M4" s="24"/>
     </row>
-    <row r="5" spans="1:13" s="20" customFormat="1" ht="39.75" customHeight="1">
+    <row r="5" spans="1:13" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22">
         <v>2</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M5" s="22"/>
     </row>
-    <row r="6" spans="1:13" s="20" customFormat="1" ht="16.5">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-    </row>
-    <row r="7" spans="1:13" s="20" customFormat="1" ht="16.5">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-    </row>
-    <row r="8" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="6" spans="1:13" s="20" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A6" s="22">
+        <v>3</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="M6" s="48" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="20" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+      <c r="A7" s="22">
+        <v>4</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="M7" s="49" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -7967,7 +8091,7 @@
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
     </row>
-    <row r="9" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="9" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -7982,7 +8106,7 @@
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
     </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -7997,7 +8121,7 @@
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
     </row>
-    <row r="11" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="11" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -8021,7 +8145,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65535:F65547 F131071:F131083 F196607:F196619 F262143:F262155 F327679:F327691 F393215:F393227 F458751:F458763 F524287:F524299 F589823:F589835 F655359:F655371 F720895:F720907 F786431:F786443 F851967:F851979 F917503:F917515 F983039:F983051 JB65535:JB65547 JB131071:JB131083 JB196607:JB196619 JB262143:JB262155 JB327679:JB327691 JB393215:JB393227 JB458751:JB458763 JB524287:JB524299 JB589823:JB589835 JB655359:JB655371 JB720895:JB720907 JB786431:JB786443 JB851967:JB851979 JB917503:JB917515 JB983039:JB983051 SX65535:SX65547 SX131071:SX131083 SX196607:SX196619 SX262143:SX262155 SX327679:SX327691 SX393215:SX393227 SX458751:SX458763 SX524287:SX524299 SX589823:SX589835 SX655359:SX655371 SX720895:SX720907 SX786431:SX786443 SX851967:SX851979 SX917503:SX917515 SX983039:SX983051 ACT65535:ACT65547 ACT131071:ACT131083 ACT196607:ACT196619 ACT262143:ACT262155 ACT327679:ACT327691 ACT393215:ACT393227 ACT458751:ACT458763 ACT524287:ACT524299 ACT589823:ACT589835 ACT655359:ACT655371 ACT720895:ACT720907 ACT786431:ACT786443 ACT851967:ACT851979 ACT917503:ACT917515 ACT983039:ACT983051 AMP65535:AMP65547 AMP131071:AMP131083 AMP196607:AMP196619 AMP262143:AMP262155 AMP327679:AMP327691 AMP393215:AMP393227 AMP458751:AMP458763 AMP524287:AMP524299 AMP589823:AMP589835 AMP655359:AMP655371 AMP720895:AMP720907 AMP786431:AMP786443 AMP851967:AMP851979 AMP917503:AMP917515 AMP983039:AMP983051 AWL65535:AWL65547 AWL131071:AWL131083 AWL196607:AWL196619 AWL262143:AWL262155 AWL327679:AWL327691 AWL393215:AWL393227 AWL458751:AWL458763 AWL524287:AWL524299 AWL589823:AWL589835 AWL655359:AWL655371 AWL720895:AWL720907 AWL786431:AWL786443 AWL851967:AWL851979 AWL917503:AWL917515 AWL983039:AWL983051 BGH65535:BGH65547 BGH131071:BGH131083 BGH196607:BGH196619 BGH262143:BGH262155 BGH327679:BGH327691 BGH393215:BGH393227 BGH458751:BGH458763 BGH524287:BGH524299 BGH589823:BGH589835 BGH655359:BGH655371 BGH720895:BGH720907 BGH786431:BGH786443 BGH851967:BGH851979 BGH917503:BGH917515 BGH983039:BGH983051 BQD65535:BQD65547 BQD131071:BQD131083 BQD196607:BQD196619 BQD262143:BQD262155 BQD327679:BQD327691 BQD393215:BQD393227 BQD458751:BQD458763 BQD524287:BQD524299 BQD589823:BQD589835 BQD655359:BQD655371 BQD720895:BQD720907 BQD786431:BQD786443 BQD851967:BQD851979 BQD917503:BQD917515 BQD983039:BQD983051 BZZ65535:BZZ65547 BZZ131071:BZZ131083 BZZ196607:BZZ196619 BZZ262143:BZZ262155 BZZ327679:BZZ327691 BZZ393215:BZZ393227 BZZ458751:BZZ458763 BZZ524287:BZZ524299 BZZ589823:BZZ589835 BZZ655359:BZZ655371 BZZ720895:BZZ720907 BZZ786431:BZZ786443 BZZ851967:BZZ851979 BZZ917503:BZZ917515 BZZ983039:BZZ983051 CJV65535:CJV65547 CJV131071:CJV131083 CJV196607:CJV196619 CJV262143:CJV262155 CJV327679:CJV327691 CJV393215:CJV393227 CJV458751:CJV458763 CJV524287:CJV524299 CJV589823:CJV589835 CJV655359:CJV655371 CJV720895:CJV720907 CJV786431:CJV786443 CJV851967:CJV851979 CJV917503:CJV917515 CJV983039:CJV983051 CTR65535:CTR65547 CTR131071:CTR131083 CTR196607:CTR196619 CTR262143:CTR262155 CTR327679:CTR327691 CTR393215:CTR393227 CTR458751:CTR458763 CTR524287:CTR524299 CTR589823:CTR589835 CTR655359:CTR655371 CTR720895:CTR720907 CTR786431:CTR786443 CTR851967:CTR851979 CTR917503:CTR917515 CTR983039:CTR983051 DDN65535:DDN65547 DDN131071:DDN131083 DDN196607:DDN196619 DDN262143:DDN262155 DDN327679:DDN327691 DDN393215:DDN393227 DDN458751:DDN458763 DDN524287:DDN524299 DDN589823:DDN589835 DDN655359:DDN655371 DDN720895:DDN720907 DDN786431:DDN786443 DDN851967:DDN851979 DDN917503:DDN917515 DDN983039:DDN983051 DNJ65535:DNJ65547 DNJ131071:DNJ131083 DNJ196607:DNJ196619 DNJ262143:DNJ262155 DNJ327679:DNJ327691 DNJ393215:DNJ393227 DNJ458751:DNJ458763 DNJ524287:DNJ524299 DNJ589823:DNJ589835 DNJ655359:DNJ655371 DNJ720895:DNJ720907 DNJ786431:DNJ786443 DNJ851967:DNJ851979 DNJ917503:DNJ917515 DNJ983039:DNJ983051 DXF65535:DXF65547 DXF131071:DXF131083 DXF196607:DXF196619 DXF262143:DXF262155 DXF327679:DXF327691 DXF393215:DXF393227 DXF458751:DXF458763 DXF524287:DXF524299 DXF589823:DXF589835 DXF655359:DXF655371 DXF720895:DXF720907 DXF786431:DXF786443 DXF851967:DXF851979 DXF917503:DXF917515 DXF983039:DXF983051 EHB65535:EHB65547 EHB131071:EHB131083 EHB196607:EHB196619 EHB262143:EHB262155 EHB327679:EHB327691 EHB393215:EHB393227 EHB458751:EHB458763 EHB524287:EHB524299 EHB589823:EHB589835 EHB655359:EHB655371 EHB720895:EHB720907 EHB786431:EHB786443 EHB851967:EHB851979 EHB917503:EHB917515 EHB983039:EHB983051 EQX65535:EQX65547 EQX131071:EQX131083 EQX196607:EQX196619 EQX262143:EQX262155 EQX327679:EQX327691 EQX393215:EQX393227 EQX458751:EQX458763 EQX524287:EQX524299 EQX589823:EQX589835 EQX655359:EQX655371 EQX720895:EQX720907 EQX786431:EQX786443 EQX851967:EQX851979 EQX917503:EQX917515 EQX983039:EQX983051 FAT65535:FAT65547 FAT131071:FAT131083 FAT196607:FAT196619 FAT262143:FAT262155 FAT327679:FAT327691 FAT393215:FAT393227 FAT458751:FAT458763 FAT524287:FAT524299 FAT589823:FAT589835 FAT655359:FAT655371 FAT720895:FAT720907 FAT786431:FAT786443 FAT851967:FAT851979 FAT917503:FAT917515 FAT983039:FAT983051 FKP65535:FKP65547 FKP131071:FKP131083 FKP196607:FKP196619 FKP262143:FKP262155 FKP327679:FKP327691 FKP393215:FKP393227 FKP458751:FKP458763 FKP524287:FKP524299 FKP589823:FKP589835 FKP655359:FKP655371 FKP720895:FKP720907 FKP786431:FKP786443 FKP851967:FKP851979 FKP917503:FKP917515 FKP983039:FKP983051 FUL65535:FUL65547 FUL131071:FUL131083 FUL196607:FUL196619 FUL262143:FUL262155 FUL327679:FUL327691 FUL393215:FUL393227 FUL458751:FUL458763 FUL524287:FUL524299 FUL589823:FUL589835 FUL655359:FUL655371 FUL720895:FUL720907 FUL786431:FUL786443 FUL851967:FUL851979 FUL917503:FUL917515 FUL983039:FUL983051 GEH65535:GEH65547 GEH131071:GEH131083 GEH196607:GEH196619 GEH262143:GEH262155 GEH327679:GEH327691 GEH393215:GEH393227 GEH458751:GEH458763 GEH524287:GEH524299 GEH589823:GEH589835 GEH655359:GEH655371 GEH720895:GEH720907 GEH786431:GEH786443 GEH851967:GEH851979 GEH917503:GEH917515 GEH983039:GEH983051 GOD65535:GOD65547 GOD131071:GOD131083 GOD196607:GOD196619 GOD262143:GOD262155 GOD327679:GOD327691 GOD393215:GOD393227 GOD458751:GOD458763 GOD524287:GOD524299 GOD589823:GOD589835 GOD655359:GOD655371 GOD720895:GOD720907 GOD786431:GOD786443 GOD851967:GOD851979 GOD917503:GOD917515 GOD983039:GOD983051 GXZ65535:GXZ65547 GXZ131071:GXZ131083 GXZ196607:GXZ196619 GXZ262143:GXZ262155 GXZ327679:GXZ327691 GXZ393215:GXZ393227 GXZ458751:GXZ458763 GXZ524287:GXZ524299 GXZ589823:GXZ589835 GXZ655359:GXZ655371 GXZ720895:GXZ720907 GXZ786431:GXZ786443 GXZ851967:GXZ851979 GXZ917503:GXZ917515 GXZ983039:GXZ983051 HHV65535:HHV65547 HHV131071:HHV131083 HHV196607:HHV196619 HHV262143:HHV262155 HHV327679:HHV327691 HHV393215:HHV393227 HHV458751:HHV458763 HHV524287:HHV524299 HHV589823:HHV589835 HHV655359:HHV655371 HHV720895:HHV720907 HHV786431:HHV786443 HHV851967:HHV851979 HHV917503:HHV917515 HHV983039:HHV983051 HRR65535:HRR65547 HRR131071:HRR131083 HRR196607:HRR196619 HRR262143:HRR262155 HRR327679:HRR327691 HRR393215:HRR393227 HRR458751:HRR458763 HRR524287:HRR524299 HRR589823:HRR589835 HRR655359:HRR655371 HRR720895:HRR720907 HRR786431:HRR786443 HRR851967:HRR851979 HRR917503:HRR917515 HRR983039:HRR983051 IBN65535:IBN65547 IBN131071:IBN131083 IBN196607:IBN196619 IBN262143:IBN262155 IBN327679:IBN327691 IBN393215:IBN393227 IBN458751:IBN458763 IBN524287:IBN524299 IBN589823:IBN589835 IBN655359:IBN655371 IBN720895:IBN720907 IBN786431:IBN786443 IBN851967:IBN851979 IBN917503:IBN917515 IBN983039:IBN983051 ILJ65535:ILJ65547 ILJ131071:ILJ131083 ILJ196607:ILJ196619 ILJ262143:ILJ262155 ILJ327679:ILJ327691 ILJ393215:ILJ393227 ILJ458751:ILJ458763 ILJ524287:ILJ524299 ILJ589823:ILJ589835 ILJ655359:ILJ655371 ILJ720895:ILJ720907 ILJ786431:ILJ786443 ILJ851967:ILJ851979 ILJ917503:ILJ917515 ILJ983039:ILJ983051 IVF65535:IVF65547 IVF131071:IVF131083 IVF196607:IVF196619 IVF262143:IVF262155 IVF327679:IVF327691 IVF393215:IVF393227 IVF458751:IVF458763 IVF524287:IVF524299 IVF589823:IVF589835 IVF655359:IVF655371 IVF720895:IVF720907 IVF786431:IVF786443 IVF851967:IVF851979 IVF917503:IVF917515 IVF983039:IVF983051 JFB65535:JFB65547 JFB131071:JFB131083 JFB196607:JFB196619 JFB262143:JFB262155 JFB327679:JFB327691 JFB393215:JFB393227 JFB458751:JFB458763 JFB524287:JFB524299 JFB589823:JFB589835 JFB655359:JFB655371 JFB720895:JFB720907 JFB786431:JFB786443 JFB851967:JFB851979 JFB917503:JFB917515 JFB983039:JFB983051 JOX65535:JOX65547 JOX131071:JOX131083 JOX196607:JOX196619 JOX262143:JOX262155 JOX327679:JOX327691 JOX393215:JOX393227 JOX458751:JOX458763 JOX524287:JOX524299 JOX589823:JOX589835 JOX655359:JOX655371 JOX720895:JOX720907 JOX786431:JOX786443 JOX851967:JOX851979 JOX917503:JOX917515 JOX983039:JOX983051 JYT65535:JYT65547 JYT131071:JYT131083 JYT196607:JYT196619 JYT262143:JYT262155 JYT327679:JYT327691 JYT393215:JYT393227 JYT458751:JYT458763 JYT524287:JYT524299 JYT589823:JYT589835 JYT655359:JYT655371 JYT720895:JYT720907 JYT786431:JYT786443 JYT851967:JYT851979 JYT917503:JYT917515 JYT983039:JYT983051 KIP65535:KIP65547 KIP131071:KIP131083 KIP196607:KIP196619 KIP262143:KIP262155 KIP327679:KIP327691 KIP393215:KIP393227 KIP458751:KIP458763 KIP524287:KIP524299 KIP589823:KIP589835 KIP655359:KIP655371 KIP720895:KIP720907 KIP786431:KIP786443 KIP851967:KIP851979 KIP917503:KIP917515 KIP983039:KIP983051 KSL65535:KSL65547 KSL131071:KSL131083 KSL196607:KSL196619 KSL262143:KSL262155 KSL327679:KSL327691 KSL393215:KSL393227 KSL458751:KSL458763 KSL524287:KSL524299 KSL589823:KSL589835 KSL655359:KSL655371 KSL720895:KSL720907 KSL786431:KSL786443 KSL851967:KSL851979 KSL917503:KSL917515 KSL983039:KSL983051 LCH65535:LCH65547 LCH131071:LCH131083 LCH196607:LCH196619 LCH262143:LCH262155 LCH327679:LCH327691 LCH393215:LCH393227 LCH458751:LCH458763 LCH524287:LCH524299 LCH589823:LCH589835 LCH655359:LCH655371 LCH720895:LCH720907 LCH786431:LCH786443 LCH851967:LCH851979 LCH917503:LCH917515 LCH983039:LCH983051 LMD65535:LMD65547 LMD131071:LMD131083 LMD196607:LMD196619 LMD262143:LMD262155 LMD327679:LMD327691 LMD393215:LMD393227 LMD458751:LMD458763 LMD524287:LMD524299 LMD589823:LMD589835 LMD655359:LMD655371 LMD720895:LMD720907 LMD786431:LMD786443 LMD851967:LMD851979 LMD917503:LMD917515 LMD983039:LMD983051 LVZ65535:LVZ65547 LVZ131071:LVZ131083 LVZ196607:LVZ196619 LVZ262143:LVZ262155 LVZ327679:LVZ327691 LVZ393215:LVZ393227 LVZ458751:LVZ458763 LVZ524287:LVZ524299 LVZ589823:LVZ589835 LVZ655359:LVZ655371 LVZ720895:LVZ720907 LVZ786431:LVZ786443 LVZ851967:LVZ851979 LVZ917503:LVZ917515 LVZ983039:LVZ983051 MFV65535:MFV65547 MFV131071:MFV131083 MFV196607:MFV196619 MFV262143:MFV262155 MFV327679:MFV327691 MFV393215:MFV393227 MFV458751:MFV458763 MFV524287:MFV524299 MFV589823:MFV589835 MFV655359:MFV655371 MFV720895:MFV720907 MFV786431:MFV786443 MFV851967:MFV851979 MFV917503:MFV917515 MFV983039:MFV983051 MPR65535:MPR65547 MPR131071:MPR131083 MPR196607:MPR196619 MPR262143:MPR262155 MPR327679:MPR327691 MPR393215:MPR393227 MPR458751:MPR458763 MPR524287:MPR524299 MPR589823:MPR589835 MPR655359:MPR655371 MPR720895:MPR720907 MPR786431:MPR786443 MPR851967:MPR851979 MPR917503:MPR917515 MPR983039:MPR983051 MZN65535:MZN65547 MZN131071:MZN131083 MZN196607:MZN196619 MZN262143:MZN262155 MZN327679:MZN327691 MZN393215:MZN393227 MZN458751:MZN458763 MZN524287:MZN524299 MZN589823:MZN589835 MZN655359:MZN655371 MZN720895:MZN720907 MZN786431:MZN786443 MZN851967:MZN851979 MZN917503:MZN917515 MZN983039:MZN983051 NJJ65535:NJJ65547 NJJ131071:NJJ131083 NJJ196607:NJJ196619 NJJ262143:NJJ262155 NJJ327679:NJJ327691 NJJ393215:NJJ393227 NJJ458751:NJJ458763 NJJ524287:NJJ524299 NJJ589823:NJJ589835 NJJ655359:NJJ655371 NJJ720895:NJJ720907 NJJ786431:NJJ786443 NJJ851967:NJJ851979 NJJ917503:NJJ917515 NJJ983039:NJJ983051 NTF65535:NTF65547 NTF131071:NTF131083 NTF196607:NTF196619 NTF262143:NTF262155 NTF327679:NTF327691 NTF393215:NTF393227 NTF458751:NTF458763 NTF524287:NTF524299 NTF589823:NTF589835 NTF655359:NTF655371 NTF720895:NTF720907 NTF786431:NTF786443 NTF851967:NTF851979 NTF917503:NTF917515 NTF983039:NTF983051 ODB65535:ODB65547 ODB131071:ODB131083 ODB196607:ODB196619 ODB262143:ODB262155 ODB327679:ODB327691 ODB393215:ODB393227 ODB458751:ODB458763 ODB524287:ODB524299 ODB589823:ODB589835 ODB655359:ODB655371 ODB720895:ODB720907 ODB786431:ODB786443 ODB851967:ODB851979 ODB917503:ODB917515 ODB983039:ODB983051 OMX65535:OMX65547 OMX131071:OMX131083 OMX196607:OMX196619 OMX262143:OMX262155 OMX327679:OMX327691 OMX393215:OMX393227 OMX458751:OMX458763 OMX524287:OMX524299 OMX589823:OMX589835 OMX655359:OMX655371 OMX720895:OMX720907 OMX786431:OMX786443 OMX851967:OMX851979 OMX917503:OMX917515 OMX983039:OMX983051 OWT65535:OWT65547 OWT131071:OWT131083 OWT196607:OWT196619 OWT262143:OWT262155 OWT327679:OWT327691 OWT393215:OWT393227 OWT458751:OWT458763 OWT524287:OWT524299 OWT589823:OWT589835 OWT655359:OWT655371 OWT720895:OWT720907 OWT786431:OWT786443 OWT851967:OWT851979 OWT917503:OWT917515 OWT983039:OWT983051 PGP65535:PGP65547 PGP131071:PGP131083 PGP196607:PGP196619 PGP262143:PGP262155 PGP327679:PGP327691 PGP393215:PGP393227 PGP458751:PGP458763 PGP524287:PGP524299 PGP589823:PGP589835 PGP655359:PGP655371 PGP720895:PGP720907 PGP786431:PGP786443 PGP851967:PGP851979 PGP917503:PGP917515 PGP983039:PGP983051 PQL65535:PQL65547 PQL131071:PQL131083 PQL196607:PQL196619 PQL262143:PQL262155 PQL327679:PQL327691 PQL393215:PQL393227 PQL458751:PQL458763 PQL524287:PQL524299 PQL589823:PQL589835 PQL655359:PQL655371 PQL720895:PQL720907 PQL786431:PQL786443 PQL851967:PQL851979 PQL917503:PQL917515 PQL983039:PQL983051 QAH65535:QAH65547 QAH131071:QAH131083 QAH196607:QAH196619 QAH262143:QAH262155 QAH327679:QAH327691 QAH393215:QAH393227 QAH458751:QAH458763 QAH524287:QAH524299 QAH589823:QAH589835 QAH655359:QAH655371 QAH720895:QAH720907 QAH786431:QAH786443 QAH851967:QAH851979 QAH917503:QAH917515 QAH983039:QAH983051 QKD65535:QKD65547 QKD131071:QKD131083 QKD196607:QKD196619 QKD262143:QKD262155 QKD327679:QKD327691 QKD393215:QKD393227 QKD458751:QKD458763 QKD524287:QKD524299 QKD589823:QKD589835 QKD655359:QKD655371 QKD720895:QKD720907 QKD786431:QKD786443 QKD851967:QKD851979 QKD917503:QKD917515 QKD983039:QKD983051 QTZ65535:QTZ65547 QTZ131071:QTZ131083 QTZ196607:QTZ196619 QTZ262143:QTZ262155 QTZ327679:QTZ327691 QTZ393215:QTZ393227 QTZ458751:QTZ458763 QTZ524287:QTZ524299 QTZ589823:QTZ589835 QTZ655359:QTZ655371 QTZ720895:QTZ720907 QTZ786431:QTZ786443 QTZ851967:QTZ851979 QTZ917503:QTZ917515 QTZ983039:QTZ983051 RDV65535:RDV65547 RDV131071:RDV131083 RDV196607:RDV196619 RDV262143:RDV262155 RDV327679:RDV327691 RDV393215:RDV393227 RDV458751:RDV458763 RDV524287:RDV524299 RDV589823:RDV589835 RDV655359:RDV655371 RDV720895:RDV720907 RDV786431:RDV786443 RDV851967:RDV851979 RDV917503:RDV917515 RDV983039:RDV983051 RNR65535:RNR65547 RNR131071:RNR131083 RNR196607:RNR196619 RNR262143:RNR262155 RNR327679:RNR327691 RNR393215:RNR393227 RNR458751:RNR458763 RNR524287:RNR524299 RNR589823:RNR589835 RNR655359:RNR655371 RNR720895:RNR720907 RNR786431:RNR786443 RNR851967:RNR851979 RNR917503:RNR917515 RNR983039:RNR983051 RXN65535:RXN65547 RXN131071:RXN131083 RXN196607:RXN196619 RXN262143:RXN262155 RXN327679:RXN327691 RXN393215:RXN393227 RXN458751:RXN458763 RXN524287:RXN524299 RXN589823:RXN589835 RXN655359:RXN655371 RXN720895:RXN720907 RXN786431:RXN786443 RXN851967:RXN851979 RXN917503:RXN917515 RXN983039:RXN983051 SHJ65535:SHJ65547 SHJ131071:SHJ131083 SHJ196607:SHJ196619 SHJ262143:SHJ262155 SHJ327679:SHJ327691 SHJ393215:SHJ393227 SHJ458751:SHJ458763 SHJ524287:SHJ524299 SHJ589823:SHJ589835 SHJ655359:SHJ655371 SHJ720895:SHJ720907 SHJ786431:SHJ786443 SHJ851967:SHJ851979 SHJ917503:SHJ917515 SHJ983039:SHJ983051 SRF65535:SRF65547 SRF131071:SRF131083 SRF196607:SRF196619 SRF262143:SRF262155 SRF327679:SRF327691 SRF393215:SRF393227 SRF458751:SRF458763 SRF524287:SRF524299 SRF589823:SRF589835 SRF655359:SRF655371 SRF720895:SRF720907 SRF786431:SRF786443 SRF851967:SRF851979 SRF917503:SRF917515 SRF983039:SRF983051 TBB65535:TBB65547 TBB131071:TBB131083 TBB196607:TBB196619 TBB262143:TBB262155 TBB327679:TBB327691 TBB393215:TBB393227 TBB458751:TBB458763 TBB524287:TBB524299 TBB589823:TBB589835 TBB655359:TBB655371 TBB720895:TBB720907 TBB786431:TBB786443 TBB851967:TBB851979 TBB917503:TBB917515 TBB983039:TBB983051 TKX65535:TKX65547 TKX131071:TKX131083 TKX196607:TKX196619 TKX262143:TKX262155 TKX327679:TKX327691 TKX393215:TKX393227 TKX458751:TKX458763 TKX524287:TKX524299 TKX589823:TKX589835 TKX655359:TKX655371 TKX720895:TKX720907 TKX786431:TKX786443 TKX851967:TKX851979 TKX917503:TKX917515 TKX983039:TKX983051 TUT65535:TUT65547 TUT131071:TUT131083 TUT196607:TUT196619 TUT262143:TUT262155 TUT327679:TUT327691 TUT393215:TUT393227 TUT458751:TUT458763 TUT524287:TUT524299 TUT589823:TUT589835 TUT655359:TUT655371 TUT720895:TUT720907 TUT786431:TUT786443 TUT851967:TUT851979 TUT917503:TUT917515 TUT983039:TUT983051 UEP65535:UEP65547 UEP131071:UEP131083 UEP196607:UEP196619 UEP262143:UEP262155 UEP327679:UEP327691 UEP393215:UEP393227 UEP458751:UEP458763 UEP524287:UEP524299 UEP589823:UEP589835 UEP655359:UEP655371 UEP720895:UEP720907 UEP786431:UEP786443 UEP851967:UEP851979 UEP917503:UEP917515 UEP983039:UEP983051 UOL65535:UOL65547 UOL131071:UOL131083 UOL196607:UOL196619 UOL262143:UOL262155 UOL327679:UOL327691 UOL393215:UOL393227 UOL458751:UOL458763 UOL524287:UOL524299 UOL589823:UOL589835 UOL655359:UOL655371 UOL720895:UOL720907 UOL786431:UOL786443 UOL851967:UOL851979 UOL917503:UOL917515 UOL983039:UOL983051 UYH65535:UYH65547 UYH131071:UYH131083 UYH196607:UYH196619 UYH262143:UYH262155 UYH327679:UYH327691 UYH393215:UYH393227 UYH458751:UYH458763 UYH524287:UYH524299 UYH589823:UYH589835 UYH655359:UYH655371 UYH720895:UYH720907 UYH786431:UYH786443 UYH851967:UYH851979 UYH917503:UYH917515 UYH983039:UYH983051 VID65535:VID65547 VID131071:VID131083 VID196607:VID196619 VID262143:VID262155 VID327679:VID327691 VID393215:VID393227 VID458751:VID458763 VID524287:VID524299 VID589823:VID589835 VID655359:VID655371 VID720895:VID720907 VID786431:VID786443 VID851967:VID851979 VID917503:VID917515 VID983039:VID983051 VRZ65535:VRZ65547 VRZ131071:VRZ131083 VRZ196607:VRZ196619 VRZ262143:VRZ262155 VRZ327679:VRZ327691 VRZ393215:VRZ393227 VRZ458751:VRZ458763 VRZ524287:VRZ524299 VRZ589823:VRZ589835 VRZ655359:VRZ655371 VRZ720895:VRZ720907 VRZ786431:VRZ786443 VRZ851967:VRZ851979 VRZ917503:VRZ917515 VRZ983039:VRZ983051 WBV65535:WBV65547 WBV131071:WBV131083 WBV196607:WBV196619 WBV262143:WBV262155 WBV327679:WBV327691 WBV393215:WBV393227 WBV458751:WBV458763 WBV524287:WBV524299 WBV589823:WBV589835 WBV655359:WBV655371 WBV720895:WBV720907 WBV786431:WBV786443 WBV851967:WBV851979 WBV917503:WBV917515 WBV983039:WBV983051 WLR65535:WLR65547 WLR131071:WLR131083 WLR196607:WLR196619 WLR262143:WLR262155 WLR327679:WLR327691 WLR393215:WLR393227 WLR458751:WLR458763 WLR524287:WLR524299 WLR589823:WLR589835 WLR655359:WLR655371 WLR720895:WLR720907 WLR786431:WLR786443 WLR851967:WLR851979 WLR917503:WLR917515 WLR983039:WLR983051 WVN983039:WVN983051 WVN65535:WVN65547 WVN131071:WVN131083 WVN196607:WVN196619 WVN262143:WVN262155 WVN327679:WVN327691 WVN393215:WVN393227 WVN458751:WVN458763 WVN524287:WVN524299 WVN589823:WVN589835 WVN655359:WVN655371 WVN720895:WVN720907 WVN786431:WVN786443 WVN851967:WVN851979 WVN917503:WVN917515 JB4:JB11 SX4:SX11 ACT4:ACT11 AMP4:AMP11 AWL4:AWL11 BGH4:BGH11 BQD4:BQD11 BZZ4:BZZ11 CJV4:CJV11 CTR4:CTR11 DDN4:DDN11 DNJ4:DNJ11 DXF4:DXF11 EHB4:EHB11 EQX4:EQX11 FAT4:FAT11 FKP4:FKP11 FUL4:FUL11 GEH4:GEH11 GOD4:GOD11 GXZ4:GXZ11 HHV4:HHV11 HRR4:HRR11 IBN4:IBN11 ILJ4:ILJ11 IVF4:IVF11 JFB4:JFB11 JOX4:JOX11 JYT4:JYT11 KIP4:KIP11 KSL4:KSL11 LCH4:LCH11 LMD4:LMD11 LVZ4:LVZ11 MFV4:MFV11 MPR4:MPR11 MZN4:MZN11 NJJ4:NJJ11 NTF4:NTF11 ODB4:ODB11 OMX4:OMX11 OWT4:OWT11 PGP4:PGP11 PQL4:PQL11 QAH4:QAH11 QKD4:QKD11 QTZ4:QTZ11 RDV4:RDV11 RNR4:RNR11 RXN4:RXN11 SHJ4:SHJ11 SRF4:SRF11 TBB4:TBB11 TKX4:TKX11 TUT4:TUT11 UEP4:UEP11 UOL4:UOL11 UYH4:UYH11 VID4:VID11 VRZ4:VRZ11 WBV4:WBV11 WLR4:WLR11 WVN4:WVN11 F4:F11">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I1048576 TA1:TA1048576 ACW1:ACW1048576 AMS1:AMS1048576 AWO1:AWO1048576 BGK1:BGK1048576 BQG1:BQG1048576 CAC1:CAC1048576 CJY1:CJY1048576 CTU1:CTU1048576 DDQ1:DDQ1048576 DNM1:DNM1048576 DXI1:DXI1048576 EHE1:EHE1048576 ERA1:ERA1048576 FAW1:FAW1048576 FKS1:FKS1048576 FUO1:FUO1048576 GEK1:GEK1048576 GOG1:GOG1048576 GYC1:GYC1048576 HHY1:HHY1048576 HRU1:HRU1048576 IBQ1:IBQ1048576 ILM1:ILM1048576 IVI1:IVI1048576 JFE1:JFE1048576 JPA1:JPA1048576 JYW1:JYW1048576 KIS1:KIS1048576 KSO1:KSO1048576 LCK1:LCK1048576 LMG1:LMG1048576 LWC1:LWC1048576 MFY1:MFY1048576 MPU1:MPU1048576 MZQ1:MZQ1048576 NJM1:NJM1048576 NTI1:NTI1048576 ODE1:ODE1048576 ONA1:ONA1048576 OWW1:OWW1048576 PGS1:PGS1048576 PQO1:PQO1048576 QAK1:QAK1048576 QKG1:QKG1048576 QUC1:QUC1048576 RDY1:RDY1048576 RNU1:RNU1048576 RXQ1:RXQ1048576 SHM1:SHM1048576 SRI1:SRI1048576 TBE1:TBE1048576 TLA1:TLA1048576 TUW1:TUW1048576 UES1:UES1048576 UOO1:UOO1048576 UYK1:UYK1048576 VIG1:VIG1048576 VSC1:VSC1048576 WBY1:WBY1048576 WLU1:WLU1048576 WVQ1:WVQ1048576 I1:I3 JE1:JE1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JE1:JE1048576 TA1:TA1048576 ACW1:ACW1048576 AMS1:AMS1048576 AWO1:AWO1048576 BGK1:BGK1048576 BQG1:BQG1048576 CAC1:CAC1048576 CJY1:CJY1048576 CTU1:CTU1048576 DDQ1:DDQ1048576 DNM1:DNM1048576 DXI1:DXI1048576 EHE1:EHE1048576 ERA1:ERA1048576 FAW1:FAW1048576 FKS1:FKS1048576 FUO1:FUO1048576 GEK1:GEK1048576 GOG1:GOG1048576 GYC1:GYC1048576 HHY1:HHY1048576 HRU1:HRU1048576 IBQ1:IBQ1048576 ILM1:ILM1048576 IVI1:IVI1048576 JFE1:JFE1048576 JPA1:JPA1048576 JYW1:JYW1048576 KIS1:KIS1048576 KSO1:KSO1048576 LCK1:LCK1048576 LMG1:LMG1048576 LWC1:LWC1048576 MFY1:MFY1048576 MPU1:MPU1048576 MZQ1:MZQ1048576 NJM1:NJM1048576 NTI1:NTI1048576 ODE1:ODE1048576 ONA1:ONA1048576 OWW1:OWW1048576 PGS1:PGS1048576 PQO1:PQO1048576 QAK1:QAK1048576 QKG1:QKG1048576 QUC1:QUC1048576 RDY1:RDY1048576 RNU1:RNU1048576 RXQ1:RXQ1048576 SHM1:SHM1048576 SRI1:SRI1048576 TBE1:TBE1048576 TLA1:TLA1048576 TUW1:TUW1048576 UES1:UES1048576 UOO1:UOO1048576 UYK1:UYK1048576 VIG1:VIG1048576 VSC1:VSC1048576 WBY1:WBY1048576 WLU1:WLU1048576 WVQ1:WVQ1048576 I1:I3 I6:I1048576">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I5">
@@ -8033,14 +8157,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="26" customWidth="1"/>
@@ -8876,39 +9000,39 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="55"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="57"/>
-    </row>
-    <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="65"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
+    </row>
+    <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
@@ -8943,52 +9067,52 @@
         <v>31</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="20" customFormat="1" ht="68.25" customHeight="1">
+    <row r="4" spans="1:13" s="20" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22">
         <v>1</v>
       </c>
       <c r="B4" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="H4" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="I4" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="J4" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="K4" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="L4" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>166</v>
-      </c>
       <c r="M4" s="24"/>
     </row>
-    <row r="5" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="5" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -9003,7 +9127,7 @@
       <c r="L5" s="22"/>
       <c r="M5" s="24"/>
     </row>
-    <row r="6" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="6" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -9018,7 +9142,7 @@
       <c r="L6" s="22"/>
       <c r="M6" s="24"/>
     </row>
-    <row r="7" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="7" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -9033,7 +9157,7 @@
       <c r="L7" s="22"/>
       <c r="M7" s="22"/>
     </row>
-    <row r="8" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="8" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -9048,7 +9172,7 @@
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
     </row>
-    <row r="9" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="9" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -9063,7 +9187,7 @@
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
     </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -9078,7 +9202,7 @@
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
     </row>
-    <row r="11" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="11" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -9093,7 +9217,7 @@
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
     </row>
-    <row r="12" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="12" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -9108,7 +9232,7 @@
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
     </row>
-    <row r="13" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="13" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -9144,14 +9268,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B4" sqref="B4:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="6" width="11.125" customWidth="1"/>
     <col min="7" max="7" width="34.75" customWidth="1"/>
@@ -9163,162 +9287,162 @@
     <col min="13" max="13" width="34.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="69"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="71"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="59"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="61"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
-      <c r="A3" s="52" t="s">
+      <c r="E3" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="F3" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="G3" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="H3" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="I3" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="J3" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="K3" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="L3" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="M3" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="J3" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="K3" s="52" t="s">
-        <v>185</v>
-      </c>
-      <c r="L3" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="M3" s="53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="97.5" customHeight="1">
+    </row>
+    <row r="4" spans="1:13" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="48">
         <v>1</v>
       </c>
       <c r="B4" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="G4" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="H4" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="I4" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="J4" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="K4" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="L4" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="M4" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="I4" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="J4" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="K4" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="L4" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="M4" s="48" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="168.75" customHeight="1">
+    </row>
+    <row r="5" spans="1:13" ht="168.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="48">
         <v>2</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E5" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="I5" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="J5" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="K5" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="M5" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="H5" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="I5" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="J5" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="K5" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="L5" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="M5" s="49" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="23.25" customHeight="1">
+    </row>
+    <row r="6" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="48"/>
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>

--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="246">
   <si>
     <t>No</t>
   </si>
@@ -1068,6 +1068,62 @@
   </si>
   <si>
     <t>jdbc.properties</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>账务</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>王向阳、蔡银军、孙苏文</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>账务</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>王向阳、蔡银军、孙苏文</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>貔貅Bug修改</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>貔貅优化（退房账单收款、两列表优化）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩、傅其亮、钱文博</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1972,13 +2028,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T151"/>
+  <dimension ref="A1:T153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q41" sqref="Q41"/>
+      <selection pane="bottomRight" activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4026,7 +4082,7 @@
       </c>
       <c r="I42" s="10"/>
       <c r="J42" s="12" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="K42" s="10" t="s">
         <v>133</v>
@@ -4055,43 +4111,49 @@
       <c r="A43" s="16">
         <v>42</v>
       </c>
-      <c r="B43" s="54" t="s">
-        <v>188</v>
+      <c r="B43" s="33" t="s">
+        <v>244</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>97</v>
+        <v>232</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>34</v>
+        <v>234</v>
       </c>
       <c r="F43" s="11">
-        <v>42627</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>34</v>
+        <v>42629</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>234</v>
       </c>
       <c r="H43" s="11">
-        <v>42627</v>
+        <v>42634</v>
       </c>
       <c r="I43" s="10"/>
       <c r="J43" s="12" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="L43" s="10"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="11"/>
+        <v>236</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="M43" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N43" s="11">
+        <v>42634</v>
+      </c>
       <c r="O43" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="P43" s="55"/>
-      <c r="Q43" s="55"/>
-      <c r="R43" s="55"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
       <c r="S43" s="13"/>
       <c r="T43" s="8"/>
     </row>
@@ -4099,43 +4161,49 @@
       <c r="A44" s="16">
         <v>43</v>
       </c>
-      <c r="B44" s="54" t="s">
-        <v>192</v>
+      <c r="B44" s="33" t="s">
+        <v>243</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>97</v>
+        <v>238</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>34</v>
+        <v>240</v>
       </c>
       <c r="F44" s="11">
-        <v>42627</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>34</v>
+        <v>42630</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>234</v>
       </c>
       <c r="H44" s="11">
-        <v>42627</v>
+        <v>42634</v>
       </c>
       <c r="I44" s="10"/>
       <c r="J44" s="12" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="L44" s="10"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="11"/>
+        <v>236</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N44" s="11">
+        <v>42634</v>
+      </c>
       <c r="O44" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="P44" s="55"/>
-      <c r="Q44" s="55"/>
-      <c r="R44" s="55"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
       <c r="S44" s="13"/>
       <c r="T44" s="8"/>
     </row>
@@ -4144,7 +4212,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="54" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>97</v>
@@ -4166,7 +4234,7 @@
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K45" s="10" t="s">
         <v>191</v>
@@ -4188,7 +4256,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="54" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>97</v>
@@ -4210,7 +4278,7 @@
       </c>
       <c r="I46" s="10"/>
       <c r="J46" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K46" s="10" t="s">
         <v>191</v>
@@ -4231,8 +4299,8 @@
       <c r="A47" s="16">
         <v>46</v>
       </c>
-      <c r="B47" s="56" t="s">
-        <v>196</v>
+      <c r="B47" s="54" t="s">
+        <v>193</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>97</v>
@@ -4254,7 +4322,7 @@
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="12" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K47" s="10" t="s">
         <v>191</v>
@@ -4275,8 +4343,8 @@
       <c r="A48" s="16">
         <v>47</v>
       </c>
-      <c r="B48" s="56" t="s">
-        <v>197</v>
+      <c r="B48" s="54" t="s">
+        <v>195</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>97</v>
@@ -4298,7 +4366,7 @@
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="12" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K48" s="10" t="s">
         <v>191</v>
@@ -4315,12 +4383,12 @@
       <c r="S48" s="13"/>
       <c r="T48" s="8"/>
     </row>
-    <row r="49" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="16">
         <v>48</v>
       </c>
-      <c r="B49" s="57" t="s">
-        <v>198</v>
+      <c r="B49" s="56" t="s">
+        <v>196</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>97</v>
@@ -4342,7 +4410,7 @@
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K49" s="10" t="s">
         <v>191</v>
@@ -4359,12 +4427,12 @@
       <c r="S49" s="13"/>
       <c r="T49" s="8"/>
     </row>
-    <row r="50" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="16">
         <v>49</v>
       </c>
-      <c r="B50" s="57" t="s">
-        <v>199</v>
+      <c r="B50" s="56" t="s">
+        <v>197</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>97</v>
@@ -4386,7 +4454,7 @@
       </c>
       <c r="I50" s="10"/>
       <c r="J50" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K50" s="10" t="s">
         <v>191</v>
@@ -4403,12 +4471,12 @@
       <c r="S50" s="13"/>
       <c r="T50" s="8"/>
     </row>
-    <row r="51" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A51" s="16">
         <v>50</v>
       </c>
       <c r="B51" s="57" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>97</v>
@@ -4430,7 +4498,7 @@
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="12" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K51" s="10" t="s">
         <v>191</v>
@@ -4447,12 +4515,12 @@
       <c r="S51" s="13"/>
       <c r="T51" s="8"/>
     </row>
-    <row r="52" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A52" s="16">
         <v>51</v>
       </c>
-      <c r="B52" s="58" t="s">
-        <v>201</v>
+      <c r="B52" s="57" t="s">
+        <v>199</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>97</v>
@@ -4485,8 +4553,8 @@
       <c r="O52" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
+      <c r="P52" s="55"/>
+      <c r="Q52" s="55"/>
       <c r="R52" s="55"/>
       <c r="S52" s="13"/>
       <c r="T52" s="8"/>
@@ -4495,8 +4563,8 @@
       <c r="A53" s="16">
         <v>52</v>
       </c>
-      <c r="B53" s="59" t="s">
-        <v>202</v>
+      <c r="B53" s="57" t="s">
+        <v>200</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>97</v>
@@ -4518,7 +4586,7 @@
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K53" s="10" t="s">
         <v>191</v>
@@ -4529,8 +4597,8 @@
       <c r="O53" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
+      <c r="P53" s="55"/>
+      <c r="Q53" s="55"/>
       <c r="R53" s="55"/>
       <c r="S53" s="13"/>
       <c r="T53" s="8"/>
@@ -4539,8 +4607,8 @@
       <c r="A54" s="16">
         <v>53</v>
       </c>
-      <c r="B54" s="60" t="s">
-        <v>203</v>
+      <c r="B54" s="58" t="s">
+        <v>201</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>97</v>
@@ -4575,7 +4643,7 @@
       </c>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
+      <c r="R54" s="55"/>
       <c r="S54" s="13"/>
       <c r="T54" s="8"/>
     </row>
@@ -4583,8 +4651,8 @@
       <c r="A55" s="16">
         <v>54</v>
       </c>
-      <c r="B55" s="61" t="s">
-        <v>204</v>
+      <c r="B55" s="59" t="s">
+        <v>202</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>97</v>
@@ -4619,7 +4687,7 @@
       </c>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
+      <c r="R55" s="55"/>
       <c r="S55" s="13"/>
       <c r="T55" s="8"/>
     </row>
@@ -4627,8 +4695,8 @@
       <c r="A56" s="16">
         <v>55</v>
       </c>
-      <c r="B56" s="61" t="s">
-        <v>205</v>
+      <c r="B56" s="60" t="s">
+        <v>203</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>97</v>
@@ -4671,8 +4739,8 @@
       <c r="A57" s="16">
         <v>56</v>
       </c>
-      <c r="B57" s="62" t="s">
-        <v>206</v>
+      <c r="B57" s="61" t="s">
+        <v>204</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>97</v>
@@ -4694,7 +4762,7 @@
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="12" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K57" s="10" t="s">
         <v>191</v>
@@ -4711,12 +4779,12 @@
       <c r="S57" s="13"/>
       <c r="T57" s="8"/>
     </row>
-    <row r="58" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="16">
         <v>57</v>
       </c>
-      <c r="B58" s="60" t="s">
-        <v>207</v>
+      <c r="B58" s="61" t="s">
+        <v>205</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>97</v>
@@ -4755,12 +4823,12 @@
       <c r="S58" s="13"/>
       <c r="T58" s="8"/>
     </row>
-    <row r="59" spans="1:20" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="16">
         <v>58</v>
       </c>
-      <c r="B59" s="63" t="s">
-        <v>208</v>
+      <c r="B59" s="62" t="s">
+        <v>206</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>97</v>
@@ -4782,7 +4850,7 @@
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="12" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="K59" s="10" t="s">
         <v>191</v>
@@ -4799,12 +4867,12 @@
       <c r="S59" s="13"/>
       <c r="T59" s="8"/>
     </row>
-    <row r="60" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A60" s="16">
         <v>59</v>
       </c>
-      <c r="B60" s="62" t="s">
-        <v>210</v>
+      <c r="B60" s="60" t="s">
+        <v>207</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>97</v>
@@ -4816,17 +4884,17 @@
         <v>34</v>
       </c>
       <c r="F60" s="11">
-        <v>42633</v>
+        <v>42627</v>
       </c>
       <c r="G60" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H60" s="11">
-        <v>42633</v>
+        <v>42627</v>
       </c>
       <c r="I60" s="10"/>
       <c r="J60" s="12" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="K60" s="10" t="s">
         <v>191</v>
@@ -4843,12 +4911,12 @@
       <c r="S60" s="13"/>
       <c r="T60" s="8"/>
     </row>
-    <row r="61" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:20" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A61" s="16">
         <v>60</v>
       </c>
-      <c r="B61" s="60" t="s">
-        <v>212</v>
+      <c r="B61" s="63" t="s">
+        <v>208</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>97</v>
@@ -4860,17 +4928,17 @@
         <v>34</v>
       </c>
       <c r="F61" s="11">
-        <v>42633</v>
+        <v>42627</v>
       </c>
       <c r="G61" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H61" s="11">
-        <v>42633</v>
+        <v>42627</v>
       </c>
       <c r="I61" s="10"/>
       <c r="J61" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K61" s="10" t="s">
         <v>191</v>
@@ -4891,8 +4959,8 @@
       <c r="A62" s="16">
         <v>61</v>
       </c>
-      <c r="B62" s="60" t="s">
-        <v>213</v>
+      <c r="B62" s="62" t="s">
+        <v>210</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>97</v>
@@ -4904,13 +4972,13 @@
         <v>34</v>
       </c>
       <c r="F62" s="11">
-        <v>42634</v>
+        <v>42633</v>
       </c>
       <c r="G62" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H62" s="11">
-        <v>42634</v>
+        <v>42633</v>
       </c>
       <c r="I62" s="10"/>
       <c r="J62" s="12" t="s">
@@ -4936,29 +5004,29 @@
         <v>62</v>
       </c>
       <c r="B63" s="60" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>97</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F63" s="11">
-        <v>42634</v>
+        <v>42633</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H63" s="11">
-        <v>42634</v>
+        <v>42633</v>
       </c>
       <c r="I63" s="10"/>
       <c r="J63" s="12" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="K63" s="10" t="s">
         <v>191</v>
@@ -4980,29 +5048,29 @@
         <v>63</v>
       </c>
       <c r="B64" s="60" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>97</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F64" s="11">
-        <v>42625</v>
+        <v>42634</v>
       </c>
       <c r="G64" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H64" s="11">
-        <v>42625</v>
+        <v>42634</v>
       </c>
       <c r="I64" s="10"/>
       <c r="J64" s="12" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="K64" s="10" t="s">
         <v>191</v>
@@ -5024,29 +5092,29 @@
         <v>64</v>
       </c>
       <c r="B65" s="60" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>97</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F65" s="11">
-        <v>42625</v>
+        <v>42634</v>
       </c>
       <c r="G65" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H65" s="11">
-        <v>42625</v>
+        <v>42634</v>
       </c>
       <c r="I65" s="10"/>
       <c r="J65" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K65" s="10" t="s">
         <v>191</v>
@@ -5063,47 +5131,93 @@
       <c r="S65" s="13"/>
       <c r="T65" s="8"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A66" s="7"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="4"/>
+    <row r="66" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A66" s="16">
+        <v>65</v>
+      </c>
+      <c r="B66" s="60" t="s">
+        <v>217</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" s="11">
+        <v>42625</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H66" s="11">
+        <v>42625</v>
+      </c>
+      <c r="I66" s="10"/>
+      <c r="J66" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="L66" s="10"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
-      <c r="S66" s="4"/>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A67" s="7"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="4"/>
+      <c r="S66" s="13"/>
+      <c r="T66" s="8"/>
+    </row>
+    <row r="67" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A67" s="16">
+        <v>66</v>
+      </c>
+      <c r="B67" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" s="11">
+        <v>42625</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67" s="11">
+        <v>42625</v>
+      </c>
+      <c r="I67" s="10"/>
+      <c r="J67" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="L67" s="10"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
-      <c r="S67" s="4"/>
+      <c r="S67" s="13"/>
+      <c r="T67" s="8"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
@@ -6150,6 +6264,9 @@
       <c r="M117" s="7"/>
       <c r="N117" s="5"/>
       <c r="O117" s="4"/>
+      <c r="P117" s="7"/>
+      <c r="Q117" s="7"/>
+      <c r="R117" s="7"/>
       <c r="S117" s="4"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.15">
@@ -6168,6 +6285,9 @@
       <c r="M118" s="7"/>
       <c r="N118" s="5"/>
       <c r="O118" s="4"/>
+      <c r="P118" s="7"/>
+      <c r="Q118" s="7"/>
+      <c r="R118" s="7"/>
       <c r="S118" s="4"/>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.15">
@@ -6763,6 +6883,42 @@
       <c r="N151" s="5"/>
       <c r="O151" s="4"/>
       <c r="S151" s="4"/>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A152" s="7"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="6"/>
+      <c r="J152" s="7"/>
+      <c r="K152" s="7"/>
+      <c r="L152" s="7"/>
+      <c r="M152" s="7"/>
+      <c r="N152" s="5"/>
+      <c r="O152" s="4"/>
+      <c r="S152" s="4"/>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A153" s="7"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="7"/>
+      <c r="K153" s="7"/>
+      <c r="L153" s="7"/>
+      <c r="M153" s="7"/>
+      <c r="N153" s="5"/>
+      <c r="O153" s="4"/>
+      <c r="S153" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -6899,7 +7055,7 @@
       </c>
       <c r="M4" s="24"/>
     </row>
-    <row r="5" spans="1:13" s="20" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="20" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A5" s="22">
         <v>2</v>
       </c>
@@ -6940,7 +7096,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="20" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="20" customFormat="1" ht="280.5" x14ac:dyDescent="0.15">
       <c r="A6" s="22">
         <v>3</v>
       </c>

--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.0.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 5.0.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
     <sheet name="(公测)需要修改的配置文件" sheetId="6" r:id="rId4"/>
     <sheet name="(测试)需要修改的配置文件" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="263">
   <si>
     <t>No</t>
   </si>
@@ -1124,6 +1124,74 @@
   </si>
   <si>
     <t>张浩、傅其亮、钱文博</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>（前端优化）房源分配-优化页面2-按钮互换</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨正全</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>（前端优化）账号设置-优化页面7-修改角色</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨正全</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>（前端优化）角色分配-优化页面1-文字修改</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨正全</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1675,6 +1743,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="6"/>
     <cellStyle name="常规 3" xfId="1"/>
@@ -1682,9 +1751,8 @@
     <cellStyle name="常规 4" xfId="7"/>
     <cellStyle name="常规 6" xfId="2"/>
     <cellStyle name="常规 9" xfId="4"/>
+    <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2031,10 +2099,10 @@
   <dimension ref="A1:T153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J44" sqref="J44"/>
+      <selection pane="bottomRight" activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5219,68 +5287,155 @@
       <c r="S67" s="13"/>
       <c r="T67" s="8"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A68" s="7"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="4"/>
+    <row r="68" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A68" s="16">
+        <v>67</v>
+      </c>
+      <c r="B68" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F68" s="11">
+        <v>42634</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H68" s="11">
+        <v>42634</v>
+      </c>
+      <c r="I68" s="10"/>
+      <c r="J68" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="K68" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L68" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M68" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="N68" s="11">
+        <v>42635</v>
+      </c>
+      <c r="O68" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
-      <c r="S68" s="4"/>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A69" s="7"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="4"/>
+      <c r="S68" s="13"/>
+      <c r="T68" s="8"/>
+    </row>
+    <row r="69" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A69" s="16">
+        <v>68</v>
+      </c>
+      <c r="B69" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F69" s="11">
+        <v>42634</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="H69" s="11">
+        <v>42634</v>
+      </c>
+      <c r="I69" s="10"/>
+      <c r="J69" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="L69" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="M69" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="N69" s="11">
+        <v>42635</v>
+      </c>
+      <c r="O69" s="12" t="s">
+        <v>256</v>
+      </c>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
-      <c r="S69" s="4"/>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A70" s="7"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="4"/>
+      <c r="S69" s="13"/>
+      <c r="T69" s="8"/>
+    </row>
+    <row r="70" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A70" s="16">
+        <v>69</v>
+      </c>
+      <c r="B70" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F70" s="11">
+        <v>42634</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="H70" s="11">
+        <v>42634</v>
+      </c>
+      <c r="I70" s="10"/>
+      <c r="J70" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="L70" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="M70" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="N70" s="11">
+        <v>42635</v>
+      </c>
+      <c r="O70" s="12" t="s">
+        <v>256</v>
+      </c>
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
-      <c r="S70" s="4"/>
+      <c r="S70" s="13"/>
+      <c r="T70" s="8"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>

--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="259">
   <si>
     <t>No</t>
   </si>
@@ -1143,27 +1143,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>（前端优化）账号设置-优化页面7-修改角色</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>杨正全</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现组</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>邵明基</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -2096,13 +2080,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T153"/>
+  <dimension ref="A1:T152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B68" sqref="B68"/>
+      <selection pane="bottomRight" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5342,44 +5326,44 @@
         <v>68</v>
       </c>
       <c r="B69" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E69" s="10" t="s">
         <v>250</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>234</v>
       </c>
       <c r="F69" s="11">
         <v>42634</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H69" s="11">
         <v>42634</v>
       </c>
       <c r="I69" s="10"/>
       <c r="J69" s="12" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L69" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M69" s="12" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="N69" s="11">
         <v>42635</v>
       </c>
       <c r="O69" s="12" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
@@ -5387,55 +5371,26 @@
       <c r="S69" s="13"/>
       <c r="T69" s="8"/>
     </row>
-    <row r="70" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A70" s="16">
-        <v>69</v>
-      </c>
-      <c r="B70" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="F70" s="11">
-        <v>42634</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="H70" s="11">
-        <v>42634</v>
-      </c>
-      <c r="I70" s="10"/>
-      <c r="J70" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="K70" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="L70" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="M70" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="N70" s="11">
-        <v>42635</v>
-      </c>
-      <c r="O70" s="12" t="s">
-        <v>256</v>
-      </c>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A70" s="7"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="4"/>
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
-      <c r="S70" s="13"/>
-      <c r="T70" s="8"/>
+      <c r="S70" s="4"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
@@ -6440,9 +6395,6 @@
       <c r="M118" s="7"/>
       <c r="N118" s="5"/>
       <c r="O118" s="4"/>
-      <c r="P118" s="7"/>
-      <c r="Q118" s="7"/>
-      <c r="R118" s="7"/>
       <c r="S118" s="4"/>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.15">
@@ -7056,24 +7008,6 @@
       <c r="N152" s="5"/>
       <c r="O152" s="4"/>
       <c r="S152" s="4"/>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A153" s="7"/>
-      <c r="B153" s="4"/>
-      <c r="C153" s="7"/>
-      <c r="D153" s="7"/>
-      <c r="E153" s="7"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="7"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="6"/>
-      <c r="J153" s="7"/>
-      <c r="K153" s="7"/>
-      <c r="L153" s="7"/>
-      <c r="M153" s="7"/>
-      <c r="N153" s="5"/>
-      <c r="O153" s="4"/>
-      <c r="S153" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 5.0.2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="3285" windowWidth="25125" windowHeight="11760"/>
   </bookViews>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="296">
   <si>
     <t>No</t>
   </si>
@@ -150,140 +145,18 @@
     <t>生产环境</t>
   </si>
   <si>
-    <t>SQL优化一期，【SLOW-20160824013】</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fix  Bug</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客PC&amp;租客APP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭晓春</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQ组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>周蓉、吴永余</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP心愿列表，页面顺序更换</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客APP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金刚</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>周蓉</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>房间详情页“房源描述”增加连贯数字手机号关键词过滤屏蔽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>薛冠宙</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>吴永余</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客app、租客pc普通品牌查询逻辑变更，变更内容【优选品牌：优选品牌房东对应的房源
-普通品牌：非优选品牌房东对应的房源】</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客注册时系统记录IP来源地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">New Feature
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>朱彤</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>修复了租客APP“找房列表地铁线搜索条件与列表"距地铁线"的描述不符“的问题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房源展示规则调整：1、小区/大楼审核通过2、公寓为非审核不通过（待审核+审核通过），同时具备以上两个条件的房源才会在租客APP和PC展示</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>增强了官网房间详情的展示和城市的关联，不属于该城市的房源，链接访问不对则跳转4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>04</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客PC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东活跃分系统(定时器不上生产只上公测)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色账号设置性能优化</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Features</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>李亚林</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -293,46 +166,6 @@
   </si>
   <si>
     <t>余星赞</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息管理模块性能优化</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全错误访问接口修改</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALL</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕崇新</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁用账号不能修改角色与分店</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>子账号解锁功能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭堃</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>子账号修改密码优化</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -676,31 +509,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>BS优化</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>BS</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>磐石组</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS功能新增、变更</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>王祥毅</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>捷豹组</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -990,9 +799,6 @@
     <t>集中式的房型录入/编辑页面中，“照片”字段改为“房型照片”</t>
   </si>
   <si>
-    <t>APP房源录入恢复（28项）</t>
-  </si>
-  <si>
     <t>房东APP</t>
   </si>
   <si>
@@ -1011,11 +817,442 @@
     <t>房态图统计慢SQL优化</t>
   </si>
   <si>
-    <t>400电话导出优化
+    <t>AppID、AppSecret需要运维配置</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysconfig.weixin.weixinhuoBanAppID=wx730bca9476310d91
+sysconfig.weixin.weixinhuoBanAppSecret=d4624c36b6795d1d99dcf0547af5443d</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇伙伴微信公众号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc.properties</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc.driverClassName_repo=com.mysql.jdbc.Driver
+jdbc.url_repo=jdbc\:mysql\://192.168.12.188\:3306/mogo_dev?useUnicode\=true&amp;amp;characterEncoding\=UTF-8
+jdbc.username_repo=EC985EB3E9D6A6CCBB537518ECDCD57C
+jdbc.password_repo=DDA989A60555874C2D40B52948A38959</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc.properties</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL优化一期，【SLOW-20160824013】</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix  Bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客PC&amp;租客APP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉、吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP心愿列表，页面顺序更换</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客APP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间详情页“房源描述”增加连贯数字手机号关键词过滤屏蔽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客app、租客pc普通品牌查询逻辑变更，变更内容【优选品牌：优选品牌房东对应的房源
+普通品牌：非优选品牌房东对应的房源】</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客注册时系统记录IP来源地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">New Feature
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复了租客APP“找房列表地铁线搜索条件与列表"距地铁线"的描述不符“的问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源展示规则调整：1、小区/大楼审核通过2、公寓为非审核不通过（待审核+审核通过），同时具备以上两个条件的房源才会在租客APP和PC展示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>增强了官网房间详情的展示和城市的关联，不属于该城市的房源，链接访问不对则跳转4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>04</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东活跃分系统(定时器不上生产只上公测)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">New Feature
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉、吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色账号设置性能优化</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息管理模块性能优化</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全错误访问接口修改</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕崇新</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用账号不能修改角色与分店</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>李亚林</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>子账号解锁功能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭堃</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>子账号修改密码修改</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>fix Bug</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>（前端优化）房源分配-优化页面2-按钮互换</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨正全</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>（前端优化）角色分配-优化页面1-文字修改</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <rPh sb="0" eb="1">
+      <t>neng</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>王祥毅</t>
+  </si>
+  <si>
+    <t>捷豹组</t>
+  </si>
+  <si>
+    <t>李萌</t>
+  </si>
+  <si>
+    <t>不通过</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，主页面点击右上角返回功能优化，需有弹窗提示，避免误操作</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，“房源”字段改为“小区及门牌”，避免歧义</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，跳新页面后点击右上角返回功能优化，避免误操作</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，没有“已录入小区”可选择，每次录入都需重新填写</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，栋号，单元号，房间号输入需限定为英文和数字，且字符长度最长6位</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，小区+门牌（栋/单元/房间号）没有验证唯一性，可录入系统已有的重复数据</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，“公寓面积”文字改为“户型面积”，并且限制只可填写数字字符，数值范围5-300</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，合租【房间面积】需限制只可填写数字字符，数值范围小于等于“户型面积”</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，所有【照片上传】字段，跳新页面后点击右上角返回功能优化</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，整租【房型配置】文字改为“公共配置”，避免歧义</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，合租缺失【公共配置】字段，需补上</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，合租每个房间的配置字段，需修改为【房间配置】，避免歧义</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，所有配置字段，跳新页面后点击右上角返回功能优化</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，修复录入时“请输入有效的定金！”弹窗频繁出现问题</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，所有只能填写金额的地方，需做字符类型限制</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，集中式大楼【电梯】需限制只可填写数字字符，数值范围0-20</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，需做大楼名唯一性校验，系统已经创建过的大楼，不可以重复录入</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，集中式 大楼名称字符数需做限制，最多15个字符</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，集中式 “房型别名”需设置为必填，并且与“房型”字段一起，做唯一性校验</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，集中式 房型录入，“公寓面积”文字改为“面积”，并且限制只可填写数字字符，数值范围5-300</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，集中式 房型录入，“房间数”需限制只可填写数字字符，数值范围1-999</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，集中式 房型录入，“房间数”字段数值，需和实际填写的房间数做校验</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，集中式 房间配置，所有配置字段，跳新页面后点击右上角返回功能优化</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，集中式 房间号录入，需限制只可填写数字字符及位数（4/5位），且前两位的数值小于等于大楼楼层数的数值</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，集中式 房间号录入，需做唯一性校验，同一大楼，已经录过的房间号还可以再录</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，房源编辑/录入时，押金必须大于等于定金，否则不能保存</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，选择已录小区，再选择添加新小区，小区名称错误填充</t>
+  </si>
+  <si>
+    <t>分散式房态图，调整同一套合租房源下的房间展示方式，从视觉上突出整体感</t>
+  </si>
+  <si>
+    <t>BS优化</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩、傅其亮、钱文博</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+400电话导出优化
 BS系统所有查询切换到从库
 签约单列表查询优化
 拓展日报需求变更及优化
 房源管理 公寓图片审核时，无法审核整租房源图片的问题</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS功能新增、变更</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩、傅其亮、钱文博</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1029,45 +1266,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>张浩、傅其亮、钱文博</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>王云飞
-王健</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>王云飞
-王健</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppID、AppSecret需要运维配置</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>sysconfig.weixin.weixinhuoBanAppID=wx730bca9476310d91
-sysconfig.weixin.weixinhuoBanAppSecret=d4624c36b6795d1d99dcf0547af5443d</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘑菇伙伴微信公众号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>jdbc.properties</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>jdbc.driverClassName_repo=com.mysql.jdbc.Driver
-jdbc.url_repo=jdbc\:mysql\://192.168.12.188\:3306/mogo_dev?useUnicode\=true&amp;amp;characterEncoding\=UTF-8
-jdbc.username_repo=EC985EB3E9D6A6CCBB537518ECDCD57C
-jdbc.password_repo=DDA989A60555874C2D40B52948A38959</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>jdbc.properties</t>
+    <t>貔貅优化（退房账单收款、两列表优化）</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1079,111 +1278,27 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>是</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>王向阳、蔡银军、孙苏文</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>磐石组</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>李傲</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>貔貅Bug修改</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>Bug</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>账务</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>王向阳、蔡银军、孙苏文</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>李傲</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>貔貅Bug修改</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>貔貅优化（退房账单收款、两列表优化）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>张浩、傅其亮、钱文博</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>（前端优化）房源分配-优化页面2-按钮互换</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨正全</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>余星赞</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>邵明基</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>（前端优化）角色分配-优化页面1-文字修改</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Features</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨正全</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现组</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1322,8 +1437,15 @@
       <charset val="134"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1348,8 +1470,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1481,6 +1609,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1508,7 +1649,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1725,9 +1866,20 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="6"/>
     <cellStyle name="常规 3" xfId="1"/>
@@ -1735,11 +1887,80 @@
     <cellStyle name="常规 4" xfId="7"/>
     <cellStyle name="常规 6" xfId="2"/>
     <cellStyle name="常规 9" xfId="4"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1759,7 +1980,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2079,17 +2300,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A70" sqref="A70"/>
+      <selection pane="bottomRight" activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="14" customWidth="1"/>
     <col min="2" max="2" width="52.875" style="15" customWidth="1"/>
@@ -2114,7 +2335,7 @@
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2173,49 +2394,49 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="F2" s="11">
         <v>42633</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="H2" s="11">
         <v>42633</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="12" t="s">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="N2" s="11">
         <v>42633</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="P2" s="30"/>
       <c r="Q2" s="30"/>
@@ -2223,441 +2444,441 @@
       <c r="S2" s="13"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" ht="16.5">
       <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="F3" s="11">
         <v>42633</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="H3" s="11">
         <v>42633</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="12" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="N3" s="11">
         <v>42634</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" ht="16.5">
       <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>49</v>
+        <v>196</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="F4" s="11">
         <v>42633</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="H4" s="11">
         <v>42633</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="12" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>51</v>
+        <v>197</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="N4" s="11">
         <v>42633</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" ht="49.5">
       <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>52</v>
+        <v>198</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="F5" s="11">
         <v>42633</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="H5" s="11">
         <v>42633</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="12" t="s">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>51</v>
+        <v>197</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="N5" s="11">
         <v>42633</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" ht="33">
       <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>54</v>
+        <v>200</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="F6" s="11">
         <v>42633</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="H6" s="11">
         <v>42633</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="12" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>51</v>
+        <v>197</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="N6" s="11">
         <v>42633</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="33" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" ht="33">
       <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>56</v>
+        <v>201</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="F7" s="11">
         <v>42633</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="H7" s="11">
         <v>42633</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="12" t="s">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>51</v>
+        <v>197</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="N7" s="11">
         <v>42633</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:20" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" ht="49.5">
       <c r="A8" s="16">
         <v>7</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>57</v>
+        <v>202</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>54</v>
+        <v>200</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="F8" s="11">
         <v>42633</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="H8" s="11">
         <v>42633</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="12" t="s">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="N8" s="11">
         <v>42633</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:20" ht="33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" ht="33">
       <c r="A9" s="16">
         <v>8</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>58</v>
+        <v>203</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>54</v>
+        <v>200</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>59</v>
+        <v>204</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="F9" s="11">
         <v>42633</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="H9" s="11">
         <v>42633</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="12" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>48</v>
+        <v>208</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>43</v>
+        <v>209</v>
       </c>
       <c r="N9" s="11">
         <v>42633</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" ht="33">
       <c r="A10" s="16">
         <v>9</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>60</v>
+        <v>211</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>54</v>
+        <v>212</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>61</v>
+        <v>213</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>39</v>
+        <v>214</v>
       </c>
       <c r="F10" s="11">
         <v>42633</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>39</v>
+        <v>214</v>
       </c>
       <c r="H10" s="11">
         <v>42633</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="12" t="s">
-        <v>47</v>
+        <v>215</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>42</v>
+        <v>217</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>43</v>
+        <v>218</v>
       </c>
       <c r="N10" s="11">
         <v>42634</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>44</v>
+        <v>219</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A11" s="16">
         <v>10</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>62</v>
+        <v>220</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>64</v>
+        <v>221</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="F11" s="11">
         <v>42627</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="H11" s="11">
         <v>42627</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="12" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>69</v>
+        <v>223</v>
       </c>
       <c r="N11" s="11">
         <v>42634</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -2665,49 +2886,49 @@
       <c r="S11" s="13"/>
       <c r="T11" s="8"/>
     </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A12" s="16">
         <v>11</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>71</v>
+        <v>225</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>64</v>
+        <v>221</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="F12" s="11">
         <v>42627</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="H12" s="11">
         <v>42627</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="12" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>69</v>
+        <v>223</v>
       </c>
       <c r="N12" s="11">
         <v>42634</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
@@ -2715,49 +2936,49 @@
       <c r="S12" s="13"/>
       <c r="T12" s="8"/>
     </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A13" s="16">
         <v>12</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>73</v>
+        <v>228</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="F13" s="11">
         <v>42626</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="H13" s="11">
         <v>42626</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="12" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>68</v>
+        <v>232</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>69</v>
+        <v>233</v>
       </c>
       <c r="N13" s="11">
         <v>42634</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -2765,49 +2986,49 @@
       <c r="S13" s="13"/>
       <c r="T13" s="8"/>
     </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A14" s="16">
         <v>13</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>64</v>
+        <v>236</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="F14" s="11">
         <v>42631</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="H14" s="11">
         <v>42631</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="12" t="s">
-        <v>66</v>
+        <v>237</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>68</v>
+        <v>232</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>69</v>
+        <v>233</v>
       </c>
       <c r="N14" s="11">
         <v>42634</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -2815,49 +3036,49 @@
       <c r="S14" s="13"/>
       <c r="T14" s="8"/>
     </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A15" s="16">
         <v>14</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>64</v>
+        <v>236</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="F15" s="11">
         <v>42631</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="H15" s="11">
         <v>42631</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="12" t="s">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>68</v>
+        <v>232</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>69</v>
+        <v>233</v>
       </c>
       <c r="N15" s="11">
         <v>42634</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -2865,49 +3086,49 @@
       <c r="S15" s="13"/>
       <c r="T15" s="8"/>
     </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A16" s="16">
         <v>15</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>64</v>
+        <v>236</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="F16" s="11">
         <v>42631</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="H16" s="11">
         <v>42631</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="12" t="s">
-        <v>66</v>
+        <v>237</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>68</v>
+        <v>232</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>69</v>
+        <v>233</v>
       </c>
       <c r="N16" s="11">
         <v>42634</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -2915,99 +3136,99 @@
       <c r="S16" s="13"/>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" spans="1:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A17" s="16">
         <v>16</v>
       </c>
-      <c r="B17" s="34" t="s">
-        <v>79</v>
+      <c r="B17" s="33" t="s">
+        <v>242</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>81</v>
+        <v>227</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>236</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="F17" s="11">
-        <v>42625</v>
+        <v>42634</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="H17" s="11">
-        <v>42625</v>
+        <v>42634</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="12" t="s">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>83</v>
+        <v>231</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>84</v>
+        <v>232</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>85</v>
+        <v>233</v>
       </c>
       <c r="N17" s="11">
         <v>42634</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="36"/>
-    </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="8"/>
+    </row>
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A18" s="16">
         <v>17</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>87</v>
+      <c r="B18" s="33" t="s">
+        <v>244</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>88</v>
+        <v>236</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="F18" s="11">
-        <v>42625</v>
+        <v>42634</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="H18" s="11">
-        <v>42625</v>
+        <v>42634</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="12" t="s">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>83</v>
+        <v>231</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>84</v>
+        <v>245</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>85</v>
+        <v>233</v>
       </c>
       <c r="N18" s="11">
         <v>42634</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>86</v>
+        <v>234</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
@@ -3015,18 +3236,18 @@
       <c r="S18" s="13"/>
       <c r="T18" s="8"/>
     </row>
-    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="37" customFormat="1" ht="16.5">
       <c r="A19" s="16">
         <v>18</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>34</v>
@@ -3042,41 +3263,41 @@
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="12" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="N19" s="11">
         <v>42634</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="8"/>
-    </row>
-    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="36"/>
+    </row>
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A20" s="16">
         <v>19</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>81</v>
+        <v>43</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>34</v>
@@ -3092,22 +3313,22 @@
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="12" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="N20" s="11">
         <v>42634</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
@@ -3115,18 +3336,18 @@
       <c r="S20" s="13"/>
       <c r="T20" s="8"/>
     </row>
-    <row r="21" spans="1:20" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A21" s="16">
         <v>20</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>93</v>
+        <v>43</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>44</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>34</v>
@@ -3142,22 +3363,22 @@
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="12" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="N21" s="11">
         <v>42634</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
@@ -3165,18 +3386,18 @@
       <c r="S21" s="13"/>
       <c r="T21" s="8"/>
     </row>
-    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A22" s="16">
         <v>21</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>88</v>
+        <v>43</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>44</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>34</v>
@@ -3192,222 +3413,222 @@
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="12" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="N22" s="11">
         <v>42634</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
+        <v>49</v>
+      </c>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
       <c r="S22" s="13"/>
       <c r="T22" s="8"/>
     </row>
-    <row r="23" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" s="9" customFormat="1" ht="17.25" customHeight="1">
       <c r="A23" s="16">
         <v>22</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F23" s="11">
         <v>42625</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="10" t="s">
         <v>34</v>
       </c>
       <c r="H23" s="11">
         <v>42625</v>
       </c>
-      <c r="I23" s="35"/>
+      <c r="I23" s="10"/>
       <c r="J23" s="12" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="N23" s="11">
         <v>42634</v>
       </c>
       <c r="O23" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="42"/>
-    </row>
-    <row r="24" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="8"/>
+    </row>
+    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A24" s="16">
         <v>23</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F24" s="11">
         <v>42625</v>
       </c>
-      <c r="G24" s="39" t="s">
+      <c r="G24" s="10" t="s">
         <v>34</v>
       </c>
       <c r="H24" s="11">
         <v>42625</v>
       </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="44" t="s">
-        <v>100</v>
+      <c r="I24" s="10"/>
+      <c r="J24" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="N24" s="11">
         <v>42634</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="42"/>
-    </row>
-    <row r="25" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="8"/>
+    </row>
+    <row r="25" spans="1:20" s="43" customFormat="1" ht="16.5">
       <c r="A25" s="16">
         <v>24</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="E25" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="39">
-        <v>42627</v>
+      <c r="F25" s="11">
+        <v>42625</v>
       </c>
       <c r="G25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="39">
-        <v>42627</v>
+      <c r="H25" s="11">
+        <v>42625</v>
       </c>
       <c r="I25" s="35"/>
-      <c r="J25" s="44" t="s">
-        <v>100</v>
+      <c r="J25" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="N25" s="11">
         <v>42634</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
+        <v>49</v>
+      </c>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
       <c r="S25" s="41"/>
       <c r="T25" s="42"/>
     </row>
-    <row r="26" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" s="43" customFormat="1" ht="16.5">
       <c r="A26" s="16">
         <v>25</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="E26" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="39">
-        <v>42627</v>
+      <c r="F26" s="11">
+        <v>42625</v>
       </c>
       <c r="G26" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="39">
-        <v>42627</v>
+      <c r="H26" s="11">
+        <v>42625</v>
       </c>
       <c r="I26" s="35"/>
       <c r="J26" s="44" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="N26" s="11">
         <v>42634</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="P26" s="45"/>
       <c r="Q26" s="45"/>
@@ -3415,18 +3636,18 @@
       <c r="S26" s="41"/>
       <c r="T26" s="42"/>
     </row>
-    <row r="27" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" s="43" customFormat="1" ht="16.5">
       <c r="A27" s="16">
         <v>26</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>104</v>
+        <v>60</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>44</v>
       </c>
       <c r="E27" s="35" t="s">
         <v>34</v>
@@ -3442,22 +3663,22 @@
       </c>
       <c r="I27" s="35"/>
       <c r="J27" s="44" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="N27" s="11">
         <v>42634</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="P27" s="45"/>
       <c r="Q27" s="45"/>
@@ -3465,49 +3686,49 @@
       <c r="S27" s="41"/>
       <c r="T27" s="42"/>
     </row>
-    <row r="28" spans="1:20" s="43" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" s="43" customFormat="1" ht="16.5">
       <c r="A28" s="16">
         <v>27</v>
       </c>
-      <c r="B28" s="46" t="s">
-        <v>106</v>
+      <c r="B28" s="34" t="s">
+        <v>65</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="E28" s="35" t="s">
         <v>34</v>
       </c>
       <c r="F28" s="39">
-        <v>42633</v>
+        <v>42627</v>
       </c>
       <c r="G28" s="39" t="s">
         <v>34</v>
       </c>
       <c r="H28" s="39">
-        <v>42633</v>
+        <v>42627</v>
       </c>
       <c r="I28" s="35"/>
       <c r="J28" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="K28" s="35" t="s">
-        <v>83</v>
+        <v>63</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="N28" s="11">
         <v>42634</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="P28" s="45"/>
       <c r="Q28" s="45"/>
@@ -3515,18 +3736,18 @@
       <c r="S28" s="41"/>
       <c r="T28" s="42"/>
     </row>
-    <row r="29" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" s="43" customFormat="1" ht="16.5">
       <c r="A29" s="16">
         <v>28</v>
       </c>
-      <c r="B29" s="46" t="s">
-        <v>109</v>
+      <c r="B29" s="34" t="s">
+        <v>66</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>110</v>
+        <v>60</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="E29" s="35" t="s">
         <v>34</v>
@@ -3542,22 +3763,22 @@
       </c>
       <c r="I29" s="35"/>
       <c r="J29" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="K29" s="35" t="s">
-        <v>83</v>
+        <v>68</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="N29" s="11">
         <v>42634</v>
       </c>
       <c r="O29" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="P29" s="45"/>
       <c r="Q29" s="45"/>
@@ -3565,18 +3786,18 @@
       <c r="S29" s="41"/>
       <c r="T29" s="42"/>
     </row>
-    <row r="30" spans="1:20" s="43" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" s="43" customFormat="1" ht="18.75" customHeight="1">
       <c r="A30" s="16">
         <v>29</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E30" s="35" t="s">
         <v>34</v>
@@ -3592,22 +3813,22 @@
       </c>
       <c r="I30" s="35"/>
       <c r="J30" s="44" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="K30" s="35" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="N30" s="11">
         <v>42634</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="P30" s="45"/>
       <c r="Q30" s="45"/>
@@ -3615,662 +3836,698 @@
       <c r="S30" s="41"/>
       <c r="T30" s="42"/>
     </row>
-    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" s="43" customFormat="1" ht="16.5">
       <c r="A31" s="16">
         <v>30</v>
       </c>
-      <c r="B31" s="33" t="s">
-        <v>114</v>
+      <c r="B31" s="46" t="s">
+        <v>72</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="11">
+        <v>60</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="39">
         <v>42627</v>
       </c>
-      <c r="G31" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H31" s="11">
+      <c r="G31" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="39">
         <v>42627</v>
       </c>
-      <c r="I31" s="10"/>
-      <c r="J31" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>33</v>
+      <c r="I31" s="35"/>
+      <c r="J31" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="K31" s="35" t="s">
+        <v>46</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="M31" s="12"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="8"/>
-    </row>
-    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N31" s="11">
+        <v>42634</v>
+      </c>
+      <c r="O31" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="42"/>
+    </row>
+    <row r="32" spans="1:20" s="43" customFormat="1" ht="33">
       <c r="A32" s="16">
         <v>31</v>
       </c>
-      <c r="B32" s="33" t="s">
-        <v>117</v>
+      <c r="B32" s="46" t="s">
+        <v>75</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32" s="11">
-        <v>42627</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H32" s="11">
-        <v>42627</v>
-      </c>
-      <c r="I32" s="10"/>
-      <c r="J32" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>33</v>
+        <v>76</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="39">
+        <v>42633</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="39">
+        <v>42633</v>
+      </c>
+      <c r="I32" s="35"/>
+      <c r="J32" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" s="35" t="s">
+        <v>46</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="M32" s="12"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="8"/>
-    </row>
-    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N32" s="11">
+        <v>42634</v>
+      </c>
+      <c r="O32" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="42"/>
+    </row>
+    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A33" s="16">
         <v>32</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>64</v>
+        <v>221</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="F33" s="11">
         <v>42627</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="H33" s="11">
         <v>42627</v>
       </c>
       <c r="I33" s="10"/>
       <c r="J33" s="12" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="K33" s="10" t="s">
         <v>33</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="M33" s="12"/>
+        <v>79</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="N33" s="11"/>
-      <c r="O33" s="12"/>
+      <c r="O33" s="12" t="s">
+        <v>246</v>
+      </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
       <c r="S33" s="13"/>
       <c r="T33" s="8"/>
     </row>
-    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A34" s="16">
         <v>33</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>64</v>
+        <v>221</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="F34" s="11">
         <v>42627</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="H34" s="11">
         <v>42627</v>
       </c>
       <c r="I34" s="10"/>
       <c r="J34" s="12" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>33</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="M34" s="12"/>
+        <v>79</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="N34" s="11"/>
-      <c r="O34" s="12"/>
+      <c r="O34" s="12" t="s">
+        <v>246</v>
+      </c>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
       <c r="S34" s="13"/>
       <c r="T34" s="8"/>
     </row>
-    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A35" s="16">
         <v>34</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>122</v>
+        <v>221</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="F35" s="11">
         <v>42627</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="H35" s="11">
         <v>42627</v>
       </c>
       <c r="I35" s="10"/>
       <c r="J35" s="12" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="K35" s="10" t="s">
         <v>33</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="M35" s="12"/>
+        <v>79</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="N35" s="11"/>
-      <c r="O35" s="12"/>
+      <c r="O35" s="12" t="s">
+        <v>246</v>
+      </c>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
       <c r="S35" s="13"/>
       <c r="T35" s="8"/>
     </row>
-    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A36" s="16">
         <v>35</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>64</v>
+        <v>221</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="F36" s="11">
-        <v>42631</v>
+        <v>42627</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="H36" s="11">
-        <v>42631</v>
+        <v>42627</v>
       </c>
       <c r="I36" s="10"/>
       <c r="J36" s="12" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="K36" s="10" t="s">
         <v>33</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="M36" s="12"/>
+        <v>79</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="N36" s="11"/>
-      <c r="O36" s="12"/>
+      <c r="O36" s="12" t="s">
+        <v>246</v>
+      </c>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
       <c r="S36" s="13"/>
       <c r="T36" s="8"/>
     </row>
-    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A37" s="16">
         <v>36</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="F37" s="11">
         <v>42627</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="H37" s="11">
         <v>42627</v>
       </c>
       <c r="I37" s="10"/>
       <c r="J37" s="12" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="K37" s="10" t="s">
         <v>33</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="M37" s="12"/>
+        <v>79</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="N37" s="11"/>
-      <c r="O37" s="12"/>
+      <c r="O37" s="12" t="s">
+        <v>246</v>
+      </c>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
       <c r="S37" s="13"/>
       <c r="T37" s="8"/>
     </row>
-    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A38" s="16">
         <v>37</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>64</v>
+        <v>221</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="F38" s="11">
-        <v>42627</v>
+        <v>42631</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="H38" s="11">
-        <v>42627</v>
+        <v>42631</v>
       </c>
       <c r="I38" s="10"/>
       <c r="J38" s="12" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="M38" s="12"/>
+        <v>79</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="N38" s="11"/>
-      <c r="O38" s="12"/>
+      <c r="O38" s="12" t="s">
+        <v>246</v>
+      </c>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="13"/>
       <c r="T38" s="8"/>
     </row>
-    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A39" s="16">
         <v>38</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>64</v>
+        <v>221</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="F39" s="11">
-        <v>42633</v>
+        <v>42627</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="H39" s="11">
-        <v>42633</v>
+        <v>42627</v>
       </c>
       <c r="I39" s="10"/>
       <c r="J39" s="12" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>33</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="M39" s="12"/>
+        <v>79</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="N39" s="11"/>
-      <c r="O39" s="12"/>
+      <c r="O39" s="12" t="s">
+        <v>246</v>
+      </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
       <c r="S39" s="13"/>
       <c r="T39" s="8"/>
     </row>
-    <row r="40" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A40" s="16">
         <v>39</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E40" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="74">
+        <v>42627</v>
+      </c>
+      <c r="G40" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" s="74">
+        <v>42627</v>
+      </c>
+      <c r="I40" s="73"/>
+      <c r="J40" s="75" t="s">
+        <v>247</v>
+      </c>
+      <c r="K40" s="73" t="s">
+        <v>248</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M40" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F40" s="11">
-        <v>42633</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H40" s="11">
-        <v>42633</v>
-      </c>
-      <c r="I40" s="10"/>
-      <c r="J40" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="K40" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L40" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="M40" s="12"/>
       <c r="N40" s="11"/>
-      <c r="O40" s="12"/>
+      <c r="O40" s="12" t="s">
+        <v>246</v>
+      </c>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
       <c r="S40" s="13"/>
       <c r="T40" s="8"/>
     </row>
-    <row r="41" spans="1:20" s="37" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A41" s="16">
         <v>40</v>
       </c>
-      <c r="B41" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>65</v>
+      <c r="B41" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" s="73" t="s">
+        <v>32</v>
       </c>
       <c r="F41" s="11">
-        <v>42625</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>65</v>
+        <v>42633</v>
+      </c>
+      <c r="G41" s="73" t="s">
+        <v>34</v>
       </c>
       <c r="H41" s="11">
         <v>42633</v>
       </c>
       <c r="I41" s="10"/>
       <c r="J41" s="12" t="s">
-        <v>223</v>
+        <v>90</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="N41" s="11">
-        <v>42634</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="N41" s="11"/>
       <c r="O41" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="T41" s="36"/>
-    </row>
-    <row r="42" spans="1:20" s="9" customFormat="1" ht="183" customHeight="1" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="8"/>
+    </row>
+    <row r="42" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A42" s="16">
         <v>41</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="F42" s="11">
-        <v>42625</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>65</v>
+        <v>42633</v>
+      </c>
+      <c r="G42" s="73" t="s">
+        <v>34</v>
       </c>
       <c r="H42" s="11">
         <v>42633</v>
       </c>
       <c r="I42" s="10"/>
       <c r="J42" s="12" t="s">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="L42" s="16" t="s">
-        <v>225</v>
+        <v>33</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="N42" s="11">
-        <v>42634</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="N42" s="11"/>
       <c r="O42" s="12" t="s">
-        <v>86</v>
+        <v>246</v>
       </c>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
-      <c r="S42" s="47" t="s">
-        <v>222</v>
-      </c>
+      <c r="S42" s="13"/>
       <c r="T42" s="8"/>
     </row>
-    <row r="43" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A43" s="16">
         <v>42</v>
       </c>
-      <c r="B43" s="33" t="s">
-        <v>244</v>
+      <c r="B43" s="54" t="s">
+        <v>145</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>233</v>
+        <v>146</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>234</v>
+        <v>34</v>
       </c>
       <c r="F43" s="11">
-        <v>42629</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>234</v>
+        <v>42627</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="H43" s="11">
-        <v>42634</v>
+        <v>42627</v>
       </c>
       <c r="I43" s="10"/>
       <c r="J43" s="12" t="s">
-        <v>235</v>
+        <v>147</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>236</v>
+        <v>148</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="N43" s="11">
         <v>42634</v>
       </c>
       <c r="O43" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="P43" s="55"/>
+      <c r="Q43" s="55"/>
+      <c r="R43" s="55"/>
       <c r="S43" s="13"/>
       <c r="T43" s="8"/>
     </row>
-    <row r="44" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A44" s="16">
         <v>43</v>
       </c>
-      <c r="B44" s="33" t="s">
-        <v>243</v>
+      <c r="B44" s="54" t="s">
+        <v>149</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>238</v>
+        <v>60</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>239</v>
+        <v>146</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>240</v>
+        <v>34</v>
       </c>
       <c r="F44" s="11">
-        <v>42630</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>234</v>
+        <v>42627</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="H44" s="11">
-        <v>42634</v>
+        <v>42627</v>
       </c>
       <c r="I44" s="10"/>
       <c r="J44" s="12" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>236</v>
+        <v>148</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="M44" s="12" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="N44" s="11">
         <v>42634</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="55"/>
+      <c r="R44" s="55"/>
       <c r="S44" s="13"/>
       <c r="T44" s="8"/>
     </row>
-    <row r="45" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A45" s="16">
         <v>44</v>
       </c>
       <c r="B45" s="54" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>34</v>
@@ -4286,16 +4543,22 @@
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="12" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="L45" s="10"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="11"/>
+        <v>148</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="M45" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N45" s="11">
+        <v>42634</v>
+      </c>
       <c r="O45" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="P45" s="55"/>
       <c r="Q45" s="55"/>
@@ -4303,18 +4566,18 @@
       <c r="S45" s="13"/>
       <c r="T45" s="8"/>
     </row>
-    <row r="46" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A46" s="16">
         <v>45</v>
       </c>
       <c r="B46" s="54" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>34</v>
@@ -4330,16 +4593,22 @@
       </c>
       <c r="I46" s="10"/>
       <c r="J46" s="12" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="L46" s="10"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="11"/>
+        <v>148</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="N46" s="11">
+        <v>42634</v>
+      </c>
       <c r="O46" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="P46" s="55"/>
       <c r="Q46" s="55"/>
@@ -4347,18 +4616,18 @@
       <c r="S46" s="13"/>
       <c r="T46" s="8"/>
     </row>
-    <row r="47" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A47" s="16">
         <v>46</v>
       </c>
-      <c r="B47" s="54" t="s">
-        <v>193</v>
+      <c r="B47" s="56" t="s">
+        <v>153</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>34</v>
@@ -4374,16 +4643,22 @@
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="12" t="s">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="L47" s="10"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="11"/>
+        <v>148</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="M47" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N47" s="11">
+        <v>42634</v>
+      </c>
       <c r="O47" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="P47" s="55"/>
       <c r="Q47" s="55"/>
@@ -4391,18 +4666,18 @@
       <c r="S47" s="13"/>
       <c r="T47" s="8"/>
     </row>
-    <row r="48" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A48" s="16">
         <v>47</v>
       </c>
-      <c r="B48" s="54" t="s">
-        <v>195</v>
+      <c r="B48" s="56" t="s">
+        <v>154</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>34</v>
@@ -4418,16 +4693,22 @@
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="12" t="s">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="L48" s="10"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="11"/>
+        <v>148</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="M48" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N48" s="11">
+        <v>42634</v>
+      </c>
       <c r="O48" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="P48" s="55"/>
       <c r="Q48" s="55"/>
@@ -4435,18 +4716,18 @@
       <c r="S48" s="13"/>
       <c r="T48" s="8"/>
     </row>
-    <row r="49" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:20" s="9" customFormat="1" ht="24">
       <c r="A49" s="16">
         <v>48</v>
       </c>
-      <c r="B49" s="56" t="s">
-        <v>196</v>
+      <c r="B49" s="57" t="s">
+        <v>155</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>34</v>
@@ -4462,16 +4743,22 @@
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="12" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="L49" s="10"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="11"/>
+        <v>148</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="M49" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N49" s="11">
+        <v>42634</v>
+      </c>
       <c r="O49" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="P49" s="55"/>
       <c r="Q49" s="55"/>
@@ -4479,18 +4766,18 @@
       <c r="S49" s="13"/>
       <c r="T49" s="8"/>
     </row>
-    <row r="50" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:20" s="9" customFormat="1" ht="24">
       <c r="A50" s="16">
         <v>49</v>
       </c>
-      <c r="B50" s="56" t="s">
-        <v>197</v>
+      <c r="B50" s="57" t="s">
+        <v>156</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>34</v>
@@ -4506,16 +4793,22 @@
       </c>
       <c r="I50" s="10"/>
       <c r="J50" s="12" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="L50" s="10"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="11"/>
+        <v>148</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="M50" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N50" s="11">
+        <v>42634</v>
+      </c>
       <c r="O50" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="P50" s="55"/>
       <c r="Q50" s="55"/>
@@ -4523,18 +4816,18 @@
       <c r="S50" s="13"/>
       <c r="T50" s="8"/>
     </row>
-    <row r="51" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A51" s="16">
         <v>50</v>
       </c>
       <c r="B51" s="57" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>34</v>
@@ -4550,16 +4843,20 @@
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="12" t="s">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="L51" s="10"/>
+        <v>148</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="M51" s="12"/>
-      <c r="N51" s="11"/>
+      <c r="N51" s="11">
+        <v>42634</v>
+      </c>
       <c r="O51" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="P51" s="55"/>
       <c r="Q51" s="55"/>
@@ -4567,18 +4864,18 @@
       <c r="S51" s="13"/>
       <c r="T51" s="8"/>
     </row>
-    <row r="52" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A52" s="16">
         <v>51</v>
       </c>
-      <c r="B52" s="57" t="s">
-        <v>199</v>
+      <c r="B52" s="58" t="s">
+        <v>158</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>34</v>
@@ -4594,35 +4891,39 @@
       </c>
       <c r="I52" s="10"/>
       <c r="J52" s="12" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="L52" s="10"/>
+        <v>148</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="M52" s="12"/>
-      <c r="N52" s="11"/>
+      <c r="N52" s="11">
+        <v>42634</v>
+      </c>
       <c r="O52" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="P52" s="55"/>
-      <c r="Q52" s="55"/>
+        <v>49</v>
+      </c>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
       <c r="R52" s="55"/>
       <c r="S52" s="13"/>
       <c r="T52" s="8"/>
     </row>
-    <row r="53" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A53" s="16">
         <v>52</v>
       </c>
-      <c r="B53" s="57" t="s">
-        <v>200</v>
+      <c r="B53" s="59" t="s">
+        <v>159</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>34</v>
@@ -4638,35 +4939,39 @@
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="12" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="L53" s="10"/>
+        <v>148</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="M53" s="12"/>
-      <c r="N53" s="11"/>
+      <c r="N53" s="11">
+        <v>42634</v>
+      </c>
       <c r="O53" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="P53" s="55"/>
-      <c r="Q53" s="55"/>
+        <v>49</v>
+      </c>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
       <c r="R53" s="55"/>
       <c r="S53" s="13"/>
       <c r="T53" s="8"/>
     </row>
-    <row r="54" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A54" s="16">
         <v>53</v>
       </c>
-      <c r="B54" s="58" t="s">
-        <v>201</v>
+      <c r="B54" s="60" t="s">
+        <v>160</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>34</v>
@@ -4682,35 +4987,39 @@
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="12" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="L54" s="10"/>
+        <v>148</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="M54" s="12"/>
-      <c r="N54" s="11"/>
+      <c r="N54" s="11">
+        <v>42634</v>
+      </c>
       <c r="O54" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
-      <c r="R54" s="55"/>
+      <c r="R54" s="7"/>
       <c r="S54" s="13"/>
       <c r="T54" s="8"/>
     </row>
-    <row r="55" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A55" s="16">
         <v>54</v>
       </c>
-      <c r="B55" s="59" t="s">
-        <v>202</v>
+      <c r="B55" s="61" t="s">
+        <v>161</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>34</v>
@@ -4726,35 +5035,39 @@
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="12" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="L55" s="10"/>
+        <v>148</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="M55" s="12"/>
-      <c r="N55" s="11"/>
+      <c r="N55" s="11">
+        <v>42634</v>
+      </c>
       <c r="O55" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
-      <c r="R55" s="55"/>
+      <c r="R55" s="7"/>
       <c r="S55" s="13"/>
       <c r="T55" s="8"/>
     </row>
-    <row r="56" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A56" s="16">
         <v>55</v>
       </c>
-      <c r="B56" s="60" t="s">
-        <v>203</v>
+      <c r="B56" s="61" t="s">
+        <v>162</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>34</v>
@@ -4770,16 +5083,20 @@
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="12" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="L56" s="10"/>
+        <v>148</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="M56" s="12"/>
-      <c r="N56" s="11"/>
+      <c r="N56" s="11">
+        <v>42634</v>
+      </c>
       <c r="O56" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
@@ -4787,18 +5104,18 @@
       <c r="S56" s="13"/>
       <c r="T56" s="8"/>
     </row>
-    <row r="57" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A57" s="16">
         <v>56</v>
       </c>
-      <c r="B57" s="61" t="s">
-        <v>204</v>
+      <c r="B57" s="62" t="s">
+        <v>163</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>34</v>
@@ -4814,16 +5131,20 @@
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="12" t="s">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="L57" s="10"/>
+        <v>148</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="M57" s="12"/>
-      <c r="N57" s="11"/>
+      <c r="N57" s="11">
+        <v>42634</v>
+      </c>
       <c r="O57" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
@@ -4831,18 +5152,18 @@
       <c r="S57" s="13"/>
       <c r="T57" s="8"/>
     </row>
-    <row r="58" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:20" s="9" customFormat="1" ht="24">
       <c r="A58" s="16">
         <v>57</v>
       </c>
-      <c r="B58" s="61" t="s">
-        <v>205</v>
+      <c r="B58" s="60" t="s">
+        <v>164</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>34</v>
@@ -4858,16 +5179,20 @@
       </c>
       <c r="I58" s="10"/>
       <c r="J58" s="12" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="L58" s="10"/>
+        <v>148</v>
+      </c>
+      <c r="L58" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="M58" s="12"/>
-      <c r="N58" s="11"/>
+      <c r="N58" s="11">
+        <v>42634</v>
+      </c>
       <c r="O58" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
@@ -4875,18 +5200,18 @@
       <c r="S58" s="13"/>
       <c r="T58" s="8"/>
     </row>
-    <row r="59" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:20" s="9" customFormat="1" ht="36">
       <c r="A59" s="16">
         <v>58</v>
       </c>
-      <c r="B59" s="62" t="s">
-        <v>206</v>
+      <c r="B59" s="63" t="s">
+        <v>165</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>34</v>
@@ -4902,16 +5227,20 @@
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="12" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="L59" s="10"/>
+        <v>148</v>
+      </c>
+      <c r="L59" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="M59" s="12"/>
-      <c r="N59" s="11"/>
+      <c r="N59" s="11">
+        <v>42634</v>
+      </c>
       <c r="O59" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
@@ -4919,43 +5248,47 @@
       <c r="S59" s="13"/>
       <c r="T59" s="8"/>
     </row>
-    <row r="60" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A60" s="16">
         <v>59</v>
       </c>
-      <c r="B60" s="60" t="s">
-        <v>207</v>
+      <c r="B60" s="62" t="s">
+        <v>167</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F60" s="11">
-        <v>42627</v>
+        <v>42633</v>
       </c>
       <c r="G60" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H60" s="11">
-        <v>42627</v>
+        <v>42633</v>
       </c>
       <c r="I60" s="10"/>
       <c r="J60" s="12" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="L60" s="10"/>
+        <v>148</v>
+      </c>
+      <c r="L60" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="M60" s="12"/>
-      <c r="N60" s="11"/>
+      <c r="N60" s="11">
+        <v>42634</v>
+      </c>
       <c r="O60" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
@@ -4963,43 +5296,47 @@
       <c r="S60" s="13"/>
       <c r="T60" s="8"/>
     </row>
-    <row r="61" spans="1:20" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A61" s="16">
         <v>60</v>
       </c>
-      <c r="B61" s="63" t="s">
-        <v>208</v>
+      <c r="B61" s="60" t="s">
+        <v>169</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F61" s="11">
-        <v>42627</v>
+        <v>42633</v>
       </c>
       <c r="G61" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H61" s="11">
-        <v>42627</v>
+        <v>42633</v>
       </c>
       <c r="I61" s="10"/>
       <c r="J61" s="12" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="L61" s="10"/>
+        <v>148</v>
+      </c>
+      <c r="L61" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="M61" s="12"/>
-      <c r="N61" s="11"/>
+      <c r="N61" s="11">
+        <v>42634</v>
+      </c>
       <c r="O61" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
@@ -5007,43 +5344,47 @@
       <c r="S61" s="13"/>
       <c r="T61" s="8"/>
     </row>
-    <row r="62" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A62" s="16">
         <v>61</v>
       </c>
-      <c r="B62" s="62" t="s">
-        <v>210</v>
+      <c r="B62" s="60" t="s">
+        <v>170</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F62" s="11">
-        <v>42633</v>
+        <v>42634</v>
       </c>
       <c r="G62" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H62" s="11">
-        <v>42633</v>
+        <v>42634</v>
       </c>
       <c r="I62" s="10"/>
       <c r="J62" s="12" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="L62" s="10"/>
+        <v>148</v>
+      </c>
+      <c r="L62" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="M62" s="12"/>
-      <c r="N62" s="11"/>
+      <c r="N62" s="11">
+        <v>42634</v>
+      </c>
       <c r="O62" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
@@ -5051,43 +5392,43 @@
       <c r="S62" s="13"/>
       <c r="T62" s="8"/>
     </row>
-    <row r="63" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:20" s="9" customFormat="1" ht="24">
       <c r="A63" s="16">
         <v>62</v>
       </c>
       <c r="B63" s="60" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F63" s="11">
-        <v>42633</v>
+        <v>42634</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H63" s="11">
-        <v>42633</v>
+        <v>42634</v>
       </c>
       <c r="I63" s="10"/>
       <c r="J63" s="12" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="L63" s="10"/>
       <c r="M63" s="12"/>
       <c r="N63" s="11"/>
       <c r="O63" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
@@ -5095,18 +5436,18 @@
       <c r="S63" s="13"/>
       <c r="T63" s="8"/>
     </row>
-    <row r="64" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A64" s="16">
         <v>63</v>
       </c>
       <c r="B64" s="60" t="s">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>34</v>
@@ -5122,16 +5463,16 @@
       </c>
       <c r="I64" s="10"/>
       <c r="J64" s="12" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="L64" s="10"/>
       <c r="M64" s="12"/>
       <c r="N64" s="11"/>
       <c r="O64" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
@@ -5139,18 +5480,18 @@
       <c r="S64" s="13"/>
       <c r="T64" s="8"/>
     </row>
-    <row r="65" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A65" s="16">
         <v>64</v>
       </c>
       <c r="B65" s="60" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>34</v>
@@ -5166,16 +5507,16 @@
       </c>
       <c r="I65" s="10"/>
       <c r="J65" s="12" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="L65" s="10"/>
       <c r="M65" s="12"/>
       <c r="N65" s="11"/>
       <c r="O65" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
@@ -5183,43 +5524,43 @@
       <c r="S65" s="13"/>
       <c r="T65" s="8"/>
     </row>
-    <row r="66" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A66" s="16">
         <v>65</v>
       </c>
       <c r="B66" s="60" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F66" s="11">
-        <v>42625</v>
+        <v>42634</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H66" s="11">
-        <v>42625</v>
+        <v>42634</v>
       </c>
       <c r="I66" s="10"/>
       <c r="J66" s="12" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="L66" s="10"/>
       <c r="M66" s="12"/>
       <c r="N66" s="11"/>
       <c r="O66" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
@@ -5227,43 +5568,43 @@
       <c r="S66" s="13"/>
       <c r="T66" s="8"/>
     </row>
-    <row r="67" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:20" s="9" customFormat="1" ht="24">
       <c r="A67" s="16">
         <v>66</v>
       </c>
       <c r="B67" s="60" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F67" s="11">
-        <v>42625</v>
+        <v>42634</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H67" s="11">
-        <v>42625</v>
+        <v>42634</v>
       </c>
       <c r="I67" s="10"/>
       <c r="J67" s="12" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="L67" s="10"/>
       <c r="M67" s="12"/>
       <c r="N67" s="11"/>
       <c r="O67" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
@@ -5271,49 +5612,43 @@
       <c r="S67" s="13"/>
       <c r="T67" s="8"/>
     </row>
-    <row r="68" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:20" s="9" customFormat="1" ht="24">
       <c r="A68" s="16">
         <v>67</v>
       </c>
-      <c r="B68" s="33" t="s">
-        <v>246</v>
+      <c r="B68" s="60" t="s">
+        <v>256</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>234</v>
+        <v>34</v>
       </c>
       <c r="F68" s="11">
         <v>42634</v>
       </c>
-      <c r="G68" s="10" t="s">
-        <v>234</v>
+      <c r="G68" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="H68" s="11">
         <v>42634</v>
       </c>
       <c r="I68" s="10"/>
       <c r="J68" s="12" t="s">
-        <v>247</v>
+        <v>172</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="L68" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="M68" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="N68" s="11">
-        <v>42635</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="L68" s="10"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="11"/>
       <c r="O68" s="12" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
@@ -5321,49 +5656,43 @@
       <c r="S68" s="13"/>
       <c r="T68" s="8"/>
     </row>
-    <row r="69" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:20" s="9" customFormat="1" ht="24">
       <c r="A69" s="16">
         <v>68</v>
       </c>
-      <c r="B69" s="33" t="s">
-        <v>253</v>
+      <c r="B69" s="60" t="s">
+        <v>257</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>254</v>
+        <v>60</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>255</v>
+        <v>171</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="F69" s="11">
         <v>42634</v>
       </c>
-      <c r="G69" s="10" t="s">
-        <v>250</v>
+      <c r="G69" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="H69" s="11">
         <v>42634</v>
       </c>
       <c r="I69" s="10"/>
       <c r="J69" s="12" t="s">
-        <v>256</v>
+        <v>172</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="L69" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="M69" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="N69" s="11">
-        <v>42635</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="L69" s="10"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="11"/>
       <c r="O69" s="12" t="s">
-        <v>252</v>
+        <v>49</v>
       </c>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
@@ -5371,574 +5700,1207 @@
       <c r="S69" s="13"/>
       <c r="T69" s="8"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A70" s="7"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="4"/>
+    <row r="70" spans="1:20" s="9" customFormat="1" ht="24">
+      <c r="A70" s="16">
+        <v>69</v>
+      </c>
+      <c r="B70" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70" s="11">
+        <v>42634</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H70" s="11">
+        <v>42634</v>
+      </c>
+      <c r="I70" s="10"/>
+      <c r="J70" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L70" s="10"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
-      <c r="S70" s="4"/>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A71" s="7"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="4"/>
+      <c r="S70" s="13"/>
+      <c r="T70" s="8"/>
+    </row>
+    <row r="71" spans="1:20" s="9" customFormat="1" ht="24">
+      <c r="A71" s="16">
+        <v>70</v>
+      </c>
+      <c r="B71" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" s="11">
+        <v>42634</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H71" s="11">
+        <v>42634</v>
+      </c>
+      <c r="I71" s="10"/>
+      <c r="J71" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L71" s="10"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
-      <c r="S71" s="4"/>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A72" s="7"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="4"/>
+      <c r="S71" s="13"/>
+      <c r="T71" s="8"/>
+    </row>
+    <row r="72" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A72" s="16">
+        <v>71</v>
+      </c>
+      <c r="B72" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" s="11">
+        <v>42634</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H72" s="11">
+        <v>42634</v>
+      </c>
+      <c r="I72" s="10"/>
+      <c r="J72" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="K72" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L72" s="10"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="P72" s="7"/>
       <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
-      <c r="S72" s="4"/>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A73" s="7"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="4"/>
+      <c r="S72" s="13"/>
+      <c r="T72" s="8"/>
+    </row>
+    <row r="73" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A73" s="16">
+        <v>72</v>
+      </c>
+      <c r="B73" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" s="11">
+        <v>42634</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H73" s="11">
+        <v>42634</v>
+      </c>
+      <c r="I73" s="10"/>
+      <c r="J73" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="K73" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L73" s="10"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
-      <c r="S73" s="4"/>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A74" s="7"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="4"/>
+      <c r="S73" s="13"/>
+      <c r="T73" s="8"/>
+    </row>
+    <row r="74" spans="1:20" s="9" customFormat="1" ht="24">
+      <c r="A74" s="16">
+        <v>73</v>
+      </c>
+      <c r="B74" s="60" t="s">
+        <v>262</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" s="11">
+        <v>42634</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H74" s="11">
+        <v>42634</v>
+      </c>
+      <c r="I74" s="10"/>
+      <c r="J74" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L74" s="10"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
-      <c r="S74" s="4"/>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A75" s="7"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="4"/>
+      <c r="S74" s="13"/>
+      <c r="T74" s="8"/>
+    </row>
+    <row r="75" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A75" s="16">
+        <v>74</v>
+      </c>
+      <c r="B75" s="60" t="s">
+        <v>263</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" s="11">
+        <v>42634</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H75" s="11">
+        <v>42634</v>
+      </c>
+      <c r="I75" s="10"/>
+      <c r="J75" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="K75" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L75" s="10"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
-      <c r="S75" s="4"/>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A76" s="7"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="4"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="8"/>
+    </row>
+    <row r="76" spans="1:20" s="9" customFormat="1" ht="24">
+      <c r="A76" s="16">
+        <v>75</v>
+      </c>
+      <c r="B76" s="60" t="s">
+        <v>264</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" s="11">
+        <v>42634</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H76" s="11">
+        <v>42634</v>
+      </c>
+      <c r="I76" s="10"/>
+      <c r="J76" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="K76" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L76" s="10"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="P76" s="7"/>
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
-      <c r="S76" s="4"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A77" s="7"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="4"/>
+      <c r="S76" s="13"/>
+      <c r="T76" s="8"/>
+    </row>
+    <row r="77" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A77" s="16">
+        <v>76</v>
+      </c>
+      <c r="B77" s="60" t="s">
+        <v>265</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77" s="11">
+        <v>42634</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H77" s="11">
+        <v>42634</v>
+      </c>
+      <c r="I77" s="10"/>
+      <c r="J77" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="K77" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L77" s="10"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
-      <c r="S77" s="4"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A78" s="7"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="4"/>
+      <c r="S77" s="13"/>
+      <c r="T77" s="8"/>
+    </row>
+    <row r="78" spans="1:20" s="9" customFormat="1" ht="24">
+      <c r="A78" s="16">
+        <v>77</v>
+      </c>
+      <c r="B78" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" s="11">
+        <v>42634</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H78" s="11">
+        <v>42634</v>
+      </c>
+      <c r="I78" s="10"/>
+      <c r="J78" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="K78" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L78" s="10"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="P78" s="7"/>
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
-      <c r="S78" s="4"/>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A79" s="7"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="4"/>
+      <c r="S78" s="13"/>
+      <c r="T78" s="8"/>
+    </row>
+    <row r="79" spans="1:20" s="9" customFormat="1" ht="24">
+      <c r="A79" s="16">
+        <v>78</v>
+      </c>
+      <c r="B79" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="11">
+        <v>42634</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H79" s="11">
+        <v>42634</v>
+      </c>
+      <c r="I79" s="10"/>
+      <c r="J79" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="K79" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L79" s="10"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
-      <c r="S79" s="4"/>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A80" s="7"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="5"/>
-      <c r="O80" s="4"/>
+      <c r="S79" s="13"/>
+      <c r="T79" s="8"/>
+    </row>
+    <row r="80" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A80" s="16">
+        <v>79</v>
+      </c>
+      <c r="B80" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" s="11">
+        <v>42634</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H80" s="11">
+        <v>42634</v>
+      </c>
+      <c r="I80" s="10"/>
+      <c r="J80" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="K80" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L80" s="10"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
-      <c r="S80" s="4"/>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A81" s="7"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="5"/>
-      <c r="O81" s="4"/>
+      <c r="S80" s="13"/>
+      <c r="T80" s="8"/>
+    </row>
+    <row r="81" spans="1:20" s="9" customFormat="1" ht="24">
+      <c r="A81" s="16">
+        <v>80</v>
+      </c>
+      <c r="B81" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="11">
+        <v>42634</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H81" s="11">
+        <v>42634</v>
+      </c>
+      <c r="I81" s="10"/>
+      <c r="J81" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="K81" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L81" s="10"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
-      <c r="S81" s="4"/>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A82" s="7"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="4"/>
+      <c r="S81" s="13"/>
+      <c r="T81" s="8"/>
+    </row>
+    <row r="82" spans="1:20" s="9" customFormat="1" ht="24">
+      <c r="A82" s="16">
+        <v>81</v>
+      </c>
+      <c r="B82" s="60" t="s">
+        <v>270</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82" s="11">
+        <v>42634</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H82" s="11">
+        <v>42634</v>
+      </c>
+      <c r="I82" s="10"/>
+      <c r="J82" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="K82" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L82" s="10"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
-      <c r="S82" s="4"/>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A83" s="7"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
-      <c r="M83" s="7"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="4"/>
+      <c r="S82" s="13"/>
+      <c r="T82" s="8"/>
+    </row>
+    <row r="83" spans="1:20" s="9" customFormat="1" ht="24">
+      <c r="A83" s="16">
+        <v>82</v>
+      </c>
+      <c r="B83" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83" s="11">
+        <v>42634</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H83" s="11">
+        <v>42634</v>
+      </c>
+      <c r="I83" s="10"/>
+      <c r="J83" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="K83" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L83" s="10"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
-      <c r="S83" s="4"/>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A84" s="7"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="4"/>
+      <c r="S83" s="13"/>
+      <c r="T83" s="8"/>
+    </row>
+    <row r="84" spans="1:20" s="9" customFormat="1" ht="24">
+      <c r="A84" s="16">
+        <v>83</v>
+      </c>
+      <c r="B84" s="60" t="s">
+        <v>272</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" s="11">
+        <v>42634</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H84" s="11">
+        <v>42634</v>
+      </c>
+      <c r="I84" s="10"/>
+      <c r="J84" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="K84" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L84" s="10"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
-      <c r="S84" s="4"/>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A85" s="7"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
-      <c r="N85" s="5"/>
-      <c r="O85" s="4"/>
+      <c r="S84" s="13"/>
+      <c r="T84" s="8"/>
+    </row>
+    <row r="85" spans="1:20" s="9" customFormat="1" ht="24">
+      <c r="A85" s="16">
+        <v>84</v>
+      </c>
+      <c r="B85" s="60" t="s">
+        <v>273</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" s="11">
+        <v>42634</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H85" s="11">
+        <v>42634</v>
+      </c>
+      <c r="I85" s="10"/>
+      <c r="J85" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="K85" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L85" s="10"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
-      <c r="S85" s="4"/>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A86" s="7"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="5"/>
-      <c r="O86" s="4"/>
+      <c r="S85" s="13"/>
+      <c r="T85" s="8"/>
+    </row>
+    <row r="86" spans="1:20" s="9" customFormat="1" ht="24">
+      <c r="A86" s="16">
+        <v>85</v>
+      </c>
+      <c r="B86" s="60" t="s">
+        <v>274</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86" s="11">
+        <v>42634</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H86" s="11">
+        <v>42634</v>
+      </c>
+      <c r="I86" s="10"/>
+      <c r="J86" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="K86" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L86" s="10"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
-      <c r="S86" s="4"/>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A87" s="7"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="5"/>
-      <c r="O87" s="4"/>
+      <c r="S86" s="13"/>
+      <c r="T86" s="8"/>
+    </row>
+    <row r="87" spans="1:20" s="9" customFormat="1" ht="24">
+      <c r="A87" s="16">
+        <v>86</v>
+      </c>
+      <c r="B87" s="60" t="s">
+        <v>275</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" s="11">
+        <v>42634</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H87" s="11">
+        <v>42634</v>
+      </c>
+      <c r="I87" s="10"/>
+      <c r="J87" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="K87" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L87" s="10"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
-      <c r="S87" s="4"/>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A88" s="7"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="5"/>
-      <c r="O88" s="4"/>
+      <c r="S87" s="13"/>
+      <c r="T87" s="8"/>
+    </row>
+    <row r="88" spans="1:20" s="9" customFormat="1" ht="24">
+      <c r="A88" s="16">
+        <v>87</v>
+      </c>
+      <c r="B88" s="60" t="s">
+        <v>276</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F88" s="11">
+        <v>42634</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H88" s="11">
+        <v>42634</v>
+      </c>
+      <c r="I88" s="10"/>
+      <c r="J88" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="K88" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L88" s="10"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
-      <c r="S88" s="4"/>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A89" s="7"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="4"/>
+      <c r="S88" s="13"/>
+      <c r="T88" s="8"/>
+    </row>
+    <row r="89" spans="1:20" s="9" customFormat="1" ht="24">
+      <c r="A89" s="16">
+        <v>88</v>
+      </c>
+      <c r="B89" s="60" t="s">
+        <v>277</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F89" s="11">
+        <v>42634</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H89" s="11">
+        <v>42634</v>
+      </c>
+      <c r="I89" s="10"/>
+      <c r="J89" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="K89" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L89" s="10"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
-      <c r="S89" s="4"/>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A90" s="7"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
-      <c r="N90" s="5"/>
-      <c r="O90" s="4"/>
+      <c r="S89" s="13"/>
+      <c r="T89" s="8"/>
+    </row>
+    <row r="90" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A90" s="16">
+        <v>89</v>
+      </c>
+      <c r="B90" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F90" s="11">
+        <v>42625</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H90" s="11">
+        <v>42625</v>
+      </c>
+      <c r="I90" s="10"/>
+      <c r="J90" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="K90" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L90" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="M90" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N90" s="11"/>
+      <c r="O90" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
-      <c r="S90" s="4"/>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A91" s="7"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
-      <c r="N91" s="5"/>
-      <c r="O91" s="4"/>
+      <c r="S90" s="13"/>
+      <c r="T90" s="8"/>
+    </row>
+    <row r="91" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A91" s="16">
+        <v>90</v>
+      </c>
+      <c r="B91" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F91" s="11">
+        <v>42625</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H91" s="11">
+        <v>42625</v>
+      </c>
+      <c r="I91" s="10"/>
+      <c r="J91" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="K91" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L91" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="M91" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N91" s="11"/>
+      <c r="O91" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
-      <c r="S91" s="4"/>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A92" s="7"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="5"/>
-      <c r="O92" s="4"/>
+      <c r="S91" s="13"/>
+      <c r="T91" s="8"/>
+    </row>
+    <row r="92" spans="1:20" s="9" customFormat="1" ht="33">
+      <c r="A92" s="16">
+        <v>91</v>
+      </c>
+      <c r="B92" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F92" s="11">
+        <v>42634</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H92" s="11">
+        <v>42634</v>
+      </c>
+      <c r="I92" s="10"/>
+      <c r="J92" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K92" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L92" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="M92" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N92" s="11"/>
+      <c r="O92" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
-      <c r="S92" s="4"/>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A93" s="7"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="5"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7"/>
-      <c r="S93" s="4"/>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A94" s="7"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="5"/>
-      <c r="O94" s="4"/>
+      <c r="S92" s="13"/>
+      <c r="T92" s="8"/>
+    </row>
+    <row r="93" spans="1:20" s="37" customFormat="1" ht="27" customHeight="1">
+      <c r="A93" s="16">
+        <v>92</v>
+      </c>
+      <c r="B93" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F93" s="11">
+        <v>42625</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="H93" s="11">
+        <v>42634</v>
+      </c>
+      <c r="I93" s="10"/>
+      <c r="J93" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="K93" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="L93" s="10"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="12"/>
+      <c r="P93" s="30"/>
+      <c r="Q93" s="30"/>
+      <c r="R93" s="30"/>
+      <c r="S93" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="T93" s="36"/>
+    </row>
+    <row r="94" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1">
+      <c r="A94" s="16">
+        <v>93</v>
+      </c>
+      <c r="B94" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F94" s="11">
+        <v>42625</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="H94" s="11">
+        <v>42634</v>
+      </c>
+      <c r="I94" s="10"/>
+      <c r="J94" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="K94" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="12"/>
       <c r="P94" s="7"/>
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
-      <c r="S94" s="4"/>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A95" s="7"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
-      <c r="N95" s="5"/>
-      <c r="O95" s="4"/>
+      <c r="S94" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="T94" s="8"/>
+    </row>
+    <row r="95" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1">
+      <c r="A95" s="16">
+        <v>94</v>
+      </c>
+      <c r="B95" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F95" s="11">
+        <v>42629</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="H95" s="11">
+        <v>42634</v>
+      </c>
+      <c r="I95" s="10"/>
+      <c r="J95" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="K95" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="L95" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="M95" s="12"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="12"/>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
-      <c r="S95" s="4"/>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A96" s="7"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
-      <c r="M96" s="7"/>
-      <c r="N96" s="5"/>
-      <c r="O96" s="4"/>
+      <c r="S95" s="13"/>
+      <c r="T95" s="8"/>
+    </row>
+    <row r="96" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1">
+      <c r="A96" s="16">
+        <v>95</v>
+      </c>
+      <c r="B96" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F96" s="11">
+        <v>42630</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="H96" s="11">
+        <v>42635</v>
+      </c>
+      <c r="I96" s="10"/>
+      <c r="J96" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="K96" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="L96" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="M96" s="12"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="12"/>
       <c r="P96" s="7"/>
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
-      <c r="S96" s="4"/>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S96" s="13"/>
+      <c r="T96" s="8"/>
+    </row>
+    <row r="97" spans="1:19">
       <c r="A97" s="7"/>
       <c r="B97" s="4"/>
       <c r="C97" s="7"/>
@@ -5959,7 +6921,7 @@
       <c r="R97" s="7"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19">
       <c r="A98" s="7"/>
       <c r="B98" s="4"/>
       <c r="C98" s="7"/>
@@ -5980,7 +6942,7 @@
       <c r="R98" s="7"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19">
       <c r="A99" s="7"/>
       <c r="B99" s="4"/>
       <c r="C99" s="7"/>
@@ -6001,7 +6963,7 @@
       <c r="R99" s="7"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19">
       <c r="A100" s="7"/>
       <c r="B100" s="4"/>
       <c r="C100" s="7"/>
@@ -6022,7 +6984,7 @@
       <c r="R100" s="7"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19">
       <c r="A101" s="7"/>
       <c r="B101" s="4"/>
       <c r="C101" s="7"/>
@@ -6043,7 +7005,7 @@
       <c r="R101" s="7"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19">
       <c r="A102" s="7"/>
       <c r="B102" s="4"/>
       <c r="C102" s="7"/>
@@ -6064,7 +7026,7 @@
       <c r="R102" s="7"/>
       <c r="S102" s="4"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19">
       <c r="A103" s="7"/>
       <c r="B103" s="4"/>
       <c r="C103" s="7"/>
@@ -6085,7 +7047,7 @@
       <c r="R103" s="7"/>
       <c r="S103" s="4"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19">
       <c r="A104" s="7"/>
       <c r="B104" s="4"/>
       <c r="C104" s="7"/>
@@ -6106,7 +7068,7 @@
       <c r="R104" s="7"/>
       <c r="S104" s="4"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19">
       <c r="A105" s="7"/>
       <c r="B105" s="4"/>
       <c r="C105" s="7"/>
@@ -6127,7 +7089,7 @@
       <c r="R105" s="7"/>
       <c r="S105" s="4"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19">
       <c r="A106" s="7"/>
       <c r="B106" s="4"/>
       <c r="C106" s="7"/>
@@ -6148,7 +7110,7 @@
       <c r="R106" s="7"/>
       <c r="S106" s="4"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19">
       <c r="A107" s="7"/>
       <c r="B107" s="4"/>
       <c r="C107" s="7"/>
@@ -6169,7 +7131,7 @@
       <c r="R107" s="7"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19">
       <c r="A108" s="7"/>
       <c r="B108" s="4"/>
       <c r="C108" s="7"/>
@@ -6190,7 +7152,7 @@
       <c r="R108" s="7"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19">
       <c r="A109" s="7"/>
       <c r="B109" s="4"/>
       <c r="C109" s="7"/>
@@ -6211,7 +7173,7 @@
       <c r="R109" s="7"/>
       <c r="S109" s="4"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19">
       <c r="A110" s="7"/>
       <c r="B110" s="4"/>
       <c r="C110" s="7"/>
@@ -6232,7 +7194,7 @@
       <c r="R110" s="7"/>
       <c r="S110" s="4"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19">
       <c r="A111" s="7"/>
       <c r="B111" s="4"/>
       <c r="C111" s="7"/>
@@ -6253,7 +7215,7 @@
       <c r="R111" s="7"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19">
       <c r="A112" s="7"/>
       <c r="B112" s="4"/>
       <c r="C112" s="7"/>
@@ -6274,7 +7236,7 @@
       <c r="R112" s="7"/>
       <c r="S112" s="4"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19">
       <c r="A113" s="7"/>
       <c r="B113" s="4"/>
       <c r="C113" s="7"/>
@@ -6295,7 +7257,7 @@
       <c r="R113" s="7"/>
       <c r="S113" s="4"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19">
       <c r="A114" s="7"/>
       <c r="B114" s="4"/>
       <c r="C114" s="7"/>
@@ -6316,7 +7278,7 @@
       <c r="R114" s="7"/>
       <c r="S114" s="4"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19">
       <c r="A115" s="7"/>
       <c r="B115" s="4"/>
       <c r="C115" s="7"/>
@@ -6337,7 +7299,7 @@
       <c r="R115" s="7"/>
       <c r="S115" s="4"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19">
       <c r="A116" s="7"/>
       <c r="B116" s="4"/>
       <c r="C116" s="7"/>
@@ -6358,7 +7320,7 @@
       <c r="R116" s="7"/>
       <c r="S116" s="4"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19">
       <c r="A117" s="7"/>
       <c r="B117" s="4"/>
       <c r="C117" s="7"/>
@@ -6379,7 +7341,7 @@
       <c r="R117" s="7"/>
       <c r="S117" s="4"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19">
       <c r="A118" s="7"/>
       <c r="B118" s="4"/>
       <c r="C118" s="7"/>
@@ -6397,7 +7359,7 @@
       <c r="O118" s="4"/>
       <c r="S118" s="4"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19">
       <c r="A119" s="7"/>
       <c r="B119" s="4"/>
       <c r="C119" s="7"/>
@@ -6415,7 +7377,7 @@
       <c r="O119" s="4"/>
       <c r="S119" s="4"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19">
       <c r="A120" s="7"/>
       <c r="B120" s="4"/>
       <c r="C120" s="7"/>
@@ -6433,7 +7395,7 @@
       <c r="O120" s="4"/>
       <c r="S120" s="4"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19">
       <c r="A121" s="7"/>
       <c r="B121" s="4"/>
       <c r="C121" s="7"/>
@@ -6451,7 +7413,7 @@
       <c r="O121" s="4"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19">
       <c r="A122" s="7"/>
       <c r="B122" s="4"/>
       <c r="C122" s="7"/>
@@ -6469,7 +7431,7 @@
       <c r="O122" s="4"/>
       <c r="S122" s="4"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19">
       <c r="A123" s="7"/>
       <c r="B123" s="4"/>
       <c r="C123" s="7"/>
@@ -6487,7 +7449,7 @@
       <c r="O123" s="4"/>
       <c r="S123" s="4"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19">
       <c r="A124" s="7"/>
       <c r="B124" s="4"/>
       <c r="C124" s="7"/>
@@ -6505,7 +7467,7 @@
       <c r="O124" s="4"/>
       <c r="S124" s="4"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19">
       <c r="A125" s="7"/>
       <c r="B125" s="4"/>
       <c r="C125" s="7"/>
@@ -6523,7 +7485,7 @@
       <c r="O125" s="4"/>
       <c r="S125" s="4"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19">
       <c r="A126" s="7"/>
       <c r="B126" s="4"/>
       <c r="C126" s="7"/>
@@ -6541,7 +7503,7 @@
       <c r="O126" s="4"/>
       <c r="S126" s="4"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19">
       <c r="A127" s="7"/>
       <c r="B127" s="4"/>
       <c r="C127" s="7"/>
@@ -6559,7 +7521,7 @@
       <c r="O127" s="4"/>
       <c r="S127" s="4"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19">
       <c r="A128" s="7"/>
       <c r="B128" s="4"/>
       <c r="C128" s="7"/>
@@ -6577,7 +7539,7 @@
       <c r="O128" s="4"/>
       <c r="S128" s="4"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19">
       <c r="A129" s="7"/>
       <c r="B129" s="4"/>
       <c r="C129" s="7"/>
@@ -6595,7 +7557,7 @@
       <c r="O129" s="4"/>
       <c r="S129" s="4"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19">
       <c r="A130" s="7"/>
       <c r="B130" s="4"/>
       <c r="C130" s="7"/>
@@ -6613,7 +7575,7 @@
       <c r="O130" s="4"/>
       <c r="S130" s="4"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19">
       <c r="A131" s="7"/>
       <c r="B131" s="4"/>
       <c r="C131" s="7"/>
@@ -6631,7 +7593,7 @@
       <c r="O131" s="4"/>
       <c r="S131" s="4"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19">
       <c r="A132" s="7"/>
       <c r="B132" s="4"/>
       <c r="C132" s="7"/>
@@ -6649,7 +7611,7 @@
       <c r="O132" s="4"/>
       <c r="S132" s="4"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19">
       <c r="A133" s="7"/>
       <c r="B133" s="4"/>
       <c r="C133" s="7"/>
@@ -6667,7 +7629,7 @@
       <c r="O133" s="4"/>
       <c r="S133" s="4"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19">
       <c r="A134" s="7"/>
       <c r="B134" s="4"/>
       <c r="C134" s="7"/>
@@ -6685,7 +7647,7 @@
       <c r="O134" s="4"/>
       <c r="S134" s="4"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19">
       <c r="A135" s="7"/>
       <c r="B135" s="4"/>
       <c r="C135" s="7"/>
@@ -6703,7 +7665,7 @@
       <c r="O135" s="4"/>
       <c r="S135" s="4"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19">
       <c r="A136" s="7"/>
       <c r="B136" s="4"/>
       <c r="C136" s="7"/>
@@ -6721,7 +7683,7 @@
       <c r="O136" s="4"/>
       <c r="S136" s="4"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19">
       <c r="A137" s="7"/>
       <c r="B137" s="4"/>
       <c r="C137" s="7"/>
@@ -6739,7 +7701,7 @@
       <c r="O137" s="4"/>
       <c r="S137" s="4"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19">
       <c r="A138" s="7"/>
       <c r="B138" s="4"/>
       <c r="C138" s="7"/>
@@ -6757,7 +7719,7 @@
       <c r="O138" s="4"/>
       <c r="S138" s="4"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19">
       <c r="A139" s="7"/>
       <c r="B139" s="4"/>
       <c r="C139" s="7"/>
@@ -6775,7 +7737,7 @@
       <c r="O139" s="4"/>
       <c r="S139" s="4"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19">
       <c r="A140" s="7"/>
       <c r="B140" s="4"/>
       <c r="C140" s="7"/>
@@ -6793,7 +7755,7 @@
       <c r="O140" s="4"/>
       <c r="S140" s="4"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19">
       <c r="A141" s="7"/>
       <c r="B141" s="4"/>
       <c r="C141" s="7"/>
@@ -6811,7 +7773,7 @@
       <c r="O141" s="4"/>
       <c r="S141" s="4"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19">
       <c r="A142" s="7"/>
       <c r="B142" s="4"/>
       <c r="C142" s="7"/>
@@ -6829,7 +7791,7 @@
       <c r="O142" s="4"/>
       <c r="S142" s="4"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19">
       <c r="A143" s="7"/>
       <c r="B143" s="4"/>
       <c r="C143" s="7"/>
@@ -6847,7 +7809,7 @@
       <c r="O143" s="4"/>
       <c r="S143" s="4"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19">
       <c r="A144" s="7"/>
       <c r="B144" s="4"/>
       <c r="C144" s="7"/>
@@ -6865,7 +7827,7 @@
       <c r="O144" s="4"/>
       <c r="S144" s="4"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19">
       <c r="A145" s="7"/>
       <c r="B145" s="4"/>
       <c r="C145" s="7"/>
@@ -6883,7 +7845,7 @@
       <c r="O145" s="4"/>
       <c r="S145" s="4"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19">
       <c r="A146" s="7"/>
       <c r="B146" s="4"/>
       <c r="C146" s="7"/>
@@ -6901,7 +7863,7 @@
       <c r="O146" s="4"/>
       <c r="S146" s="4"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19">
       <c r="A147" s="7"/>
       <c r="B147" s="4"/>
       <c r="C147" s="7"/>
@@ -6919,7 +7881,7 @@
       <c r="O147" s="4"/>
       <c r="S147" s="4"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19">
       <c r="A148" s="7"/>
       <c r="B148" s="4"/>
       <c r="C148" s="7"/>
@@ -6937,7 +7899,7 @@
       <c r="O148" s="4"/>
       <c r="S148" s="4"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19">
       <c r="A149" s="7"/>
       <c r="B149" s="4"/>
       <c r="C149" s="7"/>
@@ -6955,7 +7917,7 @@
       <c r="O149" s="4"/>
       <c r="S149" s="4"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19">
       <c r="A150" s="7"/>
       <c r="B150" s="4"/>
       <c r="C150" s="7"/>
@@ -6973,7 +7935,7 @@
       <c r="O150" s="4"/>
       <c r="S150" s="4"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19">
       <c r="A151" s="7"/>
       <c r="B151" s="4"/>
       <c r="C151" s="7"/>
@@ -6991,7 +7953,7 @@
       <c r="O151" s="4"/>
       <c r="S151" s="4"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:19">
       <c r="A152" s="7"/>
       <c r="B152" s="4"/>
       <c r="C152" s="7"/>
@@ -7017,14 +7979,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
@@ -7032,7 +7994,7 @@
     <col min="4" max="13" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="64" t="s">
         <v>24</v>
       </c>
@@ -7049,7 +8011,7 @@
       <c r="L1" s="64"/>
       <c r="M1" s="65"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="66"/>
       <c r="B2" s="66"/>
       <c r="C2" s="66"/>
@@ -7064,7 +8026,7 @@
       <c r="L2" s="66"/>
       <c r="M2" s="67"/>
     </row>
-    <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
@@ -7099,131 +8061,131 @@
         <v>31</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="20" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="20" customFormat="1" ht="68.25" customHeight="1">
       <c r="A4" s="22">
         <v>1</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="M4" s="24"/>
     </row>
-    <row r="5" spans="1:13" s="20" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="20" customFormat="1" ht="148.5">
       <c r="A5" s="22">
         <v>2</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="F5" s="48" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="I5" s="48" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="J5" s="48" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="K5" s="48" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="L5" s="48" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="M5" s="48" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="20" customFormat="1" ht="280.5" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="20" customFormat="1" ht="280.5">
       <c r="A6" s="22">
         <v>3</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="F6" s="48" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="I6" s="48" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="J6" s="48" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="K6" s="48" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="L6" s="48" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="M6" s="49" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -7247,14 +8209,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="8.125" style="26" customWidth="1"/>
@@ -8090,7 +9052,7 @@
     <col min="16141" max="16141" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="64" t="s">
         <v>24</v>
       </c>
@@ -8107,7 +9069,7 @@
       <c r="L1" s="64"/>
       <c r="M1" s="65"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="66"/>
       <c r="B2" s="66"/>
       <c r="C2" s="66"/>
@@ -8122,7 +9084,7 @@
       <c r="L2" s="66"/>
       <c r="M2" s="67"/>
     </row>
-    <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
@@ -8163,165 +9125,165 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="20" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="20" customFormat="1" ht="68.25" customHeight="1">
       <c r="A4" s="22">
         <v>1</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>35</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="M4" s="24"/>
     </row>
-    <row r="5" spans="1:13" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="20" customFormat="1" ht="39.75" customHeight="1">
       <c r="A5" s="22">
         <v>2</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="M5" s="22"/>
     </row>
-    <row r="6" spans="1:13" s="20" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="20" customFormat="1" ht="33">
       <c r="A6" s="22">
         <v>3</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="F6" s="48" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="I6" s="48" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="J6" s="48" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="K6" s="48" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="L6" s="48" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="M6" s="48" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="20" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="20" customFormat="1" ht="66">
       <c r="A7" s="22">
         <v>4</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="F7" s="48" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="G7" s="49" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="I7" s="48" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="J7" s="48" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="K7" s="48" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="L7" s="48" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="M7" s="49" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -8336,7 +9298,7 @@
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
     </row>
-    <row r="9" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -8351,7 +9313,7 @@
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
     </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -8366,7 +9328,7 @@
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
     </row>
-    <row r="11" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -8402,14 +9364,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="26" customWidth="1"/>
@@ -9245,7 +10207,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="64" t="s">
         <v>24</v>
       </c>
@@ -9262,7 +10224,7 @@
       <c r="L1" s="64"/>
       <c r="M1" s="65"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="66"/>
       <c r="B2" s="66"/>
       <c r="C2" s="66"/>
@@ -9277,7 +10239,7 @@
       <c r="L2" s="66"/>
       <c r="M2" s="67"/>
     </row>
-    <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
@@ -9312,52 +10274,52 @@
         <v>31</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="20" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="20" customFormat="1" ht="68.25" customHeight="1">
       <c r="A4" s="22">
         <v>1</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="M4" s="24"/>
     </row>
-    <row r="5" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -9372,7 +10334,7 @@
       <c r="L5" s="22"/>
       <c r="M5" s="24"/>
     </row>
-    <row r="6" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -9387,7 +10349,7 @@
       <c r="L6" s="22"/>
       <c r="M6" s="24"/>
     </row>
-    <row r="7" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -9402,7 +10364,7 @@
       <c r="L7" s="22"/>
       <c r="M7" s="22"/>
     </row>
-    <row r="8" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -9417,7 +10379,7 @@
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
     </row>
-    <row r="9" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -9432,7 +10394,7 @@
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
     </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -9447,7 +10409,7 @@
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
     </row>
-    <row r="11" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -9462,7 +10424,7 @@
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
     </row>
-    <row r="12" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -9477,7 +10439,7 @@
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
     </row>
-    <row r="13" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -9513,14 +10475,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="6" width="11.125" customWidth="1"/>
     <col min="7" max="7" width="34.75" customWidth="1"/>
@@ -9532,9 +10494,9 @@
     <col min="13" max="13" width="34.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="68" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
@@ -9549,7 +10511,7 @@
       <c r="L1" s="68"/>
       <c r="M1" s="69"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="70"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -9564,130 +10526,130 @@
       <c r="L2" s="70"/>
       <c r="M2" s="71"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="52" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="G3" s="52" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="H3" s="52" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="I3" s="52" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="J3" s="52" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="K3" s="52" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="L3" s="52" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="M3" s="53" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="97.5" customHeight="1">
       <c r="A4" s="48">
         <v>1</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="F4" s="48" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="I4" s="48" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="J4" s="48" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="K4" s="48" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="L4" s="48" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="M4" s="48" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="168.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="168.75" customHeight="1">
       <c r="A5" s="48">
         <v>2</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="F5" s="48" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="G5" s="49" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="H5" s="48" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="I5" s="48" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="J5" s="48" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="K5" s="48" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="L5" s="48" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="M5" s="49" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="23.25" customHeight="1">
       <c r="A6" s="48"/>
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>

--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.0.2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="3285" windowWidth="25125" windowHeight="11760"/>
   </bookViews>
@@ -13,7 +18,7 @@
     <sheet name="(公测)需要修改的配置文件" sheetId="6" r:id="rId4"/>
     <sheet name="(测试)需要修改的配置文件" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="299">
   <si>
     <t>No</t>
   </si>
@@ -821,23 +826,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>sysconfig.weixin.weixinhuoBanAppID=wx730bca9476310d91
-sysconfig.weixin.weixinhuoBanAppSecret=d4624c36b6795d1d99dcf0547af5443d</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>蘑菇伙伴微信公众号</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>jdbc.properties</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>jdbc.driverClassName_repo=com.mysql.jdbc.Driver
-jdbc.url_repo=jdbc\:mysql\://192.168.12.188\:3306/mogo_dev?useUnicode\=true&amp;amp;characterEncoding\=UTF-8
-jdbc.username_repo=EC985EB3E9D6A6CCBB537518ECDCD57C
-jdbc.password_repo=DDA989A60555874C2D40B52948A38959</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1227,6 +1220,82 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>BS功能新增、变更</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩、傅其亮、钱文博</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>貔貅优化（退房账单收款、两列表优化）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>账务</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>王向阳、蔡银军、孙苏文</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>貔貅Bug修改</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysconfig.weixin.weixinhuoBanAppID=？
+sysconfig.weixin.weixinhuoBanAppSecret=？</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc.driverClassName_repo=？
+jdbc.url_repo=？
+jdbc.username_repo=？
+jdbc.password_repo=？</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysconfig.weixin.weixinhuoBanAppID=？
+sysconfig.weixin.weixinhuoBanAppSecret=？</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境数据库相关配置值需要和DBA确认</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc.driverClassName_repo= ？
+jdbc.url_repo=？
+jdbc.username_repo=？
+jdbc.password_repo=？</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">
 400电话导出优化
 BS系统所有查询切换到从库
@@ -1236,69 +1305,19 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>BS功能新增、变更</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>张浩、傅其亮、钱文博</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>注销租客账号功能
 BS预约单、预定单增加项目
-分散式&amp;集中公寓-公寓详情-中增加日志tab
-BS分散式公寓，集中式房间增加描述的需求
 房东录入时候要判断伙伴账号、联系人手机号不能重复
 城市列表详情页 编辑商圈时需同步更新商圈下的小区
 微信公众号配置</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>貔貅优化（退房账单收款、两列表优化）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Features</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>账务</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>王向阳、蔡银军、孙苏文</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>李傲</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>貔貅Bug修改</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bug</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1842,6 +1861,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1866,18 +1897,6 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1893,74 +1912,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1980,7 +1931,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2300,17 +2251,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B101" sqref="B101"/>
+      <selection pane="bottomRight" activeCell="S94" sqref="S94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="14" customWidth="1"/>
     <col min="2" max="2" width="52.875" style="15" customWidth="1"/>
@@ -2335,7 +2286,7 @@
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2394,49 +2345,49 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="19.5" customHeight="1">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>187</v>
       </c>
       <c r="F2" s="11">
         <v>42633</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H2" s="11">
         <v>42633</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>189</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>191</v>
       </c>
       <c r="N2" s="11">
         <v>42633</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P2" s="30"/>
       <c r="Q2" s="30"/>
@@ -2444,76 +2395,76 @@
       <c r="S2" s="13"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="1:20" ht="16.5">
+    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>187</v>
       </c>
       <c r="F3" s="11">
         <v>42633</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H3" s="11">
         <v>42633</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>36</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N3" s="11">
         <v>42634</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:20" ht="16.5">
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>187</v>
       </c>
       <c r="F4" s="11">
         <v>42633</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H4" s="11">
         <v>42633</v>
@@ -2523,95 +2474,95 @@
         <v>37</v>
       </c>
       <c r="K4" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>189</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>191</v>
       </c>
       <c r="N4" s="11">
         <v>42633</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="49.5">
+    <row r="5" spans="1:20" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>187</v>
       </c>
       <c r="F5" s="11">
         <v>42633</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H5" s="11">
         <v>42633</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K5" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>189</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>191</v>
       </c>
       <c r="N5" s="11">
         <v>42633</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="33">
+    <row r="6" spans="1:20" ht="33" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F6" s="11">
         <v>42633</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H6" s="11">
         <v>42633</v>
@@ -2621,242 +2572,242 @@
         <v>38</v>
       </c>
       <c r="K6" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>189</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>191</v>
       </c>
       <c r="N6" s="11">
         <v>42633</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="33">
+    <row r="7" spans="1:20" ht="33" x14ac:dyDescent="0.15">
       <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>187</v>
       </c>
       <c r="F7" s="11">
         <v>42633</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H7" s="11">
         <v>42633</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K7" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="M7" s="12" t="s">
         <v>189</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>191</v>
       </c>
       <c r="N7" s="11">
         <v>42633</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:20" ht="49.5">
+    <row r="8" spans="1:20" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>7</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F8" s="11">
         <v>42633</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H8" s="11">
         <v>42633</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L8" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="M8" s="12" t="s">
         <v>189</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>191</v>
       </c>
       <c r="N8" s="11">
         <v>42633</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:20" ht="33">
+    <row r="9" spans="1:20" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
         <v>8</v>
       </c>
       <c r="B9" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>203</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>205</v>
       </c>
       <c r="F9" s="11">
         <v>42633</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H9" s="11">
         <v>42633</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="L9" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="M9" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>209</v>
       </c>
       <c r="N9" s="11">
         <v>42633</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:20" ht="33">
+    <row r="10" spans="1:20" ht="33" x14ac:dyDescent="0.15">
       <c r="A10" s="16">
         <v>9</v>
       </c>
       <c r="B10" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>212</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>214</v>
       </c>
       <c r="F10" s="11">
         <v>42633</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H10" s="11">
         <v>42633</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="M10" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="N10" s="11">
+        <v>42634</v>
+      </c>
+      <c r="O10" s="12" t="s">
         <v>217</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="N10" s="11">
-        <v>42634</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>219</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="16">
         <v>10</v>
       </c>
       <c r="B11" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>220</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>222</v>
       </c>
       <c r="F11" s="11">
         <v>42627</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H11" s="11">
         <v>42627</v>
@@ -2872,13 +2823,13 @@
         <v>41</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N11" s="11">
         <v>42634</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -2886,27 +2837,27 @@
       <c r="S11" s="13"/>
       <c r="T11" s="8"/>
     </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="16">
         <v>11</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F12" s="11">
         <v>42627</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H12" s="11">
         <v>42627</v>
@@ -2922,13 +2873,13 @@
         <v>41</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N12" s="11">
         <v>42634</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
@@ -2936,49 +2887,49 @@
       <c r="S12" s="13"/>
       <c r="T12" s="8"/>
     </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="16">
         <v>12</v>
       </c>
       <c r="B13" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="E13" s="10" t="s">
         <v>227</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>229</v>
       </c>
       <c r="F13" s="11">
         <v>42626</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H13" s="11">
         <v>42626</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="L13" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="M13" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="N13" s="11">
+        <v>42634</v>
+      </c>
+      <c r="O13" s="12" t="s">
         <v>232</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="N13" s="11">
-        <v>42634</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>234</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -2986,49 +2937,49 @@
       <c r="S13" s="13"/>
       <c r="T13" s="8"/>
     </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="16">
         <v>13</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>227</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>229</v>
       </c>
       <c r="F14" s="11">
         <v>42631</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H14" s="11">
         <v>42631</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K14" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="M14" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="N14" s="11">
+        <v>42634</v>
+      </c>
+      <c r="O14" s="12" t="s">
         <v>232</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="N14" s="11">
-        <v>42634</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>234</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -3036,49 +2987,49 @@
       <c r="S14" s="13"/>
       <c r="T14" s="8"/>
     </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="16">
         <v>14</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>227</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>229</v>
       </c>
       <c r="F15" s="11">
         <v>42631</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H15" s="11">
         <v>42631</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K15" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="M15" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="N15" s="11">
+        <v>42634</v>
+      </c>
+      <c r="O15" s="12" t="s">
         <v>232</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="N15" s="11">
-        <v>42634</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>234</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -3086,49 +3037,49 @@
       <c r="S15" s="13"/>
       <c r="T15" s="8"/>
     </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="16">
         <v>15</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F16" s="11">
         <v>42631</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H16" s="11">
         <v>42631</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K16" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="M16" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="N16" s="11">
+        <v>42634</v>
+      </c>
+      <c r="O16" s="12" t="s">
         <v>232</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="N16" s="11">
-        <v>42634</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>234</v>
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -3136,49 +3087,49 @@
       <c r="S16" s="13"/>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="16">
         <v>16</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>229</v>
-      </c>
       <c r="F17" s="11">
         <v>42634</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H17" s="11">
         <v>42634</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K17" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="M17" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="N17" s="11">
+        <v>42634</v>
+      </c>
+      <c r="O17" s="12" t="s">
         <v>232</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="N17" s="11">
-        <v>42634</v>
-      </c>
-      <c r="O17" s="12" t="s">
-        <v>234</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -3186,49 +3137,49 @@
       <c r="S17" s="13"/>
       <c r="T17" s="8"/>
     </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="16">
         <v>17</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C18" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>229</v>
-      </c>
       <c r="F18" s="11">
         <v>42634</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H18" s="11">
         <v>42634</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="L18" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="M18" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="L18" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>233</v>
-      </c>
       <c r="N18" s="11">
         <v>42634</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
@@ -3236,7 +3187,7 @@
       <c r="S18" s="13"/>
       <c r="T18" s="8"/>
     </row>
-    <row r="19" spans="1:20" s="37" customFormat="1" ht="16.5">
+    <row r="19" spans="1:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="16">
         <v>18</v>
       </c>
@@ -3286,7 +3237,7 @@
       <c r="S19" s="12"/>
       <c r="T19" s="36"/>
     </row>
-    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="16">
         <v>19</v>
       </c>
@@ -3336,7 +3287,7 @@
       <c r="S20" s="13"/>
       <c r="T20" s="8"/>
     </row>
-    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="16">
         <v>20</v>
       </c>
@@ -3386,7 +3337,7 @@
       <c r="S21" s="13"/>
       <c r="T21" s="8"/>
     </row>
-    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="16">
         <v>21</v>
       </c>
@@ -3436,7 +3387,7 @@
       <c r="S22" s="13"/>
       <c r="T22" s="8"/>
     </row>
-    <row r="23" spans="1:20" s="9" customFormat="1" ht="17.25" customHeight="1">
+    <row r="23" spans="1:20" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="16">
         <v>22</v>
       </c>
@@ -3486,7 +3437,7 @@
       <c r="S23" s="13"/>
       <c r="T23" s="8"/>
     </row>
-    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="16">
         <v>23</v>
       </c>
@@ -3536,7 +3487,7 @@
       <c r="S24" s="13"/>
       <c r="T24" s="8"/>
     </row>
-    <row r="25" spans="1:20" s="43" customFormat="1" ht="16.5">
+    <row r="25" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="16">
         <v>24</v>
       </c>
@@ -3586,7 +3537,7 @@
       <c r="S25" s="41"/>
       <c r="T25" s="42"/>
     </row>
-    <row r="26" spans="1:20" s="43" customFormat="1" ht="16.5">
+    <row r="26" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="16">
         <v>25</v>
       </c>
@@ -3636,7 +3587,7 @@
       <c r="S26" s="41"/>
       <c r="T26" s="42"/>
     </row>
-    <row r="27" spans="1:20" s="43" customFormat="1" ht="16.5">
+    <row r="27" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="16">
         <v>26</v>
       </c>
@@ -3686,7 +3637,7 @@
       <c r="S27" s="41"/>
       <c r="T27" s="42"/>
     </row>
-    <row r="28" spans="1:20" s="43" customFormat="1" ht="16.5">
+    <row r="28" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="16">
         <v>27</v>
       </c>
@@ -3736,7 +3687,7 @@
       <c r="S28" s="41"/>
       <c r="T28" s="42"/>
     </row>
-    <row r="29" spans="1:20" s="43" customFormat="1" ht="16.5">
+    <row r="29" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="16">
         <v>28</v>
       </c>
@@ -3786,7 +3737,7 @@
       <c r="S29" s="41"/>
       <c r="T29" s="42"/>
     </row>
-    <row r="30" spans="1:20" s="43" customFormat="1" ht="18.75" customHeight="1">
+    <row r="30" spans="1:20" s="43" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="16">
         <v>29</v>
       </c>
@@ -3836,7 +3787,7 @@
       <c r="S30" s="41"/>
       <c r="T30" s="42"/>
     </row>
-    <row r="31" spans="1:20" s="43" customFormat="1" ht="16.5">
+    <row r="31" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="16">
         <v>30</v>
       </c>
@@ -3886,7 +3837,7 @@
       <c r="S31" s="41"/>
       <c r="T31" s="42"/>
     </row>
-    <row r="32" spans="1:20" s="43" customFormat="1" ht="33">
+    <row r="32" spans="1:20" s="43" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A32" s="16">
         <v>31</v>
       </c>
@@ -3936,7 +3887,7 @@
       <c r="S32" s="41"/>
       <c r="T32" s="42"/>
     </row>
-    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="16">
         <v>32</v>
       </c>
@@ -3944,19 +3895,19 @@
         <v>77</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F33" s="11">
         <v>42627</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H33" s="11">
         <v>42627</v>
@@ -3976,7 +3927,7 @@
       </c>
       <c r="N33" s="11"/>
       <c r="O33" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
@@ -3984,7 +3935,7 @@
       <c r="S33" s="13"/>
       <c r="T33" s="8"/>
     </row>
-    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="16">
         <v>33</v>
       </c>
@@ -3992,19 +3943,19 @@
         <v>80</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F34" s="11">
         <v>42627</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H34" s="11">
         <v>42627</v>
@@ -4024,7 +3975,7 @@
       </c>
       <c r="N34" s="11"/>
       <c r="O34" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
@@ -4032,7 +3983,7 @@
       <c r="S34" s="13"/>
       <c r="T34" s="8"/>
     </row>
-    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="16">
         <v>34</v>
       </c>
@@ -4040,19 +3991,19 @@
         <v>81</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F35" s="11">
         <v>42627</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H35" s="11">
         <v>42627</v>
@@ -4072,7 +4023,7 @@
       </c>
       <c r="N35" s="11"/>
       <c r="O35" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
@@ -4080,7 +4031,7 @@
       <c r="S35" s="13"/>
       <c r="T35" s="8"/>
     </row>
-    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="16">
         <v>35</v>
       </c>
@@ -4088,19 +4039,19 @@
         <v>83</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F36" s="11">
         <v>42627</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H36" s="11">
         <v>42627</v>
@@ -4120,7 +4071,7 @@
       </c>
       <c r="N36" s="11"/>
       <c r="O36" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
@@ -4128,7 +4079,7 @@
       <c r="S36" s="13"/>
       <c r="T36" s="8"/>
     </row>
-    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="16">
         <v>36</v>
       </c>
@@ -4136,19 +4087,19 @@
         <v>84</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>85</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F37" s="11">
         <v>42627</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H37" s="11">
         <v>42627</v>
@@ -4168,7 +4119,7 @@
       </c>
       <c r="N37" s="11"/>
       <c r="O37" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
@@ -4176,7 +4127,7 @@
       <c r="S37" s="13"/>
       <c r="T37" s="8"/>
     </row>
-    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="16">
         <v>37</v>
       </c>
@@ -4184,19 +4135,19 @@
         <v>86</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F38" s="11">
         <v>42631</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H38" s="11">
         <v>42631</v>
@@ -4216,7 +4167,7 @@
       </c>
       <c r="N38" s="11"/>
       <c r="O38" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
@@ -4224,7 +4175,7 @@
       <c r="S38" s="13"/>
       <c r="T38" s="8"/>
     </row>
-    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="16">
         <v>38</v>
       </c>
@@ -4232,19 +4183,19 @@
         <v>87</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F39" s="11">
         <v>42627</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H39" s="11">
         <v>42627</v>
@@ -4264,7 +4215,7 @@
       </c>
       <c r="N39" s="11"/>
       <c r="O39" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
@@ -4272,37 +4223,37 @@
       <c r="S39" s="13"/>
       <c r="T39" s="8"/>
     </row>
-    <row r="40" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="40" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="16">
         <v>39</v>
       </c>
       <c r="B40" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="72" t="s">
+      <c r="C40" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="D40" s="73" t="s">
+      <c r="D40" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="E40" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" s="74">
+      <c r="E40" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="66">
         <v>42627</v>
       </c>
-      <c r="G40" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="H40" s="74">
+      <c r="G40" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" s="66">
         <v>42627</v>
       </c>
-      <c r="I40" s="73"/>
-      <c r="J40" s="75" t="s">
-        <v>247</v>
-      </c>
-      <c r="K40" s="73" t="s">
-        <v>248</v>
+      <c r="I40" s="65"/>
+      <c r="J40" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="K40" s="65" t="s">
+        <v>246</v>
       </c>
       <c r="L40" s="10" t="s">
         <v>79</v>
@@ -4312,7 +4263,7 @@
       </c>
       <c r="N40" s="11"/>
       <c r="O40" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
@@ -4320,26 +4271,26 @@
       <c r="S40" s="13"/>
       <c r="T40" s="8"/>
     </row>
-    <row r="41" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="41" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="16">
         <v>40</v>
       </c>
       <c r="B41" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="73" t="s">
+      <c r="D41" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="E41" s="73" t="s">
+      <c r="E41" s="65" t="s">
         <v>32</v>
       </c>
       <c r="F41" s="11">
         <v>42633</v>
       </c>
-      <c r="G41" s="73" t="s">
+      <c r="G41" s="65" t="s">
         <v>34</v>
       </c>
       <c r="H41" s="11">
@@ -4360,7 +4311,7 @@
       </c>
       <c r="N41" s="11"/>
       <c r="O41" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
@@ -4368,7 +4319,7 @@
       <c r="S41" s="13"/>
       <c r="T41" s="8"/>
     </row>
-    <row r="42" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="42" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="16">
         <v>41</v>
       </c>
@@ -4376,7 +4327,7 @@
         <v>91</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>92</v>
@@ -4387,7 +4338,7 @@
       <c r="F42" s="11">
         <v>42633</v>
       </c>
-      <c r="G42" s="73" t="s">
+      <c r="G42" s="65" t="s">
         <v>34</v>
       </c>
       <c r="H42" s="11">
@@ -4408,7 +4359,7 @@
       </c>
       <c r="N42" s="11"/>
       <c r="O42" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
@@ -4416,7 +4367,7 @@
       <c r="S42" s="13"/>
       <c r="T42" s="8"/>
     </row>
-    <row r="43" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="43" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="16">
         <v>42</v>
       </c>
@@ -4449,7 +4400,7 @@
         <v>148</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M43" s="12" t="s">
         <v>48</v>
@@ -4466,7 +4417,7 @@
       <c r="S43" s="13"/>
       <c r="T43" s="8"/>
     </row>
-    <row r="44" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="44" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="16">
         <v>43</v>
       </c>
@@ -4499,7 +4450,7 @@
         <v>148</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M44" s="12" t="s">
         <v>48</v>
@@ -4516,7 +4467,7 @@
       <c r="S44" s="13"/>
       <c r="T44" s="8"/>
     </row>
-    <row r="45" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="45" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="16">
         <v>44</v>
       </c>
@@ -4549,7 +4500,7 @@
         <v>148</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M45" s="12" t="s">
         <v>48</v>
@@ -4566,7 +4517,7 @@
       <c r="S45" s="13"/>
       <c r="T45" s="8"/>
     </row>
-    <row r="46" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="46" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="16">
         <v>45</v>
       </c>
@@ -4599,10 +4550,10 @@
         <v>148</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N46" s="11">
         <v>42634</v>
@@ -4616,7 +4567,7 @@
       <c r="S46" s="13"/>
       <c r="T46" s="8"/>
     </row>
-    <row r="47" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="47" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="16">
         <v>46</v>
       </c>
@@ -4649,7 +4600,7 @@
         <v>148</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M47" s="12" t="s">
         <v>48</v>
@@ -4666,7 +4617,7 @@
       <c r="S47" s="13"/>
       <c r="T47" s="8"/>
     </row>
-    <row r="48" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="48" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="16">
         <v>47</v>
       </c>
@@ -4699,7 +4650,7 @@
         <v>148</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M48" s="12" t="s">
         <v>48</v>
@@ -4716,7 +4667,7 @@
       <c r="S48" s="13"/>
       <c r="T48" s="8"/>
     </row>
-    <row r="49" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="49" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A49" s="16">
         <v>48</v>
       </c>
@@ -4749,7 +4700,7 @@
         <v>148</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M49" s="12" t="s">
         <v>48</v>
@@ -4766,7 +4717,7 @@
       <c r="S49" s="13"/>
       <c r="T49" s="8"/>
     </row>
-    <row r="50" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="50" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A50" s="16">
         <v>49</v>
       </c>
@@ -4799,7 +4750,7 @@
         <v>148</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M50" s="12" t="s">
         <v>48</v>
@@ -4816,7 +4767,7 @@
       <c r="S50" s="13"/>
       <c r="T50" s="8"/>
     </row>
-    <row r="51" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="51" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="16">
         <v>50</v>
       </c>
@@ -4849,7 +4800,7 @@
         <v>148</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M51" s="12"/>
       <c r="N51" s="11">
@@ -4864,7 +4815,7 @@
       <c r="S51" s="13"/>
       <c r="T51" s="8"/>
     </row>
-    <row r="52" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="52" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="16">
         <v>51</v>
       </c>
@@ -4897,7 +4848,7 @@
         <v>148</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M52" s="12"/>
       <c r="N52" s="11">
@@ -4912,7 +4863,7 @@
       <c r="S52" s="13"/>
       <c r="T52" s="8"/>
     </row>
-    <row r="53" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="53" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="16">
         <v>52</v>
       </c>
@@ -4945,7 +4896,7 @@
         <v>148</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M53" s="12"/>
       <c r="N53" s="11">
@@ -4960,7 +4911,7 @@
       <c r="S53" s="13"/>
       <c r="T53" s="8"/>
     </row>
-    <row r="54" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="54" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="16">
         <v>53</v>
       </c>
@@ -4993,7 +4944,7 @@
         <v>148</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M54" s="12"/>
       <c r="N54" s="11">
@@ -5008,7 +4959,7 @@
       <c r="S54" s="13"/>
       <c r="T54" s="8"/>
     </row>
-    <row r="55" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="55" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="16">
         <v>54</v>
       </c>
@@ -5041,7 +4992,7 @@
         <v>148</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M55" s="12"/>
       <c r="N55" s="11">
@@ -5056,7 +5007,7 @@
       <c r="S55" s="13"/>
       <c r="T55" s="8"/>
     </row>
-    <row r="56" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="56" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="16">
         <v>55</v>
       </c>
@@ -5089,7 +5040,7 @@
         <v>148</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M56" s="12"/>
       <c r="N56" s="11">
@@ -5104,7 +5055,7 @@
       <c r="S56" s="13"/>
       <c r="T56" s="8"/>
     </row>
-    <row r="57" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="57" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="16">
         <v>56</v>
       </c>
@@ -5137,7 +5088,7 @@
         <v>148</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M57" s="12"/>
       <c r="N57" s="11">
@@ -5152,7 +5103,7 @@
       <c r="S57" s="13"/>
       <c r="T57" s="8"/>
     </row>
-    <row r="58" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="58" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A58" s="16">
         <v>57</v>
       </c>
@@ -5185,7 +5136,7 @@
         <v>148</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M58" s="12"/>
       <c r="N58" s="11">
@@ -5200,7 +5151,7 @@
       <c r="S58" s="13"/>
       <c r="T58" s="8"/>
     </row>
-    <row r="59" spans="1:20" s="9" customFormat="1" ht="36">
+    <row r="59" spans="1:20" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A59" s="16">
         <v>58</v>
       </c>
@@ -5233,7 +5184,7 @@
         <v>148</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M59" s="12"/>
       <c r="N59" s="11">
@@ -5248,7 +5199,7 @@
       <c r="S59" s="13"/>
       <c r="T59" s="8"/>
     </row>
-    <row r="60" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="60" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="16">
         <v>59</v>
       </c>
@@ -5281,7 +5232,7 @@
         <v>148</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M60" s="12"/>
       <c r="N60" s="11">
@@ -5296,7 +5247,7 @@
       <c r="S60" s="13"/>
       <c r="T60" s="8"/>
     </row>
-    <row r="61" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="61" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="16">
         <v>60</v>
       </c>
@@ -5329,7 +5280,7 @@
         <v>148</v>
       </c>
       <c r="L61" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M61" s="12"/>
       <c r="N61" s="11">
@@ -5344,7 +5295,7 @@
       <c r="S61" s="13"/>
       <c r="T61" s="8"/>
     </row>
-    <row r="62" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="62" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="16">
         <v>61</v>
       </c>
@@ -5377,7 +5328,7 @@
         <v>148</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M62" s="12"/>
       <c r="N62" s="11">
@@ -5392,12 +5343,12 @@
       <c r="S62" s="13"/>
       <c r="T62" s="8"/>
     </row>
-    <row r="63" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="63" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A63" s="16">
         <v>62</v>
       </c>
       <c r="B63" s="60" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>60</v>
@@ -5436,12 +5387,12 @@
       <c r="S63" s="13"/>
       <c r="T63" s="8"/>
     </row>
-    <row r="64" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="64" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="16">
         <v>63</v>
       </c>
       <c r="B64" s="60" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>60</v>
@@ -5480,12 +5431,12 @@
       <c r="S64" s="13"/>
       <c r="T64" s="8"/>
     </row>
-    <row r="65" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="65" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="16">
         <v>64</v>
       </c>
       <c r="B65" s="60" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>60</v>
@@ -5524,12 +5475,12 @@
       <c r="S65" s="13"/>
       <c r="T65" s="8"/>
     </row>
-    <row r="66" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="66" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="16">
         <v>65</v>
       </c>
       <c r="B66" s="60" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>60</v>
@@ -5568,12 +5519,12 @@
       <c r="S66" s="13"/>
       <c r="T66" s="8"/>
     </row>
-    <row r="67" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="67" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A67" s="16">
         <v>66</v>
       </c>
       <c r="B67" s="60" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>60</v>
@@ -5612,12 +5563,12 @@
       <c r="S67" s="13"/>
       <c r="T67" s="8"/>
     </row>
-    <row r="68" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="68" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A68" s="16">
         <v>67</v>
       </c>
       <c r="B68" s="60" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>60</v>
@@ -5656,12 +5607,12 @@
       <c r="S68" s="13"/>
       <c r="T68" s="8"/>
     </row>
-    <row r="69" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="69" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A69" s="16">
         <v>68</v>
       </c>
       <c r="B69" s="60" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>60</v>
@@ -5700,12 +5651,12 @@
       <c r="S69" s="13"/>
       <c r="T69" s="8"/>
     </row>
-    <row r="70" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="70" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A70" s="16">
         <v>69</v>
       </c>
       <c r="B70" s="60" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>60</v>
@@ -5744,12 +5695,12 @@
       <c r="S70" s="13"/>
       <c r="T70" s="8"/>
     </row>
-    <row r="71" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="71" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A71" s="16">
         <v>70</v>
       </c>
       <c r="B71" s="60" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>60</v>
@@ -5788,12 +5739,12 @@
       <c r="S71" s="13"/>
       <c r="T71" s="8"/>
     </row>
-    <row r="72" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="72" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="16">
         <v>71</v>
       </c>
       <c r="B72" s="60" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>60</v>
@@ -5832,12 +5783,12 @@
       <c r="S72" s="13"/>
       <c r="T72" s="8"/>
     </row>
-    <row r="73" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="73" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="16">
         <v>72</v>
       </c>
       <c r="B73" s="60" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>60</v>
@@ -5876,12 +5827,12 @@
       <c r="S73" s="13"/>
       <c r="T73" s="8"/>
     </row>
-    <row r="74" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="74" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A74" s="16">
         <v>73</v>
       </c>
       <c r="B74" s="60" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>60</v>
@@ -5920,12 +5871,12 @@
       <c r="S74" s="13"/>
       <c r="T74" s="8"/>
     </row>
-    <row r="75" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="75" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="16">
         <v>74</v>
       </c>
       <c r="B75" s="60" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>60</v>
@@ -5964,12 +5915,12 @@
       <c r="S75" s="13"/>
       <c r="T75" s="8"/>
     </row>
-    <row r="76" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="76" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A76" s="16">
         <v>75</v>
       </c>
       <c r="B76" s="60" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>60</v>
@@ -6008,12 +5959,12 @@
       <c r="S76" s="13"/>
       <c r="T76" s="8"/>
     </row>
-    <row r="77" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="77" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="16">
         <v>76</v>
       </c>
       <c r="B77" s="60" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>60</v>
@@ -6052,12 +6003,12 @@
       <c r="S77" s="13"/>
       <c r="T77" s="8"/>
     </row>
-    <row r="78" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="78" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A78" s="16">
         <v>77</v>
       </c>
       <c r="B78" s="60" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>60</v>
@@ -6096,12 +6047,12 @@
       <c r="S78" s="13"/>
       <c r="T78" s="8"/>
     </row>
-    <row r="79" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="79" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A79" s="16">
         <v>78</v>
       </c>
       <c r="B79" s="60" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>60</v>
@@ -6140,12 +6091,12 @@
       <c r="S79" s="13"/>
       <c r="T79" s="8"/>
     </row>
-    <row r="80" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="80" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="16">
         <v>79</v>
       </c>
       <c r="B80" s="60" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>60</v>
@@ -6184,12 +6135,12 @@
       <c r="S80" s="13"/>
       <c r="T80" s="8"/>
     </row>
-    <row r="81" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="81" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A81" s="16">
         <v>80</v>
       </c>
       <c r="B81" s="60" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>60</v>
@@ -6228,12 +6179,12 @@
       <c r="S81" s="13"/>
       <c r="T81" s="8"/>
     </row>
-    <row r="82" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="82" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A82" s="16">
         <v>81</v>
       </c>
       <c r="B82" s="60" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>60</v>
@@ -6272,12 +6223,12 @@
       <c r="S82" s="13"/>
       <c r="T82" s="8"/>
     </row>
-    <row r="83" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="83" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A83" s="16">
         <v>82</v>
       </c>
       <c r="B83" s="60" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>60</v>
@@ -6316,12 +6267,12 @@
       <c r="S83" s="13"/>
       <c r="T83" s="8"/>
     </row>
-    <row r="84" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="84" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A84" s="16">
         <v>83</v>
       </c>
       <c r="B84" s="60" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>60</v>
@@ -6360,12 +6311,12 @@
       <c r="S84" s="13"/>
       <c r="T84" s="8"/>
     </row>
-    <row r="85" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="85" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A85" s="16">
         <v>84</v>
       </c>
       <c r="B85" s="60" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>60</v>
@@ -6404,12 +6355,12 @@
       <c r="S85" s="13"/>
       <c r="T85" s="8"/>
     </row>
-    <row r="86" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="86" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A86" s="16">
         <v>85</v>
       </c>
       <c r="B86" s="60" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>60</v>
@@ -6448,12 +6399,12 @@
       <c r="S86" s="13"/>
       <c r="T86" s="8"/>
     </row>
-    <row r="87" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="87" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A87" s="16">
         <v>86</v>
       </c>
       <c r="B87" s="60" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>60</v>
@@ -6492,12 +6443,12 @@
       <c r="S87" s="13"/>
       <c r="T87" s="8"/>
     </row>
-    <row r="88" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="88" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A88" s="16">
         <v>87</v>
       </c>
       <c r="B88" s="60" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>60</v>
@@ -6536,12 +6487,12 @@
       <c r="S88" s="13"/>
       <c r="T88" s="8"/>
     </row>
-    <row r="89" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="89" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A89" s="16">
         <v>88</v>
       </c>
       <c r="B89" s="60" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C89" s="10" t="s">
         <v>60</v>
@@ -6580,7 +6531,7 @@
       <c r="S89" s="13"/>
       <c r="T89" s="8"/>
     </row>
-    <row r="90" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="90" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A90" s="16">
         <v>89</v>
       </c>
@@ -6613,7 +6564,7 @@
         <v>148</v>
       </c>
       <c r="L90" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M90" s="12" t="s">
         <v>48</v>
@@ -6628,7 +6579,7 @@
       <c r="S90" s="13"/>
       <c r="T90" s="8"/>
     </row>
-    <row r="91" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="91" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="16">
         <v>90</v>
       </c>
@@ -6661,7 +6612,7 @@
         <v>148</v>
       </c>
       <c r="L91" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M91" s="12" t="s">
         <v>48</v>
@@ -6676,12 +6627,12 @@
       <c r="S91" s="13"/>
       <c r="T91" s="8"/>
     </row>
-    <row r="92" spans="1:20" s="9" customFormat="1" ht="33">
+    <row r="92" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A92" s="16">
         <v>91</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>60</v>
@@ -6709,7 +6660,7 @@
         <v>148</v>
       </c>
       <c r="L92" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M92" s="12" t="s">
         <v>48</v>
@@ -6724,37 +6675,37 @@
       <c r="S92" s="13"/>
       <c r="T92" s="8"/>
     </row>
-    <row r="93" spans="1:20" s="37" customFormat="1" ht="27" customHeight="1">
+    <row r="93" spans="1:20" s="37" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="16">
         <v>92</v>
       </c>
       <c r="B93" s="32" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F93" s="11">
         <v>42625</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H93" s="11">
         <v>42634</v>
       </c>
       <c r="I93" s="10"/>
       <c r="J93" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K93" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L93" s="10"/>
       <c r="M93" s="12"/>
@@ -6764,41 +6715,41 @@
       <c r="Q93" s="30"/>
       <c r="R93" s="30"/>
       <c r="S93" s="47" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="T93" s="36"/>
     </row>
-    <row r="94" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1">
+    <row r="94" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="16">
         <v>93</v>
       </c>
       <c r="B94" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="E94" s="10" t="s">
         <v>283</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>286</v>
       </c>
       <c r="F94" s="11">
         <v>42625</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H94" s="11">
         <v>42634</v>
       </c>
       <c r="I94" s="10"/>
       <c r="J94" s="12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K94" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L94" s="12"/>
       <c r="M94" s="12"/>
@@ -6808,44 +6759,44 @@
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
       <c r="S94" s="47" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="T94" s="8"/>
     </row>
-    <row r="95" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1">
+    <row r="95" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="16">
         <v>94</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F95" s="11">
         <v>42629</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H95" s="11">
         <v>42634</v>
       </c>
       <c r="I95" s="10"/>
       <c r="J95" s="12" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K95" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L95" s="10" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M95" s="12"/>
       <c r="N95" s="11"/>
@@ -6856,40 +6807,40 @@
       <c r="S95" s="13"/>
       <c r="T95" s="8"/>
     </row>
-    <row r="96" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1">
+    <row r="96" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="16">
         <v>95</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F96" s="11">
         <v>42630</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H96" s="11">
         <v>42635</v>
       </c>
       <c r="I96" s="10"/>
       <c r="J96" s="12" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L96" s="10" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M96" s="12"/>
       <c r="N96" s="11"/>
@@ -6900,7 +6851,7 @@
       <c r="S96" s="13"/>
       <c r="T96" s="8"/>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A97" s="7"/>
       <c r="B97" s="4"/>
       <c r="C97" s="7"/>
@@ -6921,7 +6872,7 @@
       <c r="R97" s="7"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A98" s="7"/>
       <c r="B98" s="4"/>
       <c r="C98" s="7"/>
@@ -6942,7 +6893,7 @@
       <c r="R98" s="7"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A99" s="7"/>
       <c r="B99" s="4"/>
       <c r="C99" s="7"/>
@@ -6963,7 +6914,7 @@
       <c r="R99" s="7"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A100" s="7"/>
       <c r="B100" s="4"/>
       <c r="C100" s="7"/>
@@ -6984,7 +6935,7 @@
       <c r="R100" s="7"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A101" s="7"/>
       <c r="B101" s="4"/>
       <c r="C101" s="7"/>
@@ -7005,7 +6956,7 @@
       <c r="R101" s="7"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A102" s="7"/>
       <c r="B102" s="4"/>
       <c r="C102" s="7"/>
@@ -7026,7 +6977,7 @@
       <c r="R102" s="7"/>
       <c r="S102" s="4"/>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A103" s="7"/>
       <c r="B103" s="4"/>
       <c r="C103" s="7"/>
@@ -7047,7 +6998,7 @@
       <c r="R103" s="7"/>
       <c r="S103" s="4"/>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A104" s="7"/>
       <c r="B104" s="4"/>
       <c r="C104" s="7"/>
@@ -7068,7 +7019,7 @@
       <c r="R104" s="7"/>
       <c r="S104" s="4"/>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A105" s="7"/>
       <c r="B105" s="4"/>
       <c r="C105" s="7"/>
@@ -7089,7 +7040,7 @@
       <c r="R105" s="7"/>
       <c r="S105" s="4"/>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A106" s="7"/>
       <c r="B106" s="4"/>
       <c r="C106" s="7"/>
@@ -7110,7 +7061,7 @@
       <c r="R106" s="7"/>
       <c r="S106" s="4"/>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A107" s="7"/>
       <c r="B107" s="4"/>
       <c r="C107" s="7"/>
@@ -7131,7 +7082,7 @@
       <c r="R107" s="7"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A108" s="7"/>
       <c r="B108" s="4"/>
       <c r="C108" s="7"/>
@@ -7152,7 +7103,7 @@
       <c r="R108" s="7"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A109" s="7"/>
       <c r="B109" s="4"/>
       <c r="C109" s="7"/>
@@ -7173,7 +7124,7 @@
       <c r="R109" s="7"/>
       <c r="S109" s="4"/>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A110" s="7"/>
       <c r="B110" s="4"/>
       <c r="C110" s="7"/>
@@ -7194,7 +7145,7 @@
       <c r="R110" s="7"/>
       <c r="S110" s="4"/>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A111" s="7"/>
       <c r="B111" s="4"/>
       <c r="C111" s="7"/>
@@ -7215,7 +7166,7 @@
       <c r="R111" s="7"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A112" s="7"/>
       <c r="B112" s="4"/>
       <c r="C112" s="7"/>
@@ -7236,7 +7187,7 @@
       <c r="R112" s="7"/>
       <c r="S112" s="4"/>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A113" s="7"/>
       <c r="B113" s="4"/>
       <c r="C113" s="7"/>
@@ -7257,7 +7208,7 @@
       <c r="R113" s="7"/>
       <c r="S113" s="4"/>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A114" s="7"/>
       <c r="B114" s="4"/>
       <c r="C114" s="7"/>
@@ -7278,7 +7229,7 @@
       <c r="R114" s="7"/>
       <c r="S114" s="4"/>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A115" s="7"/>
       <c r="B115" s="4"/>
       <c r="C115" s="7"/>
@@ -7299,7 +7250,7 @@
       <c r="R115" s="7"/>
       <c r="S115" s="4"/>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A116" s="7"/>
       <c r="B116" s="4"/>
       <c r="C116" s="7"/>
@@ -7320,7 +7271,7 @@
       <c r="R116" s="7"/>
       <c r="S116" s="4"/>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A117" s="7"/>
       <c r="B117" s="4"/>
       <c r="C117" s="7"/>
@@ -7341,7 +7292,7 @@
       <c r="R117" s="7"/>
       <c r="S117" s="4"/>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A118" s="7"/>
       <c r="B118" s="4"/>
       <c r="C118" s="7"/>
@@ -7359,7 +7310,7 @@
       <c r="O118" s="4"/>
       <c r="S118" s="4"/>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A119" s="7"/>
       <c r="B119" s="4"/>
       <c r="C119" s="7"/>
@@ -7377,7 +7328,7 @@
       <c r="O119" s="4"/>
       <c r="S119" s="4"/>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A120" s="7"/>
       <c r="B120" s="4"/>
       <c r="C120" s="7"/>
@@ -7395,7 +7346,7 @@
       <c r="O120" s="4"/>
       <c r="S120" s="4"/>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A121" s="7"/>
       <c r="B121" s="4"/>
       <c r="C121" s="7"/>
@@ -7413,7 +7364,7 @@
       <c r="O121" s="4"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A122" s="7"/>
       <c r="B122" s="4"/>
       <c r="C122" s="7"/>
@@ -7431,7 +7382,7 @@
       <c r="O122" s="4"/>
       <c r="S122" s="4"/>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A123" s="7"/>
       <c r="B123" s="4"/>
       <c r="C123" s="7"/>
@@ -7449,7 +7400,7 @@
       <c r="O123" s="4"/>
       <c r="S123" s="4"/>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A124" s="7"/>
       <c r="B124" s="4"/>
       <c r="C124" s="7"/>
@@ -7467,7 +7418,7 @@
       <c r="O124" s="4"/>
       <c r="S124" s="4"/>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A125" s="7"/>
       <c r="B125" s="4"/>
       <c r="C125" s="7"/>
@@ -7485,7 +7436,7 @@
       <c r="O125" s="4"/>
       <c r="S125" s="4"/>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A126" s="7"/>
       <c r="B126" s="4"/>
       <c r="C126" s="7"/>
@@ -7503,7 +7454,7 @@
       <c r="O126" s="4"/>
       <c r="S126" s="4"/>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A127" s="7"/>
       <c r="B127" s="4"/>
       <c r="C127" s="7"/>
@@ -7521,7 +7472,7 @@
       <c r="O127" s="4"/>
       <c r="S127" s="4"/>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A128" s="7"/>
       <c r="B128" s="4"/>
       <c r="C128" s="7"/>
@@ -7539,7 +7490,7 @@
       <c r="O128" s="4"/>
       <c r="S128" s="4"/>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A129" s="7"/>
       <c r="B129" s="4"/>
       <c r="C129" s="7"/>
@@ -7557,7 +7508,7 @@
       <c r="O129" s="4"/>
       <c r="S129" s="4"/>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A130" s="7"/>
       <c r="B130" s="4"/>
       <c r="C130" s="7"/>
@@ -7575,7 +7526,7 @@
       <c r="O130" s="4"/>
       <c r="S130" s="4"/>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A131" s="7"/>
       <c r="B131" s="4"/>
       <c r="C131" s="7"/>
@@ -7593,7 +7544,7 @@
       <c r="O131" s="4"/>
       <c r="S131" s="4"/>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A132" s="7"/>
       <c r="B132" s="4"/>
       <c r="C132" s="7"/>
@@ -7611,7 +7562,7 @@
       <c r="O132" s="4"/>
       <c r="S132" s="4"/>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A133" s="7"/>
       <c r="B133" s="4"/>
       <c r="C133" s="7"/>
@@ -7629,7 +7580,7 @@
       <c r="O133" s="4"/>
       <c r="S133" s="4"/>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A134" s="7"/>
       <c r="B134" s="4"/>
       <c r="C134" s="7"/>
@@ -7647,7 +7598,7 @@
       <c r="O134" s="4"/>
       <c r="S134" s="4"/>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A135" s="7"/>
       <c r="B135" s="4"/>
       <c r="C135" s="7"/>
@@ -7665,7 +7616,7 @@
       <c r="O135" s="4"/>
       <c r="S135" s="4"/>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A136" s="7"/>
       <c r="B136" s="4"/>
       <c r="C136" s="7"/>
@@ -7683,7 +7634,7 @@
       <c r="O136" s="4"/>
       <c r="S136" s="4"/>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A137" s="7"/>
       <c r="B137" s="4"/>
       <c r="C137" s="7"/>
@@ -7701,7 +7652,7 @@
       <c r="O137" s="4"/>
       <c r="S137" s="4"/>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A138" s="7"/>
       <c r="B138" s="4"/>
       <c r="C138" s="7"/>
@@ -7719,7 +7670,7 @@
       <c r="O138" s="4"/>
       <c r="S138" s="4"/>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A139" s="7"/>
       <c r="B139" s="4"/>
       <c r="C139" s="7"/>
@@ -7737,7 +7688,7 @@
       <c r="O139" s="4"/>
       <c r="S139" s="4"/>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A140" s="7"/>
       <c r="B140" s="4"/>
       <c r="C140" s="7"/>
@@ -7755,7 +7706,7 @@
       <c r="O140" s="4"/>
       <c r="S140" s="4"/>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A141" s="7"/>
       <c r="B141" s="4"/>
       <c r="C141" s="7"/>
@@ -7773,7 +7724,7 @@
       <c r="O141" s="4"/>
       <c r="S141" s="4"/>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A142" s="7"/>
       <c r="B142" s="4"/>
       <c r="C142" s="7"/>
@@ -7791,7 +7742,7 @@
       <c r="O142" s="4"/>
       <c r="S142" s="4"/>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A143" s="7"/>
       <c r="B143" s="4"/>
       <c r="C143" s="7"/>
@@ -7809,7 +7760,7 @@
       <c r="O143" s="4"/>
       <c r="S143" s="4"/>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A144" s="7"/>
       <c r="B144" s="4"/>
       <c r="C144" s="7"/>
@@ -7827,7 +7778,7 @@
       <c r="O144" s="4"/>
       <c r="S144" s="4"/>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A145" s="7"/>
       <c r="B145" s="4"/>
       <c r="C145" s="7"/>
@@ -7845,7 +7796,7 @@
       <c r="O145" s="4"/>
       <c r="S145" s="4"/>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A146" s="7"/>
       <c r="B146" s="4"/>
       <c r="C146" s="7"/>
@@ -7863,7 +7814,7 @@
       <c r="O146" s="4"/>
       <c r="S146" s="4"/>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A147" s="7"/>
       <c r="B147" s="4"/>
       <c r="C147" s="7"/>
@@ -7881,7 +7832,7 @@
       <c r="O147" s="4"/>
       <c r="S147" s="4"/>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A148" s="7"/>
       <c r="B148" s="4"/>
       <c r="C148" s="7"/>
@@ -7899,7 +7850,7 @@
       <c r="O148" s="4"/>
       <c r="S148" s="4"/>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A149" s="7"/>
       <c r="B149" s="4"/>
       <c r="C149" s="7"/>
@@ -7917,7 +7868,7 @@
       <c r="O149" s="4"/>
       <c r="S149" s="4"/>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A150" s="7"/>
       <c r="B150" s="4"/>
       <c r="C150" s="7"/>
@@ -7935,7 +7886,7 @@
       <c r="O150" s="4"/>
       <c r="S150" s="4"/>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A151" s="7"/>
       <c r="B151" s="4"/>
       <c r="C151" s="7"/>
@@ -7953,7 +7904,7 @@
       <c r="O151" s="4"/>
       <c r="S151" s="4"/>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A152" s="7"/>
       <c r="B152" s="4"/>
       <c r="C152" s="7"/>
@@ -7979,54 +7930,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="3" max="3" width="9.25" customWidth="1"/>
-    <col min="4" max="13" width="16.625" customWidth="1"/>
+    <col min="4" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="81.875" customWidth="1"/>
+    <col min="8" max="13" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="65"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
-    </row>
-    <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="69"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="71"/>
+    </row>
+    <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
@@ -8067,7 +8020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="20" customFormat="1" ht="68.25" customHeight="1">
+    <row r="4" spans="1:13" s="20" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22">
         <v>1</v>
       </c>
@@ -8106,7 +8059,7 @@
       </c>
       <c r="M4" s="24"/>
     </row>
-    <row r="5" spans="1:13" s="20" customFormat="1" ht="148.5">
+    <row r="5" spans="1:13" s="20" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A5" s="22">
         <v>2</v>
       </c>
@@ -8126,10 +8079,10 @@
         <v>98</v>
       </c>
       <c r="G5" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="H5" s="29" t="s">
         <v>178</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>179</v>
       </c>
       <c r="I5" s="48" t="s">
         <v>101</v>
@@ -8147,7 +8100,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="20" customFormat="1" ht="280.5">
+    <row r="6" spans="1:13" s="20" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A6" s="22">
         <v>3</v>
       </c>
@@ -8161,13 +8114,13 @@
         <v>93</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F6" s="48" t="s">
         <v>106</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>181</v>
+        <v>293</v>
       </c>
       <c r="H6" s="48" t="s">
         <v>108</v>
@@ -8209,14 +8162,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="8.125" style="26" customWidth="1"/>
@@ -9052,39 +9005,39 @@
     <col min="16141" max="16141" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="65"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
-    </row>
-    <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="69"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="71"/>
+    </row>
+    <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
@@ -9125,7 +9078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="20" customFormat="1" ht="68.25" customHeight="1">
+    <row r="4" spans="1:13" s="20" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22">
         <v>1</v>
       </c>
@@ -9164,7 +9117,7 @@
       </c>
       <c r="M4" s="24"/>
     </row>
-    <row r="5" spans="1:13" s="20" customFormat="1" ht="39.75" customHeight="1">
+    <row r="5" spans="1:13" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22">
         <v>2</v>
       </c>
@@ -9201,7 +9154,7 @@
       </c>
       <c r="M5" s="22"/>
     </row>
-    <row r="6" spans="1:13" s="20" customFormat="1" ht="33">
+    <row r="6" spans="1:13" s="20" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A6" s="22">
         <v>3</v>
       </c>
@@ -9221,10 +9174,10 @@
         <v>98</v>
       </c>
       <c r="G6" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="H6" s="29" t="s">
         <v>178</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>179</v>
       </c>
       <c r="I6" s="48" t="s">
         <v>101</v>
@@ -9242,7 +9195,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="20" customFormat="1" ht="66">
+    <row r="7" spans="1:13" s="20" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A7" s="22">
         <v>4</v>
       </c>
@@ -9256,19 +9209,19 @@
         <v>93</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F7" s="48" t="s">
         <v>106</v>
       </c>
       <c r="G7" s="49" t="s">
-        <v>181</v>
+        <v>296</v>
       </c>
       <c r="H7" s="48" t="s">
         <v>108</v>
       </c>
       <c r="I7" s="48" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="J7" s="48" t="s">
         <v>110</v>
@@ -9280,10 +9233,10 @@
         <v>103</v>
       </c>
       <c r="M7" s="49" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="20" customFormat="1" ht="16.5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -9298,7 +9251,7 @@
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
     </row>
-    <row r="9" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="9" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -9313,7 +9266,7 @@
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
     </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -9328,7 +9281,7 @@
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
     </row>
-    <row r="11" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="11" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -9364,14 +9317,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="26" customWidth="1"/>
@@ -10207,39 +10160,39 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="65"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
-    </row>
-    <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="69"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="71"/>
+    </row>
+    <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
@@ -10280,7 +10233,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="20" customFormat="1" ht="68.25" customHeight="1">
+    <row r="4" spans="1:13" s="20" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22">
         <v>1</v>
       </c>
@@ -10319,7 +10272,7 @@
       </c>
       <c r="M4" s="24"/>
     </row>
-    <row r="5" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="5" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -10334,7 +10287,7 @@
       <c r="L5" s="22"/>
       <c r="M5" s="24"/>
     </row>
-    <row r="6" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="6" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -10349,7 +10302,7 @@
       <c r="L6" s="22"/>
       <c r="M6" s="24"/>
     </row>
-    <row r="7" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="7" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -10364,7 +10317,7 @@
       <c r="L7" s="22"/>
       <c r="M7" s="22"/>
     </row>
-    <row r="8" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="8" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -10379,7 +10332,7 @@
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
     </row>
-    <row r="9" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="9" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -10394,7 +10347,7 @@
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
     </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -10409,7 +10362,7 @@
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
     </row>
-    <row r="11" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="11" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -10424,7 +10377,7 @@
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
     </row>
-    <row r="12" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="12" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -10439,7 +10392,7 @@
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
     </row>
-    <row r="13" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="13" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -10475,17 +10428,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:M5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="34.75" customWidth="1"/>
+    <col min="7" max="7" width="65.125" customWidth="1"/>
     <col min="8" max="8" width="23.625" customWidth="1"/>
     <col min="9" max="9" width="10.75" customWidth="1"/>
     <col min="10" max="10" width="10.625" customWidth="1"/>
@@ -10494,39 +10447,39 @@
     <col min="13" max="13" width="34.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="69"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="71"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="73"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="75"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="52" t="s">
         <v>128</v>
       </c>
@@ -10567,7 +10520,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="97.5" customHeight="1">
+    <row r="4" spans="1:13" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="48">
         <v>1</v>
       </c>
@@ -10608,7 +10561,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="168.75" customHeight="1">
+    <row r="5" spans="1:13" ht="168.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="48">
         <v>2</v>
       </c>
@@ -10649,7 +10602,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="23.25" customHeight="1">
+    <row r="6" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="48"/>
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>

--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.0.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 5.0.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="3285" windowWidth="25125" windowHeight="11760"/>
+    <workbookView xWindow="480" yWindow="3285" windowWidth="25125" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="302">
   <si>
     <t>No</t>
   </si>
@@ -1310,6 +1310,18 @@
 房东录入时候要判断伙伴账号、联系人手机号不能重复
 城市列表详情页 编辑商圈时需同步更新商圈下的小区
 微信公众号配置</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以配置到所有项目nginx server上</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以配置到所有项目nginx server上</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以配置到所有项目nginx server上</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2254,8 +2266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I83" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="I77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="S94" sqref="S94"/>
@@ -7933,7 +7945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -8057,7 +8069,9 @@
       <c r="L4" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="M4" s="24"/>
+      <c r="M4" s="24" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="5" spans="1:13" s="20" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A5" s="22">
@@ -8166,7 +8180,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9115,7 +9129,9 @@
       <c r="L4" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="M4" s="24"/>
+      <c r="M4" s="24" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="5" spans="1:13" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22">
@@ -9313,6 +9329,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9321,7 +9338,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD6"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10270,7 +10287,9 @@
       <c r="L4" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="M4" s="24"/>
+      <c r="M4" s="24" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="5" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="22"/>

--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 5.0.2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="3285" windowWidth="25125" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="3285" windowWidth="25125" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="(预发布)需要修改的配置文件" sheetId="5" r:id="rId2"/>
     <sheet name="(生产)需要修改的配置文件" sheetId="4" r:id="rId3"/>
     <sheet name="(公测)需要修改的配置文件" sheetId="6" r:id="rId4"/>
-    <sheet name="(测试)需要修改的配置文件" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="283">
   <si>
     <t>No</t>
   </si>
@@ -537,17 +531,6 @@
     <t>新增</t>
   </si>
   <si>
-    <t xml:space="preserve">
-sysconfig.weixin.weixinhuoBanAppID=wx730bca9476310d91
-sysconfig.weixin.weixinhuoBanAppSecret=d4624c36b6795d1d99dcf0547af5443d</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">蘑菇伙伴微信公众号
-</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>测试环境</t>
   </si>
   <si>
@@ -559,21 +542,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>AppID、AppSecret需要运维配置</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>jdbc-dev.properties</t>
-  </si>
-  <si>
     <t>新增</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>jdbc.driverClassName_repo=com.mysql.jdbc.Driver
-jdbc.url_repo=jdbc\:mysql\://192.168.12.188\:3306/mogo_dev?useUnicode\=true&amp;amp;characterEncoding\=UTF-8
-jdbc.username_repo=EC985EB3E9D6A6CCBB537518ECDCD57C
-jdbc.password_repo=DDA989A60555874C2D40B52948A38959</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -651,62 +620,6 @@
   </si>
   <si>
     <t>请将“配置文件\合同模板”下的两个模板文件替换目录  /var/lib/docker/contract/template/ 下的原文件</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置汇总</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目组</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置所属系统</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置文件名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置的详细内容</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>用途</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发人</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>责任人</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目经理</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1328,8 +1241,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1680,7 +1593,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1837,12 +1750,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1897,18 +1804,6 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1924,6 +1819,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1943,7 +1906,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2263,7 +2226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2273,7 +2236,7 @@
       <selection pane="bottomRight" activeCell="S94" sqref="S94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="14" customWidth="1"/>
     <col min="2" max="2" width="52.875" style="15" customWidth="1"/>
@@ -2298,7 +2261,7 @@
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2357,49 +2320,49 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="F2" s="11">
         <v>42633</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="H2" s="11">
         <v>42633</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="12" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="N2" s="11">
         <v>42633</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="P2" s="30"/>
       <c r="Q2" s="30"/>
@@ -2407,76 +2370,76 @@
       <c r="S2" s="13"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" ht="16.5">
       <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="F3" s="11">
         <v>42633</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="H3" s="11">
         <v>42633</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="12" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>36</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="N3" s="11">
         <v>42634</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" ht="16.5">
       <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="F4" s="11">
         <v>42633</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="H4" s="11">
         <v>42633</v>
@@ -2486,95 +2449,95 @@
         <v>37</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="N4" s="11">
         <v>42633</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" ht="49.5">
       <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="F5" s="11">
         <v>42633</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="H5" s="11">
         <v>42633</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="12" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="N5" s="11">
         <v>42633</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="33" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" ht="33">
       <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="F6" s="11">
         <v>42633</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="H6" s="11">
         <v>42633</v>
@@ -2584,242 +2547,242 @@
         <v>38</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="N6" s="11">
         <v>42633</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="33" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" ht="33">
       <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="F7" s="11">
         <v>42633</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="H7" s="11">
         <v>42633</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="12" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="N7" s="11">
         <v>42633</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:20" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" ht="49.5">
       <c r="A8" s="16">
         <v>7</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="F8" s="11">
         <v>42633</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="H8" s="11">
         <v>42633</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="12" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="N8" s="11">
         <v>42633</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:20" ht="33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" ht="33">
       <c r="A9" s="16">
         <v>8</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="F9" s="11">
         <v>42633</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="H9" s="11">
         <v>42633</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="12" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="N9" s="11">
         <v>42633</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:20" ht="33" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" ht="33">
       <c r="A10" s="16">
         <v>9</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="F10" s="11">
         <v>42633</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="H10" s="11">
         <v>42633</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="12" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="N10" s="11">
         <v>42634</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A11" s="16">
         <v>10</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="F11" s="11">
         <v>42627</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="H11" s="11">
         <v>42627</v>
@@ -2835,13 +2798,13 @@
         <v>41</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="N11" s="11">
         <v>42634</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -2849,27 +2812,27 @@
       <c r="S11" s="13"/>
       <c r="T11" s="8"/>
     </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A12" s="16">
         <v>11</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="F12" s="11">
         <v>42627</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="H12" s="11">
         <v>42627</v>
@@ -2885,13 +2848,13 @@
         <v>41</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="N12" s="11">
         <v>42634</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
@@ -2899,49 +2862,49 @@
       <c r="S12" s="13"/>
       <c r="T12" s="8"/>
     </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A13" s="16">
         <v>12</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="F13" s="11">
         <v>42626</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="H13" s="11">
         <v>42626</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="12" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="N13" s="11">
         <v>42634</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -2949,49 +2912,49 @@
       <c r="S13" s="13"/>
       <c r="T13" s="8"/>
     </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A14" s="16">
         <v>13</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="F14" s="11">
         <v>42631</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="H14" s="11">
         <v>42631</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="12" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="N14" s="11">
         <v>42634</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -2999,49 +2962,49 @@
       <c r="S14" s="13"/>
       <c r="T14" s="8"/>
     </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A15" s="16">
         <v>14</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="F15" s="11">
         <v>42631</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="H15" s="11">
         <v>42631</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="12" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="N15" s="11">
         <v>42634</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -3049,49 +3012,49 @@
       <c r="S15" s="13"/>
       <c r="T15" s="8"/>
     </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A16" s="16">
         <v>15</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="F16" s="11">
         <v>42631</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="H16" s="11">
         <v>42631</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="12" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="N16" s="11">
         <v>42634</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -3099,49 +3062,49 @@
       <c r="S16" s="13"/>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A17" s="16">
         <v>16</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="F17" s="11">
         <v>42634</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="H17" s="11">
         <v>42634</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="12" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="N17" s="11">
         <v>42634</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -3149,49 +3112,49 @@
       <c r="S17" s="13"/>
       <c r="T17" s="8"/>
     </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A18" s="16">
         <v>17</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="F18" s="11">
         <v>42634</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="H18" s="11">
         <v>42634</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="12" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="N18" s="11">
         <v>42634</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
@@ -3199,7 +3162,7 @@
       <c r="S18" s="13"/>
       <c r="T18" s="8"/>
     </row>
-    <row r="19" spans="1:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="37" customFormat="1" ht="16.5">
       <c r="A19" s="16">
         <v>18</v>
       </c>
@@ -3249,7 +3212,7 @@
       <c r="S19" s="12"/>
       <c r="T19" s="36"/>
     </row>
-    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A20" s="16">
         <v>19</v>
       </c>
@@ -3299,7 +3262,7 @@
       <c r="S20" s="13"/>
       <c r="T20" s="8"/>
     </row>
-    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A21" s="16">
         <v>20</v>
       </c>
@@ -3349,7 +3312,7 @@
       <c r="S21" s="13"/>
       <c r="T21" s="8"/>
     </row>
-    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A22" s="16">
         <v>21</v>
       </c>
@@ -3399,7 +3362,7 @@
       <c r="S22" s="13"/>
       <c r="T22" s="8"/>
     </row>
-    <row r="23" spans="1:20" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" s="9" customFormat="1" ht="17.25" customHeight="1">
       <c r="A23" s="16">
         <v>22</v>
       </c>
@@ -3449,7 +3412,7 @@
       <c r="S23" s="13"/>
       <c r="T23" s="8"/>
     </row>
-    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A24" s="16">
         <v>23</v>
       </c>
@@ -3499,7 +3462,7 @@
       <c r="S24" s="13"/>
       <c r="T24" s="8"/>
     </row>
-    <row r="25" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" s="43" customFormat="1" ht="16.5">
       <c r="A25" s="16">
         <v>24</v>
       </c>
@@ -3549,7 +3512,7 @@
       <c r="S25" s="41"/>
       <c r="T25" s="42"/>
     </row>
-    <row r="26" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" s="43" customFormat="1" ht="16.5">
       <c r="A26" s="16">
         <v>25</v>
       </c>
@@ -3599,7 +3562,7 @@
       <c r="S26" s="41"/>
       <c r="T26" s="42"/>
     </row>
-    <row r="27" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" s="43" customFormat="1" ht="16.5">
       <c r="A27" s="16">
         <v>26</v>
       </c>
@@ -3649,7 +3612,7 @@
       <c r="S27" s="41"/>
       <c r="T27" s="42"/>
     </row>
-    <row r="28" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" s="43" customFormat="1" ht="16.5">
       <c r="A28" s="16">
         <v>27</v>
       </c>
@@ -3699,7 +3662,7 @@
       <c r="S28" s="41"/>
       <c r="T28" s="42"/>
     </row>
-    <row r="29" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" s="43" customFormat="1" ht="16.5">
       <c r="A29" s="16">
         <v>28</v>
       </c>
@@ -3749,7 +3712,7 @@
       <c r="S29" s="41"/>
       <c r="T29" s="42"/>
     </row>
-    <row r="30" spans="1:20" s="43" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" s="43" customFormat="1" ht="18.75" customHeight="1">
       <c r="A30" s="16">
         <v>29</v>
       </c>
@@ -3799,7 +3762,7 @@
       <c r="S30" s="41"/>
       <c r="T30" s="42"/>
     </row>
-    <row r="31" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" s="43" customFormat="1" ht="16.5">
       <c r="A31" s="16">
         <v>30</v>
       </c>
@@ -3849,7 +3812,7 @@
       <c r="S31" s="41"/>
       <c r="T31" s="42"/>
     </row>
-    <row r="32" spans="1:20" s="43" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" s="43" customFormat="1" ht="33">
       <c r="A32" s="16">
         <v>31</v>
       </c>
@@ -3899,7 +3862,7 @@
       <c r="S32" s="41"/>
       <c r="T32" s="42"/>
     </row>
-    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A33" s="16">
         <v>32</v>
       </c>
@@ -3907,19 +3870,19 @@
         <v>77</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="F33" s="11">
         <v>42627</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="H33" s="11">
         <v>42627</v>
@@ -3939,7 +3902,7 @@
       </c>
       <c r="N33" s="11"/>
       <c r="O33" s="12" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
@@ -3947,7 +3910,7 @@
       <c r="S33" s="13"/>
       <c r="T33" s="8"/>
     </row>
-    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A34" s="16">
         <v>33</v>
       </c>
@@ -3955,19 +3918,19 @@
         <v>80</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="F34" s="11">
         <v>42627</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="H34" s="11">
         <v>42627</v>
@@ -3987,7 +3950,7 @@
       </c>
       <c r="N34" s="11"/>
       <c r="O34" s="12" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
@@ -3995,7 +3958,7 @@
       <c r="S34" s="13"/>
       <c r="T34" s="8"/>
     </row>
-    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A35" s="16">
         <v>34</v>
       </c>
@@ -4003,19 +3966,19 @@
         <v>81</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="F35" s="11">
         <v>42627</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="H35" s="11">
         <v>42627</v>
@@ -4035,7 +3998,7 @@
       </c>
       <c r="N35" s="11"/>
       <c r="O35" s="12" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
@@ -4043,7 +4006,7 @@
       <c r="S35" s="13"/>
       <c r="T35" s="8"/>
     </row>
-    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A36" s="16">
         <v>35</v>
       </c>
@@ -4051,19 +4014,19 @@
         <v>83</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="F36" s="11">
         <v>42627</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="H36" s="11">
         <v>42627</v>
@@ -4083,7 +4046,7 @@
       </c>
       <c r="N36" s="11"/>
       <c r="O36" s="12" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
@@ -4091,7 +4054,7 @@
       <c r="S36" s="13"/>
       <c r="T36" s="8"/>
     </row>
-    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A37" s="16">
         <v>36</v>
       </c>
@@ -4099,19 +4062,19 @@
         <v>84</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>85</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="F37" s="11">
         <v>42627</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="H37" s="11">
         <v>42627</v>
@@ -4131,7 +4094,7 @@
       </c>
       <c r="N37" s="11"/>
       <c r="O37" s="12" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
@@ -4139,7 +4102,7 @@
       <c r="S37" s="13"/>
       <c r="T37" s="8"/>
     </row>
-    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A38" s="16">
         <v>37</v>
       </c>
@@ -4147,19 +4110,19 @@
         <v>86</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="F38" s="11">
         <v>42631</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="H38" s="11">
         <v>42631</v>
@@ -4179,7 +4142,7 @@
       </c>
       <c r="N38" s="11"/>
       <c r="O38" s="12" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
@@ -4187,7 +4150,7 @@
       <c r="S38" s="13"/>
       <c r="T38" s="8"/>
     </row>
-    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A39" s="16">
         <v>38</v>
       </c>
@@ -4195,19 +4158,19 @@
         <v>87</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="F39" s="11">
         <v>42627</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="H39" s="11">
         <v>42627</v>
@@ -4227,7 +4190,7 @@
       </c>
       <c r="N39" s="11"/>
       <c r="O39" s="12" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
@@ -4235,37 +4198,37 @@
       <c r="S39" s="13"/>
       <c r="T39" s="8"/>
     </row>
-    <row r="40" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A40" s="16">
         <v>39</v>
       </c>
       <c r="B40" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="64" t="s">
+      <c r="C40" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="D40" s="65" t="s">
-        <v>146</v>
-      </c>
-      <c r="E40" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" s="66">
+      <c r="D40" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="64">
         <v>42627</v>
       </c>
-      <c r="G40" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="H40" s="66">
+      <c r="G40" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" s="64">
         <v>42627</v>
       </c>
-      <c r="I40" s="65"/>
-      <c r="J40" s="67" t="s">
-        <v>245</v>
-      </c>
-      <c r="K40" s="65" t="s">
-        <v>246</v>
+      <c r="I40" s="63"/>
+      <c r="J40" s="65" t="s">
+        <v>226</v>
+      </c>
+      <c r="K40" s="63" t="s">
+        <v>227</v>
       </c>
       <c r="L40" s="10" t="s">
         <v>79</v>
@@ -4275,7 +4238,7 @@
       </c>
       <c r="N40" s="11"/>
       <c r="O40" s="12" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
@@ -4283,26 +4246,26 @@
       <c r="S40" s="13"/>
       <c r="T40" s="8"/>
     </row>
-    <row r="41" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A41" s="16">
         <v>40</v>
       </c>
       <c r="B41" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="64" t="s">
+      <c r="C41" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="65" t="s">
-        <v>146</v>
-      </c>
-      <c r="E41" s="65" t="s">
+      <c r="D41" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" s="63" t="s">
         <v>32</v>
       </c>
       <c r="F41" s="11">
         <v>42633</v>
       </c>
-      <c r="G41" s="65" t="s">
+      <c r="G41" s="63" t="s">
         <v>34</v>
       </c>
       <c r="H41" s="11">
@@ -4323,7 +4286,7 @@
       </c>
       <c r="N41" s="11"/>
       <c r="O41" s="12" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
@@ -4331,7 +4294,7 @@
       <c r="S41" s="13"/>
       <c r="T41" s="8"/>
     </row>
-    <row r="42" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A42" s="16">
         <v>41</v>
       </c>
@@ -4339,7 +4302,7 @@
         <v>91</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>92</v>
@@ -4350,7 +4313,7 @@
       <c r="F42" s="11">
         <v>42633</v>
       </c>
-      <c r="G42" s="65" t="s">
+      <c r="G42" s="63" t="s">
         <v>34</v>
       </c>
       <c r="H42" s="11">
@@ -4371,7 +4334,7 @@
       </c>
       <c r="N42" s="11"/>
       <c r="O42" s="12" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
@@ -4379,18 +4342,18 @@
       <c r="S42" s="13"/>
       <c r="T42" s="8"/>
     </row>
-    <row r="43" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A43" s="16">
         <v>42</v>
       </c>
-      <c r="B43" s="54" t="s">
-        <v>145</v>
+      <c r="B43" s="52" t="s">
+        <v>126</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>34</v>
@@ -4406,13 +4369,13 @@
       </c>
       <c r="I43" s="10"/>
       <c r="J43" s="12" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="M43" s="12" t="s">
         <v>48</v>
@@ -4423,24 +4386,24 @@
       <c r="O43" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="P43" s="55"/>
-      <c r="Q43" s="55"/>
-      <c r="R43" s="55"/>
+      <c r="P43" s="53"/>
+      <c r="Q43" s="53"/>
+      <c r="R43" s="53"/>
       <c r="S43" s="13"/>
       <c r="T43" s="8"/>
     </row>
-    <row r="44" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A44" s="16">
         <v>43</v>
       </c>
-      <c r="B44" s="54" t="s">
-        <v>149</v>
+      <c r="B44" s="52" t="s">
+        <v>130</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>34</v>
@@ -4456,13 +4419,13 @@
       </c>
       <c r="I44" s="10"/>
       <c r="J44" s="12" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="M44" s="12" t="s">
         <v>48</v>
@@ -4473,24 +4436,24 @@
       <c r="O44" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="P44" s="55"/>
-      <c r="Q44" s="55"/>
-      <c r="R44" s="55"/>
+      <c r="P44" s="53"/>
+      <c r="Q44" s="53"/>
+      <c r="R44" s="53"/>
       <c r="S44" s="13"/>
       <c r="T44" s="8"/>
     </row>
-    <row r="45" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A45" s="16">
         <v>44</v>
       </c>
-      <c r="B45" s="54" t="s">
-        <v>150</v>
+      <c r="B45" s="52" t="s">
+        <v>131</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>34</v>
@@ -4506,13 +4469,13 @@
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="12" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="M45" s="12" t="s">
         <v>48</v>
@@ -4523,24 +4486,24 @@
       <c r="O45" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="P45" s="55"/>
-      <c r="Q45" s="55"/>
-      <c r="R45" s="55"/>
+      <c r="P45" s="53"/>
+      <c r="Q45" s="53"/>
+      <c r="R45" s="53"/>
       <c r="S45" s="13"/>
       <c r="T45" s="8"/>
     </row>
-    <row r="46" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A46" s="16">
         <v>45</v>
       </c>
-      <c r="B46" s="54" t="s">
-        <v>152</v>
+      <c r="B46" s="52" t="s">
+        <v>133</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>34</v>
@@ -4556,16 +4519,16 @@
       </c>
       <c r="I46" s="10"/>
       <c r="J46" s="12" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="N46" s="11">
         <v>42634</v>
@@ -4573,24 +4536,24 @@
       <c r="O46" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="P46" s="55"/>
-      <c r="Q46" s="55"/>
-      <c r="R46" s="55"/>
+      <c r="P46" s="53"/>
+      <c r="Q46" s="53"/>
+      <c r="R46" s="53"/>
       <c r="S46" s="13"/>
       <c r="T46" s="8"/>
     </row>
-    <row r="47" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A47" s="16">
         <v>46</v>
       </c>
-      <c r="B47" s="56" t="s">
-        <v>153</v>
+      <c r="B47" s="54" t="s">
+        <v>134</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>34</v>
@@ -4606,13 +4569,13 @@
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="12" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="M47" s="12" t="s">
         <v>48</v>
@@ -4623,24 +4586,24 @@
       <c r="O47" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="P47" s="55"/>
-      <c r="Q47" s="55"/>
-      <c r="R47" s="55"/>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="53"/>
+      <c r="R47" s="53"/>
       <c r="S47" s="13"/>
       <c r="T47" s="8"/>
     </row>
-    <row r="48" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A48" s="16">
         <v>47</v>
       </c>
-      <c r="B48" s="56" t="s">
-        <v>154</v>
+      <c r="B48" s="54" t="s">
+        <v>135</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>34</v>
@@ -4656,13 +4619,13 @@
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="12" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="M48" s="12" t="s">
         <v>48</v>
@@ -4673,24 +4636,24 @@
       <c r="O48" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="55"/>
-      <c r="R48" s="55"/>
+      <c r="P48" s="53"/>
+      <c r="Q48" s="53"/>
+      <c r="R48" s="53"/>
       <c r="S48" s="13"/>
       <c r="T48" s="8"/>
     </row>
-    <row r="49" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:20" s="9" customFormat="1" ht="24">
       <c r="A49" s="16">
         <v>48</v>
       </c>
-      <c r="B49" s="57" t="s">
-        <v>155</v>
+      <c r="B49" s="55" t="s">
+        <v>136</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>34</v>
@@ -4706,13 +4669,13 @@
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="12" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="M49" s="12" t="s">
         <v>48</v>
@@ -4723,24 +4686,24 @@
       <c r="O49" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="P49" s="55"/>
-      <c r="Q49" s="55"/>
-      <c r="R49" s="55"/>
+      <c r="P49" s="53"/>
+      <c r="Q49" s="53"/>
+      <c r="R49" s="53"/>
       <c r="S49" s="13"/>
       <c r="T49" s="8"/>
     </row>
-    <row r="50" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:20" s="9" customFormat="1" ht="24">
       <c r="A50" s="16">
         <v>49</v>
       </c>
-      <c r="B50" s="57" t="s">
-        <v>156</v>
+      <c r="B50" s="55" t="s">
+        <v>137</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>34</v>
@@ -4756,13 +4719,13 @@
       </c>
       <c r="I50" s="10"/>
       <c r="J50" s="12" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="M50" s="12" t="s">
         <v>48</v>
@@ -4773,24 +4736,24 @@
       <c r="O50" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="P50" s="55"/>
-      <c r="Q50" s="55"/>
-      <c r="R50" s="55"/>
+      <c r="P50" s="53"/>
+      <c r="Q50" s="53"/>
+      <c r="R50" s="53"/>
       <c r="S50" s="13"/>
       <c r="T50" s="8"/>
     </row>
-    <row r="51" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A51" s="16">
         <v>50</v>
       </c>
-      <c r="B51" s="57" t="s">
-        <v>157</v>
+      <c r="B51" s="55" t="s">
+        <v>138</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>34</v>
@@ -4806,13 +4769,13 @@
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="12" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="M51" s="12"/>
       <c r="N51" s="11">
@@ -4821,24 +4784,24 @@
       <c r="O51" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="P51" s="55"/>
-      <c r="Q51" s="55"/>
-      <c r="R51" s="55"/>
+      <c r="P51" s="53"/>
+      <c r="Q51" s="53"/>
+      <c r="R51" s="53"/>
       <c r="S51" s="13"/>
       <c r="T51" s="8"/>
     </row>
-    <row r="52" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A52" s="16">
         <v>51</v>
       </c>
-      <c r="B52" s="58" t="s">
-        <v>158</v>
+      <c r="B52" s="56" t="s">
+        <v>139</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>34</v>
@@ -4854,13 +4817,13 @@
       </c>
       <c r="I52" s="10"/>
       <c r="J52" s="12" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="M52" s="12"/>
       <c r="N52" s="11">
@@ -4871,22 +4834,22 @@
       </c>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
-      <c r="R52" s="55"/>
+      <c r="R52" s="53"/>
       <c r="S52" s="13"/>
       <c r="T52" s="8"/>
     </row>
-    <row r="53" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A53" s="16">
         <v>52</v>
       </c>
-      <c r="B53" s="59" t="s">
-        <v>159</v>
+      <c r="B53" s="57" t="s">
+        <v>140</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>34</v>
@@ -4902,13 +4865,13 @@
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="12" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="M53" s="12"/>
       <c r="N53" s="11">
@@ -4919,22 +4882,22 @@
       </c>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
-      <c r="R53" s="55"/>
+      <c r="R53" s="53"/>
       <c r="S53" s="13"/>
       <c r="T53" s="8"/>
     </row>
-    <row r="54" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A54" s="16">
         <v>53</v>
       </c>
-      <c r="B54" s="60" t="s">
-        <v>160</v>
+      <c r="B54" s="58" t="s">
+        <v>141</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>34</v>
@@ -4950,13 +4913,13 @@
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="12" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="M54" s="12"/>
       <c r="N54" s="11">
@@ -4971,18 +4934,18 @@
       <c r="S54" s="13"/>
       <c r="T54" s="8"/>
     </row>
-    <row r="55" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A55" s="16">
         <v>54</v>
       </c>
-      <c r="B55" s="61" t="s">
-        <v>161</v>
+      <c r="B55" s="59" t="s">
+        <v>142</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>34</v>
@@ -4998,13 +4961,13 @@
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="12" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="M55" s="12"/>
       <c r="N55" s="11">
@@ -5019,18 +4982,18 @@
       <c r="S55" s="13"/>
       <c r="T55" s="8"/>
     </row>
-    <row r="56" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A56" s="16">
         <v>55</v>
       </c>
-      <c r="B56" s="61" t="s">
-        <v>162</v>
+      <c r="B56" s="59" t="s">
+        <v>143</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>34</v>
@@ -5046,13 +5009,13 @@
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="12" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="M56" s="12"/>
       <c r="N56" s="11">
@@ -5067,18 +5030,18 @@
       <c r="S56" s="13"/>
       <c r="T56" s="8"/>
     </row>
-    <row r="57" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A57" s="16">
         <v>56</v>
       </c>
-      <c r="B57" s="62" t="s">
-        <v>163</v>
+      <c r="B57" s="60" t="s">
+        <v>144</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>34</v>
@@ -5094,13 +5057,13 @@
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="12" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="M57" s="12"/>
       <c r="N57" s="11">
@@ -5115,18 +5078,18 @@
       <c r="S57" s="13"/>
       <c r="T57" s="8"/>
     </row>
-    <row r="58" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:20" s="9" customFormat="1" ht="24">
       <c r="A58" s="16">
         <v>57</v>
       </c>
-      <c r="B58" s="60" t="s">
-        <v>164</v>
+      <c r="B58" s="58" t="s">
+        <v>145</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>34</v>
@@ -5142,13 +5105,13 @@
       </c>
       <c r="I58" s="10"/>
       <c r="J58" s="12" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="M58" s="12"/>
       <c r="N58" s="11">
@@ -5163,18 +5126,18 @@
       <c r="S58" s="13"/>
       <c r="T58" s="8"/>
     </row>
-    <row r="59" spans="1:20" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:20" s="9" customFormat="1" ht="36">
       <c r="A59" s="16">
         <v>58</v>
       </c>
-      <c r="B59" s="63" t="s">
-        <v>165</v>
+      <c r="B59" s="61" t="s">
+        <v>146</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>34</v>
@@ -5190,13 +5153,13 @@
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="12" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="M59" s="12"/>
       <c r="N59" s="11">
@@ -5211,18 +5174,18 @@
       <c r="S59" s="13"/>
       <c r="T59" s="8"/>
     </row>
-    <row r="60" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A60" s="16">
         <v>59</v>
       </c>
-      <c r="B60" s="62" t="s">
-        <v>167</v>
+      <c r="B60" s="60" t="s">
+        <v>148</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>34</v>
@@ -5238,13 +5201,13 @@
       </c>
       <c r="I60" s="10"/>
       <c r="J60" s="12" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="M60" s="12"/>
       <c r="N60" s="11">
@@ -5259,18 +5222,18 @@
       <c r="S60" s="13"/>
       <c r="T60" s="8"/>
     </row>
-    <row r="61" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A61" s="16">
         <v>60</v>
       </c>
-      <c r="B61" s="60" t="s">
-        <v>169</v>
+      <c r="B61" s="58" t="s">
+        <v>150</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>34</v>
@@ -5286,13 +5249,13 @@
       </c>
       <c r="I61" s="10"/>
       <c r="J61" s="12" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L61" s="10" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="M61" s="12"/>
       <c r="N61" s="11">
@@ -5307,18 +5270,18 @@
       <c r="S61" s="13"/>
       <c r="T61" s="8"/>
     </row>
-    <row r="62" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A62" s="16">
         <v>61</v>
       </c>
-      <c r="B62" s="60" t="s">
-        <v>170</v>
+      <c r="B62" s="58" t="s">
+        <v>151</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>34</v>
@@ -5334,13 +5297,13 @@
       </c>
       <c r="I62" s="10"/>
       <c r="J62" s="12" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="M62" s="12"/>
       <c r="N62" s="11">
@@ -5355,18 +5318,18 @@
       <c r="S62" s="13"/>
       <c r="T62" s="8"/>
     </row>
-    <row r="63" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:20" s="9" customFormat="1" ht="24">
       <c r="A63" s="16">
         <v>62</v>
       </c>
-      <c r="B63" s="60" t="s">
-        <v>249</v>
+      <c r="B63" s="58" t="s">
+        <v>230</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>34</v>
@@ -5382,10 +5345,10 @@
       </c>
       <c r="I63" s="10"/>
       <c r="J63" s="12" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L63" s="10"/>
       <c r="M63" s="12"/>
@@ -5399,18 +5362,18 @@
       <c r="S63" s="13"/>
       <c r="T63" s="8"/>
     </row>
-    <row r="64" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A64" s="16">
         <v>63</v>
       </c>
-      <c r="B64" s="60" t="s">
-        <v>250</v>
+      <c r="B64" s="58" t="s">
+        <v>231</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>34</v>
@@ -5426,10 +5389,10 @@
       </c>
       <c r="I64" s="10"/>
       <c r="J64" s="12" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L64" s="10"/>
       <c r="M64" s="12"/>
@@ -5443,18 +5406,18 @@
       <c r="S64" s="13"/>
       <c r="T64" s="8"/>
     </row>
-    <row r="65" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A65" s="16">
         <v>64</v>
       </c>
-      <c r="B65" s="60" t="s">
-        <v>251</v>
+      <c r="B65" s="58" t="s">
+        <v>232</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>34</v>
@@ -5470,10 +5433,10 @@
       </c>
       <c r="I65" s="10"/>
       <c r="J65" s="12" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L65" s="10"/>
       <c r="M65" s="12"/>
@@ -5487,18 +5450,18 @@
       <c r="S65" s="13"/>
       <c r="T65" s="8"/>
     </row>
-    <row r="66" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A66" s="16">
         <v>65</v>
       </c>
-      <c r="B66" s="60" t="s">
-        <v>252</v>
+      <c r="B66" s="58" t="s">
+        <v>233</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>34</v>
@@ -5514,10 +5477,10 @@
       </c>
       <c r="I66" s="10"/>
       <c r="J66" s="12" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L66" s="10"/>
       <c r="M66" s="12"/>
@@ -5531,18 +5494,18 @@
       <c r="S66" s="13"/>
       <c r="T66" s="8"/>
     </row>
-    <row r="67" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:20" s="9" customFormat="1" ht="24">
       <c r="A67" s="16">
         <v>66</v>
       </c>
-      <c r="B67" s="60" t="s">
-        <v>253</v>
+      <c r="B67" s="58" t="s">
+        <v>234</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>34</v>
@@ -5558,10 +5521,10 @@
       </c>
       <c r="I67" s="10"/>
       <c r="J67" s="12" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L67" s="10"/>
       <c r="M67" s="12"/>
@@ -5575,18 +5538,18 @@
       <c r="S67" s="13"/>
       <c r="T67" s="8"/>
     </row>
-    <row r="68" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:20" s="9" customFormat="1" ht="24">
       <c r="A68" s="16">
         <v>67</v>
       </c>
-      <c r="B68" s="60" t="s">
-        <v>254</v>
+      <c r="B68" s="58" t="s">
+        <v>235</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>34</v>
@@ -5602,10 +5565,10 @@
       </c>
       <c r="I68" s="10"/>
       <c r="J68" s="12" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L68" s="10"/>
       <c r="M68" s="12"/>
@@ -5619,18 +5582,18 @@
       <c r="S68" s="13"/>
       <c r="T68" s="8"/>
     </row>
-    <row r="69" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:20" s="9" customFormat="1" ht="24">
       <c r="A69" s="16">
         <v>68</v>
       </c>
-      <c r="B69" s="60" t="s">
-        <v>255</v>
+      <c r="B69" s="58" t="s">
+        <v>236</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>34</v>
@@ -5646,10 +5609,10 @@
       </c>
       <c r="I69" s="10"/>
       <c r="J69" s="12" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L69" s="10"/>
       <c r="M69" s="12"/>
@@ -5663,18 +5626,18 @@
       <c r="S69" s="13"/>
       <c r="T69" s="8"/>
     </row>
-    <row r="70" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:20" s="9" customFormat="1" ht="24">
       <c r="A70" s="16">
         <v>69</v>
       </c>
-      <c r="B70" s="60" t="s">
-        <v>256</v>
+      <c r="B70" s="58" t="s">
+        <v>237</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>34</v>
@@ -5690,10 +5653,10 @@
       </c>
       <c r="I70" s="10"/>
       <c r="J70" s="12" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L70" s="10"/>
       <c r="M70" s="12"/>
@@ -5707,18 +5670,18 @@
       <c r="S70" s="13"/>
       <c r="T70" s="8"/>
     </row>
-    <row r="71" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:20" s="9" customFormat="1" ht="24">
       <c r="A71" s="16">
         <v>70</v>
       </c>
-      <c r="B71" s="60" t="s">
-        <v>257</v>
+      <c r="B71" s="58" t="s">
+        <v>238</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>34</v>
@@ -5734,10 +5697,10 @@
       </c>
       <c r="I71" s="10"/>
       <c r="J71" s="12" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L71" s="10"/>
       <c r="M71" s="12"/>
@@ -5751,18 +5714,18 @@
       <c r="S71" s="13"/>
       <c r="T71" s="8"/>
     </row>
-    <row r="72" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A72" s="16">
         <v>71</v>
       </c>
-      <c r="B72" s="60" t="s">
-        <v>258</v>
+      <c r="B72" s="58" t="s">
+        <v>239</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>34</v>
@@ -5778,10 +5741,10 @@
       </c>
       <c r="I72" s="10"/>
       <c r="J72" s="12" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L72" s="10"/>
       <c r="M72" s="12"/>
@@ -5795,18 +5758,18 @@
       <c r="S72" s="13"/>
       <c r="T72" s="8"/>
     </row>
-    <row r="73" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A73" s="16">
         <v>72</v>
       </c>
-      <c r="B73" s="60" t="s">
-        <v>259</v>
+      <c r="B73" s="58" t="s">
+        <v>240</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>34</v>
@@ -5822,10 +5785,10 @@
       </c>
       <c r="I73" s="10"/>
       <c r="J73" s="12" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L73" s="10"/>
       <c r="M73" s="12"/>
@@ -5839,18 +5802,18 @@
       <c r="S73" s="13"/>
       <c r="T73" s="8"/>
     </row>
-    <row r="74" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:20" s="9" customFormat="1" ht="24">
       <c r="A74" s="16">
         <v>73</v>
       </c>
-      <c r="B74" s="60" t="s">
-        <v>260</v>
+      <c r="B74" s="58" t="s">
+        <v>241</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>34</v>
@@ -5866,10 +5829,10 @@
       </c>
       <c r="I74" s="10"/>
       <c r="J74" s="12" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L74" s="10"/>
       <c r="M74" s="12"/>
@@ -5883,18 +5846,18 @@
       <c r="S74" s="13"/>
       <c r="T74" s="8"/>
     </row>
-    <row r="75" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A75" s="16">
         <v>74</v>
       </c>
-      <c r="B75" s="60" t="s">
-        <v>261</v>
+      <c r="B75" s="58" t="s">
+        <v>242</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>34</v>
@@ -5910,10 +5873,10 @@
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="12" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L75" s="10"/>
       <c r="M75" s="12"/>
@@ -5927,18 +5890,18 @@
       <c r="S75" s="13"/>
       <c r="T75" s="8"/>
     </row>
-    <row r="76" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:20" s="9" customFormat="1" ht="24">
       <c r="A76" s="16">
         <v>75</v>
       </c>
-      <c r="B76" s="60" t="s">
-        <v>262</v>
+      <c r="B76" s="58" t="s">
+        <v>243</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>34</v>
@@ -5954,10 +5917,10 @@
       </c>
       <c r="I76" s="10"/>
       <c r="J76" s="12" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L76" s="10"/>
       <c r="M76" s="12"/>
@@ -5971,18 +5934,18 @@
       <c r="S76" s="13"/>
       <c r="T76" s="8"/>
     </row>
-    <row r="77" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A77" s="16">
         <v>76</v>
       </c>
-      <c r="B77" s="60" t="s">
-        <v>263</v>
+      <c r="B77" s="58" t="s">
+        <v>244</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>34</v>
@@ -5998,10 +5961,10 @@
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="12" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L77" s="10"/>
       <c r="M77" s="12"/>
@@ -6015,18 +5978,18 @@
       <c r="S77" s="13"/>
       <c r="T77" s="8"/>
     </row>
-    <row r="78" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:20" s="9" customFormat="1" ht="24">
       <c r="A78" s="16">
         <v>77</v>
       </c>
-      <c r="B78" s="60" t="s">
-        <v>264</v>
+      <c r="B78" s="58" t="s">
+        <v>245</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>34</v>
@@ -6042,10 +6005,10 @@
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="12" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L78" s="10"/>
       <c r="M78" s="12"/>
@@ -6059,18 +6022,18 @@
       <c r="S78" s="13"/>
       <c r="T78" s="8"/>
     </row>
-    <row r="79" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:20" s="9" customFormat="1" ht="24">
       <c r="A79" s="16">
         <v>78</v>
       </c>
-      <c r="B79" s="60" t="s">
-        <v>265</v>
+      <c r="B79" s="58" t="s">
+        <v>246</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>34</v>
@@ -6086,10 +6049,10 @@
       </c>
       <c r="I79" s="10"/>
       <c r="J79" s="12" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L79" s="10"/>
       <c r="M79" s="12"/>
@@ -6103,18 +6066,18 @@
       <c r="S79" s="13"/>
       <c r="T79" s="8"/>
     </row>
-    <row r="80" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A80" s="16">
         <v>79</v>
       </c>
-      <c r="B80" s="60" t="s">
-        <v>266</v>
+      <c r="B80" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>34</v>
@@ -6130,10 +6093,10 @@
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="12" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L80" s="10"/>
       <c r="M80" s="12"/>
@@ -6147,18 +6110,18 @@
       <c r="S80" s="13"/>
       <c r="T80" s="8"/>
     </row>
-    <row r="81" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:20" s="9" customFormat="1" ht="24">
       <c r="A81" s="16">
         <v>80</v>
       </c>
-      <c r="B81" s="60" t="s">
-        <v>267</v>
+      <c r="B81" s="58" t="s">
+        <v>248</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>34</v>
@@ -6174,10 +6137,10 @@
       </c>
       <c r="I81" s="10"/>
       <c r="J81" s="12" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L81" s="10"/>
       <c r="M81" s="12"/>
@@ -6191,18 +6154,18 @@
       <c r="S81" s="13"/>
       <c r="T81" s="8"/>
     </row>
-    <row r="82" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:20" s="9" customFormat="1" ht="24">
       <c r="A82" s="16">
         <v>81</v>
       </c>
-      <c r="B82" s="60" t="s">
-        <v>268</v>
+      <c r="B82" s="58" t="s">
+        <v>249</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>34</v>
@@ -6218,10 +6181,10 @@
       </c>
       <c r="I82" s="10"/>
       <c r="J82" s="12" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L82" s="10"/>
       <c r="M82" s="12"/>
@@ -6235,18 +6198,18 @@
       <c r="S82" s="13"/>
       <c r="T82" s="8"/>
     </row>
-    <row r="83" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:20" s="9" customFormat="1" ht="24">
       <c r="A83" s="16">
         <v>82</v>
       </c>
-      <c r="B83" s="60" t="s">
-        <v>269</v>
+      <c r="B83" s="58" t="s">
+        <v>250</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>34</v>
@@ -6262,10 +6225,10 @@
       </c>
       <c r="I83" s="10"/>
       <c r="J83" s="12" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L83" s="10"/>
       <c r="M83" s="12"/>
@@ -6279,18 +6242,18 @@
       <c r="S83" s="13"/>
       <c r="T83" s="8"/>
     </row>
-    <row r="84" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:20" s="9" customFormat="1" ht="24">
       <c r="A84" s="16">
         <v>83</v>
       </c>
-      <c r="B84" s="60" t="s">
-        <v>270</v>
+      <c r="B84" s="58" t="s">
+        <v>251</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>34</v>
@@ -6306,10 +6269,10 @@
       </c>
       <c r="I84" s="10"/>
       <c r="J84" s="12" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L84" s="10"/>
       <c r="M84" s="12"/>
@@ -6323,18 +6286,18 @@
       <c r="S84" s="13"/>
       <c r="T84" s="8"/>
     </row>
-    <row r="85" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:20" s="9" customFormat="1" ht="24">
       <c r="A85" s="16">
         <v>84</v>
       </c>
-      <c r="B85" s="60" t="s">
-        <v>271</v>
+      <c r="B85" s="58" t="s">
+        <v>252</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>34</v>
@@ -6350,10 +6313,10 @@
       </c>
       <c r="I85" s="10"/>
       <c r="J85" s="12" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L85" s="10"/>
       <c r="M85" s="12"/>
@@ -6367,18 +6330,18 @@
       <c r="S85" s="13"/>
       <c r="T85" s="8"/>
     </row>
-    <row r="86" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:20" s="9" customFormat="1" ht="24">
       <c r="A86" s="16">
         <v>85</v>
       </c>
-      <c r="B86" s="60" t="s">
-        <v>272</v>
+      <c r="B86" s="58" t="s">
+        <v>253</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>34</v>
@@ -6394,10 +6357,10 @@
       </c>
       <c r="I86" s="10"/>
       <c r="J86" s="12" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K86" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L86" s="10"/>
       <c r="M86" s="12"/>
@@ -6411,18 +6374,18 @@
       <c r="S86" s="13"/>
       <c r="T86" s="8"/>
     </row>
-    <row r="87" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:20" s="9" customFormat="1" ht="24">
       <c r="A87" s="16">
         <v>86</v>
       </c>
-      <c r="B87" s="60" t="s">
-        <v>273</v>
+      <c r="B87" s="58" t="s">
+        <v>254</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>34</v>
@@ -6438,10 +6401,10 @@
       </c>
       <c r="I87" s="10"/>
       <c r="J87" s="12" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L87" s="10"/>
       <c r="M87" s="12"/>
@@ -6455,18 +6418,18 @@
       <c r="S87" s="13"/>
       <c r="T87" s="8"/>
     </row>
-    <row r="88" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:20" s="9" customFormat="1" ht="24">
       <c r="A88" s="16">
         <v>87</v>
       </c>
-      <c r="B88" s="60" t="s">
-        <v>274</v>
+      <c r="B88" s="58" t="s">
+        <v>255</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>34</v>
@@ -6482,10 +6445,10 @@
       </c>
       <c r="I88" s="10"/>
       <c r="J88" s="12" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L88" s="10"/>
       <c r="M88" s="12"/>
@@ -6499,18 +6462,18 @@
       <c r="S88" s="13"/>
       <c r="T88" s="8"/>
     </row>
-    <row r="89" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:20" s="9" customFormat="1" ht="24">
       <c r="A89" s="16">
         <v>88</v>
       </c>
-      <c r="B89" s="60" t="s">
-        <v>275</v>
+      <c r="B89" s="58" t="s">
+        <v>256</v>
       </c>
       <c r="C89" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>34</v>
@@ -6526,10 +6489,10 @@
       </c>
       <c r="I89" s="10"/>
       <c r="J89" s="12" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K89" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L89" s="10"/>
       <c r="M89" s="12"/>
@@ -6543,18 +6506,18 @@
       <c r="S89" s="13"/>
       <c r="T89" s="8"/>
     </row>
-    <row r="90" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A90" s="16">
         <v>89</v>
       </c>
-      <c r="B90" s="60" t="s">
-        <v>173</v>
+      <c r="B90" s="58" t="s">
+        <v>154</v>
       </c>
       <c r="C90" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>34</v>
@@ -6570,13 +6533,13 @@
       </c>
       <c r="I90" s="10"/>
       <c r="J90" s="12" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L90" s="10" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="M90" s="12" t="s">
         <v>48</v>
@@ -6591,18 +6554,18 @@
       <c r="S90" s="13"/>
       <c r="T90" s="8"/>
     </row>
-    <row r="91" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A91" s="16">
         <v>90</v>
       </c>
-      <c r="B91" s="60" t="s">
-        <v>176</v>
+      <c r="B91" s="58" t="s">
+        <v>157</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>34</v>
@@ -6618,13 +6581,13 @@
       </c>
       <c r="I91" s="10"/>
       <c r="J91" s="12" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K91" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L91" s="10" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="M91" s="12" t="s">
         <v>48</v>
@@ -6639,18 +6602,18 @@
       <c r="S91" s="13"/>
       <c r="T91" s="8"/>
     </row>
-    <row r="92" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:20" s="9" customFormat="1" ht="33">
       <c r="A92" s="16">
         <v>91</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E92" s="10" t="s">
         <v>34</v>
@@ -6666,13 +6629,13 @@
       </c>
       <c r="I92" s="10"/>
       <c r="J92" s="12" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="K92" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L92" s="10" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="M92" s="12" t="s">
         <v>48</v>
@@ -6687,37 +6650,37 @@
       <c r="S92" s="13"/>
       <c r="T92" s="8"/>
     </row>
-    <row r="93" spans="1:20" s="37" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:20" s="37" customFormat="1" ht="27" customHeight="1">
       <c r="A93" s="16">
         <v>92</v>
       </c>
       <c r="B93" s="32" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="F93" s="11">
         <v>42625</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="H93" s="11">
         <v>42634</v>
       </c>
       <c r="I93" s="10"/>
       <c r="J93" s="12" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="K93" s="10" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="L93" s="10"/>
       <c r="M93" s="12"/>
@@ -6727,41 +6690,41 @@
       <c r="Q93" s="30"/>
       <c r="R93" s="30"/>
       <c r="S93" s="47" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="T93" s="36"/>
     </row>
-    <row r="94" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A94" s="16">
         <v>93</v>
       </c>
       <c r="B94" s="33" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="F94" s="11">
         <v>42625</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="H94" s="11">
         <v>42634</v>
       </c>
       <c r="I94" s="10"/>
       <c r="J94" s="12" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="K94" s="10" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="L94" s="12"/>
       <c r="M94" s="12"/>
@@ -6771,44 +6734,44 @@
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
       <c r="S94" s="47" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="T94" s="8"/>
     </row>
-    <row r="95" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A95" s="16">
         <v>94</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="F95" s="11">
         <v>42629</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="H95" s="11">
         <v>42634</v>
       </c>
       <c r="I95" s="10"/>
       <c r="J95" s="12" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="K95" s="10" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="L95" s="10" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="M95" s="12"/>
       <c r="N95" s="11"/>
@@ -6819,40 +6782,40 @@
       <c r="S95" s="13"/>
       <c r="T95" s="8"/>
     </row>
-    <row r="96" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A96" s="16">
         <v>95</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="F96" s="11">
         <v>42630</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="H96" s="11">
         <v>42635</v>
       </c>
       <c r="I96" s="10"/>
       <c r="J96" s="12" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="L96" s="10" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="M96" s="12"/>
       <c r="N96" s="11"/>
@@ -6863,7 +6826,7 @@
       <c r="S96" s="13"/>
       <c r="T96" s="8"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19">
       <c r="A97" s="7"/>
       <c r="B97" s="4"/>
       <c r="C97" s="7"/>
@@ -6884,7 +6847,7 @@
       <c r="R97" s="7"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19">
       <c r="A98" s="7"/>
       <c r="B98" s="4"/>
       <c r="C98" s="7"/>
@@ -6905,7 +6868,7 @@
       <c r="R98" s="7"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19">
       <c r="A99" s="7"/>
       <c r="B99" s="4"/>
       <c r="C99" s="7"/>
@@ -6926,7 +6889,7 @@
       <c r="R99" s="7"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19">
       <c r="A100" s="7"/>
       <c r="B100" s="4"/>
       <c r="C100" s="7"/>
@@ -6947,7 +6910,7 @@
       <c r="R100" s="7"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19">
       <c r="A101" s="7"/>
       <c r="B101" s="4"/>
       <c r="C101" s="7"/>
@@ -6968,7 +6931,7 @@
       <c r="R101" s="7"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19">
       <c r="A102" s="7"/>
       <c r="B102" s="4"/>
       <c r="C102" s="7"/>
@@ -6989,7 +6952,7 @@
       <c r="R102" s="7"/>
       <c r="S102" s="4"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19">
       <c r="A103" s="7"/>
       <c r="B103" s="4"/>
       <c r="C103" s="7"/>
@@ -7010,7 +6973,7 @@
       <c r="R103" s="7"/>
       <c r="S103" s="4"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19">
       <c r="A104" s="7"/>
       <c r="B104" s="4"/>
       <c r="C104" s="7"/>
@@ -7031,7 +6994,7 @@
       <c r="R104" s="7"/>
       <c r="S104" s="4"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19">
       <c r="A105" s="7"/>
       <c r="B105" s="4"/>
       <c r="C105" s="7"/>
@@ -7052,7 +7015,7 @@
       <c r="R105" s="7"/>
       <c r="S105" s="4"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19">
       <c r="A106" s="7"/>
       <c r="B106" s="4"/>
       <c r="C106" s="7"/>
@@ -7073,7 +7036,7 @@
       <c r="R106" s="7"/>
       <c r="S106" s="4"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19">
       <c r="A107" s="7"/>
       <c r="B107" s="4"/>
       <c r="C107" s="7"/>
@@ -7094,7 +7057,7 @@
       <c r="R107" s="7"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19">
       <c r="A108" s="7"/>
       <c r="B108" s="4"/>
       <c r="C108" s="7"/>
@@ -7115,7 +7078,7 @@
       <c r="R108" s="7"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19">
       <c r="A109" s="7"/>
       <c r="B109" s="4"/>
       <c r="C109" s="7"/>
@@ -7136,7 +7099,7 @@
       <c r="R109" s="7"/>
       <c r="S109" s="4"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19">
       <c r="A110" s="7"/>
       <c r="B110" s="4"/>
       <c r="C110" s="7"/>
@@ -7157,7 +7120,7 @@
       <c r="R110" s="7"/>
       <c r="S110" s="4"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19">
       <c r="A111" s="7"/>
       <c r="B111" s="4"/>
       <c r="C111" s="7"/>
@@ -7178,7 +7141,7 @@
       <c r="R111" s="7"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19">
       <c r="A112" s="7"/>
       <c r="B112" s="4"/>
       <c r="C112" s="7"/>
@@ -7199,7 +7162,7 @@
       <c r="R112" s="7"/>
       <c r="S112" s="4"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19">
       <c r="A113" s="7"/>
       <c r="B113" s="4"/>
       <c r="C113" s="7"/>
@@ -7220,7 +7183,7 @@
       <c r="R113" s="7"/>
       <c r="S113" s="4"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19">
       <c r="A114" s="7"/>
       <c r="B114" s="4"/>
       <c r="C114" s="7"/>
@@ -7241,7 +7204,7 @@
       <c r="R114" s="7"/>
       <c r="S114" s="4"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19">
       <c r="A115" s="7"/>
       <c r="B115" s="4"/>
       <c r="C115" s="7"/>
@@ -7262,7 +7225,7 @@
       <c r="R115" s="7"/>
       <c r="S115" s="4"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19">
       <c r="A116" s="7"/>
       <c r="B116" s="4"/>
       <c r="C116" s="7"/>
@@ -7283,7 +7246,7 @@
       <c r="R116" s="7"/>
       <c r="S116" s="4"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19">
       <c r="A117" s="7"/>
       <c r="B117" s="4"/>
       <c r="C117" s="7"/>
@@ -7304,7 +7267,7 @@
       <c r="R117" s="7"/>
       <c r="S117" s="4"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19">
       <c r="A118" s="7"/>
       <c r="B118" s="4"/>
       <c r="C118" s="7"/>
@@ -7322,7 +7285,7 @@
       <c r="O118" s="4"/>
       <c r="S118" s="4"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19">
       <c r="A119" s="7"/>
       <c r="B119" s="4"/>
       <c r="C119" s="7"/>
@@ -7340,7 +7303,7 @@
       <c r="O119" s="4"/>
       <c r="S119" s="4"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19">
       <c r="A120" s="7"/>
       <c r="B120" s="4"/>
       <c r="C120" s="7"/>
@@ -7358,7 +7321,7 @@
       <c r="O120" s="4"/>
       <c r="S120" s="4"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19">
       <c r="A121" s="7"/>
       <c r="B121" s="4"/>
       <c r="C121" s="7"/>
@@ -7376,7 +7339,7 @@
       <c r="O121" s="4"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19">
       <c r="A122" s="7"/>
       <c r="B122" s="4"/>
       <c r="C122" s="7"/>
@@ -7394,7 +7357,7 @@
       <c r="O122" s="4"/>
       <c r="S122" s="4"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19">
       <c r="A123" s="7"/>
       <c r="B123" s="4"/>
       <c r="C123" s="7"/>
@@ -7412,7 +7375,7 @@
       <c r="O123" s="4"/>
       <c r="S123" s="4"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19">
       <c r="A124" s="7"/>
       <c r="B124" s="4"/>
       <c r="C124" s="7"/>
@@ -7430,7 +7393,7 @@
       <c r="O124" s="4"/>
       <c r="S124" s="4"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19">
       <c r="A125" s="7"/>
       <c r="B125" s="4"/>
       <c r="C125" s="7"/>
@@ -7448,7 +7411,7 @@
       <c r="O125" s="4"/>
       <c r="S125" s="4"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19">
       <c r="A126" s="7"/>
       <c r="B126" s="4"/>
       <c r="C126" s="7"/>
@@ -7466,7 +7429,7 @@
       <c r="O126" s="4"/>
       <c r="S126" s="4"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19">
       <c r="A127" s="7"/>
       <c r="B127" s="4"/>
       <c r="C127" s="7"/>
@@ -7484,7 +7447,7 @@
       <c r="O127" s="4"/>
       <c r="S127" s="4"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19">
       <c r="A128" s="7"/>
       <c r="B128" s="4"/>
       <c r="C128" s="7"/>
@@ -7502,7 +7465,7 @@
       <c r="O128" s="4"/>
       <c r="S128" s="4"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19">
       <c r="A129" s="7"/>
       <c r="B129" s="4"/>
       <c r="C129" s="7"/>
@@ -7520,7 +7483,7 @@
       <c r="O129" s="4"/>
       <c r="S129" s="4"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19">
       <c r="A130" s="7"/>
       <c r="B130" s="4"/>
       <c r="C130" s="7"/>
@@ -7538,7 +7501,7 @@
       <c r="O130" s="4"/>
       <c r="S130" s="4"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19">
       <c r="A131" s="7"/>
       <c r="B131" s="4"/>
       <c r="C131" s="7"/>
@@ -7556,7 +7519,7 @@
       <c r="O131" s="4"/>
       <c r="S131" s="4"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19">
       <c r="A132" s="7"/>
       <c r="B132" s="4"/>
       <c r="C132" s="7"/>
@@ -7574,7 +7537,7 @@
       <c r="O132" s="4"/>
       <c r="S132" s="4"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19">
       <c r="A133" s="7"/>
       <c r="B133" s="4"/>
       <c r="C133" s="7"/>
@@ -7592,7 +7555,7 @@
       <c r="O133" s="4"/>
       <c r="S133" s="4"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19">
       <c r="A134" s="7"/>
       <c r="B134" s="4"/>
       <c r="C134" s="7"/>
@@ -7610,7 +7573,7 @@
       <c r="O134" s="4"/>
       <c r="S134" s="4"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19">
       <c r="A135" s="7"/>
       <c r="B135" s="4"/>
       <c r="C135" s="7"/>
@@ -7628,7 +7591,7 @@
       <c r="O135" s="4"/>
       <c r="S135" s="4"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19">
       <c r="A136" s="7"/>
       <c r="B136" s="4"/>
       <c r="C136" s="7"/>
@@ -7646,7 +7609,7 @@
       <c r="O136" s="4"/>
       <c r="S136" s="4"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19">
       <c r="A137" s="7"/>
       <c r="B137" s="4"/>
       <c r="C137" s="7"/>
@@ -7664,7 +7627,7 @@
       <c r="O137" s="4"/>
       <c r="S137" s="4"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19">
       <c r="A138" s="7"/>
       <c r="B138" s="4"/>
       <c r="C138" s="7"/>
@@ -7682,7 +7645,7 @@
       <c r="O138" s="4"/>
       <c r="S138" s="4"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19">
       <c r="A139" s="7"/>
       <c r="B139" s="4"/>
       <c r="C139" s="7"/>
@@ -7700,7 +7663,7 @@
       <c r="O139" s="4"/>
       <c r="S139" s="4"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19">
       <c r="A140" s="7"/>
       <c r="B140" s="4"/>
       <c r="C140" s="7"/>
@@ -7718,7 +7681,7 @@
       <c r="O140" s="4"/>
       <c r="S140" s="4"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19">
       <c r="A141" s="7"/>
       <c r="B141" s="4"/>
       <c r="C141" s="7"/>
@@ -7736,7 +7699,7 @@
       <c r="O141" s="4"/>
       <c r="S141" s="4"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19">
       <c r="A142" s="7"/>
       <c r="B142" s="4"/>
       <c r="C142" s="7"/>
@@ -7754,7 +7717,7 @@
       <c r="O142" s="4"/>
       <c r="S142" s="4"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19">
       <c r="A143" s="7"/>
       <c r="B143" s="4"/>
       <c r="C143" s="7"/>
@@ -7772,7 +7735,7 @@
       <c r="O143" s="4"/>
       <c r="S143" s="4"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19">
       <c r="A144" s="7"/>
       <c r="B144" s="4"/>
       <c r="C144" s="7"/>
@@ -7790,7 +7753,7 @@
       <c r="O144" s="4"/>
       <c r="S144" s="4"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19">
       <c r="A145" s="7"/>
       <c r="B145" s="4"/>
       <c r="C145" s="7"/>
@@ -7808,7 +7771,7 @@
       <c r="O145" s="4"/>
       <c r="S145" s="4"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19">
       <c r="A146" s="7"/>
       <c r="B146" s="4"/>
       <c r="C146" s="7"/>
@@ -7826,7 +7789,7 @@
       <c r="O146" s="4"/>
       <c r="S146" s="4"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19">
       <c r="A147" s="7"/>
       <c r="B147" s="4"/>
       <c r="C147" s="7"/>
@@ -7844,7 +7807,7 @@
       <c r="O147" s="4"/>
       <c r="S147" s="4"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19">
       <c r="A148" s="7"/>
       <c r="B148" s="4"/>
       <c r="C148" s="7"/>
@@ -7862,7 +7825,7 @@
       <c r="O148" s="4"/>
       <c r="S148" s="4"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19">
       <c r="A149" s="7"/>
       <c r="B149" s="4"/>
       <c r="C149" s="7"/>
@@ -7880,7 +7843,7 @@
       <c r="O149" s="4"/>
       <c r="S149" s="4"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19">
       <c r="A150" s="7"/>
       <c r="B150" s="4"/>
       <c r="C150" s="7"/>
@@ -7898,7 +7861,7 @@
       <c r="O150" s="4"/>
       <c r="S150" s="4"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19">
       <c r="A151" s="7"/>
       <c r="B151" s="4"/>
       <c r="C151" s="7"/>
@@ -7916,7 +7879,7 @@
       <c r="O151" s="4"/>
       <c r="S151" s="4"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:19">
       <c r="A152" s="7"/>
       <c r="B152" s="4"/>
       <c r="C152" s="7"/>
@@ -7942,14 +7905,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
@@ -7959,39 +7922,39 @@
     <col min="8" max="13" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="69"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="71"/>
-    </row>
-    <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="67"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+    </row>
+    <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
@@ -8026,54 +7989,54 @@
         <v>31</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="20" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="20" customFormat="1" ht="68.25" customHeight="1">
       <c r="A4" s="22">
         <v>1</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>98</v>
       </c>
       <c r="G4" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>121</v>
-      </c>
       <c r="J4" s="22" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="20" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="20" customFormat="1" ht="33">
       <c r="A5" s="22">
         <v>2</v>
       </c>
@@ -8093,28 +8056,28 @@
         <v>98</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="I5" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="J5" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="K5" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="48" t="s">
-        <v>103</v>
-      </c>
       <c r="M5" s="48" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="20" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="20" customFormat="1" ht="66">
       <c r="A6" s="22">
         <v>3</v>
       </c>
@@ -8128,32 +8091,69 @@
         <v>93</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="F6" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="M6" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="49" t="s">
-        <v>293</v>
-      </c>
-      <c r="H6" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="I6" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="J6" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="K6" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="L6" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="M6" s="49" t="s">
-        <v>111</v>
-      </c>
+    </row>
+    <row r="7" spans="1:13" s="20" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A7" s="22">
+        <v>4</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="M7" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8161,13 +8161,13 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JE1:JE6 WVQ1:WVQ6 WLU1:WLU6 WBY1:WBY6 VSC1:VSC6 VIG1:VIG6 UYK1:UYK6 UOO1:UOO6 UES1:UES6 TUW1:TUW6 TLA1:TLA6 TBE1:TBE6 SRI1:SRI6 SHM1:SHM6 RXQ1:RXQ6 RNU1:RNU6 RDY1:RDY6 QUC1:QUC6 QKG1:QKG6 QAK1:QAK6 PQO1:PQO6 PGS1:PGS6 OWW1:OWW6 ONA1:ONA6 ODE1:ODE6 NTI1:NTI6 NJM1:NJM6 MZQ1:MZQ6 MPU1:MPU6 MFY1:MFY6 LWC1:LWC6 LMG1:LMG6 LCK1:LCK6 KSO1:KSO6 KIS1:KIS6 JYW1:JYW6 JPA1:JPA6 JFE1:JFE6 IVI1:IVI6 ILM1:ILM6 IBQ1:IBQ6 HRU1:HRU6 HHY1:HHY6 GYC1:GYC6 GOG1:GOG6 GEK1:GEK6 FUO1:FUO6 FKS1:FKS6 FAW1:FAW6 ERA1:ERA6 EHE1:EHE6 DXI1:DXI6 DNM1:DNM6 DDQ1:DDQ6 CTU1:CTU6 CJY1:CJY6 CAC1:CAC6 BQG1:BQG6 BGK1:BGK6 AWO1:AWO6 AMS1:AMS6 ACW1:ACW6 TA1:TA6 I1:I3 I5:I6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JE1:JE7 WVQ1:WVQ7 WLU1:WLU7 WBY1:WBY7 VSC1:VSC7 VIG1:VIG7 UYK1:UYK7 UOO1:UOO7 UES1:UES7 TUW1:TUW7 TLA1:TLA7 TBE1:TBE7 SRI1:SRI7 SHM1:SHM7 RXQ1:RXQ7 RNU1:RNU7 RDY1:RDY7 QUC1:QUC7 QKG1:QKG7 QAK1:QAK7 PQO1:PQO7 PGS1:PGS7 OWW1:OWW7 ONA1:ONA7 ODE1:ODE7 NTI1:NTI7 NJM1:NJM7 MZQ1:MZQ7 MPU1:MPU7 MFY1:MFY7 LWC1:LWC7 LMG1:LMG7 LCK1:LCK7 KSO1:KSO7 KIS1:KIS7 JYW1:JYW7 JPA1:JPA7 JFE1:JFE7 IVI1:IVI7 ILM1:ILM7 IBQ1:IBQ7 HRU1:HRU7 HHY1:HHY7 GYC1:GYC7 GOG1:GOG7 GEK1:GEK7 FUO1:FUO7 FKS1:FKS7 FAW1:FAW7 ERA1:ERA7 EHE1:EHE7 DXI1:DXI7 DNM1:DNM7 DDQ1:DDQ7 CTU1:CTU7 CJY1:CJY7 CAC1:CAC7 BQG1:BQG7 BGK1:BGK7 AWO1:AWO7 AMS1:AMS7 ACW1:ACW7 TA1:TA7 I1:I3 I5:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F6 JB4:JB6 SX4:SX6 ACT4:ACT6 AMP4:AMP6 AWL4:AWL6 BGH4:BGH6 BQD4:BQD6 BZZ4:BZZ6 CJV4:CJV6 CTR4:CTR6 DDN4:DDN6 DNJ4:DNJ6 DXF4:DXF6 EHB4:EHB6 EQX4:EQX6 FAT4:FAT6 FKP4:FKP6 FUL4:FUL6 GEH4:GEH6 GOD4:GOD6 GXZ4:GXZ6 HHV4:HHV6 HRR4:HRR6 IBN4:IBN6 ILJ4:ILJ6 IVF4:IVF6 JFB4:JFB6 JOX4:JOX6 JYT4:JYT6 KIP4:KIP6 KSL4:KSL6 LCH4:LCH6 LMD4:LMD6 LVZ4:LVZ6 MFV4:MFV6 MPR4:MPR6 MZN4:MZN6 NJJ4:NJJ6 NTF4:NTF6 ODB4:ODB6 OMX4:OMX6 OWT4:OWT6 PGP4:PGP6 PQL4:PQL6 QAH4:QAH6 QKD4:QKD6 QTZ4:QTZ6 RDV4:RDV6 RNR4:RNR6 RXN4:RXN6 SHJ4:SHJ6 SRF4:SRF6 TBB4:TBB6 TKX4:TKX6 TUT4:TUT6 UEP4:UEP6 UOL4:UOL6 UYH4:UYH6 VID4:VID6 VRZ4:VRZ6 WBV4:WBV6 WLR4:WLR6 WVN4:WVN6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F7 JB4:JB7 SX4:SX7 ACT4:ACT7 AMP4:AMP7 AWL4:AWL7 BGH4:BGH7 BQD4:BQD7 BZZ4:BZZ7 CJV4:CJV7 CTR4:CTR7 DDN4:DDN7 DNJ4:DNJ7 DXF4:DXF7 EHB4:EHB7 EQX4:EQX7 FAT4:FAT7 FKP4:FKP7 FUL4:FUL7 GEH4:GEH7 GOD4:GOD7 GXZ4:GXZ7 HHV4:HHV7 HRR4:HRR7 IBN4:IBN7 ILJ4:ILJ7 IVF4:IVF7 JFB4:JFB7 JOX4:JOX7 JYT4:JYT7 KIP4:KIP7 KSL4:KSL7 LCH4:LCH7 LMD4:LMD7 LVZ4:LVZ7 MFV4:MFV7 MPR4:MPR7 MZN4:MZN7 NJJ4:NJJ7 NTF4:NTF7 ODB4:ODB7 OMX4:OMX7 OWT4:OWT7 PGP4:PGP7 PQL4:PQL7 QAH4:QAH7 QKD4:QKD7 QTZ4:QTZ7 RDV4:RDV7 RNR4:RNR7 RXN4:RXN7 SHJ4:SHJ7 SRF4:SRF7 TBB4:TBB7 TKX4:TKX7 TUT4:TUT7 UEP4:UEP7 UOL4:UOL7 UYH4:UYH7 VID4:VID7 VRZ4:VRZ7 WBV4:WBV7 WLR4:WLR7 WVN4:WVN7">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8176,14 +8176,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="8.125" style="26" customWidth="1"/>
@@ -9019,39 +9019,39 @@
     <col min="16141" max="16141" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="69"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="71"/>
-    </row>
-    <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="67"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+    </row>
+    <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
@@ -9092,85 +9092,85 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="20" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="20" customFormat="1" ht="68.25" customHeight="1">
       <c r="A4" s="22">
         <v>1</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>98</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>35</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="20" customFormat="1" ht="39.75" customHeight="1">
       <c r="A5" s="22">
         <v>2</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="M5" s="22"/>
     </row>
-    <row r="6" spans="1:13" s="20" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="20" customFormat="1" ht="33">
       <c r="A6" s="22">
         <v>3</v>
       </c>
@@ -9190,28 +9190,28 @@
         <v>98</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="I6" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="L6" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="J6" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="K6" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="L6" s="48" t="s">
-        <v>103</v>
-      </c>
       <c r="M6" s="48" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="20" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="20" customFormat="1" ht="66">
       <c r="A7" s="22">
         <v>4</v>
       </c>
@@ -9225,34 +9225,34 @@
         <v>93</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="F7" s="48" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G7" s="49" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I7" s="48" t="s">
         <v>35</v>
       </c>
       <c r="J7" s="48" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K7" s="48" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L7" s="48" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M7" s="49" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -9267,7 +9267,7 @@
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
     </row>
-    <row r="9" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -9282,7 +9282,7 @@
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
     </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -9297,7 +9297,7 @@
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
     </row>
-    <row r="11" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -9334,14 +9334,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="26" customWidth="1"/>
@@ -10177,39 +10177,39 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="69"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="71"/>
-    </row>
-    <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="67"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+    </row>
+    <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
@@ -10244,69 +10244,91 @@
         <v>31</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="20" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="20" customFormat="1" ht="68.25" customHeight="1">
       <c r="A4" s="22">
         <v>1</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>98</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H4" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="J4" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="20" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A5" s="22">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="J4" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="24"/>
-    </row>
-    <row r="6" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I5" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="M5" s="22"/>
+    </row>
+    <row r="6" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -10321,7 +10343,7 @@
       <c r="L6" s="22"/>
       <c r="M6" s="24"/>
     </row>
-    <row r="7" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -10336,7 +10358,7 @@
       <c r="L7" s="22"/>
       <c r="M7" s="22"/>
     </row>
-    <row r="8" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -10351,7 +10373,7 @@
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
     </row>
-    <row r="9" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -10366,7 +10388,7 @@
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
     </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -10381,7 +10403,7 @@
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
     </row>
-    <row r="11" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -10396,7 +10418,7 @@
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
     </row>
-    <row r="12" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -10411,7 +10433,7 @@
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
     </row>
-    <row r="13" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" s="20" customFormat="1" ht="16.5">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -10432,223 +10454,16 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I5">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65537:F65549 F131073:F131085 F196609:F196621 F262145:F262157 F327681:F327693 F393217:F393229 F458753:F458765 F524289:F524301 F589825:F589837 F655361:F655373 F720897:F720909 F786433:F786445 F851969:F851981 F917505:F917517 F983041:F983053 JB65537:JB65549 JB131073:JB131085 JB196609:JB196621 JB262145:JB262157 JB327681:JB327693 JB393217:JB393229 JB458753:JB458765 JB524289:JB524301 JB589825:JB589837 JB655361:JB655373 JB720897:JB720909 JB786433:JB786445 JB851969:JB851981 JB917505:JB917517 JB983041:JB983053 SX65537:SX65549 SX131073:SX131085 SX196609:SX196621 SX262145:SX262157 SX327681:SX327693 SX393217:SX393229 SX458753:SX458765 SX524289:SX524301 SX589825:SX589837 SX655361:SX655373 SX720897:SX720909 SX786433:SX786445 SX851969:SX851981 SX917505:SX917517 SX983041:SX983053 ACT65537:ACT65549 ACT131073:ACT131085 ACT196609:ACT196621 ACT262145:ACT262157 ACT327681:ACT327693 ACT393217:ACT393229 ACT458753:ACT458765 ACT524289:ACT524301 ACT589825:ACT589837 ACT655361:ACT655373 ACT720897:ACT720909 ACT786433:ACT786445 ACT851969:ACT851981 ACT917505:ACT917517 ACT983041:ACT983053 AMP65537:AMP65549 AMP131073:AMP131085 AMP196609:AMP196621 AMP262145:AMP262157 AMP327681:AMP327693 AMP393217:AMP393229 AMP458753:AMP458765 AMP524289:AMP524301 AMP589825:AMP589837 AMP655361:AMP655373 AMP720897:AMP720909 AMP786433:AMP786445 AMP851969:AMP851981 AMP917505:AMP917517 AMP983041:AMP983053 AWL65537:AWL65549 AWL131073:AWL131085 AWL196609:AWL196621 AWL262145:AWL262157 AWL327681:AWL327693 AWL393217:AWL393229 AWL458753:AWL458765 AWL524289:AWL524301 AWL589825:AWL589837 AWL655361:AWL655373 AWL720897:AWL720909 AWL786433:AWL786445 AWL851969:AWL851981 AWL917505:AWL917517 AWL983041:AWL983053 BGH65537:BGH65549 BGH131073:BGH131085 BGH196609:BGH196621 BGH262145:BGH262157 BGH327681:BGH327693 BGH393217:BGH393229 BGH458753:BGH458765 BGH524289:BGH524301 BGH589825:BGH589837 BGH655361:BGH655373 BGH720897:BGH720909 BGH786433:BGH786445 BGH851969:BGH851981 BGH917505:BGH917517 BGH983041:BGH983053 BQD65537:BQD65549 BQD131073:BQD131085 BQD196609:BQD196621 BQD262145:BQD262157 BQD327681:BQD327693 BQD393217:BQD393229 BQD458753:BQD458765 BQD524289:BQD524301 BQD589825:BQD589837 BQD655361:BQD655373 BQD720897:BQD720909 BQD786433:BQD786445 BQD851969:BQD851981 BQD917505:BQD917517 BQD983041:BQD983053 BZZ65537:BZZ65549 BZZ131073:BZZ131085 BZZ196609:BZZ196621 BZZ262145:BZZ262157 BZZ327681:BZZ327693 BZZ393217:BZZ393229 BZZ458753:BZZ458765 BZZ524289:BZZ524301 BZZ589825:BZZ589837 BZZ655361:BZZ655373 BZZ720897:BZZ720909 BZZ786433:BZZ786445 BZZ851969:BZZ851981 BZZ917505:BZZ917517 BZZ983041:BZZ983053 CJV65537:CJV65549 CJV131073:CJV131085 CJV196609:CJV196621 CJV262145:CJV262157 CJV327681:CJV327693 CJV393217:CJV393229 CJV458753:CJV458765 CJV524289:CJV524301 CJV589825:CJV589837 CJV655361:CJV655373 CJV720897:CJV720909 CJV786433:CJV786445 CJV851969:CJV851981 CJV917505:CJV917517 CJV983041:CJV983053 CTR65537:CTR65549 CTR131073:CTR131085 CTR196609:CTR196621 CTR262145:CTR262157 CTR327681:CTR327693 CTR393217:CTR393229 CTR458753:CTR458765 CTR524289:CTR524301 CTR589825:CTR589837 CTR655361:CTR655373 CTR720897:CTR720909 CTR786433:CTR786445 CTR851969:CTR851981 CTR917505:CTR917517 CTR983041:CTR983053 DDN65537:DDN65549 DDN131073:DDN131085 DDN196609:DDN196621 DDN262145:DDN262157 DDN327681:DDN327693 DDN393217:DDN393229 DDN458753:DDN458765 DDN524289:DDN524301 DDN589825:DDN589837 DDN655361:DDN655373 DDN720897:DDN720909 DDN786433:DDN786445 DDN851969:DDN851981 DDN917505:DDN917517 DDN983041:DDN983053 DNJ65537:DNJ65549 DNJ131073:DNJ131085 DNJ196609:DNJ196621 DNJ262145:DNJ262157 DNJ327681:DNJ327693 DNJ393217:DNJ393229 DNJ458753:DNJ458765 DNJ524289:DNJ524301 DNJ589825:DNJ589837 DNJ655361:DNJ655373 DNJ720897:DNJ720909 DNJ786433:DNJ786445 DNJ851969:DNJ851981 DNJ917505:DNJ917517 DNJ983041:DNJ983053 DXF65537:DXF65549 DXF131073:DXF131085 DXF196609:DXF196621 DXF262145:DXF262157 DXF327681:DXF327693 DXF393217:DXF393229 DXF458753:DXF458765 DXF524289:DXF524301 DXF589825:DXF589837 DXF655361:DXF655373 DXF720897:DXF720909 DXF786433:DXF786445 DXF851969:DXF851981 DXF917505:DXF917517 DXF983041:DXF983053 EHB65537:EHB65549 EHB131073:EHB131085 EHB196609:EHB196621 EHB262145:EHB262157 EHB327681:EHB327693 EHB393217:EHB393229 EHB458753:EHB458765 EHB524289:EHB524301 EHB589825:EHB589837 EHB655361:EHB655373 EHB720897:EHB720909 EHB786433:EHB786445 EHB851969:EHB851981 EHB917505:EHB917517 EHB983041:EHB983053 EQX65537:EQX65549 EQX131073:EQX131085 EQX196609:EQX196621 EQX262145:EQX262157 EQX327681:EQX327693 EQX393217:EQX393229 EQX458753:EQX458765 EQX524289:EQX524301 EQX589825:EQX589837 EQX655361:EQX655373 EQX720897:EQX720909 EQX786433:EQX786445 EQX851969:EQX851981 EQX917505:EQX917517 EQX983041:EQX983053 FAT65537:FAT65549 FAT131073:FAT131085 FAT196609:FAT196621 FAT262145:FAT262157 FAT327681:FAT327693 FAT393217:FAT393229 FAT458753:FAT458765 FAT524289:FAT524301 FAT589825:FAT589837 FAT655361:FAT655373 FAT720897:FAT720909 FAT786433:FAT786445 FAT851969:FAT851981 FAT917505:FAT917517 FAT983041:FAT983053 FKP65537:FKP65549 FKP131073:FKP131085 FKP196609:FKP196621 FKP262145:FKP262157 FKP327681:FKP327693 FKP393217:FKP393229 FKP458753:FKP458765 FKP524289:FKP524301 FKP589825:FKP589837 FKP655361:FKP655373 FKP720897:FKP720909 FKP786433:FKP786445 FKP851969:FKP851981 FKP917505:FKP917517 FKP983041:FKP983053 FUL65537:FUL65549 FUL131073:FUL131085 FUL196609:FUL196621 FUL262145:FUL262157 FUL327681:FUL327693 FUL393217:FUL393229 FUL458753:FUL458765 FUL524289:FUL524301 FUL589825:FUL589837 FUL655361:FUL655373 FUL720897:FUL720909 FUL786433:FUL786445 FUL851969:FUL851981 FUL917505:FUL917517 FUL983041:FUL983053 GEH65537:GEH65549 GEH131073:GEH131085 GEH196609:GEH196621 GEH262145:GEH262157 GEH327681:GEH327693 GEH393217:GEH393229 GEH458753:GEH458765 GEH524289:GEH524301 GEH589825:GEH589837 GEH655361:GEH655373 GEH720897:GEH720909 GEH786433:GEH786445 GEH851969:GEH851981 GEH917505:GEH917517 GEH983041:GEH983053 GOD65537:GOD65549 GOD131073:GOD131085 GOD196609:GOD196621 GOD262145:GOD262157 GOD327681:GOD327693 GOD393217:GOD393229 GOD458753:GOD458765 GOD524289:GOD524301 GOD589825:GOD589837 GOD655361:GOD655373 GOD720897:GOD720909 GOD786433:GOD786445 GOD851969:GOD851981 GOD917505:GOD917517 GOD983041:GOD983053 GXZ65537:GXZ65549 GXZ131073:GXZ131085 GXZ196609:GXZ196621 GXZ262145:GXZ262157 GXZ327681:GXZ327693 GXZ393217:GXZ393229 GXZ458753:GXZ458765 GXZ524289:GXZ524301 GXZ589825:GXZ589837 GXZ655361:GXZ655373 GXZ720897:GXZ720909 GXZ786433:GXZ786445 GXZ851969:GXZ851981 GXZ917505:GXZ917517 GXZ983041:GXZ983053 HHV65537:HHV65549 HHV131073:HHV131085 HHV196609:HHV196621 HHV262145:HHV262157 HHV327681:HHV327693 HHV393217:HHV393229 HHV458753:HHV458765 HHV524289:HHV524301 HHV589825:HHV589837 HHV655361:HHV655373 HHV720897:HHV720909 HHV786433:HHV786445 HHV851969:HHV851981 HHV917505:HHV917517 HHV983041:HHV983053 HRR65537:HRR65549 HRR131073:HRR131085 HRR196609:HRR196621 HRR262145:HRR262157 HRR327681:HRR327693 HRR393217:HRR393229 HRR458753:HRR458765 HRR524289:HRR524301 HRR589825:HRR589837 HRR655361:HRR655373 HRR720897:HRR720909 HRR786433:HRR786445 HRR851969:HRR851981 HRR917505:HRR917517 HRR983041:HRR983053 IBN65537:IBN65549 IBN131073:IBN131085 IBN196609:IBN196621 IBN262145:IBN262157 IBN327681:IBN327693 IBN393217:IBN393229 IBN458753:IBN458765 IBN524289:IBN524301 IBN589825:IBN589837 IBN655361:IBN655373 IBN720897:IBN720909 IBN786433:IBN786445 IBN851969:IBN851981 IBN917505:IBN917517 IBN983041:IBN983053 ILJ65537:ILJ65549 ILJ131073:ILJ131085 ILJ196609:ILJ196621 ILJ262145:ILJ262157 ILJ327681:ILJ327693 ILJ393217:ILJ393229 ILJ458753:ILJ458765 ILJ524289:ILJ524301 ILJ589825:ILJ589837 ILJ655361:ILJ655373 ILJ720897:ILJ720909 ILJ786433:ILJ786445 ILJ851969:ILJ851981 ILJ917505:ILJ917517 ILJ983041:ILJ983053 IVF65537:IVF65549 IVF131073:IVF131085 IVF196609:IVF196621 IVF262145:IVF262157 IVF327681:IVF327693 IVF393217:IVF393229 IVF458753:IVF458765 IVF524289:IVF524301 IVF589825:IVF589837 IVF655361:IVF655373 IVF720897:IVF720909 IVF786433:IVF786445 IVF851969:IVF851981 IVF917505:IVF917517 IVF983041:IVF983053 JFB65537:JFB65549 JFB131073:JFB131085 JFB196609:JFB196621 JFB262145:JFB262157 JFB327681:JFB327693 JFB393217:JFB393229 JFB458753:JFB458765 JFB524289:JFB524301 JFB589825:JFB589837 JFB655361:JFB655373 JFB720897:JFB720909 JFB786433:JFB786445 JFB851969:JFB851981 JFB917505:JFB917517 JFB983041:JFB983053 JOX65537:JOX65549 JOX131073:JOX131085 JOX196609:JOX196621 JOX262145:JOX262157 JOX327681:JOX327693 JOX393217:JOX393229 JOX458753:JOX458765 JOX524289:JOX524301 JOX589825:JOX589837 JOX655361:JOX655373 JOX720897:JOX720909 JOX786433:JOX786445 JOX851969:JOX851981 JOX917505:JOX917517 JOX983041:JOX983053 JYT65537:JYT65549 JYT131073:JYT131085 JYT196609:JYT196621 JYT262145:JYT262157 JYT327681:JYT327693 JYT393217:JYT393229 JYT458753:JYT458765 JYT524289:JYT524301 JYT589825:JYT589837 JYT655361:JYT655373 JYT720897:JYT720909 JYT786433:JYT786445 JYT851969:JYT851981 JYT917505:JYT917517 JYT983041:JYT983053 KIP65537:KIP65549 KIP131073:KIP131085 KIP196609:KIP196621 KIP262145:KIP262157 KIP327681:KIP327693 KIP393217:KIP393229 KIP458753:KIP458765 KIP524289:KIP524301 KIP589825:KIP589837 KIP655361:KIP655373 KIP720897:KIP720909 KIP786433:KIP786445 KIP851969:KIP851981 KIP917505:KIP917517 KIP983041:KIP983053 KSL65537:KSL65549 KSL131073:KSL131085 KSL196609:KSL196621 KSL262145:KSL262157 KSL327681:KSL327693 KSL393217:KSL393229 KSL458753:KSL458765 KSL524289:KSL524301 KSL589825:KSL589837 KSL655361:KSL655373 KSL720897:KSL720909 KSL786433:KSL786445 KSL851969:KSL851981 KSL917505:KSL917517 KSL983041:KSL983053 LCH65537:LCH65549 LCH131073:LCH131085 LCH196609:LCH196621 LCH262145:LCH262157 LCH327681:LCH327693 LCH393217:LCH393229 LCH458753:LCH458765 LCH524289:LCH524301 LCH589825:LCH589837 LCH655361:LCH655373 LCH720897:LCH720909 LCH786433:LCH786445 LCH851969:LCH851981 LCH917505:LCH917517 LCH983041:LCH983053 LMD65537:LMD65549 LMD131073:LMD131085 LMD196609:LMD196621 LMD262145:LMD262157 LMD327681:LMD327693 LMD393217:LMD393229 LMD458753:LMD458765 LMD524289:LMD524301 LMD589825:LMD589837 LMD655361:LMD655373 LMD720897:LMD720909 LMD786433:LMD786445 LMD851969:LMD851981 LMD917505:LMD917517 LMD983041:LMD983053 LVZ65537:LVZ65549 LVZ131073:LVZ131085 LVZ196609:LVZ196621 LVZ262145:LVZ262157 LVZ327681:LVZ327693 LVZ393217:LVZ393229 LVZ458753:LVZ458765 LVZ524289:LVZ524301 LVZ589825:LVZ589837 LVZ655361:LVZ655373 LVZ720897:LVZ720909 LVZ786433:LVZ786445 LVZ851969:LVZ851981 LVZ917505:LVZ917517 LVZ983041:LVZ983053 MFV65537:MFV65549 MFV131073:MFV131085 MFV196609:MFV196621 MFV262145:MFV262157 MFV327681:MFV327693 MFV393217:MFV393229 MFV458753:MFV458765 MFV524289:MFV524301 MFV589825:MFV589837 MFV655361:MFV655373 MFV720897:MFV720909 MFV786433:MFV786445 MFV851969:MFV851981 MFV917505:MFV917517 MFV983041:MFV983053 MPR65537:MPR65549 MPR131073:MPR131085 MPR196609:MPR196621 MPR262145:MPR262157 MPR327681:MPR327693 MPR393217:MPR393229 MPR458753:MPR458765 MPR524289:MPR524301 MPR589825:MPR589837 MPR655361:MPR655373 MPR720897:MPR720909 MPR786433:MPR786445 MPR851969:MPR851981 MPR917505:MPR917517 MPR983041:MPR983053 MZN65537:MZN65549 MZN131073:MZN131085 MZN196609:MZN196621 MZN262145:MZN262157 MZN327681:MZN327693 MZN393217:MZN393229 MZN458753:MZN458765 MZN524289:MZN524301 MZN589825:MZN589837 MZN655361:MZN655373 MZN720897:MZN720909 MZN786433:MZN786445 MZN851969:MZN851981 MZN917505:MZN917517 MZN983041:MZN983053 NJJ65537:NJJ65549 NJJ131073:NJJ131085 NJJ196609:NJJ196621 NJJ262145:NJJ262157 NJJ327681:NJJ327693 NJJ393217:NJJ393229 NJJ458753:NJJ458765 NJJ524289:NJJ524301 NJJ589825:NJJ589837 NJJ655361:NJJ655373 NJJ720897:NJJ720909 NJJ786433:NJJ786445 NJJ851969:NJJ851981 NJJ917505:NJJ917517 NJJ983041:NJJ983053 NTF65537:NTF65549 NTF131073:NTF131085 NTF196609:NTF196621 NTF262145:NTF262157 NTF327681:NTF327693 NTF393217:NTF393229 NTF458753:NTF458765 NTF524289:NTF524301 NTF589825:NTF589837 NTF655361:NTF655373 NTF720897:NTF720909 NTF786433:NTF786445 NTF851969:NTF851981 NTF917505:NTF917517 NTF983041:NTF983053 ODB65537:ODB65549 ODB131073:ODB131085 ODB196609:ODB196621 ODB262145:ODB262157 ODB327681:ODB327693 ODB393217:ODB393229 ODB458753:ODB458765 ODB524289:ODB524301 ODB589825:ODB589837 ODB655361:ODB655373 ODB720897:ODB720909 ODB786433:ODB786445 ODB851969:ODB851981 ODB917505:ODB917517 ODB983041:ODB983053 OMX65537:OMX65549 OMX131073:OMX131085 OMX196609:OMX196621 OMX262145:OMX262157 OMX327681:OMX327693 OMX393217:OMX393229 OMX458753:OMX458765 OMX524289:OMX524301 OMX589825:OMX589837 OMX655361:OMX655373 OMX720897:OMX720909 OMX786433:OMX786445 OMX851969:OMX851981 OMX917505:OMX917517 OMX983041:OMX983053 OWT65537:OWT65549 OWT131073:OWT131085 OWT196609:OWT196621 OWT262145:OWT262157 OWT327681:OWT327693 OWT393217:OWT393229 OWT458753:OWT458765 OWT524289:OWT524301 OWT589825:OWT589837 OWT655361:OWT655373 OWT720897:OWT720909 OWT786433:OWT786445 OWT851969:OWT851981 OWT917505:OWT917517 OWT983041:OWT983053 PGP65537:PGP65549 PGP131073:PGP131085 PGP196609:PGP196621 PGP262145:PGP262157 PGP327681:PGP327693 PGP393217:PGP393229 PGP458753:PGP458765 PGP524289:PGP524301 PGP589825:PGP589837 PGP655361:PGP655373 PGP720897:PGP720909 PGP786433:PGP786445 PGP851969:PGP851981 PGP917505:PGP917517 PGP983041:PGP983053 PQL65537:PQL65549 PQL131073:PQL131085 PQL196609:PQL196621 PQL262145:PQL262157 PQL327681:PQL327693 PQL393217:PQL393229 PQL458753:PQL458765 PQL524289:PQL524301 PQL589825:PQL589837 PQL655361:PQL655373 PQL720897:PQL720909 PQL786433:PQL786445 PQL851969:PQL851981 PQL917505:PQL917517 PQL983041:PQL983053 QAH65537:QAH65549 QAH131073:QAH131085 QAH196609:QAH196621 QAH262145:QAH262157 QAH327681:QAH327693 QAH393217:QAH393229 QAH458753:QAH458765 QAH524289:QAH524301 QAH589825:QAH589837 QAH655361:QAH655373 QAH720897:QAH720909 QAH786433:QAH786445 QAH851969:QAH851981 QAH917505:QAH917517 QAH983041:QAH983053 QKD65537:QKD65549 QKD131073:QKD131085 QKD196609:QKD196621 QKD262145:QKD262157 QKD327681:QKD327693 QKD393217:QKD393229 QKD458753:QKD458765 QKD524289:QKD524301 QKD589825:QKD589837 QKD655361:QKD655373 QKD720897:QKD720909 QKD786433:QKD786445 QKD851969:QKD851981 QKD917505:QKD917517 QKD983041:QKD983053 QTZ65537:QTZ65549 QTZ131073:QTZ131085 QTZ196609:QTZ196621 QTZ262145:QTZ262157 QTZ327681:QTZ327693 QTZ393217:QTZ393229 QTZ458753:QTZ458765 QTZ524289:QTZ524301 QTZ589825:QTZ589837 QTZ655361:QTZ655373 QTZ720897:QTZ720909 QTZ786433:QTZ786445 QTZ851969:QTZ851981 QTZ917505:QTZ917517 QTZ983041:QTZ983053 RDV65537:RDV65549 RDV131073:RDV131085 RDV196609:RDV196621 RDV262145:RDV262157 RDV327681:RDV327693 RDV393217:RDV393229 RDV458753:RDV458765 RDV524289:RDV524301 RDV589825:RDV589837 RDV655361:RDV655373 RDV720897:RDV720909 RDV786433:RDV786445 RDV851969:RDV851981 RDV917505:RDV917517 RDV983041:RDV983053 RNR65537:RNR65549 RNR131073:RNR131085 RNR196609:RNR196621 RNR262145:RNR262157 RNR327681:RNR327693 RNR393217:RNR393229 RNR458753:RNR458765 RNR524289:RNR524301 RNR589825:RNR589837 RNR655361:RNR655373 RNR720897:RNR720909 RNR786433:RNR786445 RNR851969:RNR851981 RNR917505:RNR917517 RNR983041:RNR983053 RXN65537:RXN65549 RXN131073:RXN131085 RXN196609:RXN196621 RXN262145:RXN262157 RXN327681:RXN327693 RXN393217:RXN393229 RXN458753:RXN458765 RXN524289:RXN524301 RXN589825:RXN589837 RXN655361:RXN655373 RXN720897:RXN720909 RXN786433:RXN786445 RXN851969:RXN851981 RXN917505:RXN917517 RXN983041:RXN983053 SHJ65537:SHJ65549 SHJ131073:SHJ131085 SHJ196609:SHJ196621 SHJ262145:SHJ262157 SHJ327681:SHJ327693 SHJ393217:SHJ393229 SHJ458753:SHJ458765 SHJ524289:SHJ524301 SHJ589825:SHJ589837 SHJ655361:SHJ655373 SHJ720897:SHJ720909 SHJ786433:SHJ786445 SHJ851969:SHJ851981 SHJ917505:SHJ917517 SHJ983041:SHJ983053 SRF65537:SRF65549 SRF131073:SRF131085 SRF196609:SRF196621 SRF262145:SRF262157 SRF327681:SRF327693 SRF393217:SRF393229 SRF458753:SRF458765 SRF524289:SRF524301 SRF589825:SRF589837 SRF655361:SRF655373 SRF720897:SRF720909 SRF786433:SRF786445 SRF851969:SRF851981 SRF917505:SRF917517 SRF983041:SRF983053 TBB65537:TBB65549 TBB131073:TBB131085 TBB196609:TBB196621 TBB262145:TBB262157 TBB327681:TBB327693 TBB393217:TBB393229 TBB458753:TBB458765 TBB524289:TBB524301 TBB589825:TBB589837 TBB655361:TBB655373 TBB720897:TBB720909 TBB786433:TBB786445 TBB851969:TBB851981 TBB917505:TBB917517 TBB983041:TBB983053 TKX65537:TKX65549 TKX131073:TKX131085 TKX196609:TKX196621 TKX262145:TKX262157 TKX327681:TKX327693 TKX393217:TKX393229 TKX458753:TKX458765 TKX524289:TKX524301 TKX589825:TKX589837 TKX655361:TKX655373 TKX720897:TKX720909 TKX786433:TKX786445 TKX851969:TKX851981 TKX917505:TKX917517 TKX983041:TKX983053 TUT65537:TUT65549 TUT131073:TUT131085 TUT196609:TUT196621 TUT262145:TUT262157 TUT327681:TUT327693 TUT393217:TUT393229 TUT458753:TUT458765 TUT524289:TUT524301 TUT589825:TUT589837 TUT655361:TUT655373 TUT720897:TUT720909 TUT786433:TUT786445 TUT851969:TUT851981 TUT917505:TUT917517 TUT983041:TUT983053 UEP65537:UEP65549 UEP131073:UEP131085 UEP196609:UEP196621 UEP262145:UEP262157 UEP327681:UEP327693 UEP393217:UEP393229 UEP458753:UEP458765 UEP524289:UEP524301 UEP589825:UEP589837 UEP655361:UEP655373 UEP720897:UEP720909 UEP786433:UEP786445 UEP851969:UEP851981 UEP917505:UEP917517 UEP983041:UEP983053 UOL65537:UOL65549 UOL131073:UOL131085 UOL196609:UOL196621 UOL262145:UOL262157 UOL327681:UOL327693 UOL393217:UOL393229 UOL458753:UOL458765 UOL524289:UOL524301 UOL589825:UOL589837 UOL655361:UOL655373 UOL720897:UOL720909 UOL786433:UOL786445 UOL851969:UOL851981 UOL917505:UOL917517 UOL983041:UOL983053 UYH65537:UYH65549 UYH131073:UYH131085 UYH196609:UYH196621 UYH262145:UYH262157 UYH327681:UYH327693 UYH393217:UYH393229 UYH458753:UYH458765 UYH524289:UYH524301 UYH589825:UYH589837 UYH655361:UYH655373 UYH720897:UYH720909 UYH786433:UYH786445 UYH851969:UYH851981 UYH917505:UYH917517 UYH983041:UYH983053 VID65537:VID65549 VID131073:VID131085 VID196609:VID196621 VID262145:VID262157 VID327681:VID327693 VID393217:VID393229 VID458753:VID458765 VID524289:VID524301 VID589825:VID589837 VID655361:VID655373 VID720897:VID720909 VID786433:VID786445 VID851969:VID851981 VID917505:VID917517 VID983041:VID983053 VRZ65537:VRZ65549 VRZ131073:VRZ131085 VRZ196609:VRZ196621 VRZ262145:VRZ262157 VRZ327681:VRZ327693 VRZ393217:VRZ393229 VRZ458753:VRZ458765 VRZ524289:VRZ524301 VRZ589825:VRZ589837 VRZ655361:VRZ655373 VRZ720897:VRZ720909 VRZ786433:VRZ786445 VRZ851969:VRZ851981 VRZ917505:VRZ917517 VRZ983041:VRZ983053 WBV65537:WBV65549 WBV131073:WBV131085 WBV196609:WBV196621 WBV262145:WBV262157 WBV327681:WBV327693 WBV393217:WBV393229 WBV458753:WBV458765 WBV524289:WBV524301 WBV589825:WBV589837 WBV655361:WBV655373 WBV720897:WBV720909 WBV786433:WBV786445 WBV851969:WBV851981 WBV917505:WBV917517 WBV983041:WBV983053 WLR65537:WLR65549 WLR131073:WLR131085 WLR196609:WLR196621 WLR262145:WLR262157 WLR327681:WLR327693 WLR393217:WLR393229 WLR458753:WLR458765 WLR524289:WLR524301 WLR589825:WLR589837 WLR655361:WLR655373 WLR720897:WLR720909 WLR786433:WLR786445 WLR851969:WLR851981 WLR917505:WLR917517 WLR983041:WLR983053 WVN983041:WVN983053 WVN65537:WVN65549 WVN131073:WVN131085 WVN196609:WVN196621 WVN262145:WVN262157 WVN327681:WVN327693 WVN393217:WVN393229 WVN458753:WVN458765 WVN524289:WVN524301 WVN589825:WVN589837 WVN655361:WVN655373 WVN720897:WVN720909 WVN786433:WVN786445 WVN851969:WVN851981 WVN917505:WVN917517 SX4:SX13 ACT4:ACT13 AMP4:AMP13 AWL4:AWL13 BGH4:BGH13 BQD4:BQD13 BZZ4:BZZ13 CJV4:CJV13 CTR4:CTR13 DDN4:DDN13 DNJ4:DNJ13 DXF4:DXF13 EHB4:EHB13 EQX4:EQX13 FAT4:FAT13 FKP4:FKP13 FUL4:FUL13 GEH4:GEH13 GOD4:GOD13 GXZ4:GXZ13 HHV4:HHV13 HRR4:HRR13 IBN4:IBN13 ILJ4:ILJ13 IVF4:IVF13 JFB4:JFB13 JOX4:JOX13 JYT4:JYT13 KIP4:KIP13 KSL4:KSL13 LCH4:LCH13 LMD4:LMD13 LVZ4:LVZ13 MFV4:MFV13 MPR4:MPR13 MZN4:MZN13 NJJ4:NJJ13 NTF4:NTF13 ODB4:ODB13 OMX4:OMX13 OWT4:OWT13 PGP4:PGP13 PQL4:PQL13 QAH4:QAH13 QKD4:QKD13 QTZ4:QTZ13 RDV4:RDV13 RNR4:RNR13 RXN4:RXN13 SHJ4:SHJ13 SRF4:SRF13 TBB4:TBB13 TKX4:TKX13 TUT4:TUT13 UEP4:UEP13 UOL4:UOL13 UYH4:UYH13 VID4:VID13 VRZ4:VRZ13 WBV4:WBV13 WLR4:WLR13 WVN4:WVN13 F4:F13 JB4:JB13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65537:F65549 F131073:F131085 F196609:F196621 F262145:F262157 F327681:F327693 F393217:F393229 F458753:F458765 F524289:F524301 F589825:F589837 F655361:F655373 F720897:F720909 F786433:F786445 F851969:F851981 F917505:F917517 F983041:F983053 JB65537:JB65549 JB131073:JB131085 JB196609:JB196621 JB262145:JB262157 JB327681:JB327693 JB393217:JB393229 JB458753:JB458765 JB524289:JB524301 JB589825:JB589837 JB655361:JB655373 JB720897:JB720909 JB786433:JB786445 JB851969:JB851981 JB917505:JB917517 JB983041:JB983053 SX65537:SX65549 SX131073:SX131085 SX196609:SX196621 SX262145:SX262157 SX327681:SX327693 SX393217:SX393229 SX458753:SX458765 SX524289:SX524301 SX589825:SX589837 SX655361:SX655373 SX720897:SX720909 SX786433:SX786445 SX851969:SX851981 SX917505:SX917517 SX983041:SX983053 ACT65537:ACT65549 ACT131073:ACT131085 ACT196609:ACT196621 ACT262145:ACT262157 ACT327681:ACT327693 ACT393217:ACT393229 ACT458753:ACT458765 ACT524289:ACT524301 ACT589825:ACT589837 ACT655361:ACT655373 ACT720897:ACT720909 ACT786433:ACT786445 ACT851969:ACT851981 ACT917505:ACT917517 ACT983041:ACT983053 AMP65537:AMP65549 AMP131073:AMP131085 AMP196609:AMP196621 AMP262145:AMP262157 AMP327681:AMP327693 AMP393217:AMP393229 AMP458753:AMP458765 AMP524289:AMP524301 AMP589825:AMP589837 AMP655361:AMP655373 AMP720897:AMP720909 AMP786433:AMP786445 AMP851969:AMP851981 AMP917505:AMP917517 AMP983041:AMP983053 AWL65537:AWL65549 AWL131073:AWL131085 AWL196609:AWL196621 AWL262145:AWL262157 AWL327681:AWL327693 AWL393217:AWL393229 AWL458753:AWL458765 AWL524289:AWL524301 AWL589825:AWL589837 AWL655361:AWL655373 AWL720897:AWL720909 AWL786433:AWL786445 AWL851969:AWL851981 AWL917505:AWL917517 AWL983041:AWL983053 BGH65537:BGH65549 BGH131073:BGH131085 BGH196609:BGH196621 BGH262145:BGH262157 BGH327681:BGH327693 BGH393217:BGH393229 BGH458753:BGH458765 BGH524289:BGH524301 BGH589825:BGH589837 BGH655361:BGH655373 BGH720897:BGH720909 BGH786433:BGH786445 BGH851969:BGH851981 BGH917505:BGH917517 BGH983041:BGH983053 BQD65537:BQD65549 BQD131073:BQD131085 BQD196609:BQD196621 BQD262145:BQD262157 BQD327681:BQD327693 BQD393217:BQD393229 BQD458753:BQD458765 BQD524289:BQD524301 BQD589825:BQD589837 BQD655361:BQD655373 BQD720897:BQD720909 BQD786433:BQD786445 BQD851969:BQD851981 BQD917505:BQD917517 BQD983041:BQD983053 BZZ65537:BZZ65549 BZZ131073:BZZ131085 BZZ196609:BZZ196621 BZZ262145:BZZ262157 BZZ327681:BZZ327693 BZZ393217:BZZ393229 BZZ458753:BZZ458765 BZZ524289:BZZ524301 BZZ589825:BZZ589837 BZZ655361:BZZ655373 BZZ720897:BZZ720909 BZZ786433:BZZ786445 BZZ851969:BZZ851981 BZZ917505:BZZ917517 BZZ983041:BZZ983053 CJV65537:CJV65549 CJV131073:CJV131085 CJV196609:CJV196621 CJV262145:CJV262157 CJV327681:CJV327693 CJV393217:CJV393229 CJV458753:CJV458765 CJV524289:CJV524301 CJV589825:CJV589837 CJV655361:CJV655373 CJV720897:CJV720909 CJV786433:CJV786445 CJV851969:CJV851981 CJV917505:CJV917517 CJV983041:CJV983053 CTR65537:CTR65549 CTR131073:CTR131085 CTR196609:CTR196621 CTR262145:CTR262157 CTR327681:CTR327693 CTR393217:CTR393229 CTR458753:CTR458765 CTR524289:CTR524301 CTR589825:CTR589837 CTR655361:CTR655373 CTR720897:CTR720909 CTR786433:CTR786445 CTR851969:CTR851981 CTR917505:CTR917517 CTR983041:CTR983053 DDN65537:DDN65549 DDN131073:DDN131085 DDN196609:DDN196621 DDN262145:DDN262157 DDN327681:DDN327693 DDN393217:DDN393229 DDN458753:DDN458765 DDN524289:DDN524301 DDN589825:DDN589837 DDN655361:DDN655373 DDN720897:DDN720909 DDN786433:DDN786445 DDN851969:DDN851981 DDN917505:DDN917517 DDN983041:DDN983053 DNJ65537:DNJ65549 DNJ131073:DNJ131085 DNJ196609:DNJ196621 DNJ262145:DNJ262157 DNJ327681:DNJ327693 DNJ393217:DNJ393229 DNJ458753:DNJ458765 DNJ524289:DNJ524301 DNJ589825:DNJ589837 DNJ655361:DNJ655373 DNJ720897:DNJ720909 DNJ786433:DNJ786445 DNJ851969:DNJ851981 DNJ917505:DNJ917517 DNJ983041:DNJ983053 DXF65537:DXF65549 DXF131073:DXF131085 DXF196609:DXF196621 DXF262145:DXF262157 DXF327681:DXF327693 DXF393217:DXF393229 DXF458753:DXF458765 DXF524289:DXF524301 DXF589825:DXF589837 DXF655361:DXF655373 DXF720897:DXF720909 DXF786433:DXF786445 DXF851969:DXF851981 DXF917505:DXF917517 DXF983041:DXF983053 EHB65537:EHB65549 EHB131073:EHB131085 EHB196609:EHB196621 EHB262145:EHB262157 EHB327681:EHB327693 EHB393217:EHB393229 EHB458753:EHB458765 EHB524289:EHB524301 EHB589825:EHB589837 EHB655361:EHB655373 EHB720897:EHB720909 EHB786433:EHB786445 EHB851969:EHB851981 EHB917505:EHB917517 EHB983041:EHB983053 EQX65537:EQX65549 EQX131073:EQX131085 EQX196609:EQX196621 EQX262145:EQX262157 EQX327681:EQX327693 EQX393217:EQX393229 EQX458753:EQX458765 EQX524289:EQX524301 EQX589825:EQX589837 EQX655361:EQX655373 EQX720897:EQX720909 EQX786433:EQX786445 EQX851969:EQX851981 EQX917505:EQX917517 EQX983041:EQX983053 FAT65537:FAT65549 FAT131073:FAT131085 FAT196609:FAT196621 FAT262145:FAT262157 FAT327681:FAT327693 FAT393217:FAT393229 FAT458753:FAT458765 FAT524289:FAT524301 FAT589825:FAT589837 FAT655361:FAT655373 FAT720897:FAT720909 FAT786433:FAT786445 FAT851969:FAT851981 FAT917505:FAT917517 FAT983041:FAT983053 FKP65537:FKP65549 FKP131073:FKP131085 FKP196609:FKP196621 FKP262145:FKP262157 FKP327681:FKP327693 FKP393217:FKP393229 FKP458753:FKP458765 FKP524289:FKP524301 FKP589825:FKP589837 FKP655361:FKP655373 FKP720897:FKP720909 FKP786433:FKP786445 FKP851969:FKP851981 FKP917505:FKP917517 FKP983041:FKP983053 FUL65537:FUL65549 FUL131073:FUL131085 FUL196609:FUL196621 FUL262145:FUL262157 FUL327681:FUL327693 FUL393217:FUL393229 FUL458753:FUL458765 FUL524289:FUL524301 FUL589825:FUL589837 FUL655361:FUL655373 FUL720897:FUL720909 FUL786433:FUL786445 FUL851969:FUL851981 FUL917505:FUL917517 FUL983041:FUL983053 GEH65537:GEH65549 GEH131073:GEH131085 GEH196609:GEH196621 GEH262145:GEH262157 GEH327681:GEH327693 GEH393217:GEH393229 GEH458753:GEH458765 GEH524289:GEH524301 GEH589825:GEH589837 GEH655361:GEH655373 GEH720897:GEH720909 GEH786433:GEH786445 GEH851969:GEH851981 GEH917505:GEH917517 GEH983041:GEH983053 GOD65537:GOD65549 GOD131073:GOD131085 GOD196609:GOD196621 GOD262145:GOD262157 GOD327681:GOD327693 GOD393217:GOD393229 GOD458753:GOD458765 GOD524289:GOD524301 GOD589825:GOD589837 GOD655361:GOD655373 GOD720897:GOD720909 GOD786433:GOD786445 GOD851969:GOD851981 GOD917505:GOD917517 GOD983041:GOD983053 GXZ65537:GXZ65549 GXZ131073:GXZ131085 GXZ196609:GXZ196621 GXZ262145:GXZ262157 GXZ327681:GXZ327693 GXZ393217:GXZ393229 GXZ458753:GXZ458765 GXZ524289:GXZ524301 GXZ589825:GXZ589837 GXZ655361:GXZ655373 GXZ720897:GXZ720909 GXZ786433:GXZ786445 GXZ851969:GXZ851981 GXZ917505:GXZ917517 GXZ983041:GXZ983053 HHV65537:HHV65549 HHV131073:HHV131085 HHV196609:HHV196621 HHV262145:HHV262157 HHV327681:HHV327693 HHV393217:HHV393229 HHV458753:HHV458765 HHV524289:HHV524301 HHV589825:HHV589837 HHV655361:HHV655373 HHV720897:HHV720909 HHV786433:HHV786445 HHV851969:HHV851981 HHV917505:HHV917517 HHV983041:HHV983053 HRR65537:HRR65549 HRR131073:HRR131085 HRR196609:HRR196621 HRR262145:HRR262157 HRR327681:HRR327693 HRR393217:HRR393229 HRR458753:HRR458765 HRR524289:HRR524301 HRR589825:HRR589837 HRR655361:HRR655373 HRR720897:HRR720909 HRR786433:HRR786445 HRR851969:HRR851981 HRR917505:HRR917517 HRR983041:HRR983053 IBN65537:IBN65549 IBN131073:IBN131085 IBN196609:IBN196621 IBN262145:IBN262157 IBN327681:IBN327693 IBN393217:IBN393229 IBN458753:IBN458765 IBN524289:IBN524301 IBN589825:IBN589837 IBN655361:IBN655373 IBN720897:IBN720909 IBN786433:IBN786445 IBN851969:IBN851981 IBN917505:IBN917517 IBN983041:IBN983053 ILJ65537:ILJ65549 ILJ131073:ILJ131085 ILJ196609:ILJ196621 ILJ262145:ILJ262157 ILJ327681:ILJ327693 ILJ393217:ILJ393229 ILJ458753:ILJ458765 ILJ524289:ILJ524301 ILJ589825:ILJ589837 ILJ655361:ILJ655373 ILJ720897:ILJ720909 ILJ786433:ILJ786445 ILJ851969:ILJ851981 ILJ917505:ILJ917517 ILJ983041:ILJ983053 IVF65537:IVF65549 IVF131073:IVF131085 IVF196609:IVF196621 IVF262145:IVF262157 IVF327681:IVF327693 IVF393217:IVF393229 IVF458753:IVF458765 IVF524289:IVF524301 IVF589825:IVF589837 IVF655361:IVF655373 IVF720897:IVF720909 IVF786433:IVF786445 IVF851969:IVF851981 IVF917505:IVF917517 IVF983041:IVF983053 JFB65537:JFB65549 JFB131073:JFB131085 JFB196609:JFB196621 JFB262145:JFB262157 JFB327681:JFB327693 JFB393217:JFB393229 JFB458753:JFB458765 JFB524289:JFB524301 JFB589825:JFB589837 JFB655361:JFB655373 JFB720897:JFB720909 JFB786433:JFB786445 JFB851969:JFB851981 JFB917505:JFB917517 JFB983041:JFB983053 JOX65537:JOX65549 JOX131073:JOX131085 JOX196609:JOX196621 JOX262145:JOX262157 JOX327681:JOX327693 JOX393217:JOX393229 JOX458753:JOX458765 JOX524289:JOX524301 JOX589825:JOX589837 JOX655361:JOX655373 JOX720897:JOX720909 JOX786433:JOX786445 JOX851969:JOX851981 JOX917505:JOX917517 JOX983041:JOX983053 JYT65537:JYT65549 JYT131073:JYT131085 JYT196609:JYT196621 JYT262145:JYT262157 JYT327681:JYT327693 JYT393217:JYT393229 JYT458753:JYT458765 JYT524289:JYT524301 JYT589825:JYT589837 JYT655361:JYT655373 JYT720897:JYT720909 JYT786433:JYT786445 JYT851969:JYT851981 JYT917505:JYT917517 JYT983041:JYT983053 KIP65537:KIP65549 KIP131073:KIP131085 KIP196609:KIP196621 KIP262145:KIP262157 KIP327681:KIP327693 KIP393217:KIP393229 KIP458753:KIP458765 KIP524289:KIP524301 KIP589825:KIP589837 KIP655361:KIP655373 KIP720897:KIP720909 KIP786433:KIP786445 KIP851969:KIP851981 KIP917505:KIP917517 KIP983041:KIP983053 KSL65537:KSL65549 KSL131073:KSL131085 KSL196609:KSL196621 KSL262145:KSL262157 KSL327681:KSL327693 KSL393217:KSL393229 KSL458753:KSL458765 KSL524289:KSL524301 KSL589825:KSL589837 KSL655361:KSL655373 KSL720897:KSL720909 KSL786433:KSL786445 KSL851969:KSL851981 KSL917505:KSL917517 KSL983041:KSL983053 LCH65537:LCH65549 LCH131073:LCH131085 LCH196609:LCH196621 LCH262145:LCH262157 LCH327681:LCH327693 LCH393217:LCH393229 LCH458753:LCH458765 LCH524289:LCH524301 LCH589825:LCH589837 LCH655361:LCH655373 LCH720897:LCH720909 LCH786433:LCH786445 LCH851969:LCH851981 LCH917505:LCH917517 LCH983041:LCH983053 LMD65537:LMD65549 LMD131073:LMD131085 LMD196609:LMD196621 LMD262145:LMD262157 LMD327681:LMD327693 LMD393217:LMD393229 LMD458753:LMD458765 LMD524289:LMD524301 LMD589825:LMD589837 LMD655361:LMD655373 LMD720897:LMD720909 LMD786433:LMD786445 LMD851969:LMD851981 LMD917505:LMD917517 LMD983041:LMD983053 LVZ65537:LVZ65549 LVZ131073:LVZ131085 LVZ196609:LVZ196621 LVZ262145:LVZ262157 LVZ327681:LVZ327693 LVZ393217:LVZ393229 LVZ458753:LVZ458765 LVZ524289:LVZ524301 LVZ589825:LVZ589837 LVZ655361:LVZ655373 LVZ720897:LVZ720909 LVZ786433:LVZ786445 LVZ851969:LVZ851981 LVZ917505:LVZ917517 LVZ983041:LVZ983053 MFV65537:MFV65549 MFV131073:MFV131085 MFV196609:MFV196621 MFV262145:MFV262157 MFV327681:MFV327693 MFV393217:MFV393229 MFV458753:MFV458765 MFV524289:MFV524301 MFV589825:MFV589837 MFV655361:MFV655373 MFV720897:MFV720909 MFV786433:MFV786445 MFV851969:MFV851981 MFV917505:MFV917517 MFV983041:MFV983053 MPR65537:MPR65549 MPR131073:MPR131085 MPR196609:MPR196621 MPR262145:MPR262157 MPR327681:MPR327693 MPR393217:MPR393229 MPR458753:MPR458765 MPR524289:MPR524301 MPR589825:MPR589837 MPR655361:MPR655373 MPR720897:MPR720909 MPR786433:MPR786445 MPR851969:MPR851981 MPR917505:MPR917517 MPR983041:MPR983053 MZN65537:MZN65549 MZN131073:MZN131085 MZN196609:MZN196621 MZN262145:MZN262157 MZN327681:MZN327693 MZN393217:MZN393229 MZN458753:MZN458765 MZN524289:MZN524301 MZN589825:MZN589837 MZN655361:MZN655373 MZN720897:MZN720909 MZN786433:MZN786445 MZN851969:MZN851981 MZN917505:MZN917517 MZN983041:MZN983053 NJJ65537:NJJ65549 NJJ131073:NJJ131085 NJJ196609:NJJ196621 NJJ262145:NJJ262157 NJJ327681:NJJ327693 NJJ393217:NJJ393229 NJJ458753:NJJ458765 NJJ524289:NJJ524301 NJJ589825:NJJ589837 NJJ655361:NJJ655373 NJJ720897:NJJ720909 NJJ786433:NJJ786445 NJJ851969:NJJ851981 NJJ917505:NJJ917517 NJJ983041:NJJ983053 NTF65537:NTF65549 NTF131073:NTF131085 NTF196609:NTF196621 NTF262145:NTF262157 NTF327681:NTF327693 NTF393217:NTF393229 NTF458753:NTF458765 NTF524289:NTF524301 NTF589825:NTF589837 NTF655361:NTF655373 NTF720897:NTF720909 NTF786433:NTF786445 NTF851969:NTF851981 NTF917505:NTF917517 NTF983041:NTF983053 ODB65537:ODB65549 ODB131073:ODB131085 ODB196609:ODB196621 ODB262145:ODB262157 ODB327681:ODB327693 ODB393217:ODB393229 ODB458753:ODB458765 ODB524289:ODB524301 ODB589825:ODB589837 ODB655361:ODB655373 ODB720897:ODB720909 ODB786433:ODB786445 ODB851969:ODB851981 ODB917505:ODB917517 ODB983041:ODB983053 OMX65537:OMX65549 OMX131073:OMX131085 OMX196609:OMX196621 OMX262145:OMX262157 OMX327681:OMX327693 OMX393217:OMX393229 OMX458753:OMX458765 OMX524289:OMX524301 OMX589825:OMX589837 OMX655361:OMX655373 OMX720897:OMX720909 OMX786433:OMX786445 OMX851969:OMX851981 OMX917505:OMX917517 OMX983041:OMX983053 OWT65537:OWT65549 OWT131073:OWT131085 OWT196609:OWT196621 OWT262145:OWT262157 OWT327681:OWT327693 OWT393217:OWT393229 OWT458753:OWT458765 OWT524289:OWT524301 OWT589825:OWT589837 OWT655361:OWT655373 OWT720897:OWT720909 OWT786433:OWT786445 OWT851969:OWT851981 OWT917505:OWT917517 OWT983041:OWT983053 PGP65537:PGP65549 PGP131073:PGP131085 PGP196609:PGP196621 PGP262145:PGP262157 PGP327681:PGP327693 PGP393217:PGP393229 PGP458753:PGP458765 PGP524289:PGP524301 PGP589825:PGP589837 PGP655361:PGP655373 PGP720897:PGP720909 PGP786433:PGP786445 PGP851969:PGP851981 PGP917505:PGP917517 PGP983041:PGP983053 PQL65537:PQL65549 PQL131073:PQL131085 PQL196609:PQL196621 PQL262145:PQL262157 PQL327681:PQL327693 PQL393217:PQL393229 PQL458753:PQL458765 PQL524289:PQL524301 PQL589825:PQL589837 PQL655361:PQL655373 PQL720897:PQL720909 PQL786433:PQL786445 PQL851969:PQL851981 PQL917505:PQL917517 PQL983041:PQL983053 QAH65537:QAH65549 QAH131073:QAH131085 QAH196609:QAH196621 QAH262145:QAH262157 QAH327681:QAH327693 QAH393217:QAH393229 QAH458753:QAH458765 QAH524289:QAH524301 QAH589825:QAH589837 QAH655361:QAH655373 QAH720897:QAH720909 QAH786433:QAH786445 QAH851969:QAH851981 QAH917505:QAH917517 QAH983041:QAH983053 QKD65537:QKD65549 QKD131073:QKD131085 QKD196609:QKD196621 QKD262145:QKD262157 QKD327681:QKD327693 QKD393217:QKD393229 QKD458753:QKD458765 QKD524289:QKD524301 QKD589825:QKD589837 QKD655361:QKD655373 QKD720897:QKD720909 QKD786433:QKD786445 QKD851969:QKD851981 QKD917505:QKD917517 QKD983041:QKD983053 QTZ65537:QTZ65549 QTZ131073:QTZ131085 QTZ196609:QTZ196621 QTZ262145:QTZ262157 QTZ327681:QTZ327693 QTZ393217:QTZ393229 QTZ458753:QTZ458765 QTZ524289:QTZ524301 QTZ589825:QTZ589837 QTZ655361:QTZ655373 QTZ720897:QTZ720909 QTZ786433:QTZ786445 QTZ851969:QTZ851981 QTZ917505:QTZ917517 QTZ983041:QTZ983053 RDV65537:RDV65549 RDV131073:RDV131085 RDV196609:RDV196621 RDV262145:RDV262157 RDV327681:RDV327693 RDV393217:RDV393229 RDV458753:RDV458765 RDV524289:RDV524301 RDV589825:RDV589837 RDV655361:RDV655373 RDV720897:RDV720909 RDV786433:RDV786445 RDV851969:RDV851981 RDV917505:RDV917517 RDV983041:RDV983053 RNR65537:RNR65549 RNR131073:RNR131085 RNR196609:RNR196621 RNR262145:RNR262157 RNR327681:RNR327693 RNR393217:RNR393229 RNR458753:RNR458765 RNR524289:RNR524301 RNR589825:RNR589837 RNR655361:RNR655373 RNR720897:RNR720909 RNR786433:RNR786445 RNR851969:RNR851981 RNR917505:RNR917517 RNR983041:RNR983053 RXN65537:RXN65549 RXN131073:RXN131085 RXN196609:RXN196621 RXN262145:RXN262157 RXN327681:RXN327693 RXN393217:RXN393229 RXN458753:RXN458765 RXN524289:RXN524301 RXN589825:RXN589837 RXN655361:RXN655373 RXN720897:RXN720909 RXN786433:RXN786445 RXN851969:RXN851981 RXN917505:RXN917517 RXN983041:RXN983053 SHJ65537:SHJ65549 SHJ131073:SHJ131085 SHJ196609:SHJ196621 SHJ262145:SHJ262157 SHJ327681:SHJ327693 SHJ393217:SHJ393229 SHJ458753:SHJ458765 SHJ524289:SHJ524301 SHJ589825:SHJ589837 SHJ655361:SHJ655373 SHJ720897:SHJ720909 SHJ786433:SHJ786445 SHJ851969:SHJ851981 SHJ917505:SHJ917517 SHJ983041:SHJ983053 SRF65537:SRF65549 SRF131073:SRF131085 SRF196609:SRF196621 SRF262145:SRF262157 SRF327681:SRF327693 SRF393217:SRF393229 SRF458753:SRF458765 SRF524289:SRF524301 SRF589825:SRF589837 SRF655361:SRF655373 SRF720897:SRF720909 SRF786433:SRF786445 SRF851969:SRF851981 SRF917505:SRF917517 SRF983041:SRF983053 TBB65537:TBB65549 TBB131073:TBB131085 TBB196609:TBB196621 TBB262145:TBB262157 TBB327681:TBB327693 TBB393217:TBB393229 TBB458753:TBB458765 TBB524289:TBB524301 TBB589825:TBB589837 TBB655361:TBB655373 TBB720897:TBB720909 TBB786433:TBB786445 TBB851969:TBB851981 TBB917505:TBB917517 TBB983041:TBB983053 TKX65537:TKX65549 TKX131073:TKX131085 TKX196609:TKX196621 TKX262145:TKX262157 TKX327681:TKX327693 TKX393217:TKX393229 TKX458753:TKX458765 TKX524289:TKX524301 TKX589825:TKX589837 TKX655361:TKX655373 TKX720897:TKX720909 TKX786433:TKX786445 TKX851969:TKX851981 TKX917505:TKX917517 TKX983041:TKX983053 TUT65537:TUT65549 TUT131073:TUT131085 TUT196609:TUT196621 TUT262145:TUT262157 TUT327681:TUT327693 TUT393217:TUT393229 TUT458753:TUT458765 TUT524289:TUT524301 TUT589825:TUT589837 TUT655361:TUT655373 TUT720897:TUT720909 TUT786433:TUT786445 TUT851969:TUT851981 TUT917505:TUT917517 TUT983041:TUT983053 UEP65537:UEP65549 UEP131073:UEP131085 UEP196609:UEP196621 UEP262145:UEP262157 UEP327681:UEP327693 UEP393217:UEP393229 UEP458753:UEP458765 UEP524289:UEP524301 UEP589825:UEP589837 UEP655361:UEP655373 UEP720897:UEP720909 UEP786433:UEP786445 UEP851969:UEP851981 UEP917505:UEP917517 UEP983041:UEP983053 UOL65537:UOL65549 UOL131073:UOL131085 UOL196609:UOL196621 UOL262145:UOL262157 UOL327681:UOL327693 UOL393217:UOL393229 UOL458753:UOL458765 UOL524289:UOL524301 UOL589825:UOL589837 UOL655361:UOL655373 UOL720897:UOL720909 UOL786433:UOL786445 UOL851969:UOL851981 UOL917505:UOL917517 UOL983041:UOL983053 UYH65537:UYH65549 UYH131073:UYH131085 UYH196609:UYH196621 UYH262145:UYH262157 UYH327681:UYH327693 UYH393217:UYH393229 UYH458753:UYH458765 UYH524289:UYH524301 UYH589825:UYH589837 UYH655361:UYH655373 UYH720897:UYH720909 UYH786433:UYH786445 UYH851969:UYH851981 UYH917505:UYH917517 UYH983041:UYH983053 VID65537:VID65549 VID131073:VID131085 VID196609:VID196621 VID262145:VID262157 VID327681:VID327693 VID393217:VID393229 VID458753:VID458765 VID524289:VID524301 VID589825:VID589837 VID655361:VID655373 VID720897:VID720909 VID786433:VID786445 VID851969:VID851981 VID917505:VID917517 VID983041:VID983053 VRZ65537:VRZ65549 VRZ131073:VRZ131085 VRZ196609:VRZ196621 VRZ262145:VRZ262157 VRZ327681:VRZ327693 VRZ393217:VRZ393229 VRZ458753:VRZ458765 VRZ524289:VRZ524301 VRZ589825:VRZ589837 VRZ655361:VRZ655373 VRZ720897:VRZ720909 VRZ786433:VRZ786445 VRZ851969:VRZ851981 VRZ917505:VRZ917517 VRZ983041:VRZ983053 WBV65537:WBV65549 WBV131073:WBV131085 WBV196609:WBV196621 WBV262145:WBV262157 WBV327681:WBV327693 WBV393217:WBV393229 WBV458753:WBV458765 WBV524289:WBV524301 WBV589825:WBV589837 WBV655361:WBV655373 WBV720897:WBV720909 WBV786433:WBV786445 WBV851969:WBV851981 WBV917505:WBV917517 WBV983041:WBV983053 WLR65537:WLR65549 WLR131073:WLR131085 WLR196609:WLR196621 WLR262145:WLR262157 WLR327681:WLR327693 WLR393217:WLR393229 WLR458753:WLR458765 WLR524289:WLR524301 WLR589825:WLR589837 WLR655361:WLR655373 WLR720897:WLR720909 WLR786433:WLR786445 WLR851969:WLR851981 WLR917505:WLR917517 WLR983041:WLR983053 WVN983041:WVN983053 WVN65537:WVN65549 WVN131073:WVN131085 WVN196609:WVN196621 WVN262145:WVN262157 WVN327681:WVN327693 WVN393217:WVN393229 WVN458753:WVN458765 WVN524289:WVN524301 WVN589825:WVN589837 WVN655361:WVN655373 WVN720897:WVN720909 WVN786433:WVN786445 WVN851969:WVN851981 WVN917505:WVN917517 JB4:JB13 F4:F13 WVN4:WVN13 WLR4:WLR13 WBV4:WBV13 VRZ4:VRZ13 VID4:VID13 UYH4:UYH13 UOL4:UOL13 UEP4:UEP13 TUT4:TUT13 TKX4:TKX13 TBB4:TBB13 SRF4:SRF13 SHJ4:SHJ13 RXN4:RXN13 RNR4:RNR13 RDV4:RDV13 QTZ4:QTZ13 QKD4:QKD13 QAH4:QAH13 PQL4:PQL13 PGP4:PGP13 OWT4:OWT13 OMX4:OMX13 ODB4:ODB13 NTF4:NTF13 NJJ4:NJJ13 MZN4:MZN13 MPR4:MPR13 MFV4:MFV13 LVZ4:LVZ13 LMD4:LMD13 LCH4:LCH13 KSL4:KSL13 KIP4:KIP13 JYT4:JYT13 JOX4:JOX13 JFB4:JFB13 IVF4:IVF13 ILJ4:ILJ13 IBN4:IBN13 HRR4:HRR13 HHV4:HHV13 GXZ4:GXZ13 GOD4:GOD13 GEH4:GEH13 FUL4:FUL13 FKP4:FKP13 FAT4:FAT13 EQX4:EQX13 EHB4:EHB13 DXF4:DXF13 DNJ4:DNJ13 DDN4:DDN13 CTR4:CTR13 CJV4:CJV13 BZZ4:BZZ13 BQD4:BQD13 BGH4:BGH13 AWL4:AWL13 AMP4:AMP13 ACT4:ACT13 SX4:SX13">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1048576 I1:I3 WVQ1:WVQ1048576 WLU1:WLU1048576 WBY1:WBY1048576 VSC1:VSC1048576 VIG1:VIG1048576 UYK1:UYK1048576 UOO1:UOO1048576 UES1:UES1048576 TUW1:TUW1048576 TLA1:TLA1048576 TBE1:TBE1048576 SRI1:SRI1048576 SHM1:SHM1048576 RXQ1:RXQ1048576 RNU1:RNU1048576 RDY1:RDY1048576 QUC1:QUC1048576 QKG1:QKG1048576 QAK1:QAK1048576 PQO1:PQO1048576 PGS1:PGS1048576 OWW1:OWW1048576 ONA1:ONA1048576 ODE1:ODE1048576 NTI1:NTI1048576 NJM1:NJM1048576 MZQ1:MZQ1048576 MPU1:MPU1048576 MFY1:MFY1048576 LWC1:LWC1048576 LMG1:LMG1048576 LCK1:LCK1048576 KSO1:KSO1048576 KIS1:KIS1048576 JYW1:JYW1048576 JPA1:JPA1048576 JFE1:JFE1048576 IVI1:IVI1048576 ILM1:ILM1048576 IBQ1:IBQ1048576 HRU1:HRU1048576 HHY1:HHY1048576 GYC1:GYC1048576 GOG1:GOG1048576 GEK1:GEK1048576 FUO1:FUO1048576 FKS1:FKS1048576 FAW1:FAW1048576 ERA1:ERA1048576 EHE1:EHE1048576 DXI1:DXI1048576 DNM1:DNM1048576 DDQ1:DDQ1048576 CTU1:CTU1048576 CJY1:CJY1048576 CAC1:CAC1048576 BQG1:BQG1048576 BGK1:BGK1048576 AWO1:AWO1048576 AMS1:AMS1048576 ACW1:ACW1048576 TA1:TA1048576 JE1:JE1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I3 JE1:JE1048576 TA1:TA1048576 ACW1:ACW1048576 AMS1:AMS1048576 AWO1:AWO1048576 BGK1:BGK1048576 BQG1:BQG1048576 CAC1:CAC1048576 CJY1:CJY1048576 CTU1:CTU1048576 DDQ1:DDQ1048576 DNM1:DNM1048576 DXI1:DXI1048576 EHE1:EHE1048576 ERA1:ERA1048576 FAW1:FAW1048576 FKS1:FKS1048576 FUO1:FUO1048576 GEK1:GEK1048576 GOG1:GOG1048576 GYC1:GYC1048576 HHY1:HHY1048576 HRU1:HRU1048576 IBQ1:IBQ1048576 ILM1:ILM1048576 IVI1:IVI1048576 JFE1:JFE1048576 JPA1:JPA1048576 JYW1:JYW1048576 KIS1:KIS1048576 KSO1:KSO1048576 LCK1:LCK1048576 LMG1:LMG1048576 LWC1:LWC1048576 MFY1:MFY1048576 MPU1:MPU1048576 MZQ1:MZQ1048576 NJM1:NJM1048576 NTI1:NTI1048576 ODE1:ODE1048576 ONA1:ONA1048576 OWW1:OWW1048576 PGS1:PGS1048576 PQO1:PQO1048576 QAK1:QAK1048576 QKG1:QKG1048576 QUC1:QUC1048576 RDY1:RDY1048576 RNU1:RNU1048576 RXQ1:RXQ1048576 SHM1:SHM1048576 SRI1:SRI1048576 TBE1:TBE1048576 TLA1:TLA1048576 TUW1:TUW1048576 UES1:UES1048576 UOO1:UOO1048576 UYK1:UYK1048576 VIG1:VIG1048576 VSC1:VSC1048576 WBY1:WBY1048576 WLU1:WLU1048576 WVQ1:WVQ1048576 I6:I1048576">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="65.125" customWidth="1"/>
-    <col min="8" max="8" width="23.625" customWidth="1"/>
-    <col min="9" max="9" width="10.75" customWidth="1"/>
-    <col min="10" max="10" width="10.625" customWidth="1"/>
-    <col min="11" max="11" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="34.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="73"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="75"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="I3" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="J3" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="K3" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="L3" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="M3" s="53" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="48">
-        <v>1</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="J4" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="K4" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="L4" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="M4" s="48" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="168.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="48">
-        <v>2</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="I5" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="J5" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="K5" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="L5" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="M5" s="49" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M2"/>
-  </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I6">
-      <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F6">
-      <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.0.2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="3285" windowWidth="25125" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="3285" windowWidth="25125" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="(生产)需要修改的配置文件" sheetId="4" r:id="rId3"/>
     <sheet name="(公测)需要修改的配置文件" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1241,8 +1246,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1819,74 +1824,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1906,7 +1843,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2226,17 +2163,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="S94" sqref="S94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="14" customWidth="1"/>
     <col min="2" max="2" width="52.875" style="15" customWidth="1"/>
@@ -2261,7 +2198,7 @@
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2320,7 +2257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="19.5" customHeight="1">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -2370,7 +2307,7 @@
       <c r="S2" s="13"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="1:20" ht="16.5">
+    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -2419,7 +2356,7 @@
       <c r="R3" s="7"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:20" ht="16.5">
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -2468,7 +2405,7 @@
       <c r="R4" s="7"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="49.5">
+    <row r="5" spans="1:20" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -2517,7 +2454,7 @@
       <c r="R5" s="7"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="33">
+    <row r="6" spans="1:20" ht="33" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -2566,7 +2503,7 @@
       <c r="R6" s="7"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="33">
+    <row r="7" spans="1:20" ht="33" x14ac:dyDescent="0.15">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -2615,7 +2552,7 @@
       <c r="R7" s="7"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:20" ht="49.5">
+    <row r="8" spans="1:20" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -2664,7 +2601,7 @@
       <c r="R8" s="7"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:20" ht="33">
+    <row r="9" spans="1:20" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -2713,7 +2650,7 @@
       <c r="R9" s="7"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:20" ht="33">
+    <row r="10" spans="1:20" ht="33" x14ac:dyDescent="0.15">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -2762,7 +2699,7 @@
       <c r="R10" s="7"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -2812,7 +2749,7 @@
       <c r="S11" s="13"/>
       <c r="T11" s="8"/>
     </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -2862,7 +2799,7 @@
       <c r="S12" s="13"/>
       <c r="T12" s="8"/>
     </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -2912,7 +2849,7 @@
       <c r="S13" s="13"/>
       <c r="T13" s="8"/>
     </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -2962,7 +2899,7 @@
       <c r="S14" s="13"/>
       <c r="T14" s="8"/>
     </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -3012,7 +2949,7 @@
       <c r="S15" s="13"/>
       <c r="T15" s="8"/>
     </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="16">
         <v>15</v>
       </c>
@@ -3062,7 +2999,7 @@
       <c r="S16" s="13"/>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="16">
         <v>16</v>
       </c>
@@ -3112,7 +3049,7 @@
       <c r="S17" s="13"/>
       <c r="T17" s="8"/>
     </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="16">
         <v>17</v>
       </c>
@@ -3162,7 +3099,7 @@
       <c r="S18" s="13"/>
       <c r="T18" s="8"/>
     </row>
-    <row r="19" spans="1:20" s="37" customFormat="1" ht="16.5">
+    <row r="19" spans="1:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="16">
         <v>18</v>
       </c>
@@ -3212,7 +3149,7 @@
       <c r="S19" s="12"/>
       <c r="T19" s="36"/>
     </row>
-    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="16">
         <v>19</v>
       </c>
@@ -3262,7 +3199,7 @@
       <c r="S20" s="13"/>
       <c r="T20" s="8"/>
     </row>
-    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="16">
         <v>20</v>
       </c>
@@ -3312,7 +3249,7 @@
       <c r="S21" s="13"/>
       <c r="T21" s="8"/>
     </row>
-    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="16">
         <v>21</v>
       </c>
@@ -3362,7 +3299,7 @@
       <c r="S22" s="13"/>
       <c r="T22" s="8"/>
     </row>
-    <row r="23" spans="1:20" s="9" customFormat="1" ht="17.25" customHeight="1">
+    <row r="23" spans="1:20" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="16">
         <v>22</v>
       </c>
@@ -3412,7 +3349,7 @@
       <c r="S23" s="13"/>
       <c r="T23" s="8"/>
     </row>
-    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="16">
         <v>23</v>
       </c>
@@ -3462,7 +3399,7 @@
       <c r="S24" s="13"/>
       <c r="T24" s="8"/>
     </row>
-    <row r="25" spans="1:20" s="43" customFormat="1" ht="16.5">
+    <row r="25" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="16">
         <v>24</v>
       </c>
@@ -3512,7 +3449,7 @@
       <c r="S25" s="41"/>
       <c r="T25" s="42"/>
     </row>
-    <row r="26" spans="1:20" s="43" customFormat="1" ht="16.5">
+    <row r="26" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="16">
         <v>25</v>
       </c>
@@ -3562,7 +3499,7 @@
       <c r="S26" s="41"/>
       <c r="T26" s="42"/>
     </row>
-    <row r="27" spans="1:20" s="43" customFormat="1" ht="16.5">
+    <row r="27" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="16">
         <v>26</v>
       </c>
@@ -3612,7 +3549,7 @@
       <c r="S27" s="41"/>
       <c r="T27" s="42"/>
     </row>
-    <row r="28" spans="1:20" s="43" customFormat="1" ht="16.5">
+    <row r="28" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="16">
         <v>27</v>
       </c>
@@ -3662,7 +3599,7 @@
       <c r="S28" s="41"/>
       <c r="T28" s="42"/>
     </row>
-    <row r="29" spans="1:20" s="43" customFormat="1" ht="16.5">
+    <row r="29" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="16">
         <v>28</v>
       </c>
@@ -3712,7 +3649,7 @@
       <c r="S29" s="41"/>
       <c r="T29" s="42"/>
     </row>
-    <row r="30" spans="1:20" s="43" customFormat="1" ht="18.75" customHeight="1">
+    <row r="30" spans="1:20" s="43" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="16">
         <v>29</v>
       </c>
@@ -3762,7 +3699,7 @@
       <c r="S30" s="41"/>
       <c r="T30" s="42"/>
     </row>
-    <row r="31" spans="1:20" s="43" customFormat="1" ht="16.5">
+    <row r="31" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="16">
         <v>30</v>
       </c>
@@ -3812,7 +3749,7 @@
       <c r="S31" s="41"/>
       <c r="T31" s="42"/>
     </row>
-    <row r="32" spans="1:20" s="43" customFormat="1" ht="33">
+    <row r="32" spans="1:20" s="43" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A32" s="16">
         <v>31</v>
       </c>
@@ -3862,7 +3799,7 @@
       <c r="S32" s="41"/>
       <c r="T32" s="42"/>
     </row>
-    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="16">
         <v>32</v>
       </c>
@@ -3910,7 +3847,7 @@
       <c r="S33" s="13"/>
       <c r="T33" s="8"/>
     </row>
-    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="16">
         <v>33</v>
       </c>
@@ -3958,7 +3895,7 @@
       <c r="S34" s="13"/>
       <c r="T34" s="8"/>
     </row>
-    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="16">
         <v>34</v>
       </c>
@@ -4006,7 +3943,7 @@
       <c r="S35" s="13"/>
       <c r="T35" s="8"/>
     </row>
-    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="16">
         <v>35</v>
       </c>
@@ -4054,7 +3991,7 @@
       <c r="S36" s="13"/>
       <c r="T36" s="8"/>
     </row>
-    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="16">
         <v>36</v>
       </c>
@@ -4102,7 +4039,7 @@
       <c r="S37" s="13"/>
       <c r="T37" s="8"/>
     </row>
-    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="16">
         <v>37</v>
       </c>
@@ -4150,7 +4087,7 @@
       <c r="S38" s="13"/>
       <c r="T38" s="8"/>
     </row>
-    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="16">
         <v>38</v>
       </c>
@@ -4198,7 +4135,7 @@
       <c r="S39" s="13"/>
       <c r="T39" s="8"/>
     </row>
-    <row r="40" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="40" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="16">
         <v>39</v>
       </c>
@@ -4246,7 +4183,7 @@
       <c r="S40" s="13"/>
       <c r="T40" s="8"/>
     </row>
-    <row r="41" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="41" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="16">
         <v>40</v>
       </c>
@@ -4294,7 +4231,7 @@
       <c r="S41" s="13"/>
       <c r="T41" s="8"/>
     </row>
-    <row r="42" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="42" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="16">
         <v>41</v>
       </c>
@@ -4342,7 +4279,7 @@
       <c r="S42" s="13"/>
       <c r="T42" s="8"/>
     </row>
-    <row r="43" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="43" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="16">
         <v>42</v>
       </c>
@@ -4392,7 +4329,7 @@
       <c r="S43" s="13"/>
       <c r="T43" s="8"/>
     </row>
-    <row r="44" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="44" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="16">
         <v>43</v>
       </c>
@@ -4442,7 +4379,7 @@
       <c r="S44" s="13"/>
       <c r="T44" s="8"/>
     </row>
-    <row r="45" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="45" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="16">
         <v>44</v>
       </c>
@@ -4492,7 +4429,7 @@
       <c r="S45" s="13"/>
       <c r="T45" s="8"/>
     </row>
-    <row r="46" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="46" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="16">
         <v>45</v>
       </c>
@@ -4542,7 +4479,7 @@
       <c r="S46" s="13"/>
       <c r="T46" s="8"/>
     </row>
-    <row r="47" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="47" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="16">
         <v>46</v>
       </c>
@@ -4592,7 +4529,7 @@
       <c r="S47" s="13"/>
       <c r="T47" s="8"/>
     </row>
-    <row r="48" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="48" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="16">
         <v>47</v>
       </c>
@@ -4642,7 +4579,7 @@
       <c r="S48" s="13"/>
       <c r="T48" s="8"/>
     </row>
-    <row r="49" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="49" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A49" s="16">
         <v>48</v>
       </c>
@@ -4692,7 +4629,7 @@
       <c r="S49" s="13"/>
       <c r="T49" s="8"/>
     </row>
-    <row r="50" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="50" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A50" s="16">
         <v>49</v>
       </c>
@@ -4742,7 +4679,7 @@
       <c r="S50" s="13"/>
       <c r="T50" s="8"/>
     </row>
-    <row r="51" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="51" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="16">
         <v>50</v>
       </c>
@@ -4790,7 +4727,7 @@
       <c r="S51" s="13"/>
       <c r="T51" s="8"/>
     </row>
-    <row r="52" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="52" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="16">
         <v>51</v>
       </c>
@@ -4838,7 +4775,7 @@
       <c r="S52" s="13"/>
       <c r="T52" s="8"/>
     </row>
-    <row r="53" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="53" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="16">
         <v>52</v>
       </c>
@@ -4886,7 +4823,7 @@
       <c r="S53" s="13"/>
       <c r="T53" s="8"/>
     </row>
-    <row r="54" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="54" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="16">
         <v>53</v>
       </c>
@@ -4934,7 +4871,7 @@
       <c r="S54" s="13"/>
       <c r="T54" s="8"/>
     </row>
-    <row r="55" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="55" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="16">
         <v>54</v>
       </c>
@@ -4982,7 +4919,7 @@
       <c r="S55" s="13"/>
       <c r="T55" s="8"/>
     </row>
-    <row r="56" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="56" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="16">
         <v>55</v>
       </c>
@@ -5030,7 +4967,7 @@
       <c r="S56" s="13"/>
       <c r="T56" s="8"/>
     </row>
-    <row r="57" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="57" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="16">
         <v>56</v>
       </c>
@@ -5078,7 +5015,7 @@
       <c r="S57" s="13"/>
       <c r="T57" s="8"/>
     </row>
-    <row r="58" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="58" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A58" s="16">
         <v>57</v>
       </c>
@@ -5126,7 +5063,7 @@
       <c r="S58" s="13"/>
       <c r="T58" s="8"/>
     </row>
-    <row r="59" spans="1:20" s="9" customFormat="1" ht="36">
+    <row r="59" spans="1:20" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A59" s="16">
         <v>58</v>
       </c>
@@ -5174,7 +5111,7 @@
       <c r="S59" s="13"/>
       <c r="T59" s="8"/>
     </row>
-    <row r="60" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="60" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="16">
         <v>59</v>
       </c>
@@ -5222,7 +5159,7 @@
       <c r="S60" s="13"/>
       <c r="T60" s="8"/>
     </row>
-    <row r="61" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="61" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="16">
         <v>60</v>
       </c>
@@ -5270,7 +5207,7 @@
       <c r="S61" s="13"/>
       <c r="T61" s="8"/>
     </row>
-    <row r="62" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="62" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="16">
         <v>61</v>
       </c>
@@ -5318,7 +5255,7 @@
       <c r="S62" s="13"/>
       <c r="T62" s="8"/>
     </row>
-    <row r="63" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="63" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A63" s="16">
         <v>62</v>
       </c>
@@ -5362,7 +5299,7 @@
       <c r="S63" s="13"/>
       <c r="T63" s="8"/>
     </row>
-    <row r="64" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="64" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="16">
         <v>63</v>
       </c>
@@ -5406,7 +5343,7 @@
       <c r="S64" s="13"/>
       <c r="T64" s="8"/>
     </row>
-    <row r="65" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="65" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="16">
         <v>64</v>
       </c>
@@ -5450,7 +5387,7 @@
       <c r="S65" s="13"/>
       <c r="T65" s="8"/>
     </row>
-    <row r="66" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="66" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="16">
         <v>65</v>
       </c>
@@ -5494,7 +5431,7 @@
       <c r="S66" s="13"/>
       <c r="T66" s="8"/>
     </row>
-    <row r="67" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="67" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A67" s="16">
         <v>66</v>
       </c>
@@ -5538,7 +5475,7 @@
       <c r="S67" s="13"/>
       <c r="T67" s="8"/>
     </row>
-    <row r="68" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="68" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A68" s="16">
         <v>67</v>
       </c>
@@ -5582,7 +5519,7 @@
       <c r="S68" s="13"/>
       <c r="T68" s="8"/>
     </row>
-    <row r="69" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="69" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A69" s="16">
         <v>68</v>
       </c>
@@ -5626,7 +5563,7 @@
       <c r="S69" s="13"/>
       <c r="T69" s="8"/>
     </row>
-    <row r="70" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="70" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A70" s="16">
         <v>69</v>
       </c>
@@ -5670,7 +5607,7 @@
       <c r="S70" s="13"/>
       <c r="T70" s="8"/>
     </row>
-    <row r="71" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="71" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A71" s="16">
         <v>70</v>
       </c>
@@ -5714,7 +5651,7 @@
       <c r="S71" s="13"/>
       <c r="T71" s="8"/>
     </row>
-    <row r="72" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="72" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="16">
         <v>71</v>
       </c>
@@ -5758,7 +5695,7 @@
       <c r="S72" s="13"/>
       <c r="T72" s="8"/>
     </row>
-    <row r="73" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="73" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="16">
         <v>72</v>
       </c>
@@ -5802,7 +5739,7 @@
       <c r="S73" s="13"/>
       <c r="T73" s="8"/>
     </row>
-    <row r="74" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="74" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A74" s="16">
         <v>73</v>
       </c>
@@ -5846,7 +5783,7 @@
       <c r="S74" s="13"/>
       <c r="T74" s="8"/>
     </row>
-    <row r="75" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="75" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="16">
         <v>74</v>
       </c>
@@ -5890,7 +5827,7 @@
       <c r="S75" s="13"/>
       <c r="T75" s="8"/>
     </row>
-    <row r="76" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="76" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A76" s="16">
         <v>75</v>
       </c>
@@ -5934,7 +5871,7 @@
       <c r="S76" s="13"/>
       <c r="T76" s="8"/>
     </row>
-    <row r="77" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="77" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="16">
         <v>76</v>
       </c>
@@ -5978,7 +5915,7 @@
       <c r="S77" s="13"/>
       <c r="T77" s="8"/>
     </row>
-    <row r="78" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="78" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A78" s="16">
         <v>77</v>
       </c>
@@ -6022,7 +5959,7 @@
       <c r="S78" s="13"/>
       <c r="T78" s="8"/>
     </row>
-    <row r="79" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="79" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A79" s="16">
         <v>78</v>
       </c>
@@ -6066,7 +6003,7 @@
       <c r="S79" s="13"/>
       <c r="T79" s="8"/>
     </row>
-    <row r="80" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="80" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="16">
         <v>79</v>
       </c>
@@ -6110,7 +6047,7 @@
       <c r="S80" s="13"/>
       <c r="T80" s="8"/>
     </row>
-    <row r="81" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="81" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A81" s="16">
         <v>80</v>
       </c>
@@ -6154,7 +6091,7 @@
       <c r="S81" s="13"/>
       <c r="T81" s="8"/>
     </row>
-    <row r="82" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="82" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A82" s="16">
         <v>81</v>
       </c>
@@ -6198,7 +6135,7 @@
       <c r="S82" s="13"/>
       <c r="T82" s="8"/>
     </row>
-    <row r="83" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="83" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A83" s="16">
         <v>82</v>
       </c>
@@ -6242,7 +6179,7 @@
       <c r="S83" s="13"/>
       <c r="T83" s="8"/>
     </row>
-    <row r="84" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="84" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A84" s="16">
         <v>83</v>
       </c>
@@ -6286,7 +6223,7 @@
       <c r="S84" s="13"/>
       <c r="T84" s="8"/>
     </row>
-    <row r="85" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="85" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A85" s="16">
         <v>84</v>
       </c>
@@ -6330,7 +6267,7 @@
       <c r="S85" s="13"/>
       <c r="T85" s="8"/>
     </row>
-    <row r="86" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="86" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A86" s="16">
         <v>85</v>
       </c>
@@ -6374,7 +6311,7 @@
       <c r="S86" s="13"/>
       <c r="T86" s="8"/>
     </row>
-    <row r="87" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="87" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A87" s="16">
         <v>86</v>
       </c>
@@ -6418,7 +6355,7 @@
       <c r="S87" s="13"/>
       <c r="T87" s="8"/>
     </row>
-    <row r="88" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="88" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A88" s="16">
         <v>87</v>
       </c>
@@ -6462,7 +6399,7 @@
       <c r="S88" s="13"/>
       <c r="T88" s="8"/>
     </row>
-    <row r="89" spans="1:20" s="9" customFormat="1" ht="24">
+    <row r="89" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A89" s="16">
         <v>88</v>
       </c>
@@ -6506,7 +6443,7 @@
       <c r="S89" s="13"/>
       <c r="T89" s="8"/>
     </row>
-    <row r="90" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="90" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A90" s="16">
         <v>89</v>
       </c>
@@ -6554,7 +6491,7 @@
       <c r="S90" s="13"/>
       <c r="T90" s="8"/>
     </row>
-    <row r="91" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="91" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="16">
         <v>90</v>
       </c>
@@ -6602,7 +6539,7 @@
       <c r="S91" s="13"/>
       <c r="T91" s="8"/>
     </row>
-    <row r="92" spans="1:20" s="9" customFormat="1" ht="33">
+    <row r="92" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A92" s="16">
         <v>91</v>
       </c>
@@ -6650,7 +6587,7 @@
       <c r="S92" s="13"/>
       <c r="T92" s="8"/>
     </row>
-    <row r="93" spans="1:20" s="37" customFormat="1" ht="27" customHeight="1">
+    <row r="93" spans="1:20" s="37" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="16">
         <v>92</v>
       </c>
@@ -6694,7 +6631,7 @@
       </c>
       <c r="T93" s="36"/>
     </row>
-    <row r="94" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1">
+    <row r="94" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="16">
         <v>93</v>
       </c>
@@ -6738,7 +6675,7 @@
       </c>
       <c r="T94" s="8"/>
     </row>
-    <row r="95" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1">
+    <row r="95" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="16">
         <v>94</v>
       </c>
@@ -6782,7 +6719,7 @@
       <c r="S95" s="13"/>
       <c r="T95" s="8"/>
     </row>
-    <row r="96" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1">
+    <row r="96" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="16">
         <v>95</v>
       </c>
@@ -6826,7 +6763,7 @@
       <c r="S96" s="13"/>
       <c r="T96" s="8"/>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A97" s="7"/>
       <c r="B97" s="4"/>
       <c r="C97" s="7"/>
@@ -6847,7 +6784,7 @@
       <c r="R97" s="7"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A98" s="7"/>
       <c r="B98" s="4"/>
       <c r="C98" s="7"/>
@@ -6868,7 +6805,7 @@
       <c r="R98" s="7"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A99" s="7"/>
       <c r="B99" s="4"/>
       <c r="C99" s="7"/>
@@ -6889,7 +6826,7 @@
       <c r="R99" s="7"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A100" s="7"/>
       <c r="B100" s="4"/>
       <c r="C100" s="7"/>
@@ -6910,7 +6847,7 @@
       <c r="R100" s="7"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A101" s="7"/>
       <c r="B101" s="4"/>
       <c r="C101" s="7"/>
@@ -6931,7 +6868,7 @@
       <c r="R101" s="7"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A102" s="7"/>
       <c r="B102" s="4"/>
       <c r="C102" s="7"/>
@@ -6952,7 +6889,7 @@
       <c r="R102" s="7"/>
       <c r="S102" s="4"/>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A103" s="7"/>
       <c r="B103" s="4"/>
       <c r="C103" s="7"/>
@@ -6973,7 +6910,7 @@
       <c r="R103" s="7"/>
       <c r="S103" s="4"/>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A104" s="7"/>
       <c r="B104" s="4"/>
       <c r="C104" s="7"/>
@@ -6994,7 +6931,7 @@
       <c r="R104" s="7"/>
       <c r="S104" s="4"/>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A105" s="7"/>
       <c r="B105" s="4"/>
       <c r="C105" s="7"/>
@@ -7015,7 +6952,7 @@
       <c r="R105" s="7"/>
       <c r="S105" s="4"/>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A106" s="7"/>
       <c r="B106" s="4"/>
       <c r="C106" s="7"/>
@@ -7036,7 +6973,7 @@
       <c r="R106" s="7"/>
       <c r="S106" s="4"/>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A107" s="7"/>
       <c r="B107" s="4"/>
       <c r="C107" s="7"/>
@@ -7057,7 +6994,7 @@
       <c r="R107" s="7"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A108" s="7"/>
       <c r="B108" s="4"/>
       <c r="C108" s="7"/>
@@ -7078,7 +7015,7 @@
       <c r="R108" s="7"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A109" s="7"/>
       <c r="B109" s="4"/>
       <c r="C109" s="7"/>
@@ -7099,7 +7036,7 @@
       <c r="R109" s="7"/>
       <c r="S109" s="4"/>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A110" s="7"/>
       <c r="B110" s="4"/>
       <c r="C110" s="7"/>
@@ -7120,7 +7057,7 @@
       <c r="R110" s="7"/>
       <c r="S110" s="4"/>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A111" s="7"/>
       <c r="B111" s="4"/>
       <c r="C111" s="7"/>
@@ -7141,7 +7078,7 @@
       <c r="R111" s="7"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A112" s="7"/>
       <c r="B112" s="4"/>
       <c r="C112" s="7"/>
@@ -7162,7 +7099,7 @@
       <c r="R112" s="7"/>
       <c r="S112" s="4"/>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A113" s="7"/>
       <c r="B113" s="4"/>
       <c r="C113" s="7"/>
@@ -7183,7 +7120,7 @@
       <c r="R113" s="7"/>
       <c r="S113" s="4"/>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A114" s="7"/>
       <c r="B114" s="4"/>
       <c r="C114" s="7"/>
@@ -7204,7 +7141,7 @@
       <c r="R114" s="7"/>
       <c r="S114" s="4"/>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A115" s="7"/>
       <c r="B115" s="4"/>
       <c r="C115" s="7"/>
@@ -7225,7 +7162,7 @@
       <c r="R115" s="7"/>
       <c r="S115" s="4"/>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A116" s="7"/>
       <c r="B116" s="4"/>
       <c r="C116" s="7"/>
@@ -7246,7 +7183,7 @@
       <c r="R116" s="7"/>
       <c r="S116" s="4"/>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A117" s="7"/>
       <c r="B117" s="4"/>
       <c r="C117" s="7"/>
@@ -7267,7 +7204,7 @@
       <c r="R117" s="7"/>
       <c r="S117" s="4"/>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A118" s="7"/>
       <c r="B118" s="4"/>
       <c r="C118" s="7"/>
@@ -7285,7 +7222,7 @@
       <c r="O118" s="4"/>
       <c r="S118" s="4"/>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A119" s="7"/>
       <c r="B119" s="4"/>
       <c r="C119" s="7"/>
@@ -7303,7 +7240,7 @@
       <c r="O119" s="4"/>
       <c r="S119" s="4"/>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A120" s="7"/>
       <c r="B120" s="4"/>
       <c r="C120" s="7"/>
@@ -7321,7 +7258,7 @@
       <c r="O120" s="4"/>
       <c r="S120" s="4"/>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A121" s="7"/>
       <c r="B121" s="4"/>
       <c r="C121" s="7"/>
@@ -7339,7 +7276,7 @@
       <c r="O121" s="4"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A122" s="7"/>
       <c r="B122" s="4"/>
       <c r="C122" s="7"/>
@@ -7357,7 +7294,7 @@
       <c r="O122" s="4"/>
       <c r="S122" s="4"/>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A123" s="7"/>
       <c r="B123" s="4"/>
       <c r="C123" s="7"/>
@@ -7375,7 +7312,7 @@
       <c r="O123" s="4"/>
       <c r="S123" s="4"/>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A124" s="7"/>
       <c r="B124" s="4"/>
       <c r="C124" s="7"/>
@@ -7393,7 +7330,7 @@
       <c r="O124" s="4"/>
       <c r="S124" s="4"/>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A125" s="7"/>
       <c r="B125" s="4"/>
       <c r="C125" s="7"/>
@@ -7411,7 +7348,7 @@
       <c r="O125" s="4"/>
       <c r="S125" s="4"/>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A126" s="7"/>
       <c r="B126" s="4"/>
       <c r="C126" s="7"/>
@@ -7429,7 +7366,7 @@
       <c r="O126" s="4"/>
       <c r="S126" s="4"/>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A127" s="7"/>
       <c r="B127" s="4"/>
       <c r="C127" s="7"/>
@@ -7447,7 +7384,7 @@
       <c r="O127" s="4"/>
       <c r="S127" s="4"/>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A128" s="7"/>
       <c r="B128" s="4"/>
       <c r="C128" s="7"/>
@@ -7465,7 +7402,7 @@
       <c r="O128" s="4"/>
       <c r="S128" s="4"/>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A129" s="7"/>
       <c r="B129" s="4"/>
       <c r="C129" s="7"/>
@@ -7483,7 +7420,7 @@
       <c r="O129" s="4"/>
       <c r="S129" s="4"/>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A130" s="7"/>
       <c r="B130" s="4"/>
       <c r="C130" s="7"/>
@@ -7501,7 +7438,7 @@
       <c r="O130" s="4"/>
       <c r="S130" s="4"/>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A131" s="7"/>
       <c r="B131" s="4"/>
       <c r="C131" s="7"/>
@@ -7519,7 +7456,7 @@
       <c r="O131" s="4"/>
       <c r="S131" s="4"/>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A132" s="7"/>
       <c r="B132" s="4"/>
       <c r="C132" s="7"/>
@@ -7537,7 +7474,7 @@
       <c r="O132" s="4"/>
       <c r="S132" s="4"/>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A133" s="7"/>
       <c r="B133" s="4"/>
       <c r="C133" s="7"/>
@@ -7555,7 +7492,7 @@
       <c r="O133" s="4"/>
       <c r="S133" s="4"/>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A134" s="7"/>
       <c r="B134" s="4"/>
       <c r="C134" s="7"/>
@@ -7573,7 +7510,7 @@
       <c r="O134" s="4"/>
       <c r="S134" s="4"/>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A135" s="7"/>
       <c r="B135" s="4"/>
       <c r="C135" s="7"/>
@@ -7591,7 +7528,7 @@
       <c r="O135" s="4"/>
       <c r="S135" s="4"/>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A136" s="7"/>
       <c r="B136" s="4"/>
       <c r="C136" s="7"/>
@@ -7609,7 +7546,7 @@
       <c r="O136" s="4"/>
       <c r="S136" s="4"/>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A137" s="7"/>
       <c r="B137" s="4"/>
       <c r="C137" s="7"/>
@@ -7627,7 +7564,7 @@
       <c r="O137" s="4"/>
       <c r="S137" s="4"/>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A138" s="7"/>
       <c r="B138" s="4"/>
       <c r="C138" s="7"/>
@@ -7645,7 +7582,7 @@
       <c r="O138" s="4"/>
       <c r="S138" s="4"/>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A139" s="7"/>
       <c r="B139" s="4"/>
       <c r="C139" s="7"/>
@@ -7663,7 +7600,7 @@
       <c r="O139" s="4"/>
       <c r="S139" s="4"/>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A140" s="7"/>
       <c r="B140" s="4"/>
       <c r="C140" s="7"/>
@@ -7681,7 +7618,7 @@
       <c r="O140" s="4"/>
       <c r="S140" s="4"/>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A141" s="7"/>
       <c r="B141" s="4"/>
       <c r="C141" s="7"/>
@@ -7699,7 +7636,7 @@
       <c r="O141" s="4"/>
       <c r="S141" s="4"/>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A142" s="7"/>
       <c r="B142" s="4"/>
       <c r="C142" s="7"/>
@@ -7717,7 +7654,7 @@
       <c r="O142" s="4"/>
       <c r="S142" s="4"/>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A143" s="7"/>
       <c r="B143" s="4"/>
       <c r="C143" s="7"/>
@@ -7735,7 +7672,7 @@
       <c r="O143" s="4"/>
       <c r="S143" s="4"/>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A144" s="7"/>
       <c r="B144" s="4"/>
       <c r="C144" s="7"/>
@@ -7753,7 +7690,7 @@
       <c r="O144" s="4"/>
       <c r="S144" s="4"/>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A145" s="7"/>
       <c r="B145" s="4"/>
       <c r="C145" s="7"/>
@@ -7771,7 +7708,7 @@
       <c r="O145" s="4"/>
       <c r="S145" s="4"/>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A146" s="7"/>
       <c r="B146" s="4"/>
       <c r="C146" s="7"/>
@@ -7789,7 +7726,7 @@
       <c r="O146" s="4"/>
       <c r="S146" s="4"/>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A147" s="7"/>
       <c r="B147" s="4"/>
       <c r="C147" s="7"/>
@@ -7807,7 +7744,7 @@
       <c r="O147" s="4"/>
       <c r="S147" s="4"/>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A148" s="7"/>
       <c r="B148" s="4"/>
       <c r="C148" s="7"/>
@@ -7825,7 +7762,7 @@
       <c r="O148" s="4"/>
       <c r="S148" s="4"/>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A149" s="7"/>
       <c r="B149" s="4"/>
       <c r="C149" s="7"/>
@@ -7843,7 +7780,7 @@
       <c r="O149" s="4"/>
       <c r="S149" s="4"/>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A150" s="7"/>
       <c r="B150" s="4"/>
       <c r="C150" s="7"/>
@@ -7861,7 +7798,7 @@
       <c r="O150" s="4"/>
       <c r="S150" s="4"/>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A151" s="7"/>
       <c r="B151" s="4"/>
       <c r="C151" s="7"/>
@@ -7879,7 +7816,7 @@
       <c r="O151" s="4"/>
       <c r="S151" s="4"/>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A152" s="7"/>
       <c r="B152" s="4"/>
       <c r="C152" s="7"/>
@@ -7905,14 +7842,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
@@ -7922,7 +7859,7 @@
     <col min="8" max="13" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="66" t="s">
         <v>24</v>
       </c>
@@ -7939,7 +7876,7 @@
       <c r="L1" s="66"/>
       <c r="M1" s="67"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="68"/>
       <c r="B2" s="68"/>
       <c r="C2" s="68"/>
@@ -7954,7 +7891,7 @@
       <c r="L2" s="68"/>
       <c r="M2" s="69"/>
     </row>
-    <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
@@ -7995,7 +7932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="20" customFormat="1" ht="68.25" customHeight="1">
+    <row r="4" spans="1:13" s="20" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22">
         <v>1</v>
       </c>
@@ -8036,7 +7973,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="20" customFormat="1" ht="33">
+    <row r="5" spans="1:13" s="20" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A5" s="22">
         <v>2</v>
       </c>
@@ -8077,7 +8014,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="20" customFormat="1" ht="66">
+    <row r="6" spans="1:13" s="20" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A6" s="22">
         <v>3</v>
       </c>
@@ -8118,7 +8055,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="20" customFormat="1" ht="39.75" customHeight="1">
+    <row r="7" spans="1:13" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="22">
         <v>4</v>
       </c>
@@ -8176,14 +8113,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="8.125" style="26" customWidth="1"/>
@@ -9019,7 +8956,7 @@
     <col min="16141" max="16141" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="66" t="s">
         <v>24</v>
       </c>
@@ -9036,7 +8973,7 @@
       <c r="L1" s="66"/>
       <c r="M1" s="67"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="68"/>
       <c r="B2" s="68"/>
       <c r="C2" s="68"/>
@@ -9051,7 +8988,7 @@
       <c r="L2" s="68"/>
       <c r="M2" s="69"/>
     </row>
-    <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
@@ -9092,7 +9029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="20" customFormat="1" ht="68.25" customHeight="1">
+    <row r="4" spans="1:13" s="20" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22">
         <v>1</v>
       </c>
@@ -9133,7 +9070,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="20" customFormat="1" ht="39.75" customHeight="1">
+    <row r="5" spans="1:13" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22">
         <v>2</v>
       </c>
@@ -9170,7 +9107,7 @@
       </c>
       <c r="M5" s="22"/>
     </row>
-    <row r="6" spans="1:13" s="20" customFormat="1" ht="33">
+    <row r="6" spans="1:13" s="20" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A6" s="22">
         <v>3</v>
       </c>
@@ -9196,7 +9133,7 @@
         <v>159</v>
       </c>
       <c r="I6" s="48" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="J6" s="48" t="s">
         <v>100</v>
@@ -9211,7 +9148,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="20" customFormat="1" ht="66">
+    <row r="7" spans="1:13" s="20" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A7" s="22">
         <v>4</v>
       </c>
@@ -9252,7 +9189,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="8" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -9267,7 +9204,7 @@
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
     </row>
-    <row r="9" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="9" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -9282,7 +9219,7 @@
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
     </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -9297,7 +9234,7 @@
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
     </row>
-    <row r="11" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="11" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -9334,14 +9271,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="26" customWidth="1"/>
@@ -10177,7 +10114,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="66" t="s">
         <v>24</v>
       </c>
@@ -10194,7 +10131,7 @@
       <c r="L1" s="66"/>
       <c r="M1" s="67"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="68"/>
       <c r="B2" s="68"/>
       <c r="C2" s="68"/>
@@ -10209,7 +10146,7 @@
       <c r="L2" s="68"/>
       <c r="M2" s="69"/>
     </row>
-    <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="3" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
@@ -10250,7 +10187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="20" customFormat="1" ht="68.25" customHeight="1">
+    <row r="4" spans="1:13" s="20" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22">
         <v>1</v>
       </c>
@@ -10291,7 +10228,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="20" customFormat="1" ht="39.75" customHeight="1">
+    <row r="5" spans="1:13" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22">
         <v>2</v>
       </c>
@@ -10328,7 +10265,7 @@
       </c>
       <c r="M5" s="22"/>
     </row>
-    <row r="6" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="6" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -10343,7 +10280,7 @@
       <c r="L6" s="22"/>
       <c r="M6" s="24"/>
     </row>
-    <row r="7" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="7" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -10358,7 +10295,7 @@
       <c r="L7" s="22"/>
       <c r="M7" s="22"/>
     </row>
-    <row r="8" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="8" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -10373,7 +10310,7 @@
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
     </row>
-    <row r="9" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="9" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -10388,7 +10325,7 @@
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
     </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -10403,7 +10340,7 @@
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
     </row>
-    <row r="11" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="11" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -10418,7 +10355,7 @@
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
     </row>
-    <row r="12" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="12" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -10433,7 +10370,7 @@
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
     </row>
-    <row r="13" spans="1:13" s="20" customFormat="1" ht="16.5">
+    <row r="13" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>

--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.0.2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="3285" windowWidth="25125" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="3285" windowWidth="25125" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="283">
   <si>
     <t>No</t>
   </si>
@@ -2166,11 +2161,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="I83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S94" sqref="S94"/>
+      <selection pane="bottomRight" activeCell="O96" sqref="O96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6622,7 +6617,9 @@
       <c r="L93" s="10"/>
       <c r="M93" s="12"/>
       <c r="N93" s="11"/>
-      <c r="O93" s="12"/>
+      <c r="O93" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="P93" s="30"/>
       <c r="Q93" s="30"/>
       <c r="R93" s="30"/>
@@ -6666,7 +6663,9 @@
       <c r="L94" s="12"/>
       <c r="M94" s="12"/>
       <c r="N94" s="11"/>
-      <c r="O94" s="12"/>
+      <c r="O94" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="P94" s="7"/>
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
@@ -6712,7 +6711,9 @@
       </c>
       <c r="M95" s="12"/>
       <c r="N95" s="11"/>
-      <c r="O95" s="12"/>
+      <c r="O95" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
@@ -6756,7 +6757,9 @@
       </c>
       <c r="M96" s="12"/>
       <c r="N96" s="11"/>
-      <c r="O96" s="12"/>
+      <c r="O96" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="P96" s="7"/>
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
@@ -9274,7 +9277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>

--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.0.2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="3285" windowWidth="25125" windowHeight="11760"/>
+    <workbookView xWindow="480" yWindow="3285" windowWidth="25125" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="281">
   <si>
     <t>No</t>
   </si>
@@ -531,9 +536,6 @@
     <t>新增</t>
   </si>
   <si>
-    <t>测试环境</t>
-  </si>
-  <si>
     <t>张浩</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -547,10 +549,6 @@
   </si>
   <si>
     <t>bs添加报表查询专用数据源</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试环境</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1181,11 +1179,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>sysconfig.weixin.weixinhuoBanAppID=？
-sysconfig.weixin.weixinhuoBanAppSecret=？</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>jdbc.driverClassName_repo=？
 jdbc.url_repo=？
 jdbc.username_repo=？
@@ -1235,6 +1228,11 @@
   </si>
   <si>
     <t>可以配置到所有项目nginx server上</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysconfig.weixin.weixinhuoBanAppID=wx730bca9476310d91
+sysconfig.weixin.weixinhuoBanAppSecret=d4624c36b6795d1d99dcf0547af5443d</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2161,7 +2159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="I83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2257,44 +2255,44 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>166</v>
       </c>
       <c r="F2" s="11">
         <v>42633</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H2" s="11">
         <v>42633</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>168</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>170</v>
       </c>
       <c r="N2" s="11">
         <v>42633</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P2" s="30"/>
       <c r="Q2" s="30"/>
@@ -2307,44 +2305,44 @@
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>166</v>
       </c>
       <c r="F3" s="11">
         <v>42633</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H3" s="11">
         <v>42633</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>36</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N3" s="11">
         <v>42634</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -2356,22 +2354,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>166</v>
       </c>
       <c r="F4" s="11">
         <v>42633</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H4" s="11">
         <v>42633</v>
@@ -2381,19 +2379,19 @@
         <v>37</v>
       </c>
       <c r="K4" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>168</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>170</v>
       </c>
       <c r="N4" s="11">
         <v>42633</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -2405,44 +2403,44 @@
         <v>4</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>166</v>
       </c>
       <c r="F5" s="11">
         <v>42633</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H5" s="11">
         <v>42633</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K5" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>168</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>170</v>
       </c>
       <c r="N5" s="11">
         <v>42633</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -2454,22 +2452,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F6" s="11">
         <v>42633</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H6" s="11">
         <v>42633</v>
@@ -2479,19 +2477,19 @@
         <v>38</v>
       </c>
       <c r="K6" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>168</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>170</v>
       </c>
       <c r="N6" s="11">
         <v>42633</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
@@ -2503,44 +2501,44 @@
         <v>6</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>166</v>
       </c>
       <c r="F7" s="11">
         <v>42633</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H7" s="11">
         <v>42633</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K7" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="M7" s="12" t="s">
         <v>168</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>170</v>
       </c>
       <c r="N7" s="11">
         <v>42633</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
@@ -2552,44 +2550,44 @@
         <v>7</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F8" s="11">
         <v>42633</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H8" s="11">
         <v>42633</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="L8" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="M8" s="12" t="s">
         <v>168</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>170</v>
       </c>
       <c r="N8" s="11">
         <v>42633</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -2601,44 +2599,44 @@
         <v>8</v>
       </c>
       <c r="B9" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>184</v>
       </c>
       <c r="F9" s="11">
         <v>42633</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H9" s="11">
         <v>42633</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="L9" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="M9" s="12" t="s">
         <v>186</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="N9" s="11">
         <v>42633</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -2650,44 +2648,44 @@
         <v>9</v>
       </c>
       <c r="B10" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>191</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>193</v>
       </c>
       <c r="F10" s="11">
         <v>42633</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H10" s="11">
         <v>42633</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="M10" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="N10" s="11">
+        <v>42634</v>
+      </c>
+      <c r="O10" s="12" t="s">
         <v>196</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="N10" s="11">
-        <v>42634</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>198</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
@@ -2699,22 +2697,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>201</v>
       </c>
       <c r="F11" s="11">
         <v>42627</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H11" s="11">
         <v>42627</v>
@@ -2730,13 +2728,13 @@
         <v>41</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N11" s="11">
         <v>42634</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -2749,22 +2747,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F12" s="11">
         <v>42627</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H12" s="11">
         <v>42627</v>
@@ -2780,13 +2778,13 @@
         <v>41</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N12" s="11">
         <v>42634</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
@@ -2799,44 +2797,44 @@
         <v>12</v>
       </c>
       <c r="B13" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="E13" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>208</v>
       </c>
       <c r="F13" s="11">
         <v>42626</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H13" s="11">
         <v>42626</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="L13" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="M13" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="N13" s="11">
+        <v>42634</v>
+      </c>
+      <c r="O13" s="12" t="s">
         <v>211</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="N13" s="11">
-        <v>42634</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>213</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -2849,44 +2847,44 @@
         <v>13</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>208</v>
       </c>
       <c r="F14" s="11">
         <v>42631</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H14" s="11">
         <v>42631</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K14" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="M14" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="N14" s="11">
+        <v>42634</v>
+      </c>
+      <c r="O14" s="12" t="s">
         <v>211</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="N14" s="11">
-        <v>42634</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>213</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -2899,44 +2897,44 @@
         <v>14</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>208</v>
       </c>
       <c r="F15" s="11">
         <v>42631</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H15" s="11">
         <v>42631</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K15" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="M15" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="N15" s="11">
+        <v>42634</v>
+      </c>
+      <c r="O15" s="12" t="s">
         <v>211</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="N15" s="11">
-        <v>42634</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>213</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -2949,44 +2947,44 @@
         <v>15</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F16" s="11">
         <v>42631</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H16" s="11">
         <v>42631</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K16" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="M16" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="N16" s="11">
+        <v>42634</v>
+      </c>
+      <c r="O16" s="12" t="s">
         <v>211</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="N16" s="11">
-        <v>42634</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>213</v>
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -2999,44 +2997,44 @@
         <v>16</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>208</v>
-      </c>
       <c r="F17" s="11">
         <v>42634</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H17" s="11">
         <v>42634</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K17" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="M17" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="N17" s="11">
+        <v>42634</v>
+      </c>
+      <c r="O17" s="12" t="s">
         <v>211</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="N17" s="11">
-        <v>42634</v>
-      </c>
-      <c r="O17" s="12" t="s">
-        <v>213</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -3049,44 +3047,44 @@
         <v>17</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C18" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>208</v>
-      </c>
       <c r="F18" s="11">
         <v>42634</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H18" s="11">
         <v>42634</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="L18" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="M18" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="L18" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>212</v>
-      </c>
       <c r="N18" s="11">
         <v>42634</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
@@ -3802,19 +3800,19 @@
         <v>77</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F33" s="11">
         <v>42627</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H33" s="11">
         <v>42627</v>
@@ -3834,7 +3832,7 @@
       </c>
       <c r="N33" s="11"/>
       <c r="O33" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
@@ -3850,19 +3848,19 @@
         <v>80</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F34" s="11">
         <v>42627</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H34" s="11">
         <v>42627</v>
@@ -3882,7 +3880,7 @@
       </c>
       <c r="N34" s="11"/>
       <c r="O34" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
@@ -3898,19 +3896,19 @@
         <v>81</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F35" s="11">
         <v>42627</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H35" s="11">
         <v>42627</v>
@@ -3930,7 +3928,7 @@
       </c>
       <c r="N35" s="11"/>
       <c r="O35" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
@@ -3946,19 +3944,19 @@
         <v>83</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F36" s="11">
         <v>42627</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H36" s="11">
         <v>42627</v>
@@ -3978,7 +3976,7 @@
       </c>
       <c r="N36" s="11"/>
       <c r="O36" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
@@ -3994,19 +3992,19 @@
         <v>84</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>85</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F37" s="11">
         <v>42627</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H37" s="11">
         <v>42627</v>
@@ -4026,7 +4024,7 @@
       </c>
       <c r="N37" s="11"/>
       <c r="O37" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
@@ -4042,19 +4040,19 @@
         <v>86</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F38" s="11">
         <v>42631</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H38" s="11">
         <v>42631</v>
@@ -4074,7 +4072,7 @@
       </c>
       <c r="N38" s="11"/>
       <c r="O38" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
@@ -4090,19 +4088,19 @@
         <v>87</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F39" s="11">
         <v>42627</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H39" s="11">
         <v>42627</v>
@@ -4122,7 +4120,7 @@
       </c>
       <c r="N39" s="11"/>
       <c r="O39" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
@@ -4141,7 +4139,7 @@
         <v>60</v>
       </c>
       <c r="D40" s="63" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E40" s="63" t="s">
         <v>34</v>
@@ -4157,10 +4155,10 @@
       </c>
       <c r="I40" s="63"/>
       <c r="J40" s="65" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K40" s="63" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L40" s="10" t="s">
         <v>79</v>
@@ -4170,7 +4168,7 @@
       </c>
       <c r="N40" s="11"/>
       <c r="O40" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
@@ -4189,7 +4187,7 @@
         <v>60</v>
       </c>
       <c r="D41" s="63" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E41" s="63" t="s">
         <v>32</v>
@@ -4218,7 +4216,7 @@
       </c>
       <c r="N41" s="11"/>
       <c r="O41" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
@@ -4234,7 +4232,7 @@
         <v>91</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>92</v>
@@ -4266,7 +4264,7 @@
       </c>
       <c r="N42" s="11"/>
       <c r="O42" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
@@ -4279,13 +4277,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="52" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>34</v>
@@ -4301,13 +4299,13 @@
       </c>
       <c r="I43" s="10"/>
       <c r="J43" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M43" s="12" t="s">
         <v>48</v>
@@ -4329,13 +4327,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>34</v>
@@ -4351,13 +4349,13 @@
       </c>
       <c r="I44" s="10"/>
       <c r="J44" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M44" s="12" t="s">
         <v>48</v>
@@ -4379,13 +4377,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>34</v>
@@ -4401,13 +4399,13 @@
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M45" s="12" t="s">
         <v>48</v>
@@ -4429,13 +4427,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>34</v>
@@ -4451,16 +4449,16 @@
       </c>
       <c r="I46" s="10"/>
       <c r="J46" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N46" s="11">
         <v>42634</v>
@@ -4479,13 +4477,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="54" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>34</v>
@@ -4501,13 +4499,13 @@
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M47" s="12" t="s">
         <v>48</v>
@@ -4529,13 +4527,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="54" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>34</v>
@@ -4551,13 +4549,13 @@
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M48" s="12" t="s">
         <v>48</v>
@@ -4579,13 +4577,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="55" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>34</v>
@@ -4601,13 +4599,13 @@
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M49" s="12" t="s">
         <v>48</v>
@@ -4629,13 +4627,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="55" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>34</v>
@@ -4651,13 +4649,13 @@
       </c>
       <c r="I50" s="10"/>
       <c r="J50" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M50" s="12" t="s">
         <v>48</v>
@@ -4679,13 +4677,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="55" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>34</v>
@@ -4701,13 +4699,13 @@
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M51" s="12"/>
       <c r="N51" s="11">
@@ -4727,13 +4725,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="56" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>34</v>
@@ -4749,13 +4747,13 @@
       </c>
       <c r="I52" s="10"/>
       <c r="J52" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M52" s="12"/>
       <c r="N52" s="11">
@@ -4775,13 +4773,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>34</v>
@@ -4797,13 +4795,13 @@
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M53" s="12"/>
       <c r="N53" s="11">
@@ -4823,13 +4821,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="58" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>34</v>
@@ -4845,13 +4843,13 @@
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M54" s="12"/>
       <c r="N54" s="11">
@@ -4871,13 +4869,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="59" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>34</v>
@@ -4893,13 +4891,13 @@
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M55" s="12"/>
       <c r="N55" s="11">
@@ -4919,13 +4917,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="59" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>34</v>
@@ -4941,13 +4939,13 @@
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M56" s="12"/>
       <c r="N56" s="11">
@@ -4967,13 +4965,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="60" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>34</v>
@@ -4989,13 +4987,13 @@
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M57" s="12"/>
       <c r="N57" s="11">
@@ -5015,13 +5013,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="58" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>34</v>
@@ -5037,13 +5035,13 @@
       </c>
       <c r="I58" s="10"/>
       <c r="J58" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M58" s="12"/>
       <c r="N58" s="11">
@@ -5063,13 +5061,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>34</v>
@@ -5085,13 +5083,13 @@
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M59" s="12"/>
       <c r="N59" s="11">
@@ -5111,13 +5109,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="60" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>34</v>
@@ -5133,13 +5131,13 @@
       </c>
       <c r="I60" s="10"/>
       <c r="J60" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M60" s="12"/>
       <c r="N60" s="11">
@@ -5159,13 +5157,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="58" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>34</v>
@@ -5181,13 +5179,13 @@
       </c>
       <c r="I61" s="10"/>
       <c r="J61" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L61" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M61" s="12"/>
       <c r="N61" s="11">
@@ -5207,13 +5205,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="58" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>34</v>
@@ -5229,13 +5227,13 @@
       </c>
       <c r="I62" s="10"/>
       <c r="J62" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M62" s="12"/>
       <c r="N62" s="11">
@@ -5255,13 +5253,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="58" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>34</v>
@@ -5277,10 +5275,10 @@
       </c>
       <c r="I63" s="10"/>
       <c r="J63" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L63" s="10"/>
       <c r="M63" s="12"/>
@@ -5299,13 +5297,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="58" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>34</v>
@@ -5321,10 +5319,10 @@
       </c>
       <c r="I64" s="10"/>
       <c r="J64" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L64" s="10"/>
       <c r="M64" s="12"/>
@@ -5343,13 +5341,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="58" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>34</v>
@@ -5365,10 +5363,10 @@
       </c>
       <c r="I65" s="10"/>
       <c r="J65" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L65" s="10"/>
       <c r="M65" s="12"/>
@@ -5387,13 +5385,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="58" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>34</v>
@@ -5409,10 +5407,10 @@
       </c>
       <c r="I66" s="10"/>
       <c r="J66" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L66" s="10"/>
       <c r="M66" s="12"/>
@@ -5431,13 +5429,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="58" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>34</v>
@@ -5453,10 +5451,10 @@
       </c>
       <c r="I67" s="10"/>
       <c r="J67" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L67" s="10"/>
       <c r="M67" s="12"/>
@@ -5475,13 +5473,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="58" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>34</v>
@@ -5497,10 +5495,10 @@
       </c>
       <c r="I68" s="10"/>
       <c r="J68" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L68" s="10"/>
       <c r="M68" s="12"/>
@@ -5519,13 +5517,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="58" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>34</v>
@@ -5541,10 +5539,10 @@
       </c>
       <c r="I69" s="10"/>
       <c r="J69" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L69" s="10"/>
       <c r="M69" s="12"/>
@@ -5563,13 +5561,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="58" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>34</v>
@@ -5585,10 +5583,10 @@
       </c>
       <c r="I70" s="10"/>
       <c r="J70" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L70" s="10"/>
       <c r="M70" s="12"/>
@@ -5607,13 +5605,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="58" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>34</v>
@@ -5629,10 +5627,10 @@
       </c>
       <c r="I71" s="10"/>
       <c r="J71" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L71" s="10"/>
       <c r="M71" s="12"/>
@@ -5651,13 +5649,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="58" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>34</v>
@@ -5673,10 +5671,10 @@
       </c>
       <c r="I72" s="10"/>
       <c r="J72" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L72" s="10"/>
       <c r="M72" s="12"/>
@@ -5695,13 +5693,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="58" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>34</v>
@@ -5717,10 +5715,10 @@
       </c>
       <c r="I73" s="10"/>
       <c r="J73" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L73" s="10"/>
       <c r="M73" s="12"/>
@@ -5739,13 +5737,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="58" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>34</v>
@@ -5761,10 +5759,10 @@
       </c>
       <c r="I74" s="10"/>
       <c r="J74" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L74" s="10"/>
       <c r="M74" s="12"/>
@@ -5783,13 +5781,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="58" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>34</v>
@@ -5805,10 +5803,10 @@
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L75" s="10"/>
       <c r="M75" s="12"/>
@@ -5827,13 +5825,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="58" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>34</v>
@@ -5849,10 +5847,10 @@
       </c>
       <c r="I76" s="10"/>
       <c r="J76" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L76" s="10"/>
       <c r="M76" s="12"/>
@@ -5871,13 +5869,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="58" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>34</v>
@@ -5893,10 +5891,10 @@
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L77" s="10"/>
       <c r="M77" s="12"/>
@@ -5915,13 +5913,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="58" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>34</v>
@@ -5937,10 +5935,10 @@
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L78" s="10"/>
       <c r="M78" s="12"/>
@@ -5959,13 +5957,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="58" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>34</v>
@@ -5981,10 +5979,10 @@
       </c>
       <c r="I79" s="10"/>
       <c r="J79" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L79" s="10"/>
       <c r="M79" s="12"/>
@@ -6003,13 +6001,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="58" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>34</v>
@@ -6025,10 +6023,10 @@
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L80" s="10"/>
       <c r="M80" s="12"/>
@@ -6047,13 +6045,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="58" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>34</v>
@@ -6069,10 +6067,10 @@
       </c>
       <c r="I81" s="10"/>
       <c r="J81" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L81" s="10"/>
       <c r="M81" s="12"/>
@@ -6091,13 +6089,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="58" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>34</v>
@@ -6113,10 +6111,10 @@
       </c>
       <c r="I82" s="10"/>
       <c r="J82" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L82" s="10"/>
       <c r="M82" s="12"/>
@@ -6135,13 +6133,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="58" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>34</v>
@@ -6157,10 +6155,10 @@
       </c>
       <c r="I83" s="10"/>
       <c r="J83" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L83" s="10"/>
       <c r="M83" s="12"/>
@@ -6179,13 +6177,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="58" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>34</v>
@@ -6201,10 +6199,10 @@
       </c>
       <c r="I84" s="10"/>
       <c r="J84" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L84" s="10"/>
       <c r="M84" s="12"/>
@@ -6223,13 +6221,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="58" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>34</v>
@@ -6245,10 +6243,10 @@
       </c>
       <c r="I85" s="10"/>
       <c r="J85" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L85" s="10"/>
       <c r="M85" s="12"/>
@@ -6267,13 +6265,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="58" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>34</v>
@@ -6289,10 +6287,10 @@
       </c>
       <c r="I86" s="10"/>
       <c r="J86" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K86" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L86" s="10"/>
       <c r="M86" s="12"/>
@@ -6311,13 +6309,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="58" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>34</v>
@@ -6333,10 +6331,10 @@
       </c>
       <c r="I87" s="10"/>
       <c r="J87" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L87" s="10"/>
       <c r="M87" s="12"/>
@@ -6355,13 +6353,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="58" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>34</v>
@@ -6377,10 +6375,10 @@
       </c>
       <c r="I88" s="10"/>
       <c r="J88" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L88" s="10"/>
       <c r="M88" s="12"/>
@@ -6399,13 +6397,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="58" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C89" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>34</v>
@@ -6421,10 +6419,10 @@
       </c>
       <c r="I89" s="10"/>
       <c r="J89" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K89" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L89" s="10"/>
       <c r="M89" s="12"/>
@@ -6443,13 +6441,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="58" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C90" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>34</v>
@@ -6465,13 +6463,13 @@
       </c>
       <c r="I90" s="10"/>
       <c r="J90" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L90" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M90" s="12" t="s">
         <v>48</v>
@@ -6491,13 +6489,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>34</v>
@@ -6513,13 +6511,13 @@
       </c>
       <c r="I91" s="10"/>
       <c r="J91" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K91" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L91" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M91" s="12" t="s">
         <v>48</v>
@@ -6539,13 +6537,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E92" s="10" t="s">
         <v>34</v>
@@ -6561,13 +6559,13 @@
       </c>
       <c r="I92" s="10"/>
       <c r="J92" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K92" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L92" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M92" s="12" t="s">
         <v>48</v>
@@ -6587,32 +6585,32 @@
         <v>92</v>
       </c>
       <c r="B93" s="32" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F93" s="11">
         <v>42625</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H93" s="11">
         <v>42634</v>
       </c>
       <c r="I93" s="10"/>
       <c r="J93" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K93" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L93" s="10"/>
       <c r="M93" s="12"/>
@@ -6624,7 +6622,7 @@
       <c r="Q93" s="30"/>
       <c r="R93" s="30"/>
       <c r="S93" s="47" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="T93" s="36"/>
     </row>
@@ -6633,32 +6631,32 @@
         <v>93</v>
       </c>
       <c r="B94" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D94" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="E94" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>264</v>
       </c>
       <c r="F94" s="11">
         <v>42625</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H94" s="11">
         <v>42634</v>
       </c>
       <c r="I94" s="10"/>
       <c r="J94" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K94" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L94" s="12"/>
       <c r="M94" s="12"/>
@@ -6670,7 +6668,7 @@
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
       <c r="S94" s="47" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="T94" s="8"/>
     </row>
@@ -6679,35 +6677,35 @@
         <v>94</v>
       </c>
       <c r="B95" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D95" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="C95" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>268</v>
-      </c>
       <c r="E95" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F95" s="11">
         <v>42629</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H95" s="11">
         <v>42634</v>
       </c>
       <c r="I95" s="10"/>
       <c r="J95" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K95" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L95" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M95" s="12"/>
       <c r="N95" s="11"/>
@@ -6725,35 +6723,35 @@
         <v>95</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F96" s="11">
         <v>42630</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H96" s="11">
         <v>42635</v>
       </c>
       <c r="I96" s="10"/>
       <c r="J96" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L96" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M96" s="12"/>
       <c r="N96" s="11"/>
@@ -7848,8 +7846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7929,7 +7927,7 @@
         <v>31</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>14</v>
@@ -7940,40 +7938,40 @@
         <v>1</v>
       </c>
       <c r="B4" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="E4" s="22" t="s">
         <v>108</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>110</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>98</v>
       </c>
       <c r="G4" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="K4" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="I4" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>114</v>
-      </c>
       <c r="M4" s="24" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="20" customFormat="1" ht="33" x14ac:dyDescent="0.15">
@@ -7996,25 +7994,25 @@
         <v>98</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="I5" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="K5" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="K5" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="48" t="s">
-        <v>101</v>
-      </c>
       <c r="M5" s="48" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="20" customFormat="1" ht="66" x14ac:dyDescent="0.15">
@@ -8031,31 +8029,31 @@
         <v>93</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F6" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="H6" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="49" t="s">
-        <v>274</v>
-      </c>
-      <c r="H6" s="48" t="s">
+      <c r="I6" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="K6" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="M6" s="49" t="s">
         <v>104</v>
-      </c>
-      <c r="J6" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="K6" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="L6" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="M6" s="49" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8063,35 +8061,35 @@
         <v>4</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I7" s="22" t="s">
         <v>35</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M7" s="22"/>
     </row>
@@ -8101,10 +8099,10 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JE1:JE7 WVQ1:WVQ7 WLU1:WLU7 WBY1:WBY7 VSC1:VSC7 VIG1:VIG7 UYK1:UYK7 UOO1:UOO7 UES1:UES7 TUW1:TUW7 TLA1:TLA7 TBE1:TBE7 SRI1:SRI7 SHM1:SHM7 RXQ1:RXQ7 RNU1:RNU7 RDY1:RDY7 QUC1:QUC7 QKG1:QKG7 QAK1:QAK7 PQO1:PQO7 PGS1:PGS7 OWW1:OWW7 ONA1:ONA7 ODE1:ODE7 NTI1:NTI7 NJM1:NJM7 MZQ1:MZQ7 MPU1:MPU7 MFY1:MFY7 LWC1:LWC7 LMG1:LMG7 LCK1:LCK7 KSO1:KSO7 KIS1:KIS7 JYW1:JYW7 JPA1:JPA7 JFE1:JFE7 IVI1:IVI7 ILM1:ILM7 IBQ1:IBQ7 HRU1:HRU7 HHY1:HHY7 GYC1:GYC7 GOG1:GOG7 GEK1:GEK7 FUO1:FUO7 FKS1:FKS7 FAW1:FAW7 ERA1:ERA7 EHE1:EHE7 DXI1:DXI7 DNM1:DNM7 DDQ1:DDQ7 CTU1:CTU7 CJY1:CJY7 CAC1:CAC7 BQG1:BQG7 BGK1:BGK7 AWO1:AWO7 AMS1:AMS7 ACW1:ACW7 TA1:TA7 I1:I3 I5:I6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JE1:JE7 WVQ1:WVQ7 WLU1:WLU7 WBY1:WBY7 VSC1:VSC7 VIG1:VIG7 UYK1:UYK7 UOO1:UOO7 UES1:UES7 TUW1:TUW7 TLA1:TLA7 TBE1:TBE7 SRI1:SRI7 SHM1:SHM7 RXQ1:RXQ7 RNU1:RNU7 RDY1:RDY7 QUC1:QUC7 QKG1:QKG7 QAK1:QAK7 PQO1:PQO7 PGS1:PGS7 OWW1:OWW7 ONA1:ONA7 ODE1:ODE7 NTI1:NTI7 NJM1:NJM7 MZQ1:MZQ7 MPU1:MPU7 MFY1:MFY7 LWC1:LWC7 LMG1:LMG7 LCK1:LCK7 KSO1:KSO7 KIS1:KIS7 JYW1:JYW7 JPA1:JPA7 JFE1:JFE7 IVI1:IVI7 ILM1:ILM7 IBQ1:IBQ7 HRU1:HRU7 HHY1:HHY7 GYC1:GYC7 GOG1:GOG7 GEK1:GEK7 FUO1:FUO7 FKS1:FKS7 FAW1:FAW7 ERA1:ERA7 EHE1:EHE7 DXI1:DXI7 DNM1:DNM7 DDQ1:DDQ7 CTU1:CTU7 CJY1:CJY7 CAC1:CAC7 BQG1:BQG7 BGK1:BGK7 AWO1:AWO7 AMS1:AMS7 ACW1:ACW7 TA1:TA7 I1:I3">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F7 JB4:JB7 SX4:SX7 ACT4:ACT7 AMP4:AMP7 AWL4:AWL7 BGH4:BGH7 BQD4:BQD7 BZZ4:BZZ7 CJV4:CJV7 CTR4:CTR7 DDN4:DDN7 DNJ4:DNJ7 DXF4:DXF7 EHB4:EHB7 EQX4:EQX7 FAT4:FAT7 FKP4:FKP7 FUL4:FUL7 GEH4:GEH7 GOD4:GOD7 GXZ4:GXZ7 HHV4:HHV7 HRR4:HRR7 IBN4:IBN7 ILJ4:ILJ7 IVF4:IVF7 JFB4:JFB7 JOX4:JOX7 JYT4:JYT7 KIP4:KIP7 KSL4:KSL7 LCH4:LCH7 LMD4:LMD7 LVZ4:LVZ7 MFV4:MFV7 MPR4:MPR7 MZN4:MZN7 NJJ4:NJJ7 NTF4:NTF7 ODB4:ODB7 OMX4:OMX7 OWT4:OWT7 PGP4:PGP7 PQL4:PQL7 QAH4:QAH7 QKD4:QKD7 QTZ4:QTZ7 RDV4:RDV7 RNR4:RNR7 RXN4:RXN7 SHJ4:SHJ7 SRF4:SRF7 TBB4:TBB7 TKX4:TKX7 TUT4:TUT7 UEP4:UEP7 UOL4:UOL7 UYH4:UYH7 VID4:VID7 VRZ4:VRZ7 WBV4:WBV7 WLR4:WLR7 WVN4:WVN7">
@@ -9037,40 +9035,40 @@
         <v>1</v>
       </c>
       <c r="B4" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="E4" s="22" t="s">
         <v>108</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>110</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>98</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>35</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9078,35 +9076,35 @@
         <v>2</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M5" s="22"/>
     </row>
@@ -9130,25 +9128,25 @@
         <v>98</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I6" s="48" t="s">
         <v>35</v>
       </c>
       <c r="J6" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="L6" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="K6" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="L6" s="48" t="s">
-        <v>101</v>
-      </c>
       <c r="M6" s="48" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="20" customFormat="1" ht="66" x14ac:dyDescent="0.15">
@@ -9165,31 +9163,31 @@
         <v>93</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F7" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="H7" s="48" t="s">
         <v>102</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>277</v>
-      </c>
-      <c r="H7" s="48" t="s">
-        <v>103</v>
       </c>
       <c r="I7" s="48" t="s">
         <v>35</v>
       </c>
       <c r="J7" s="48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K7" s="48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L7" s="48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M7" s="49" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10184,7 +10182,7 @@
         <v>31</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>14</v>
@@ -10195,40 +10193,40 @@
         <v>1</v>
       </c>
       <c r="B4" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="E4" s="22" t="s">
         <v>108</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>110</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>98</v>
       </c>
       <c r="G4" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="K4" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="I4" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>114</v>
-      </c>
       <c r="M4" s="24" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10236,35 +10234,35 @@
         <v>2</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M5" s="22"/>
     </row>
